--- a/EUvsVirus/output/Q3.xlsx
+++ b/EUvsVirus/output/Q3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Title</t>
   </si>
@@ -37,91 +37,98 @@
     <t>Search_words</t>
   </si>
   <si>
+    <t>Antimicrobial prescribing in Australian hospitals; antimicrobial choice and indications for inappropriate prescribing</t>
+  </si>
+  <si>
+    <t>Calves Escherichia coli</t>
+  </si>
+  <si>
+    <t>Improving the wind environment in high-density cities by understanding urban morphology and surface roughness: A study in Hong Kong</t>
+  </si>
+  <si>
     <t>Web GIS in practice III: creating a simple interactive map of England's Strategic Health Authorities using Google Maps API, Google Earth KML, and MSN Virtual Earth Map Control</t>
   </si>
   <si>
-    <t>Improving the wind environment in high-density cities by understanding urban morphology and surface roughness: A study in Hong Kong</t>
-  </si>
-  <si>
-    <t>Calves Escherichia coli</t>
-  </si>
-  <si>
-    <t>A 2D graphical representation of the sequences of DNA based on triplets and its application</t>
-  </si>
-  <si>
-    <t>Solid supported lipid bilayers: From biophysical studies to sensor design</t>
-  </si>
-  <si>
     <t>Concept mapping as pre-task planning: A case study of three Japanese ESL writers</t>
   </si>
   <si>
-    <t>Weekly ILI patient ratio change prediction using news articles with support vector machine</t>
+    <t>Understanding the legal trade of cattle and camels and the derived risk of Rift Valley Fever introduction into and transmission within Egypt</t>
+  </si>
+  <si>
+    <t>Towards evidence-based, GIS-driven national spatial health information infrastructure and surveillance services in the United Kingdom</t>
   </si>
   <si>
     <t>Descriptive review of geographic mapping of severe acute respiratory syndrome (SARS) on the Internet</t>
   </si>
   <si>
-    <t>International Journal of Health Geographics Musings on privacy issues in health research involving disaggregate geographic data about individuals</t>
-  </si>
-  <si>
-    <t>Systems Integration of Biodefense Omics Data for Analysis of Pathogen-Host Interactions and Identification of Potential Targets</t>
+    <t>Social big data: Recent achievements and new challenges</t>
+  </si>
+  <si>
+    <t>Van Metre DC. Sodium balance and the dysnatremias</t>
+  </si>
+  <si>
+    <t>867ebb2be2d466bcb35e5a7319708eaff39c4799</t>
+  </si>
+  <si>
+    <t>cdde0ab46f6f3238c17c8d23c2e6b7bbfe75f9c4</t>
+  </si>
+  <si>
+    <t>8bebe89ae7eb2ad70096f06e7aa5140cad8acbf5</t>
   </si>
   <si>
     <t>29d776d7a6f03cf59887534629dcbe5014f09aed</t>
   </si>
   <si>
-    <t>8bebe89ae7eb2ad70096f06e7aa5140cad8acbf5</t>
-  </si>
-  <si>
-    <t>cdde0ab46f6f3238c17c8d23c2e6b7bbfe75f9c4</t>
-  </si>
-  <si>
-    <t>5bc5b2f9dee2ff454efe226384070d467112e25d</t>
-  </si>
-  <si>
-    <t>3a3e198cbe67ce978e0dce373da4d21b3a7b3fd3</t>
-  </si>
-  <si>
     <t>c52de01033f30ce8a25edc10e1109fe3d5a8bbba</t>
   </si>
   <si>
-    <t>d9fa99532407c6f68ffa719e321870586363c18a</t>
+    <t>5b470094ead1416c283ca042644ac1061103b101</t>
+  </si>
+  <si>
+    <t>06559dd625491d6474ee88f08c12fc17c1830995</t>
   </si>
   <si>
     <t>d81ae79ebc6462fd3de075e220992f1aae1f06ae</t>
   </si>
   <si>
-    <t>e296fa71274bad6cabcf683a2ba47e58b1326877</t>
-  </si>
-  <si>
-    <t>561bde3336a2cd2006251effb54e5428c4edf3b9</t>
+    <t>85931c154d726d61ef2ab2804a9c42e9d41108f5</t>
+  </si>
+  <si>
+    <t>36f0ce11b61edc9a0eb039d08bc0e0d86b5f575b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodney James, Kirsty Buising, Karin Thursky </t>
+  </si>
+  <si>
+    <t>Simon F Peek, Sheila M Mcguirk, Raymond W Sweeney, Kevin J Cummings</t>
+  </si>
+  <si>
+    <t>Edward Ng, Chao Yuan, Liang Chen, Chao Ren, Jimmy C H Fung</t>
   </si>
   <si>
     <t>Maged N Kamel Boulos, Email : Maged, Kamel Boulos, -M N K Ac Boulos@bath,  Uk</t>
   </si>
   <si>
-    <t>Edward Ng, Chao Yuan, Liang Chen, Chao Ren, Jimmy C H Fung</t>
-  </si>
-  <si>
-    <t>Simon F Peek, Sheila M Mcguirk, Raymond W Sweeney, Kevin J Cummings</t>
-  </si>
-  <si>
-    <t>Sai Zou, Lei Wang, Junfeng Wang</t>
-  </si>
-  <si>
-    <t>Edward T Castellana, Paul S Cremer</t>
-  </si>
-  <si>
     <t>Maki Ojima</t>
   </si>
   <si>
-    <t>Juhyeon Kim, Insung Ahn</t>
-  </si>
-  <si>
-    <t>Open Access, Maged N Kamel Boulos, Andrew J Curtis, Philip Abdelmalik</t>
-  </si>
-  <si>
-    <t>P B Mcgarvey, H Huang, R Mazumder, J Zhang, Y Chen</t>
+    <t>Sebastian Napp, Veronique Chevalier, Nú Ria Busquets, Paolo Calistri, Jordi Casal, Mohamed Attia, Rehab Elbassal, Heba Hosni, Hatem Farrag, Noura Hassan, Rasha Tawfik, Sohair Abd Elkader, Shahin Bayomy</t>
+  </si>
+  <si>
+    <t>Gema Bello-Orgaz, Jason J Jung, David Camacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Med, H J Androgue, N E Madias,  Hyponatremia, S R Byers, A S Lear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+publicly funded repositories, such as the WHO COVID database with rights for unrestricted research re-use and analyses in any form or by any means with acknowledgement of the original source. These permissions are granted for free by Elsevier for as long as the COVID-19 resource centre remains active.Propensity-score matched analysis comparing clinical benefits of antimicrobial de-escalation and non-switch in adults with community-onset monomicrobial Escherichia coli, Klebsiella species, and Proteus mirabilis bacteremia
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+In this study, a high-resolution frontal area density (FAD) map that depicts the surface roughness of urban Hong Kong is produced using a mapping method that takes into account the dense urban morphology and the site wind availability of the territory. Using the MM5/CALMET model simulated wind data of Hong Kong, the FAD map of three urban zones are calculated: podium (0-15 m), building (15-60 m), and urban canopy (0-60 m). The wind tunnel test data is used to correlate the FAD understanding of the three zones. The grid sensitivity test indicates that 200 m × 200 m is the reasonable resolution for the FAD map; the test also establishes that the lower urban podium zone yields the best correlation with the experimental data. The study further establishes that the simpler two-dimensional ground coverage ratio (GCR), which is readily available in the planning circle, can be used to predict the area's average pedestrian level urban ventilation performance of the city. Working with their inhouse GIS team using available data, it allows the planners a way to understand the urban ventilation of the city for decisions related to air paths, urban permeability and site porosity.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
@@ -130,27 +137,17 @@
   </si>
   <si>
     <t xml:space="preserve">Abstract
-In this study, a high-resolution frontal area density (FAD) map that depicts the surface roughness of urban Hong Kong is produced using a mapping method that takes into account the dense urban morphology and the site wind availability of the territory. Using the MM5/CALMET model simulated wind data of Hong Kong, the FAD map of three urban zones are calculated: podium (0-15 m), building (15-60 m), and urban canopy (0-60 m). The wind tunnel test data is used to correlate the FAD understanding of the three zones. The grid sensitivity test indicates that 200 m × 200 m is the reasonable resolution for the FAD map; the test also establishes that the lower urban podium zone yields the best correlation with the experimental data. The study further establishes that the simpler two-dimensional ground coverage ratio (GCR), which is readily available in the planning circle, can be used to predict the area's average pedestrian level urban ventilation performance of the city. Working with their inhouse GIS team using available data, it allows the planners a way to understand the urban ventilation of the city for decisions related to air paths, urban permeability and site porosity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-In this paper, we first present a new concept of 'weight' for 64 triplets and define a different weight for each kind of triplet. Then, we give a novel 2D graphical representation for DNA sequences, which can transform a DNA sequence into a plot set to facilitate quantitative comparisons of DNA sequences. Thereafter, associating with a newly designed measure of similarity, we introduce a novel approach to make similarities/dissimilarities analysis of DNA sequences. Finally, the applications in similarities/dissimilarities analysis of the complete coding sequences of β-globin genes of 11 species illustrate the utilities of our newly proposed method.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-The lipid bilayer is one of the most eloquent and important self-assembled structures in nature. It not only provides a protective container for cells and sub-cellular compartments, but also hosts much of the machinery for cellular communication and transport across the cell membrane. Solid supported lipid bilayers provide an excellent model system for studying the surface chemistry of the cell. Moreover, they are accessible to a wide variety of surface-specific analytical techniques. This makes it possible to investigate processes such as cell signaling, ligand-receptor interactions, enzymatic reactions occurring at the cell surface, as well as pathogen attack. In this review, the following membrane systems are discussed: black lipid membranes, solid supported lipid bilayers, hybrid lipid bilayers, and polymer cushioned lipid bilayers. Examples of how supported lipid membrane technology is interfaced with array based systems by photolithographic patterning, spatial addressing, microcontact printing, and microfluidic patterning are explored. Also, the use of supported lipid bilayers in microfluidic devices for the development of lab-on-a-chip based platforms is examined. Finally, the utility of lipid bilayers in nanotechnology and future directions in this area are discussed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
 The majority of research to date on pre-task planning has investigated the impact of planning time on L2 learners' oral production, and has generally reported its positive effects on their task performance. However, little research on planning has been conducted in writing contexts, and there is no firm evidence to demonstrate that pre-task planning promotes L2 learners' written production in the ways that many researchers have reported for L2 speaking contexts. In this paper, I have explored whether and how concept mapping as a form of pre-task planning could benefit the writing performance of three Japanese ESL learners. I analysed four compositions from each of the learners, written with and without concept mapping; using measures of accuracy, complexity, fluency and [Hamp-Lyons, L., 1991. Reconstructing ''Academic writing proficiency''. In: Hamp-Lyons, L. (Ed.), Assessing second language writing in academic contexts. Ablex, Norwood, NJ, pp. 127-153.] holistic measures of global quality, communicative quality, organisation, argumentation, linguistic accuracy, and linguistic appropriacy. I also examined through a questionnaire, retrospective interview, and logs, the learners' applications of the strategy in their writing processes. Pre-task planning was associated positively with the overall measures of the learners' written production during in-class compositions, with the exception of accuracy. Moreover, each learner made unique applications of the concept mapping strategy in their writing processes, suggesting that concept mapping may help ESL learners improve their composing but in ways unique to individual experience, motivation, and task conditions.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Background: Influenza continues to pose a serious threat to human health worldwide. For this reason, detecting influenza infection patterns is critical. However, as the epidemic spread of influenza occurs sporadically and rapidly, it is not easy to estimate the future variance of influenza virus infection. Furthermore, accumulating influenza related data is not easy, because the type of data that is associated with influenza is very limited. For these reasons, identifying useful data and building a prediction model with these data are necessary steps toward predicting if the number of patients will increase or decrease. On the Internet, numerous press releases are published every day that reflect currently pending issues. the predictive ability of article text data from the period of 2013-2018 for each of the weekly time horizons. The support vector machine (SVM) model was used for prediction in order to examine the use of information embedded in the web articles and detect the pattern of influenza spread variance. The prediction result using news text data with SVM exhibited a mean accuracy of 86.7 % on predicting whether weekly ILI patient ratio would increase or decrease, and a root mean square error of 0.611 on estimating the weekly ILI patient ratio. Conclusions: In order to remedy the problems of conventional data, using news articles can be a suitable choice, because they can help estimate if ILI patient ratio will increase or decrease as well as how many patients will be affected, as shown in the result of research. Thus, advancements in research on using news articles for influenza prediction should continue to be pursed, as the result showed acceptable performance as compared to existing influenza prediction researches.
+Rift Valley Fever (RVF) is a mosquito-borne zoonosis, which may cause significant losses for the livestock sector and have serious public health implications. Egypt has been repeatedly affected by RVF epidemics, mainly associated to the importation of animals from sub-Saharan countries, where the disease is endemic. The objective of our study was the improvement of the surveillance and control strategies implemented in Egypt. In order to do that, first we evaluated the legal trade of live animals into and within Egypt. Then, we assessed the risk of Rift Valley Fever virus (RVFV) transmission within the country using a multi-criteria evaluation approach. Finally, we combined the animal trade and the risk of RVFV transmission data to identify those areas and periods in which the introduction of RVFV is more likely. Our results indicate that the main risk of RVFV introduction is posed by the continuous flow of large number of camels coming from Sudan. The risk of RVFV transmission by vectors is restricted to the areas surrounding the Nile river, and does not vary significantly throughout the year. Imported camels are taken to quarantines, where the risk of RVFV transmission by vectors is generally low. Then, they are taken to animal markets or slaughterhouses, many located in populated areas, where the risk of RVFV transmission to animals or humans is much higher. The measures currently implemented (quarantines, vaccination or testing) seem to have a limited effect in reducing the risk of RVFV introduction, and therefore other (risk-based) surveillance strategies are proposed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+The term "Geographic Information Systems" (GIS) has been added to MeSH in 2003, a step reflecting the importance and growing use of GIS in health and healthcare research and practices. GIS have much more to offer than the obvious digital cartography (map) functions. From a community health perspective, GIS could potentially act as powerful evidence-based practice tools for early problem detection and solving. When properly used, GIS can: inform and educate (professionals and the public); empower decision-making at all levels; help in planning and tweaking clinically and cost-effective actions, in predicting outcomes before making any financial commitments and ascribing priorities in a climate of finite resources; change practices; and continually monitor and analyse changes, as well as sentinel events. Yet despite all these potentials for GIS, they remain under-utilised in the UK National Health Service (NHS). This paper has the following objectives: (1) to illustrate with practical, real-world scenarios and examples from the literature the different GIS methods and uses to improve community health and healthcare practices, e.g., for improving hospital bed availability, in community health and bioterrorism surveillance services, and in the latest SARS outbreak; (2) to discuss challenges and problems currently hindering the wide-scale adoption of GIS across the NHS; and (3) to identify the most important requirements and ingredients for addressing these challenges, and realising GIS potential within the NHS, guided by related initiatives worldwide. The ultimate goal is to illuminate the road towards implementing a comprehensive national, multi-agency spatio-temporal health information infrastructure functioning proactively in real time. The concepts and principles presented in this paper can be also applied in other countries, and on regional (e.g., European Union) and global levels.
 </t>
   </si>
   <si>
@@ -160,73 +157,68 @@
   </si>
   <si>
     <t xml:space="preserve">Abstract
-This paper offers a state-of-the-art overview of the intertwined privacy, confidentiality, and security issues that are commonly encountered in health research involving disaggregate geographic data about individuals. Key definitions are provided, along with some examples of actual and potential security and confidentiality breaches and related incidents that captured mainstream media and public interest in recent months and years. The paper then goes on to present a brief survey of the research literature on location privacy/confidentiality concerns and on privacy-preserving solutions in conventional health research and beyond, touching on the emerging privacy issues associated with online consumer geoinformatics and location-based services. The 'missing ring' (in many treatments of the topic) of data security is also discussed. Personal information and privacy legislations in two countries, Canada and the UK, are covered, as well as some examples of recent research projects and events about the subject. Select highlights from a June 2009 URISA (Urban and Regional Information Systems Association) workshop entitled 'Protecting Privacy and Confidentiality of Geographic Data in Health Research' are then presented. The paper concludes by briefly charting the complexity of the domain and the many challenges associated with it, and proposing a novel, 'one stop shop' case-based reasoning framework to streamline the provision of clear and individualised guidance for the design and approval of new research projects (involving geographical identifiers about individuals), including crisp recommendations on which specific privacy-preserving solutions and approaches would be suitable in each case.
+Big data has become an important issue for a large number of research areas such as data mining, machine learning, computational intelligence, information fusion, the semantic Web, and social networks. The rise of different big data frameworks such as Apache Hadoop and, more recently, Spark, for massive data processing based on the MapReduce paradigm has allowed for the efficient utilisation of data mining methods and machine learning algorithms in different domains. A number of libraries such as Mahout and SparkMLib have been designed to develop new efficient applications based on machine learning algorithms. The combination of big data technologies and traditional machine learning algorithms has generated new and interesting challenges in other areas as social media and social networks. These new challenges are focused mainly on problems such as data processing, data storage, data representation, and how data can be used for pattern mining, analysing user behaviours, and visualizing and tracking data, among others. In this paper, we present a revision of the new methodologies that is designed to allow for efficient data mining and information fusion from social media and of the new applications and frameworks that are currently appearing under the "umbrella" of the social networks, social media and big data paradigms. (D. Camacho). petabytes (and even exabytes) in size, and the massive sizes of these datasets extend beyond the ability of average database software tools to capture, store, manage, and analyse them effectively.The concept of big data has been defined through the 3V model, which was defined in 2001 by Laney [5] as: "high-volume, highvelocity and high-variety information assets that demand cost-effective, innovative forms of information processing for enhanced insight and decision making". More recently, in 2012, Gartner [6] updated the definition as follows: "Big data is high volume, high velocity, and/or high variety information assets that require new forms of processing to enable enhanced decision making, insight discovery and process optimization". Both definitions refer to the three basic features of big data: Volume, Variety, and Velocity. Other organisations, and big data practitioners (e.g., researchers, engineers, and so on), have extended this 3V model to a 4V model by including a new "V": Value [7] . This model can be even extended to 5Vs if the concepts of Veracity is incorporated into the big data definition.Summarising, this set of * V-models provides a straightforward and widely accepted definition related to what is (and what is not) a big-data-based problem, application, software, or framework. These concepts can be briefly described as follows [5,7]:• Volume: refers to large amounts of any kind of data from any different sources, including mobile digital data creation devices and digital devices. The benefit from gathering, processing, and analysing these large amounts of data generates a number http://dx.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Abstract
-The NIAID (National Institute for Allergy and Infectious Diseases) Biodefense Proteomics program aims to identify targets for potential vaccines, therapeutics, and diagnostics for agents of concern in bioterrorism, including bacterial, parasitic, and viral pathogens. The program includes seven Proteomics Research Centers, generating diverse types of pathogen-host data, including mass spectrometry, microarray transcriptional profiles, protein interactions, protein structures and biological reagents. The Biodefense Resource Center (www.proteomicsresource.org) has developed a bioinformatics framework, employing a protein-centric approach to integrate and support mining and analysis of the large and heterogeneous data. Underlying this approach is a data warehouse with comprehensive protein + gene identifier and name mappings and annotations extracted from over 100 molecular databases. Value-added annotations are provided for key proteins from experimental findings using controlled vocabulary. The availability of pathogen and host omics data in an integrated framework allows global analysis of the data and comparisons across different experiments and organisms, as illustrated in several case studies presented here. (1) The identification of a hypothetical protein with differential gene and protein expressions in two host systems (mouse macrophage and human HeLa cells) infected by different bacterial (Bacillus anthracis and Salmonella typhimurium) and viral (orthopox) pathogens suggesting that this protein can be prioritized for additional analysis and functional characterization. (2) The analysis of a vaccinia-human protein interaction network supplemented with protein accumulation levels led to the identification of human Keratin, type II cytoskeletal 4 protein as a potential therapeutic target. (3) Comparison of complete genomes from pathogenic variants coupled with experimental information on complete proteomes allowed the identification and prioritization of ten potential diagnostic targets from Bacillus anthracis. The integrative analysis across data sets from multiple centers can reveal potential functional significance and hidden relationships between pathogen and host proteins, thereby providing a systems approach to basic understanding of pathogenicity and target identification.
-</t>
+    <t>['PS 004\n\nShould we continue to implement contact precautions and environmental cleaning for MRSA Hui-Yun Liang 1 , Iig-Ling Chen 1 , Hung-Jen Tang 1,2,3 *.', 'For the first isolated of MRSA patient must immediately check the use of antibiotics and related medical behavior, and the unit who isolated of MRSA to the hand hygiene audit, environment cleaning and disinfection of the joint inspection when the patient was discharged.', 'Conclusion: Through the continuous monitoring of the trend of drug resistance distribution at the same time prudent use of antibiotics and the use of antibiotics stewardship, the most important thing is to implement contact isolation, hand hygiene and medical environment, such as cleaning and disinfection of infection control measures, Reduce the transmission of drugresistant bacteria.', 'The drug sensitivity of S. maltophilia should be monitored and analyzed to assist the clinical Physicians choose a reasonable treatment of antibiotics.The ward environment cleaning monitoring took 13 months, the results showed even cleaning and disinfection have been implemented, MDRO still exists in the ward environment.', 'Thus, we provided sanitary unit these data for educational training and ask them to improve their practice on environment cleaning.', 'Besides, Table 1 also showed non-high-risk ward sections was free from MDRO, indicating high-risk ward sections should be regularly monitored, and supervised implementation of environment cleaning and disinfection to ensure better cleanliness in hospital environment and better healthcare quality.Our evaluation provide the surfaces with fluorescent marker totally cleaning could offer objective standards for hospital cleanliness.', 'Methods: We compared (i) the rate of dissolution (by experienced nurses), (ii) the coloring (spectrophotometry) and degradation (LC-MS-MS) over ward storage of the original meropenem (MERONEM ® ; AstraZeneca) vs. 4 generics of meropenem authorized in Belgium, France and/or Spain (Sandoz, Hospira, Fresenius-Kabi, Aurovit).', 'Results: CBH with improved catalytic and kinetic characteristics is a matter of utmost importance to withstand the current robust industrial environment.', 'The ion in the mixed solution, zinc ions can be degraded by this strain.', 'Many regulatory mechanisms have been evolved for bacteria to adapt to changes of diverse environments.', 'The skin lesions resolved a few weeks after initiating the combination treatment, and repeat Ga scan and chest CT demonstrated resolution of lymphadenopathy, but follow up ESR and CRP levels were still high after anti-NTM treatment for a total of 18 months.', 'Results: The complete blood counts with differential count and platelet count, blood cultures, blood chemistries, ESR, CRP, urinary analysis, purified protein derivative skin test, abdominal sonography, chest radiograph and high resolution computed tomography of the chest revealed unremarkable findings.', 'Mycobacterium haemophilum is belonging to the group of NTM, which frequently found in environmental habitats, and known to cause cutaneous and subcutaneous infections.', 'PS 111\n\nUsing a new method to culture the C. difficile from environment Chih-Chen Lin 1,2 , Chang-Pan Liu 1,2 , Fu-Chieh Chang 1 .', 'So, if we had a efficient method that can culture this bacterium from environment, it would be useful for infection control.', 'We collected the sample from the environment that CDI patient used before.', 'Results: In this study, we collected 12 sample from the environment.', '1 Infection Control Center, Taichung Veterans General Hospital, Taichung, Taiwan, 2 Nursing Department, Taichung Veterans General Hospital, Taichung, Taiwan Background: The cleaning and disinfection of contaminated equipment and environment are essential for the prevention of healthcare-associated infections.', 'The most common chemical used to clean the hospital environment is bleach (sodium hypochlorite).', 'PS 132\n\nCould the HOCl as a high level disinfection solution for environment cleaning Wen-Jun Yeh 1 , Fu-Chieh Chang 1 , Ya-Ling Chen 1 , Chang-Pan Liu 1,2 , Nan-Chang Chiu 3 , Hsin Chi 3 .', 'Before the terminal disinfection, we collect the sample from environment.', 'Then we used the HOCl as a high level disinfection solution to cleaning and disinfection.', 'After that, we still collected the sample from the environment then culture it.', 'Otherwise, the culture positive ratio of chlorine solution was 21% before this study.', 'But the price of HOCl are higher than chlorine solution.', 'Conclusion: In this study, the HOCl solution function were not good enough to replace chlorine solution.', "So, according to this study, we didn't suggest the hospital use HOCl solution as a High level disinfection solution for environment Cleaning.", '1 Infection Control Center, MacKay memorial Hospital, 2 Department of Nursing, MacKay memorial Hospital, 3 Department of Infection, MacKay memorial Hospital Background: As we know, the terminal disinfection is very important to prove new patient avoid bacteria from environment.', 'And the chlorine solution had to over 500 ppm for terminal disinfection.', 'So, in this study, we wanted to check if the environment still have Multi-drug resistant organisms after cleaning or not.', 'Then have to check the concentration of the chlorine solution before clean.', 'After the environment is clean to perform a bacteria test.', 'To facilitate environmental clean monitoring.', 'As long as the chemical deployment room environment clean thoroughly And colony culture dish inspection and disposal appropriate.', 'Can get a good environment for the deployment of chemotherapy drugs.', 'PS 137\n\nReducing HAI by implementation of environment clean separation management measures using 4 different color disposable wipes Swee Siang Wong 1 *, Chiu Chu Yang 2 , Yi Pei Hsieh 2 , Chen Ni Kuo 2 , Yi Ru Chen 2 , Li Ching Chen 1 , Ko chung Tsui 1,3,4 , Cheng Hua Huang 1 .', 'Background: Environmental cleaning is a fundamental principle of infection control in healthcare settings.', 'We sought to determine whether implement environment clean separation management measures in a medical intensive care unit (MICU) could reduce the density of healthcare associated infection.', 'Following one month of preintervention phase, implementing education and training for all cleaning staff and related personnel to use environment clean separation management measures by using 4 different color disposable wipes to clean high tough surfaces.', 'The cleaning effect of the MICU environment was measured by using ATP bioluminescence.', 'Within the study period, the value of pass increase from 13% to 53%, the value of fail decrease from 47% to 20%; numerical difference trend of the pass value increase from −7% to 20% and fail value decrease from 13% to −20%, showing the use of different color disposable wipes and the correct wiping method or wiping process can improve the environment cleanliness.', 'Conclusion: Using environment clean separation management measures is effective in cleanliness of MICU environment.', 'Environmental cleaning can reduce transmission of these pathogens but is often inadequate.', 'Conclusions: The Hyper Light P3 device was effective in killing MDR pathogens and could be considered as an adjunctive method in disinfecting hospital environment.', '(3) The environment that the patients worked should enhance cleansing.', 'If there was diarrhea or vomiting, it is important to strengthen environment clean and disinfection.', 'PS 151\n\nThe effectiveness of environmental cleansing to improve infection control of upper respiratory infection in a psychiatric center Yu-Ping Liu 1 , Shiun-Yin Jeng 1 , Huei-Lan Lu 1 , Tso-Jen Wang 1 , Chung-Shin Liao 2 .', '1 Jianan Psychiatric Center, 2 Chang Hua hospital Background: Environmental cleansing was a key point in the prevention of medical care, psychiatric patients generally had poor personal hygiene and habits, therefore while infectious disease occurred, indirect easy to make the environment contaminated by bacteria, when cleaning staff cannot effectively clean the disinfection environment, and contact with the patient with a infectious disease, would increase the medical care-related infections, in order to put an end to the breeding of infectious diseases, environmental cleansing to improve intervention is very important.', 'Environment cleaning intervention was provided for improving, the content included: (1) Education and training: through the video, to strengthen the priority of the clean process, from clean area to the contaminated area, the correct bleach concentration of the way and reply to the effectiveness of teaching acceptance.', "(4) Conducting internal and external audits: audit by the ward staffs and infection control division to understand the cleanliness and implementation of the cleaners' environment.", 'Results: After the improvement of environmental cleanliness, the incidence of upper respiratory tract infection from 2.8‰ down to 2.24‰, cleaning staff also expressed that through the in-service education, unified cleaning appliances and management, can more clearly implement the environmental clean disinfection of the operating process.', 'Conclusion: Environmental improvement can effectively reduce the upper respiratory infection, the in-service education will be included in the cleaning staff in future, to develop cleaners on the environment clean operation process familiarity, and continue to audit the implementation of the situation in order to maintain the best hospital environment clean quality.', 'During the investigation and intervention measurements, we found that reduction of healthcare associated infection can be achieved by improvement of hand hygiene and making sure of environment cleaning.', 'Results: Through the intervention investigation, the daily monitoring of the epidemic and return to the Health Bureau, a comprehensive staff health monitoring log, and the implementation of measures, including strengthening the environment disinfection, unnecessary time should be fully wear masks, strengthen the implementation of hand hygiene.', 'In order to provide a safe medical environment, the Infection control division by monitoring temperature feedback system and daily active surveillance, as soon as possible to find the ward and unit influenza abnormal cluster events and early control of the epidemic.', 'Background: Elizabethkingia meningoseptica is a ubiquitous pathogen that could be found in clinical environment and equipment surfaces.', 'An environmental investigation and infection control measures of outbreak, such as strict hand hygiene, contact isolation and environmental cleaning were conducted.', 'Two additional isolates were cultured from the hospital environment.', 'A blood isolate from one patient was identical to one of the isolates from the medical environment (Cluster 3, Figure 1 ).', 'There was no linkage to the environmental isolates of the other two clusters indicate the possibility of cross transmission by healthcare personnel (Cluster 1 and 2, Figure 1 ).', 'After use of strict cohort nursing, hand hygiene and environmental cleaning, the outbreak was controlled.', 'Our results demonstrate potential transmission of E. meningoseptica via medical environment and person-to-person contact.', "In order to realize the cause for the unusually increased SSI, an outbreak investigation was conducted to analyze the probable factors, including staff's daily work, environment and equipment cleaning, the operation procedures, and post-operation wound care processes.Results: It was found that the concentration of antimicrobial detergent was not enough, the prophylactic antibiotics were not used properly, surgical hand preparation using alcohol-based handrub was not adequate, wound coverage when re-draping was also not proper, alcohol-based hand hygiene equipment was insufficient in the treatment room, and there was no standard procedure for tissue expander injection.", 'Conclusion: This study used ATP bioluminescence assay as an objective and rapid tool to determine the environmental cleanliness and effectively demonstrated a decrease in the rate of surgical site infection caused by the surgical instruments.', 'PS 170\n\nCreating an health environment by the implementation of bundle care for prevention of catheter-associated urinary tract infections at a medical center Hsin-Hsin Chang 1 , Jann-Tay Wang 1,2 , Yee-Chun Chen 1,2 , Wang-Huei Sheng 1,2 .', 'The bundle care emphasized 4C elements: clean practice, clean products, clean equipment, and clean environment.', 'Infection control team immediately responded and investigated environmental survey, the relevant infection control measures was also initiated.', 'Thirty nine of the environmental specimens were negative for S. aureus.', 'Plaque disclosing solution was used to evaluate the amount of plaque.', 'Until normal environmental testing result to begin to surgery.', 'Furthermore, we performed 10 items environmental test, such as ward ground, drainage hole, shifting plate,bathing bed, shared shampoo and bath gel.', 'Besides, environmental sample culture reported Citrobacter koseri in bathing bed, shared shampoo and subpacking bath gel, also.', 'Besides, we emphasized principle and infection control policy of respiratory care ward about equipment, environment and daily care in personnel training.', 'No more Citrobacter koseri related infection was reported and followed environmental tests revealed negative result till now.', 'Transmission of enterobacteriae via equipment and environment should be reminded.', '(5) Make sure cleaning and disinfection of the equipment and environment.', 'Interventions included isolating/ cohorting VRE patients, monthly prevalence surveys of VRE patients, the introduction of an electronic alert system, programmes to improve hand and environmental hygiene, and the appointment of an antibiotic Physician.', 'Conclusion: Strict infection control measures were applied including isolation of infective resident, early rapid test for those with flu symptoms, using mask for all our staff and family members and reinforce hand washing and environmental cleansing.', 'Methods: March 2016 by the nutrition department, infection control center, safety and health room, public affairs room, jade meal company to improve the project team, through the "characteristics of the map" and "true verification" and other quality management practices and tools, establish five issues and set the target pass rate of 100%, and to develop improvement measures (1) the development of equipment, equipment, cleaning and disinfection norms, check the mechanism and training methods, (2) formulate the standard of inspection and operation standards, check the mechanism and training methods, (3) formulate inspection standard operating rules, check the mechanism and training methods, 4. update of water quality filtration equipment, through the above four measures to improve.', 'But, From December 2016 to January 2017, the number of bacteria and more than the standard(100 cfu/ mL), may be due to lack of ice machine pipeline sterilization equipment and ice machine surrounding environment pollution.', 'We increased the frequency of inter-patient environment cleaning including bed, dining table, chair.', 'Continued monitoring of such strains is essential, as well as education on the proper use of biocides and antiseptics to prevent residue remaining in the environment which could act as a facilitator for induction of biocide tolerance.', 'When the patient moves out then implement the disinfection of environmental cleaning and proceed the joint auditing.', 'Solution of intrinsic and acquired antibiotic resistance is a major difficulty of treatment.', 'Therefore, synergistic combination therapy with antibiotics plus TCM could be an effective solution.', 'Conclusion: Intracellular forms of the clinical isolates obtained from patients with persistent infections are significantly less eradicated than the reference strain, suggesting a state of less responsiveness to moxifloxacin in the phagolysosomal environment.', 'Subsequent pathway analysis was also conducted, and T cell receptor signaling pathway, MAPK signaling pathway, TGF-beta signaling pathway, etc.', 'Many regulatory mechanisms have been evolved for bacteria to adapt to changes of diverse environments.', 'Methods: Patient was a 35-year-old male with history of pulmonary tuberculosis (TB) with resolution 9 years ago, but he often had "hemoptysis" since then.', 'Background: The spore-forming microorganism Clostridium difficile enables itself to tolerate the extreme environments, and lots of strains enclose the toxin genes and generate toxins that damage the host and lead to various diseases, from the mild diarrhea to the severe pseudomembrane and megacolon.', 'Division of Infection Diseases, Jen-Ai Hospital -Dali branch Background: Rhodotorula species are common environmental pigmented basidiomycetous yeasts, and also present in skin, nails, and respiratory, gastrointestinal, and urinary tracts in humans.', 'At the same time, contact precaution, antibiotic evaluation, and environmental cleaning rules establishment are carried out to control nosocomial Clostridium difficile infection and improve medical care quality.', 'This study aims to investigate the adequacy and accessibility of surface disinfection process for nursing cart, which can provide the experience for establishing standard operation processes of environmental cleanliness and disinfection.', 'There are different methods used for monitoring environment clean in hospital, include: direct observation, bacterial culture, and ATP (adenosine triphosphate bioluminescence assay).', 'The purpose of terminal disinfection after patient discharged is to ensure environment clean of ward to keep next patient from infections caused by polluted environment.', 'Thus, a regional teaching hospital apply ATP to evaluate efficacy of monitoring environment cleaning after terminal disinfection.Methods: Two medical ward, 2 surgical ward, Obstetrics ward, and 2 intense care ward sections were selected according to number of beds.', 'Sanitary staffs clean the ward environment with 500 ppm hypochlorous acid after patient discharged.', 'After they cleaned these surfaces 30 minutes to 2 hours later, these surfaces were rubbed for sampling by ATP swab for environment monitoring.Results: There was a total of 100 samples in which RLU values of 5 samples were over 500, thus unqualified rate of ward environment cleaning was 5% (5/100).', 'RLU values were showed in Table 1 .Conclusion: Some environmental surfaces in the monitoring showed unqualified cleanliness, which means clean work have not been thoroughly implemented.', 'We provided sanitary unit these data for educational training and ask them to improve their practice to these high-RLU environmental surfaces, which help making environment clean better.', 'Clean environment is associated with better healthcare quality.', 'In general, regularly monitoring environment clean is necessary, either method is used.', '1 National Taiwan University Hospital, 2 National Taiwan UniversityBackground: Improvement of environmental cleaning in hospitals has been shown to decrease cross-transmission of pathogens.', 'VRE was isolated from the environment (surfaces of bed rails, ambu bag, on a patient bucket urinal, and curtain).', 'All isolates were sent to a reference laboratory for typing and confirmed that the environmental samples were the same strain as the 2 patients who isolated VRE on the first occasion.', 'Conclusions: Although VRE is known to persist in the environment, we were concerned that VRE persisted despite cleaning of the ICU.', 'Methods: Environmental and laboratory investigation: We started our study by interviewing healthcare workers who worked in Maternity Nursery, five neonates presented with pustules during 10 days admission.', 'Environmental samples, 59 specimens, from the most frequently used neonatal care equipments, such as radiant warmer, weight scale, baby incubator, nursing ward and keyboards were collected for bacterial culture.', 'Sudden changes in the cause of the KPC, further analysis of the cause of the abnormal events, contact isolation measures and environmental cleanliness, so infection control intervention measures in addition to the original hand hygiene and contact isolation measures and environmental clean, the other for high-risk cases and Has been identified in the case of centralized care, the second occurrence of MDROs abnormal events, suspected bursts of bacteria for the CRAB, monitoring the cause of this event may be due to the unit space can not clean the bed and equipment into the care area, in the bed Abnormalities in the process, so the infection control measures for the collection of the original collection area is not collected, to strengthen the detection of the same ROOM is to increase the non-CRAB environmental cleaning frequency.', 'Results: The second use of MDROs is abnormal, the first use of the bundl care for hand hygiene, contact isolation protection measures, environmental clean and high-risk partition isolation; second use of the bundl care for the hand hygiene, contact isolation protection measures And the environment clean.', 'It is found that the combination of MDROs is suspected to be in the group, and each time the MDROs are detected in the unit, the analysis of the abnormal events is discussed with the care unit, and the main reason for the occurrence of the event is possible, Combined care work, can still effectively solve the outbreake of events.Conclusion: In Taiwan, the medical care environment and clinical care workers often fail to clarify the care area and the patient area immediately when the work is busy.', 'Since February 2017, we implement VAP bundle care which include (1) elevate the head of bed for 30-45°, (2) oral cleansing by using tooth cleaning sponge, small tooth brush, and chlorhexidine contained mouthwash, (3) setting of cleaning and sterilization of steam inhalation therapy equipment and changing the tubing regularly, (4) addition of setting bottle to facilitate the removal of fluid inside the ventilator circuits under avoiding contamination of environment.', 'Bcc isolates were obtained from nebulizer draining tubes, operating water chambers, oscillator and nebulizer solutions.', 'During the intervention period, we implemented a multidisciplinary care bundle consisted of (1) hand hygiene, (2) use of maximum barrier precautions, (3) use of 2% chlorhexidine scrub for the insertion site, (4) head-of-bed elevation 30°-45°, (5) education of providers, (6) a dedicated line cart, (7) checklist, (8) oral care with chlorhexidine solution twice daily, and (9) daily consideration of the need for the catheter and so many measures.', 'This study planned to investigate the antimicrobial agent susceptibility of and the molecular typing of methicillin-resistant Staphylococcus aureus (MRSA) in the residents and environments in six long-term care facilities (LTCFs) in Taiwan.', 'Methods: We prospectively investigated the existence of MDROs, including MRSA, in residents of six LTCFs and their environments from January to December 2016.', 'If MSA was identified, then swab specimens from environmental sources were collected and cultured.', 'Generally, the isolate numbers from LTCF residents in each surveillance culture correlated with the number of isolates from the environment.', 'However, the MLST typing from the environment cultures could correlate with the culture from the residents.', 'However, the MLST typing of the environmental stains highly correlated with the colonized strains in LTCF residents.', 'An individualized environmental cleansing policy should be adopted to facilitate the LTCF to reduce the environmental colonization with MRSA.', 'Although standard infection control measures like hand hygiene audit and regular environmental decontamination were in place, the CPE incidence increased and rose to 0.34/1,000-patient-bed-days in 2Q2016.', '(3) Patient environmental care improvement: environmental cleanliness was further maximized by regular ward decontamination by the central cleansing team and ad hoc cleaning once CRE was detected.', 'Further environmental measures were initiated including sink decontamination, revised body fluid disposal procedures, revised handling enteral feeding milk and equipment, and patient utensils.Results: The incidence of nosocomial CPE dropped by 67% to 0.11/ 1,000-patient-bed-days in 1Q2017 and there were no CPE outbreaks after the launch for our CPE reduction program.', 'UV fluorescent marker assessment showed percentage of marked environment being effectively cleaned increased from 71% to 83%.', 'Early identification and isolation of CPE carriers, enhanced environmental hygiene and focused hand hygiene are essential elements of our success.', "Environment clean and disinfection was highly suggested in order to stop drop infection be transformed into contact infection by psychiatric patients' hands.", 'To clarify whether each individual case is relavant to one another, interventions adopted were investigation in the ward, proceeding the sampling inspection of environment in the ward where the patients have lived as well as the hands of staffs who worked there, and revising the standard operation procedure of multiple-drug resistant strains.', 'In this event, 3 specimens from one inpatient and his surroundings were verified to be CRKP through environmental collection and inspection.', 'Environmental clean and disinfection are the key points of epidemic prevention.', "Conclusion: Sodium citrate may effective central venous catheter lock solution in hematologic malignancies because of it's antimicrobial and antithrombotic effect.", 'PS 485\n\nEffectiveness of preventing needlestick injuries and body fluid exposure by implementing safety-engineered devices at a medical center in Taiwan Shu-Fen Chien 1 , Ju-Chun Lo 1 , Yu-Ling Lai 2 , Jann-Tay Wang 1,3 , Wang-Huei Sheng 1,3 , Yee-Chun Chen 3 , Shan-Chwen Chang 3 .1 Center for Infection Control, 2 Occupational Safety and Health Office, 3 Department of Internal Medicine, National Taiwan University Hospital, Taipei, Taiwan Background: Since the increasingly complicated medical environment and the threats of emerging infectious diseases, issues of workplace safety and health promotion are getting more important.', 'Keeping and making a more safety workplace environment with sustained efforts should be ongoing to promote occupational health.', 'Environmental cleaning and disinfection were implemented.', 'Conclusion: Operation room is an important environment where surgery was performed and saving lives.', 'To ensure the OR environment clean and free from pollution is very important.', "In this case we rechecked and revised sanitary staff's SOP and added works cleaning the top of the lockers and the operation lampshade to avoid accumulation of cotton fibers and dust to cause environmental pollution.", 'Methods: From the beginning of 20160201 to 20161231 only, after the collection of information and the status quo analysis, the solution according to the planning period, the implementation period, the evaluation period of the implementation of the planning period: planning education training courses to investigate the catheter placement and care process, Revised the placement checklist, care assessment form and audit plan; implementation period: the revised operation process, including the time of hand washing, the newly revised indwelling catheter checklist and care assessment table published in the unit bulletin board and publicity know, Conduct education and training, perform technical audits and use catheterization, care checklist; evaluation period: through the unified teaching of the correct catheterization and care process, reply teaching and planning audit.', "PS 499\n\nUse of an education programme to encourage hand hygiene with alcohol-based handrub and reduce near-patient environmental contamination in elderly residents in long-term care O'Donoghue Margaret 1 , Yang Lin 1 , Siu Gilman Kit-Hang 2 , Lee Paul Hong 1 , Boost Maureen Valerie 1 , Ho Jacqueline Mei Chi 1 , Suen Lorna Kwai Ping 1 .", 'Hand and near-patient environmental contamination before-and after a one-month hand hygiene intervention involving use of ABHR in a LTCF for elderly residents (data for test subjects).Results: All participants complied during which time we were able to demonstrate a significant reduction in both hand and nearpatient environmental contamination for those patients who previously had highest levels of organisms present (Figure 1 ).', 'First, the medical technologists and information technicians participated in the training courses on LOINC (Logical Observation Identifies Names and Codes) and RELMA (Regenstrief LOINC Mapping Assistant).', 'Then, we mapped and organized all laboratory raw data from laboratory information system database.', "Treatment success (an improvement in the patient's clinical data and the resolution of ocular disease confirmed by an ophthalmological examination) was achieved in 20 of 28 patients (71.4%) and visual recovery was obtained in 7 of 8 patients (88.9%).", 'PS 512\n\nPulmonary fungal infection due to a Basidiomycete species (Ceriporia lacerata) in a HIV patient Lih-shinn Wang 1 , Chia-ching Jackie Wang 5 , Huei-jen Chao 3 , Siao-ru Lin 3 , Chih-bin Lin 2 , Yung-hsiang Hsu 4 Background: Basidiomycetes are rarely reported as a cause for invasive respiratory infection, despite airborne spores being abundant in the environment.']</t>
+  </si>
+  <si>
+    <t>['Variations may be explained by geographic or environmental differences.Calves with less than 500 mg IgG/dL are very prone to septicemic E. coli, and those with 500 to 1000 mg IgG/dL are defined as having partial failure of passive transfer (FPT) and are also at increased risk.', 'Infected calves allowed to remain in the maternity area will amplify the level of environmental contamination, thereby placing other neonates born in that area at risk.', 'This can be a feature of herd outbreaks of clinical salmonellosis when parturient adult and sick fresh cows are shedding excessive numbers of organisms into the environment or when calf housing and common use equipment becomes heavily contaminated due to a large number of clinical cases.', 'Fecal contamination of the environment is especially problematic when calves are housed in group housing, raised slatted stalls, or crowded areas, or when born in a stall used both as a maternity pen and sick cow area.', 'Fortunately, this seldom occurs unless newborn calves are put in heavily contaminated environments such as group housing arrangements or hutches that have not been cleaned since previous occupancy by infected calves.', 'This stress, combined with an environment that more commonly fosters fecal contamination of feedstuffs, water sources, and hair coats, creates • Fig.', 'Environmental factors such as heat stress tend to amplify the clinical signs and increase morbidity and mortality.', 'With types B, C, and E organisms, this contamination of milk may represent septicemic spread of the organism to the mammary gland, environmental fecal contamination of the milk and milking equipment, or both.', 'Mastitis caused by S. Dublin may be subclinical, and environmental contamination of quarters has been shown to be a more likely cause than septicemic spread to the udder.', 'Furthermore, when hydration, electrolyte balance, and normocalcemia are restored by fluid therapy, cattle with enteritis typically show resolution of any mild abdominal distension that might have developed as a result of ileus.', "Although most cattle infected with MAP remain asymptomatic, cattle with clinical signs signal the diagnosis and alert both veterinarian and herd owner to the possibility of a herdwide problem.Despite loose manure, loss of body condition, and diminished milk production, cows with Johne's disease do not appear seriously ill until the terminal stages when finally the appetite is markedly reduced.", 'If several 2-year-old heifers in a herd develop clinical signs of diarrhea, it suggests a rather heavy dose of MAP at an early age, but clinical signs in 5-to 7-year-old • Fig.', 'This would imply extremely heavy environmental contamination with Mycobacterium avium subspecies paratuberculosis.', 'cows suggest a much lower dose of MAP or older age at the time of exposure.', 'Dairy cattle with confirmed MAP infection have been shown to have higher cull rates than uninfected herdmates because of weight loss and reduced milk yield when clinical disease is evident and decreased production and mastitis when the infection is still, as yet, subclinical.', 'A recent study on two large Minnesota dairy farms identified a threefold increase in the relative risk for culling in MAP fecal culture-positive cattle compared with fecal culture-negative cows.', 'This study is noteworthy in that these herds were typical upper midwestern free stall dairies with an approximately 8% prevalence for MAP fecal culture positive animals.', 'The development of visible turbidity in the 18% solution of sodium sulfite turbidity test is a reliable test for adequate passive transfer.', 'Clinicians and producers should be aware of the differences between pathotypic strains of E. coli (e.g., ETEC) capable of producing severe disease in calves with adequate passive transfer and the everyday, commensal, and environmental E. coli often associated with sepsis caused by FPT.', 'Sections of ileum should be cut into 2-to 3-cm lengths and then split longitudinally and swirled in 10% neutral buffered formalin solution to aid in rapid fixation of the mucosa.', 'Electrolyte solutions containing glutamate mixed with yogurt may speed intestinal recovery, although this is not proven in calves.', 'Sample handling is pivotal in reaching a definitive diagnosis, and practitioners should familiarize themselves with their local diagnostic laboratory requirements and recommendations for maximizing the chances of a positive culture from feces, environmental samples, or postmortem tissues.', 'Ziehl-Neelsen staining confirms the presence of MAP in the intestine and lymphatics.', 'However, culture of these same tissues has a much greater sensitivity to detect MAP than does histopathology.', 'Although MAP may be isolated from other organs such as the liver, uterus, or fetus in some advanced cases, gross lesions consisting of granuloma formation are rare in these organs, and truly disseminated infections having gross lesions are very rare.', 'However, disseminated infections as detected by culture of MAP from lymphatic fluid and lymph nodes such as the prescapular, prefemoral, supramammary, or popliteal lymph nodes do occur in cattle with clinical disease.', "Lymphatic distension is obvious on the serosal surface of the ileum, and the ileocecal lymph nodes, as well as other mesenteric lymph nodes, are enlarged and edematous on cut sections.Available confirmatory antemortem diagnostic tests include those that directly detect the organism in feces or those that detect the animal's immune response to MAP infection.", 'These tests also have the ability to determine the quantity of MAP organisms being shed and thus are helpful for prioritizing animals for culling based on relative impact on environmental contamination.', 'A cost effective approach is to use milk ELISA, using not just the dichotomous results (i.e., "positive" or "negative") but using the quantitative result (optical density (OD) value or sample to positive (S/P) ratio), recognizing that the strongest reactors are most likely to be heavy fecal shedders and pose the greatest risk for contaminating the environment with MAP.', 'Surgical biopsy of the ileum and ileocecal lymph node could detect MAP infection in these animals but is generally not practical for this screening purpose.', "The most effective way to prevent introduction of MAP is to purchase animals from herds known to be free of MAP, such as herds that have achieved status 4 level or above in the Voluntary Johne's Disease Control Program.The gold standard for diagnosis has long been considered culture of ileum, ileocecal lymph nodes, or other mesenteric lymph nodes for cattle with clinical Johne's disease.", 'Intravenous (IV) balanced electrolyte solutions should contain dextrose (2.5%-10%), and sodium bicarbonate (20-50 mEq/L) if the plasma bicarbonate concentration is (&lt;10 mEq/L), to address hypoglycemia and metabolic acidosis respectively.', 'Bicarbonate-rich solutions are indicated in peracute Salmonella infections and should be considered when profound depression or shocklike signs accompany peracute diarrhea.', "Oral electrolyte-energy solutions are helpful but limited by the maldigestion, malabsorption, and inflammatory lesions in the patient's intestinal tract.", 'Experience suggests that resolution of a salmonellosis problem on a dairy requires far more critical and influential decisions than antibiotic selection for individual cases.Supportive treatment requires IV fluids (crystalloids and colloids such as plasma or Hetastarch; 5-10 mL/kg) with appropriate electrolytes and glucose to rehydrate the calf.', 'Calves that are in shock may also be given dexamethasone or flunixin meglumine (0.5-1.1 mg/kg IV) as one-time treatments.Resolution of clinical signs is gradual and slow.', 'Laxatives appear to be of limited benefit in affected individuals, and large doses of magnesium oxide-hydroxide laxatives are likely contraindicated because they may exacerbate metabolic alkalosis seen in early stages of the disease, induce hypermagnesemia, and simply pull more fluid into the gut lumen.A large, right-sided tympanic resonance in an ill calf may be a case of abomasal or cecal volvulus, and surgical exploration is indicated if initial medical management does not quickly result in resolution of tympany.', 'Intravenous sodium iodide (20% solution) is an extremely irritating preparation that should be administered IV only by a veterinarian.', 'Loose teeth may require extraction, and fistulous tracts may be flushed with iodine solution as ancillary aids.If clinical cases occur, treatment should be symptomatic.', 'Resolution of dysphagia, when present, is an important positive prognostic sign because the patient can now drink effectively and hydrate herself.', 'Resolution of fever is another positive prognostic sign but may be misleading if the temperature decreased because of concurrent therapy with nonsteroidal antiinflammatory drugs (NSAIDs).Nursing procedures and ensuring access to fresh clean water and soft feeds such as silage or gruels of soaked alfalfa pellets are helpful.', "Use of balanced electrolyte solutions such as lactated Ringer's solution is sufficient for most cattle.", 'Hypertonic saline (7.5 times normal) administered at 3 to 5 mL/kg followed by 10 to 20 gallons of oral electrolyte solution, either consumed voluntarily or given by orogastric tube, is a highly practical method of fluid resuscitation in a field setting.', 'As a crude rule of thumb, cattle that show no voluntary interest in drinking after rapid IV administration of 3 to 5 mL/kg of 7.5 times normal saline solution should provisionally be given at best a guarded prognosis and are mandatory candidates for large-volume oral fluid drenching.Oral fluids and electrolytes may be somewhat helpful and much cheaper than IV fluids for cattle deemed to be mildly or moderately dehydrated.', 'In addition, appropriate antibiotic therapy may reduce the total number of organisms shed into the environment by counteracting septicemic spread that allows all bodily secretions, not just feces, to harbor the organism.', 'Occasional high-producing cattle require parenteral calcium solutions to counteract secondary hypocalcemia or treatment of ketosis secondary to reduced appetite.', 'Uninfected embryos can be obtained from infected cows, via conventional embryo transfer provided proper embryo washing steps are followed, or after in vitro fertilization subsequent to oocyte pickup.Owners that wish to undertake treatment should be advised that daily, lifelong treatment is required; treated animals may continue to shed MAP in their feces even if clinical signs are reversed; and relapse will ensue when treatment is stopped.', 'Thus, owners should be advised that the treated animal or its products must not enter the human food supply chain.Monensin is an ionophore antibiotic shown to have activity against MAP and have a beneficial effect in infected cattle.', 'Resolution of diarrhea and improvement in plasma total protein can be observed within 2 weeks of starting treatment, although fecal shedding may continue.', 'And (2) is the environment likely to harbor large numbers of E. coli during the periparturient and neonatal period?', 'The practice of pooling colostrum also may increase Mycobacterium avium subspecies paratuberculosis (MAP), Salmonella Dublin and leukemia virus infection rates.', 'If the serum sodium sulfite turbidity test is used, use of the 1+ endpoint (turbidity in 18% solution) as an indicator of adequate passive transfer status will maximize the percentage of calves correctly classified by this assay.', 'Periodic quality control checks of conventional or Brix refractometers (against distilled water or sugar solution standards for calibration) is advised.', "Use of such products has recently been implemented in certain herds as a tool to limit transfer of infectious agents to the calf via colostrum, such as MAP, the causative agent of Johne's disease, the bovine leukosis virus, S. Dublin, and Mycoplasma bovis.", 'The importance of maternity pen hygiene cannot be overstated because no level of passive immunoglobulin transfer can protect completely against gross filth in the environment, and conversely, even calves with partial or complete FPT may survive when cleanliness is exceptional.', 'Dry cows should not be kept in filthy environments that allow heavy fecal contamination of the coat and udder.', 'An effective solution, first proposed by Dr. R.H. Whitlock, is formulated by adding 150 mEq of NaHCO 3 to 1 L of 5% glucose.', 'Although this may undoubtedly be true, it seems risky to tempt fate by administering K + -containing solutions as the initial therapy for a patient known to be hyperkalemic.', "Balanced electrolyte solutions such as lactated Ringer's solution suffice for maintenance fluid needs, but supplemental NaHCO 3 and dextrose may be required to address continued secretory losses and anorexia.", 'Other treatments for peracute cases may include flunixin meglumine (1.1-2.2 mg/kg IV every 24 hours) for potential endotoxemia, resolution of fever, and reduction of pain associated with fluid-filled bowel.', 'Even though many oral electrolytes are supplemented with dextrose as an energy source, no commercial oral electrolyte solution provides enough energy for maintenance needs, especially for dairy calves in hutches during winter weather.', 'Weight will be lost, and starvation may occur if these electrolyte solutions are fed as the only ration for more than 1 or 2 days.', 'Consequently, it is rarely practical outside of a referral hospital.The alkalinizing potential of oral electrolyte solutions is of great importance, especially when those solutions are used as ongoing therapy for peracute cases after initial IV fluids or when those solutions are used as sole therapy of less severely affected calves having ETEC.', 'Therefore, oral electrolyte solutions containing bicarbonate or some other alkalinizing anion are most helpful.', 'The optimal oral electrolyte solutions typically possess 70 to 80 mEq of alkalinizing potential per liter (typically as bicarbonate, propionate or acetate), dextrose, and electrolytes; these should be fed at 4 to 6 L/day.', "Oral electrolyte solutions that when mixed with water are nearly isotonic are preferred over those that are markedly hypertonic.Concerns regarding adding oral electrolyte solutions to milk or milk replacers revolve around the alkalinizing solutions' tendency to interfere with abomasal clot formation.", 'Supplemental oral electrolyte solutions can be continued if ongoing fluid and electrolyte losses are assumed to result from continued diarrhea, and these solutions should be fed at intervals between whole milk or replacer feedings.', 'Unless the calf is hypoglycemic or acidotic, isotonic electrolyte solutions are preferred because they allow a more normal abomasal transit than do hypertonic solutions.Treatment of acute ETEC infections in calves that are ambulatory and still able to suckle may not require IV therapy.', 'Cessation of whole milk or replacer feeding coupled with substitution of oral electrolyte-glucose solutions for 24 to 36 hours may be sufficient.', 'It is imperative to use highly alkalinizing electrolyte glucose solutions to provide 4 to 6 L of fluids per day.', 'Spontaneous recovery is the rule, and supportive care with oral electrolyte solutions frequently is used by owners in such cases.', 'Mixing errors leading to hyperosmolality of oral feedings (especially electrolyte solutions) or milk replacer can add a further and compromising degree of nutritional diarrhea in some situations.', 'The osmolality of electrolyte solutions should be in the range of 300 to 600 mOs/L, although some solutions at the high end of this range may be problematic if ad libitum water is not available.', 'Measuring total solids in milk replacer, as fed, is a highly relevant part of a herd investigation as is checking osmolality of any oral rehydration solutions, again as fed.', 'Total solids of milk replacer solutions should never exceed 18%, and it is always reassuring to be able to demonstrate consistency by virtue of a less than 1% variation from feeding to feeding.', 'In so doing, one should consider (1) identifying and correcting management and environmental factors that might impair cow immunity, (2) performing a careful partial budget analysis of the cost of specific preventive measures, and (3) deciding on which specific corrective measure(s) might be most justified for a particular dairy.To begin with a thorough analysis of transition and fresh cow management should be performed to identify problems with cow comfort, hygiene, nutrition, and disease control that might impact disease resistance during the apparent period of greatest risk for HBS, which is the first 3 to 4 months of lactation.', 'To our knowledge, no studies currently exist on the persistence of BVDV in properly composted carcasses, but data on the survivability of viruses related to BVDV indicate that longterm environmental persistence is unlikely.', 'Incidence of rotavirus diarrhea has been decreased on some farms and reported in two clinical trials by mixing some colostrum (10%) with milk or replacer for up to 30 days.Being a nonenveloped virus, rotavirus is stable in the environment (6 months in fecal matter) and relatively resistant to the effects of some disinfectants.', 'Because coronavirus is an enveloped virus, its persistence in the environment and resistance to disinfectants are considerably lower than those of rotavirus.', 'Unfortunately, many dairy farms fail to effectively control C. parvum when environmental contamination becomes extreme.', 'Although diseased calves serve as the primary source of environmental contamination, oocysts are also spread by movement of laborers, equipment, and animals.', 'Infected calves shed large numbers of organisms into the environment, and contamination is worsened by the fluid characteristic of feces in diarrheic calves.', 'Inapparent or subclinical infections are common and represent a constant source of environmental contamination.Cleanliness and disinfection of housing units are extremely important to the control of salmonellosis because a primary determinant of the severity of infection appears to be the magnitude of challenge or infective dose.', 'Unfortunately, at this point in time, what is unknown is whether this passive antibody will confer a protective effect for calves against natural challenge to either the vaccinal serotype or other strains in a farm environment.', 'It is critical that the producer understands that after an outbreak is well established, control measures may mitigate the severity of the outbreak but often fail to immediately bring resolution.', 'However, calves with fluid feces, fever, dehydration, or other related signs should be isolated because they are shedding billions of organisms into the environment.', 'Often the first material ingested by the newborn calf is directly from the maternity environment, immediately after birth, and before consuming colostrum.', '• Physically clean environment, improve hygiene, and disinfect premises.', 'Prevention of enterotoxemia in nursing calves requires consideration of environmental or management factors that may trigger ingestion of larger than normal volumes of milk or replacer.', 'C. jejuni will grow in milk and may arrive in milk from septicemic spread but is more likely to contaminate milk because of environmental contact.Herds that are free of MAP can best prevent introduction of the disease by maintaining a closed herd.', 'Purchase of replacement cattle from herds of unknown status poses a great risk for introducing asymptomatic but MAP-infected animals.', 'If this cannot be done, then depending on the age of replacement animals, prepurchase testing for MAP infection may not be a foolproof method of screening new additions (see earlier).Control of the disease in infected herds will depend in part on the objectives of the herd.', 'Large production herds with no interest in selling replacement cattle may perceive little financial incentive to spend money on controlling the disease because they believe that culling for other reasons will often occur before MAP infection affects production.', 'Colostral replacements could be used as a substitute for colostrum in herds with a high MAP incidence, but their use as a replacement for colostrum may lead to an increased incidence of other diseases in calves such as septicemia or diarrhea.', 'Colostrum that is properly heat treated (60 min at 60°C and with constant stirring) will reduce the number of MAP but might not eliminate the organism completely from the colostrum.', "The purchase of replacement animals from herds of unknown Johne's disease status continues to represent the greatest risk to introduce or reintroduce MAP to such herds.", 'Equipment used for manure removal or that could be contaminated by manure must remain separate from feeding implements and the calf environment.', 'In between these two extremes, production herds that wish to "contain" the disease, to prevent the prevalence of MAP infection from increasing on the farm, and to reduce the risk of losing animals or milk production to clinical Johne\'s disease may use an intermediate approach.', 'This may include identifying heavily infected animals through interpretation of milk or serum ELISA alongside management steps to reduce exposure of calves to MAP from feces of adult cows that are potentially shedding the organism.', 'However, it does not prevent infection with MAP, and vaccinated cattle can become infected and shed MAP in feces, although importantly the vaccine does prevent clinical disease in almost all recipients.', 'Currently, salmonellosis ranks as one of the two most important bacterial causes of diarrhea in adult dairy cattle (MAP being the other) and has surpassed E. coli in this respect in calves on many operations.', 'Infection may also be perpetuated over the long term by environmental contamination or by group C Salmonella cycling through rodents, birds, or insects.', 'Although the National Research Council (NRC) provides excellent guidelines for feeding calves under a wide range of environmental temperatures, it does not offer specific guidance for feeding calves under conditions of heat stress, disease, immune challenge, vaccination, or other environmental or management stressors.', 'Table 6 .3 shows how the NRC predicts an increasing requirement for the volume of whole milk fed by calf age under cold and warm environmental conditions for an 80 lb birthweight calf.', 'In Table 6 .4, the NRC calculator has been used to predict the average daily gain (ADG) of a 2-week-old, 95-lb Holstein calf being fed 6 quarts daily (30 oz of milk replacer powder) using different milk replacer formulations and different environmental temperatures.By week 3 of age, a Holstein calf on-target to double birth weight by day 56 should be gaining 1.6 lb/day.', 'Management practices that allow dirty environments, manure buildup, feeding on ground level, feed and water contamination by manure, and crowding should be corrected.', 'If calves are kept in a clean environment, manure should be scraped away daily to prevent "splashing" of feces into bunks, troughs, waterers, and all over calves\' bodies.', 'Eggs require a moist environment to hatch miracidia, which find a snail intermediate host.', 'Therefore, even though most BTV in cattle is thought to be subclinical, certain husbandry or environmental conditions or strains of BTV in field outbreaks appear capable of causing clinical disease.', 'The organism also may be found in milk secondary to environmental contamination and subsequent mastitis.', "often act as opportunistic pathogens, management, nutritional, and environmental factors that adversely impact the cow's defenses are often at play when the disease becomes problematic on a given operation.Salmonellosis was primarily a sporadic disease in dairy cattle in the northeastern United States until the 1970s.", 'Clinical mastitis caused by S. Dublin is thought to originate from environmental contamination of the udder by feces from infected cattle rather than septicemic spread to the udder.', 'As adult dairy cattle generate approximately 70 kg of manure per day, this translates into a daily environmental contamination of between 7 × 10 6 and 7 × 10 11 Salmonella organisms per cow.', 'This undoubtedly leads to widespread and rapid contamination of the dairy farm environment, and Salmonella organisms can survive for prolonged periods in suitable conditions outside the host.', 'The ability of Salmonella to thrive in warm, moist environments likely increases the probability of cattle exposure and infection.', 'Manure in liquid form may be conducive to Salmonella persistence and can be dispersed broadly into the environment, increasing the likelihood of cattle exposure to the organism.', 'It is possible that this is related to the ability of Salmonella to thrive in moist environmental conditions.', 'This serovar is particularly challenging because of its tendency to yield chronic, subclinical carriers that continuously or intermittently shed high numbers of organisms into the environment.', 'can also be transmitted by direct contact with the feces of infected dairy cattle, as some veterinarians and farm employees can attest, underscoring the relevance of occupational and environmental exposure for veterinarians, dairy farmers, and those who interact with dairy cattle in public settings.', 'Physically clean the environment, improve hygiene, and disinfect premises (see also the section on calf salmonellosis).', 'After resolution of the outbreak or crisis period, a mastitis survey should be conducted that includes bulk tank surveillance.', 'perfringens is a large, gram-positive, anaerobic bacillus that is considered to be ubiquitous in the environment and in the GI tracts of most mammals.', 'Therefore, seronegative immunocompetent cattle infected with BVDV do not have any residual or permanent immunodeficiency after resolution of the infection and seroconversion.', 'paratuberculosis (MAP).', 'The disease has a worldwide distribution, and in the United States, recent surveys conducted by the National Animal Health Monitoring system have demonstrated that 70% to 90% of all U.S. dairies have MAP-infected animals.The etiologic agent is an acid-fast organism that has fastidious in vitro growth requirements requiring special media and may require up to 16 weeks to cultivate from fecal samples.', 'It survives well in farm environments and can survive for 1 year or more in soil and water.', 'Although regarded as primarily an enteric infection, as the infection progresses MAP may spread via macrophages in blood or lymph to other important sites such as supramammary lymph nodes, mammary gland, (and milk), and uterus (and fetus).', 'In the United States, MAP-related average costs have been estimated to lie between $22 and $27 per cow per year, but the economic impact of the disease in positive herds versus confirmed negative herds is much higher and may exceed $100 per cow per year when infection progresses to clinical signs of disease.', 'Transmission\n\nThe most important means of transmission of MAP is by the fecal-oral route.', 'The MAP organisms are shed in the feces of infected cattle and ingested by susceptible animals.', 'Direct contact is not necessary because studies have shown that in heavily contaminated farm environments, MAP may aerosolize with dust and contaminate surfaces located short distances from adult cow housing areas.', "Infected cows can also shed MAP directly in milk, and transplacental transmission has been documented in 20% of subclinically infected pregnant cows and up to 40% of cows with clinical signs of Johne's disease.Older calves have a more variable outcome after infection, and larger doses of MAP are required to cause infections that lead to later onset of clinical signs.", 'Factors including concurrent diseases, genetics, environment, and other stressors may contribute to increased susceptibility to infection.', 'Pathogenesis and Progression\n\nAfter oral ingestion, MAP organisms invade intestinal epithelial cells, most notably through specialized cells within ileal Peyer patches (M cells), which deliver the organisms to submucosal macrophages.', "The subsequent course of infection is determined by numerous factors, including the dose of MAP organisms ingested and the animal's individual susceptibility to MAP, which in turn is determined by the age of the animal and the ability of its innate and adaptive immune responses to control MAP.", 'Resistance to MAP infection is estimated to have approximately 10% heritability.', 'Thus, in some exposed animals, MAP organisms will be contained or eliminated by macrophages, and infection will not become established, but in others, the infection will ultimately progress.', 'In the early stages of infection, macrophages are activated by interferon-γ produced by Th1 helper lymphocytes and limit proliferation of the MAP and thereby its spread to other sites.', 'However, the immune response to control MAP results in "collateral damage," inciting a granulomatous response within the intestinal mucosa.', 'This is characterized by progressive infiltration by epithelioid cells, multinucleate giant cells, and lymphocytes surrounding MAP-laden macrophages.', 'In this early stage of infection ("eclipse phase"), during which MAP organisms are slowly proliferating and the inflammatory process is slowly progressing, no clinical signs are observed.', 'The animals are outwardly healthy, fecal shedding of MAP rarely occurs, and serum antibodies are not produced.', 'Milk production and reproductive performance are not generally affected in these asymptomatic, low-shedding cattle, which can thus serve as a source of MAP for environmental contamination.Ultimately, spread of the infection accelerates.', 'Fecal shedding at high levels begins, even though there are no clinical signs, and MAP organisms may spread systemically to the mammary gland and fetus.', 'Infected cattle shed MAP in their manure and transmit the disease to herdmates by MAP contamination of the environment.', 'It is widely accepted that cattle that develop clinical signs shed large numbers of organisms and represent the greatest threat to contaminate the environment.', 'Super-shedders may shed MAP in higher concentrations (1-5 million CFU/g of manure) than cattle with clinical disease.', 'Potentially, these animals represent the greatest source of environmental contamination and reservoir for possible transmission to herdmates.', 'Most super-shedders are asymptomatic with no evidence of diarrhea or weight loss yet excrete huge numbers of MAP organisms into the environment.', 'Passive shedding of MAP may occur when noninfected cattle ingest manure contaminated forage or water.']</t>
+  </si>
+  <si>
+    <t>['The Hong Kong Environmental Protection Department (EPD) has reported frequent occurrence of high concentrations of pollutants, such as NO 2 and respirable particles (RSP) in urban areas like Mong Kok and Causeway Bay (Yim et al., 2009 ).', 'These areas have some of the highest urban densities in Hong Kong.Since the Severe Acute Respiratory Syndrome (SARS) episode in 2003, the planning community in Hong Kong has started to pay more attention to urban design to optimize the benefits of the local wind environment for urban air ventilation.', 'The importance of the wind environment on the physical interaction between urban areas and the atmosphere has been studied by urban climate researchers (Arnfield, 2003) .', 'Two kinds of tools are frequently employed to study the wind environment of the city: wind tunnel tests and computational fluid dynamics (CFD) tech-niques.', 'The US Environmental Protection Agency (EPA) conducted numerous urban-scale wind tunnel tests to understand the dispersion of particulate matters smaller than 10 m in aerodynamic diameter (PM 10 ) (Ranade et al., 1990) .', 'Williams and Wardlaw (1992) conducted a large-scale wind tunnel study to describe the pedestrian-level wind environment in the city of Ottawa, Canada.', 'In Hong Kong, the Wind/Wave Tunnel Facility has conducted numerous tests at the city, district, and urban scale to understand the wind availability and flow characteristics of Hong Kong (HKPD, 2008) .Apart from wind tunnels, CFD model simulation can be helpful at the initial urban planning stage in providing a "qualitative impression" of the wind environment.', '(1999) used CFD simulations to analyze the wind environment at the urban scale.', '(2009) conducted the largest urban CFD simulation of Tokyo to understand the effects of building blocks on the thermal environment of Tokyo.', 'This paper employs the understanding of urban surface roughness based on the urban structure to establish the relationship between urban morphology and urban air ventilation environment.', 'Using the site-specific wind rose information, the FAD calculation focuses on the effects of the built environment to the wind field.', 'The spatial characteristics of the large podiums reduce the air space nearer to the ground, and can greatly affect the wind environment at the pedestrian level.This study firstly validates the relationship between the pedestrian-level wind environment and FAD at the podium layer.', "Using Bottema's model equation, Gál and Unger (2009) drew a roughness map of z0 and zd to detect the ventilation paths in Szeged.", '(2010) drew a map of f(Â) to detect the air paths in the Kowloon Peninsula of Hong Kong.', 'Calculation of frontal area index and frontal area density\n\nThe frontal area index f(Â) is a function of wind direction of Â, which is an important parameter of the wind environment.', 'Development of a new method to calculate f(z) values\n\nUsing a high-resolution (1 m × 1 m) three-dimensional building database with building height information and digital elevation model (DEM), a self-developed program embedded as a VBA script in the ArcGIS system is applied to calculate the frontal area density ( f(z) ) at different height bands.', 'Therefore, to focus on the drag effect caused by the built environment, the site-specific wind roses for the annual non-typhoon winds at a height of 60 m in 16 directions were used to calculate the corresponding local values of f(z) .', 'CALMET is a diagnostic three-dimensional meteorological model that can interface with MM5 (Scire et al., 2000) .The terrain in Hong Kong is complex; hence, the resolution used in MM5 simulations (typically down to 1 km) cannot accurately capture the effects of the topology characteristics on wind environment.', 'Therefore, CALMET, a prognostic meteorological model capable of higher resolutions (down to 100 m), has been used.', 'Having combined the data obtained using MM5 and the data obtained from an upper air sounding station of the Hong Kong observatory in 2004, the CALMET model adjusts the estimated meteorological fields for the kinematic effects of terrain, slope flows, and terrain blocking effects to reflect the effects of a fine-scale terrain in producing wind fields at 100 m resolutions (Yim et al., 2007) .', 'Compared with the map in polygon units (Gál and Unger, 2009 ), this new calculation allows an exploration of the uniform grid map with a better explanatory power.', 'Validation of the method and resolution\n\nA statistical study was conducted to validate the FAD calculating method and resolution.', 'Secondly, based on the results of the statistical analysis, the resolution was further validated for mapping urban permeability in Hong Kong.', '9 , when the study areas in wind tunnel tests were crossed by grids in the map, the average of f(z) for the study areas is calculated bywhere f i(z) represents the frontal area density in the ith grid, S i represents the area of the ith grid in the study area, and S t represents the area of the study (Fig.', 'The f(z) in the podium layer ( f(0-15 m) ) that corresponds to the four grid sizes (resolutions), namely 50, 100, 200, and 300 m, were calculated.', '10 , in accordance with values of the f(0-15 m) including the unreal flow-confronting areas are larger than the ones calculated by the more traditional Table 1 Correlation between VR w,j and f(0-15 m) in different resolutions and calculation methods.', 'Furthermore, compared with the traditional method of calculating the frontal area density, the new method can alleviated the underestimation of mapping urban surface roughness in high density cities with large and closely packed buildings.', 'Resolution\n\nAs shown in Table 1 , the values of R 2 decrease with the reduction of the grid sizes.', 'Choosing a larger grid size would have a positive effect on depicting the urban wind environment.', 'Calculation of the average of f(z) in the study area (suppose the resolution is 300 m × 300 m).', 'For mapping roughness, the explanatory power of the map should not be totally traded off for the sake of the correctness of f(z) .', 'After weighing the considerations, the resolution of 200 m × 200 m was adopted in mapping urban permeability in Hong Kong.', 'The wind environment and urban morphology at the podium layer\n\nThe skimming flow regime is normally found at the top of compact high-rise building areas (Letzel et al., 2008) .', 'Similarly, due to the urban morphology of Hong Kong, which is characterized by high density and tall buildings, the airflow above the top of the urban canopy layer may not easily enter into the deep street canyons to benefit the wind environment at the pedestrian level.', 'This illustrates that the wind velocity ratio at the pedestrian level is more dependent on the urban morphology at the podium layer (0-15 m) than the building layer (15-60 m) or the whole canopy layer (0-60 m).This understanding is useful in guiding the urban design and planning strategies toward a quality wind environment at the pedestrian level in high-density urban areas.', 'Compared with front area index, which was used to detect the air paths in Hong Kong (Wong et al., 2010) , f(0-15 m) has been proven to be a better morphological factor in depicting the wind environment at the pedestrian level.', '13a , the map of the frontal area density (0-15 m) depicts the local wind permeability at the podium layer in the Kowloon Peninsula and Hong Kong Island.', 'The maps of the frontal area density (0-60 m and 15-60 m) are also presented, as shown in Fig.', '13b and c. These two maps are important for describing the wind permeability at the urban canyon layer.', 'For planners, using GCR to predict the wind environment at the pedestrian level is reasonable.', 'Compared with other maps (Gál and Unger, 2009; Wong et al., 2010) , the proposed map is more applicable to urban designers and planners because GCR is one of the most accessible data by planners in the planning process.Due to the extremely large building widths (large commercial podiums and industrial buildings), local values of some areas may deviate.', 'Mapping the surface roughness (classification)\n\nBased on the analysis in Section 6.1, GCR may be established as an important planning parameter that can be used to describe the wind permeability of the podium layer.', 'An urban-level wind environment map of Hong Kong may be drafted using the GCR information.', 'This relationship can be used as the basis for the threshold values of the map classification.', '17 , three classification values are assigned: "Class 1," "Class 2," and "Class 3," which denote good, reasonable, and poor pedestrian wind performance, respectively.Based on this classification, the map of wind performance at the podium layer in Hong Kong was generated (Fig.', 'Compared with the roughness map without classification, the map in this study is more intuitive; in addition, it can aid urban planners better in modifying building morphology to improve the urban air environment.', 'The map can be the spatial reference for urban planners.After incorporating the respective site-specific wind roses, the areas with low wind permeability are depicted in Fig.', 'These areas block wind and worsen the wind environment at the pedestrian level of their leeward districts.', 'Potential air paths in the podium layer are also marked out in this map.', 'The number of the point pairs is 11. paths would play an important role to improve the urban ventilation and environment quality by bringing fresh air flow into the urban areas for dissipating air pollutant and for mitigating urban heat island intensity.', 'In addition, a high grid resolution was applied in this study, that is, the number of fine meshes was approximately 2 million.', '17 .The results of this case study prove that, using the urban wind permeability map of the territory (Fig.', 'Map of wind permeability at the podium layer.', 'The wind permeability at the podium level is depicted in the map: Class 1: GCR = 0-30%, Class 2: GCR = 31-50%, Class 3: GCR &gt; 50%.', "These areas could block the natural ventilation and worse the leeward districts' wind environment at the pedestrian level.", 'Potential air paths in the podium layer are also marked out in this map.', 'First, one of the most significant factors is urban morphology, especially the podium layer, and its implication to the urban air ventilation environment.', 'According to Chapter 11, Sections 9-13 of the Hong Kong Planning Standards and Guidelines (HKPSG) (HKPD, 2006) , a number of urban forms deemed to be conducive to the urban air ventilation environment have been proposed:.', 'This understanding is in line with the concerns of the so-called "wall buildings," wherein a line of tall buildings screen the waterfront from the inland areas, thereby blocking the incoming urban air ventilation from the sea.Based on the GCR information readily available to planners working on their GIS system, the study has shown that planners can easily generate an urban wind permeability map of the territory (Fig.', '25) :For better urban air ventilation in a dense, hot-humid city, breezeways along major prevailing wind directions and air paths intersecting the breezeways should be provided in order to allow effective air movements into the urban area to remove heat, gases and particulates and to improve the micro-climate of urban environment.Breezeways should be created in forms of major open ways, such as principal roads, inter-linked open spaces, amenity areas, non- building areas, building setbacks and low-rise building corridors, through the high-density/high-rise urban form.', 'For effective air dispersal, breezeways and air paths should be perpendicular or at an angle to each other and extend over a sufficiently long distance for continuity.Using the urban wind permeability map of the territory (Fig.', '18) , city planners can initially estimate the possible urban air ventilation environment of the urban areas with the average velocity ratios.', 'Future work\n\nThe wind environment in urban areas is complicated.', '5) to the wind environment can be important.']</t>
   </si>
   <si>
     <t>['Background\n\nThe emergence of online consumer geoinformatics services Mainstream Web search engines like Google http:// www.google.com/ and MSN Search http:// search.msn.com/ have recently joined the geographic search bandwagon by releasing their own dedicated geographic interfaces, which run in standard Web browsers and also provide the general public with detailed satellite imagery/aerial photography map layers that were once only available to experts and select user communities.', 'Google Maps and Google Earth\n\nGoogle released Google Maps (http://maps.google.com/ -a localized UK version is also available; see, for example, Paddington Station, London, W2 1RH (Satellite): http:maps.google.co.uk/maps?q=paddington+sta tion&amp;spn=0.018368,0.039669&amp;t=k&amp;hl=en).', 'Thanks to Google Maps API (Application Programming Interface -http://www.google.com/apis/maps/), many third party applications and custom annotated maps have begun to appear [2] .', 'Two good UK examples of such applications/custom annotated maps are the Health QOF (Quality and Outcomes Framework) Database map http:/ /www.gpcontract.co.uk/map.html and London July 2005 Terrorist Attacks map http://geepster.com/london.php.', '(But because Google Maps has its roots in XML (eXtensible Markup Language), users were also able to produce their own custom annotated Google maps, e.g., based on their own GPS (Global Positioning System) locational data, and to even tie in images and video to create interactive multimedia maps, well before the API was publicly documented [3] .)', 'Smugmug Maps http://maps.smugmug.com/ is another good example of a third-party Google Maps application in action.', 'Smugmug, a photo hosting Web site, plots geocoded photographs to their actual locations on Google Maps (or Google Earth via a KML Google Earth feed: http:www.smugmug.com/hacfeed.mg?Type=geoAll&amp;for-mat=kml20&amp;Size=Tiny), and allows location-based searching of photographs all over the world [4] .', 'Maps\n\nCorresponding offerings from Yahoo!', 'Maps http://maps.yahoo.com/ and http://maps.yahoo.net/ and an associated API http://developer.yahoo.net/maps/.', 'Maps service does not offer any satellite imagery/aerial photography, but this might change in the near future.', 'Maps.', 'Gottipati [6] provides a useful comparison of Google Maps API and Yahoo!', 'Maps API.', "Web browser toolbars and other developments\n\nDedicated Web browser toolbars and extensions have also started to appear, e.g., MutantMaps http://www.mutant design.co.uk/maps/help.htm, a Mozilla Firefox toolbar that allows navigation between five popular mapping sites (Google Maps, MSN Virtual Earth, MultiMap.co.uk, TerraServer.com and 192.com) while preserving user's longitude, latitude and zoom levels, and gMapIt, another Mozilla Firefox extension that allows users to find directions from Google Maps based on publicly listed US phone numbers http://www.gmacker.com/web/content/ mapit/mapit.htm.Along the same vein, Amazon.com is now also providing A9 Block View http://a9.com/-/company/Yellow Pages.jsp, an online Yellow Pages/map service that offers US maps with street-level photos.", "ESRI's response\n\nSome commentators have recently wondered if users will soon eschew ArcGIS and ArcIMS (see http:// www.esri.com/software/arcgis/index.html and http:// www.esri.com/software/arcgis/arcims/index.html) in favour of using Google Maps API and MSN Virtual Earth API to quickly create Web map applications.", "ESRI's response to all of the recent online consumer geoinformatics services described in this article was to announce (in 2005) its new partnership with National Geographic http://www.nationalgeographic.com/, GlobeXplorer http://www.globexplorer.com/, and TeleAtlas http:// www.teleatlas.com/, plus Geospatial One Stop (GOShttp://www.geo-one-stop.gov/) and a few other partners like MDA (MacDonald, Dettwiler and Associates Ltd.http://www.mda.ca/), to upgrade the National Geographic MapMachine http://plasma.nationalgeo graphic.com/mapmachine/, a map service/online atlas that provides global map coverage for an extensive set of Earth science themes.", "MapMachine was first launched in November 1999, and is powered by ESRI's ArcWeb Services http://www.esri.com/software/arcwebservices/.", 'The planned upgrade aims at bringing satellite imagery, aerial photos, and street-level data to MapMachine users.', 'The next generation of MapMachine will also provide a link to GOS data and metadata to help users discover information about their area of interest or study.', 'MapMachine will include capabilities for 3D globe services, allowing GIS users to "pull in" their own map services to overlay onto a globe.', "Also planned is the addition of ESRI's MapStudio http:// www.mapstudio.com/, an ArcWeb Services application used by many daily newspapers to create maps for printing, to enable users to create customised maps [7] .", "Methods\n\nWe wanted to experiment with the programmable interfaces provided by Google and MSN by mapping the headquarters locations of England's 28 Strategic Health Authorities (SHA), and associating these locations on the resultant maps with relevant online information about the corresponding SHAs from England's National Health Service (NHS) Web site http://www.nhs.uk/England/ AuthoritiesTrusts/Sha/list.aspx.", 'Geocoding\n\nThe programmable mapping interfaces provided by Google and MSN currently only accept longitude and latitude coordinates and do not provide their own geocoding services.', "Google Maps API version of our SHA map\n\nGuided by Google Maps API online documentation http:/ /www.google.com/apis/maps/documentation/ and Gottipati's online tutorial [6] , we produced the Google Maps API version of our interactive SHA map.", "Google Maps API lets developers embed Google Maps in their own Web pages with JavaScript.We had to first visit Google's sign-up page http:// www.google.com/apis/maps/signup.html to get a free API key for the Web site where our maps were to be published.", "We included all SHA coordinates Screenshot of Google Maps API version of England's SHA Locator Figure 1 Screenshot of Google Maps API version of England's SHA Locator.", 'Screenshot of our Google Maps API version of England\'s SHA Locator http://www.healthcybermap.org/ GoogleMapsAPI/ showing the shadowed "info window" for Cumbria and Lancashire SHA, with a clickable external link to access further information about this SHA http:// www.nhs.uk/England/AuthoritiesTrusts/Sha/ showTrust.aspx?id=Q13.', 'The map features all the standard Google Maps controls for zooming, panning (also possible by dragging the map), and displaying/switching satellite and hybrid views.', 'The inset shows an example of the tooltips that appear when the mouse hovers over the markers (or pins) on the map.', "Google Earth KML version of our SHA map\n\nThe development of the Google Earth KML version of our maps was again guided by Google's online documentation available at http://code.google.com/apis.html#earth.", "MSN Virtual Earth Map Control version of our SHA map\n\nFinally, we created a third version of our maps using MSN Virtual Earth Map Control (download control at http:// virtualearth.msn.com/js/MapControl.js), and guided by Part 1 of Roodyn's excellent tutorial available from Via Virtual Earth, Virtual Earth developer resource centre http:/ /www.viavirtualearth.com/ [8] .It should be noted that not all possible features of the programmable mapping interfaces provided by Google and MSN have been explored or demonstrated in our exercise and its outputs (see 'Results' below).", 'For example, it is also possible to add VML (Vector Markup Language) polyline overlays to maps created using Google Maps API.', "Also, Part 2 of Roodyn's tutorial describes additional controls and widgets that can be used with MSN Virtual Earth Map Control [9] .", 'Results\n\nThe three interactive SHA map demonstrators we have created can be browsed online at http://www.healthcyber map.org/GoogleMapsAPI/ (Google Maps API version - \n\nDiscussion\n\nThe geodata-rich society ESRI president Jack Dangermond recently predicted that the supply of satellite and aerial imagery will increase by two folds in the next few years.', "The wikification of GIS, maps and satellite imagery/aerial photography: imaging and geospatial information for the wide masses\n\nThere is no doubt the different online consumer geoinformatics services that have been presented in the 'Background' section of this article, including the different geographic search interfaces from major Web search engine providers, have significantly contributed (in record time) to raising the general public interest in geography and satellite imagery.", "However, although Google Maps API (and similar API offerings from other providers) enables users to deeply customize the standard provider's interface (Google Maps), and to create their own custom annotated maps (custom applications based on Google Maps), such APIs remain difficult for the non-expert, average user to exploit.", 'This author expects the technology to further evolve to enable the average Web user to share geospatial informa-tion, to customize, annotate and publish his/her own online maps and related Web applications, and to collaborate with other users/online communities within an online customizable and collaborative mapping environment, all without the need for any prior programming knowledge or expertise.', 'Screenshot of our Google Earth KML version of England\'s SHA Locator (see instructions at http://www.healthcybermap.org/GoogleEarthKML/) showing our KML SHA feed in Google Earth, with an "info window" for West Yorkshire SHA.', 'The KML feed featured in this screenshot is available at http://www.healthcybermap.org/GoogleEarthKML/sha.kml and is intended to be opened by Google Earth desktop application, which can be downloaded at http://earth.google.com/.', "Along the same lines, it is not difficult to imagine the development in the very near future of 'geowikis', 'mapwikis', geo-enabled blogs, 'mapblogs' (imagine, for example, people with an Internet-connected, GPS-enabled mobile device wanting to blog their movements, and share their activity spaces and geo-referenced news with other online users for various purposes), and even geoenabled, mappable Web/RSS feeds and map feeds (see the Smugmug KML photo feed example mentioned in the 'Background' section above).", 'In fact some early geowiki examples have already found their way on the Web; see, for example, http://www.wikyblog.com/Map/Guest/ Home, http://www.geowiki.com/, and also worldKit GeoWiki, a publicly editable map application http:// brainoff.com/worldkit/doc/geowiki.php (a simple online demo of worldKit GeoWiki to which anyone can add their own data is available at http://brainoff.com/worldkit/ geowiki/).Another example is the Katrina Information Map http:// scipionus.com/, which was built using Google Maps [15] .', 'Katrina Information Map was conceived for use by people Like the main MSN Virtual Earth service, our custom map allows users to move the map around by dragging it, to zoom in and out with the mouse wheel, and to zoom in by double-clicking on a location.', "Clicking a Strategic Health Authority 'S' marker (or pin) on the map will display the corresponding Summary Information page from England's National Health Service (NHS) Web site (e.g., http://www.nhs.uk/England/Authoritie sTrusts/Sha/showTrust.aspx?id=Q25 for Leicestershire, Northamptonshire and Rutland SHA).", 'Users having information about the status of an area that is not yet on the map can easily contribute to the map by adding/appending their information to it.', "(Readers interested in Hurricane Katrina's online maps and imagery in general might also find the following two sites useful: http://www.esri.com/news/pressroom/hurri canemaps.html, http://ngs.woc.noaa.gov/katrina/, http:// www.theregister.co.uk/2005/09/07/ google_maps_katrina/ and http://msnbc.msn.com/apps/ ve/katrina.htm.)", "Screenshot of MSN Virtual Earth Map Control version of England's SHA Locator\n\nThe possibilities and potentials are endless.", 'This is what this author calls the ultimate "wikification" of GIS, maps and satellite imagery/aerial photography.', "If the majestic Tate Museum in London is currently posting captions from its visitors next to its greatest works of art [16] , why shouldn't online maps (even those from very reputable sources like the National Geographic Society) allow a similar approach?!", "Associated individual privacy, national security, data confidentiality, and copyrights/digital rights management issues\n\nAs geospatial technology progresses and becomes more readily available to the wide masses around the world who are connected to the Internet, the interrelated issues of GIS and map data confidentiality/individual privacy, and even national security start to surface, calling for further examination of, and research into these delicate aspects of Internet GIS and Web maps [5, [17] [18] [19] [20] [21] [22] .For example, in public health worldwide, any public identification of an individual's health status and residence, regardless of level of contagion or risk, is usually prohibited with very few exceptions, e.g., Megan's Law in the US, which allows the release of residential information on registered child sex offenders to the public by local government [17, 23] .", 'In fact, thanks to the latter law, we have a service like the Georgia Sex Offender Maps http:// www.georgia-sex-offenders.com/maps/, which was built using Google Maps API.', 'SARS (Severe Acute Respiratory Syndrome) mapping in Hong Kong in 2003 using disaggregate case data at individual building level in near real time was another noticeable exception to this well-established public health confidentiality rule, and also a unique and rare GIS opportunity that resulted in some very comprehensive public Internet mapping services [24] .It is noteworthy that Google Maps API terms and conditions http://www.google.com/apis/maps/signup.html state, "There are some uses of the API that we just don\'t want to see.', 'For instance, we do not want to see maps that identify the places to buy illegal drugs in a city, or any similar illegal activity.', 'The current concern is to find an appropriate balance between public access to spatial information and protection of information considered a priority for national security [17, 23] .But despite all these undeniable, legitimate and real concerns about Internet GIS and map data privacy and confidentiality, many of the doubts and misgivings that are raised concerning these aspects of Internet GIS seem to be ill founded, or at least exaggerated.', 'Entchev [19] has wisely stated, "Let us not cripple the GIS system to meet some vague privacy perceptions".Another thorny Internet GIS issue that needs to be addressed is that of data and map copyrights.', 'Conner [14] has rightly described online maps as a copyright minefield.', 'Copyrighted geo-data and maps are usually more difficult and expensive to acquire and use.But as geo-data become more important in everything from blogs through mobile phones to finding lost people, free maps could make more and more of a difference [14] .', 'However, someone needs to pay the bill for such "free" maps, and so finding sustainable commercial models for adoption by online geo-data and Web map providers is becoming of prime importance these days [25] .', 'Examples of such commercial models include ad-sponsored map services, and low-cost, added-value paid services supporting the free service like Google Earth plus http:// earth.google.com/earth_plus.html and Google Earth Pro http://earth.google.com/earth_pro.html.', 'Microsoft also provides an alternative ad-supported, but still free, "commercialized" version of their MSN Virtual Earth Map Control for commercial Web sites [26] .The Open Geospatial Consortium\'s (OGC) work on Geospatial Digital Rights Management (GeoDRM) is also poised to become an important enabler in the context of geo-data and map copyrights [27] .', 'A great deal of work has already been done in the area of data ownership and rights management for the online e-book, video and music industries, with some mature working solutions already in existence from companies like www.microsoft.com/windows/windowsmedia/drm/ default.aspx and http://www.microsoft.com/windows/ie/ downloads/addon/rm.mspx) and Adobe https://aracti vate.adobe.com/.', 'Conclusion\n\nGoogle and MSN\'s worldwide distribution of "free" geospatial tools, imagery, maps and, eventually, in future versions of their products, analysis capabilities, is to be commended.', 'Building on the powerful and universal visual language of geography, they succeeded in making their customizable multi-purpose maps and imagery of the world familiar and accessible to millions of ordinary Web users around the globe from outside the fields of specialized geosciences.', 'Although ESRI have announced their planned response to Google (and MSN), it remains to be seen how their envisaged plans will materialize and compare to the offerings from Google and MSN, and also how Google and MSN mapping tools will further evolve in the near future.']</t>
   </si>
   <si>
-    <t>['The Hong Kong Environmental Protection Department (EPD) has reported frequent occurrence of high concentrations of pollutants, such as NO 2 and respirable particles (RSP) in urban areas like Mong Kok and Causeway Bay (Yim et al., 2009 ).', 'These areas have some of the highest urban densities in Hong Kong.Since the Severe Acute Respiratory Syndrome (SARS) episode in 2003, the planning community in Hong Kong has started to pay more attention to urban design to optimize the benefits of the local wind environment for urban air ventilation.', 'The importance of the wind environment on the physical interaction between urban areas and the atmosphere has been studied by urban climate researchers (Arnfield, 2003) .', 'Two kinds of tools are frequently employed to study the wind environment of the city: wind tunnel tests and computational fluid dynamics (CFD) tech-niques.', 'The US Environmental Protection Agency (EPA) conducted numerous urban-scale wind tunnel tests to understand the dispersion of particulate matters smaller than 10 m in aerodynamic diameter (PM 10 ) (Ranade et al., 1990) .', 'Williams and Wardlaw (1992) conducted a large-scale wind tunnel study to describe the pedestrian-level wind environment in the city of Ottawa, Canada.', 'In Hong Kong, the Wind/Wave Tunnel Facility has conducted numerous tests at the city, district, and urban scale to understand the wind availability and flow characteristics of Hong Kong (HKPD, 2008) .Apart from wind tunnels, CFD model simulation can be helpful at the initial urban planning stage in providing a "qualitative impression" of the wind environment.', '(1999) used CFD simulations to analyze the wind environment at the urban scale.', '(2009) conducted the largest urban CFD simulation of Tokyo to understand the effects of building blocks on the thermal environment of Tokyo.', 'This paper employs the understanding of urban surface roughness based on the urban structure to establish the relationship between urban morphology and urban air ventilation environment.', 'Using the site-specific wind rose information, the FAD calculation focuses on the effects of the built environment to the wind field.', 'The spatial characteristics of the large podiums reduce the air space nearer to the ground, and can greatly affect the wind environment at the pedestrian level.This study firstly validates the relationship between the pedestrian-level wind environment and FAD at the podium layer.', "Using Bottema's model equation, Gál and Unger (2009) drew a roughness map of z0 and zd to detect the ventilation paths in Szeged.", '(2010) drew a map of f(Â) to detect the air paths in the Kowloon Peninsula of Hong Kong.', 'Calculation of frontal area index and frontal area density\n\nThe frontal area index f(Â) is a function of wind direction of Â, which is an important parameter of the wind environment.', 'Development of a new method to calculate f(z) values\n\nUsing a high-resolution (1 m × 1 m) three-dimensional building database with building height information and digital elevation model (DEM), a self-developed program embedded as a VBA script in the ArcGIS system is applied to calculate the frontal area density ( f(z) ) at different height bands.', 'Therefore, to focus on the drag effect caused by the built environment, the site-specific wind roses for the annual non-typhoon winds at a height of 60 m in 16 directions were used to calculate the corresponding local values of f(z) .', 'CALMET is a diagnostic three-dimensional meteorological model that can interface with MM5 (Scire et al., 2000) .The terrain in Hong Kong is complex; hence, the resolution used in MM5 simulations (typically down to 1 km) cannot accurately capture the effects of the topology characteristics on wind environment.', 'Therefore, CALMET, a prognostic meteorological model capable of higher resolutions (down to 100 m), has been used.', 'Having combined the data obtained using MM5 and the data obtained from an upper air sounding station of the Hong Kong observatory in 2004, the CALMET model adjusts the estimated meteorological fields for the kinematic effects of terrain, slope flows, and terrain blocking effects to reflect the effects of a fine-scale terrain in producing wind fields at 100 m resolutions (Yim et al., 2007) .', 'Compared with the map in polygon units (Gál and Unger, 2009 ), this new calculation allows an exploration of the uniform grid map with a better explanatory power.', 'Validation of the method and resolution\n\nA statistical study was conducted to validate the FAD calculating method and resolution.', 'Secondly, based on the results of the statistical analysis, the resolution was further validated for mapping urban permeability in Hong Kong.', '9 , when the study areas in wind tunnel tests were crossed by grids in the map, the average of f(z) for the study areas is calculated bywhere f i(z) represents the frontal area density in the ith grid, S i represents the area of the ith grid in the study area, and S t represents the area of the study (Fig.', 'The f(z) in the podium layer ( f(0-15 m) ) that corresponds to the four grid sizes (resolutions), namely 50, 100, 200, and 300 m, were calculated.', '10 , in accordance with values of the f(0-15 m) including the unreal flow-confronting areas are larger than the ones calculated by the more traditional Table 1 Correlation between VR w,j and f(0-15 m) in different resolutions and calculation methods.', 'Furthermore, compared with the traditional method of calculating the frontal area density, the new method can alleviated the underestimation of mapping urban surface roughness in high density cities with large and closely packed buildings.', 'Resolution\n\nAs shown in Table 1 , the values of R 2 decrease with the reduction of the grid sizes.', 'Choosing a larger grid size would have a positive effect on depicting the urban wind environment.', 'Calculation of the average of f(z) in the study area (suppose the resolution is 300 m × 300 m).', 'For mapping roughness, the explanatory power of the map should not be totally traded off for the sake of the correctness of f(z) .', 'After weighing the considerations, the resolution of 200 m × 200 m was adopted in mapping urban permeability in Hong Kong.', 'The wind environment and urban morphology at the podium layer\n\nThe skimming flow regime is normally found at the top of compact high-rise building areas (Letzel et al., 2008) .', 'Similarly, due to the urban morphology of Hong Kong, which is characterized by high density and tall buildings, the airflow above the top of the urban canopy layer may not easily enter into the deep street canyons to benefit the wind environment at the pedestrian level.', 'This illustrates that the wind velocity ratio at the pedestrian level is more dependent on the urban morphology at the podium layer (0-15 m) than the building layer (15-60 m) or the whole canopy layer (0-60 m).This understanding is useful in guiding the urban design and planning strategies toward a quality wind environment at the pedestrian level in high-density urban areas.', 'Compared with front area index, which was used to detect the air paths in Hong Kong (Wong et al., 2010) , f(0-15 m) has been proven to be a better morphological factor in depicting the wind environment at the pedestrian level.', '13a , the map of the frontal area density (0-15 m) depicts the local wind permeability at the podium layer in the Kowloon Peninsula and Hong Kong Island.', 'The maps of the frontal area density (0-60 m and 15-60 m) are also presented, as shown in Fig.', '13b and c. These two maps are important for describing the wind permeability at the urban canyon layer.', 'For planners, using GCR to predict the wind environment at the pedestrian level is reasonable.', 'Compared with other maps (Gál and Unger, 2009; Wong et al., 2010) , the proposed map is more applicable to urban designers and planners because GCR is one of the most accessible data by planners in the planning process.Due to the extremely large building widths (large commercial podiums and industrial buildings), local values of some areas may deviate.', 'Mapping the surface roughness (classification)\n\nBased on the analysis in Section 6.1, GCR may be established as an important planning parameter that can be used to describe the wind permeability of the podium layer.', 'An urban-level wind environment map of Hong Kong may be drafted using the GCR information.', 'This relationship can be used as the basis for the threshold values of the map classification.', '17 , three classification values are assigned: "Class 1," "Class 2," and "Class 3," which denote good, reasonable, and poor pedestrian wind performance, respectively.Based on this classification, the map of wind performance at the podium layer in Hong Kong was generated (Fig.', 'Compared with the roughness map without classification, the map in this study is more intuitive; in addition, it can aid urban planners better in modifying building morphology to improve the urban air environment.', 'The map can be the spatial reference for urban planners.After incorporating the respective site-specific wind roses, the areas with low wind permeability are depicted in Fig.', 'These areas block wind and worsen the wind environment at the pedestrian level of their leeward districts.', 'Potential air paths in the podium layer are also marked out in this map.', 'The number of the point pairs is 11. paths would play an important role to improve the urban ventilation and environment quality by bringing fresh air flow into the urban areas for dissipating air pollutant and for mitigating urban heat island intensity.', 'In addition, a high grid resolution was applied in this study, that is, the number of fine meshes was approximately 2 million.', '17 .The results of this case study prove that, using the urban wind permeability map of the territory (Fig.', 'Map of wind permeability at the podium layer.', 'The wind permeability at the podium level is depicted in the map: Class 1: GCR = 0-30%, Class 2: GCR = 31-50%, Class 3: GCR &gt; 50%.', "These areas could block the natural ventilation and worse the leeward districts' wind environment at the pedestrian level.", 'Potential air paths in the podium layer are also marked out in this map.', 'First, one of the most significant factors is urban morphology, especially the podium layer, and its implication to the urban air ventilation environment.', 'According to Chapter 11, Sections 9-13 of the Hong Kong Planning Standards and Guidelines (HKPSG) (HKPD, 2006) , a number of urban forms deemed to be conducive to the urban air ventilation environment have been proposed:.', 'This understanding is in line with the concerns of the so-called "wall buildings," wherein a line of tall buildings screen the waterfront from the inland areas, thereby blocking the incoming urban air ventilation from the sea.Based on the GCR information readily available to planners working on their GIS system, the study has shown that planners can easily generate an urban wind permeability map of the territory (Fig.', '25) :For better urban air ventilation in a dense, hot-humid city, breezeways along major prevailing wind directions and air paths intersecting the breezeways should be provided in order to allow effective air movements into the urban area to remove heat, gases and particulates and to improve the micro-climate of urban environment.Breezeways should be created in forms of major open ways, such as principal roads, inter-linked open spaces, amenity areas, non- building areas, building setbacks and low-rise building corridors, through the high-density/high-rise urban form.', 'For effective air dispersal, breezeways and air paths should be perpendicular or at an angle to each other and extend over a sufficiently long distance for continuity.Using the urban wind permeability map of the territory (Fig.', '18) , city planners can initially estimate the possible urban air ventilation environment of the urban areas with the average velocity ratios.', 'Future work\n\nThe wind environment in urban areas is complicated.', '5) to the wind environment can be important.']</t>
-  </si>
-  <si>
-    <t>['Variations may be explained by geographic or environmental differences.Calves with less than 500 mg IgG/dL are very prone to septicemic E. coli, and those with 500 to 1000 mg IgG/dL are defined as having partial failure of passive transfer (FPT) and are also at increased risk.', 'Infected calves allowed to remain in the maternity area will amplify the level of environmental contamination, thereby placing other neonates born in that area at risk.', 'This can be a feature of herd outbreaks of clinical salmonellosis when parturient adult and sick fresh cows are shedding excessive numbers of organisms into the environment or when calf housing and common use equipment becomes heavily contaminated due to a large number of clinical cases.', 'Fecal contamination of the environment is especially problematic when calves are housed in group housing, raised slatted stalls, or crowded areas, or when born in a stall used both as a maternity pen and sick cow area.', 'Fortunately, this seldom occurs unless newborn calves are put in heavily contaminated environments such as group housing arrangements or hutches that have not been cleaned since previous occupancy by infected calves.', 'This stress, combined with an environment that more commonly fosters fecal contamination of feedstuffs, water sources, and hair coats, creates • Fig.', 'Environmental factors such as heat stress tend to amplify the clinical signs and increase morbidity and mortality.', 'With types B, C, and E organisms, this contamination of milk may represent septicemic spread of the organism to the mammary gland, environmental fecal contamination of the milk and milking equipment, or both.', 'Mastitis caused by S. Dublin may be subclinical, and environmental contamination of quarters has been shown to be a more likely cause than septicemic spread to the udder.', 'Furthermore, when hydration, electrolyte balance, and normocalcemia are restored by fluid therapy, cattle with enteritis typically show resolution of any mild abdominal distension that might have developed as a result of ileus.', "Although most cattle infected with MAP remain asymptomatic, cattle with clinical signs signal the diagnosis and alert both veterinarian and herd owner to the possibility of a herdwide problem.Despite loose manure, loss of body condition, and diminished milk production, cows with Johne's disease do not appear seriously ill until the terminal stages when finally the appetite is markedly reduced.", 'If several 2-year-old heifers in a herd develop clinical signs of diarrhea, it suggests a rather heavy dose of MAP at an early age, but clinical signs in 5-to 7-year-old • Fig.', 'This would imply extremely heavy environmental contamination with Mycobacterium avium subspecies paratuberculosis.', 'cows suggest a much lower dose of MAP or older age at the time of exposure.', 'Dairy cattle with confirmed MAP infection have been shown to have higher cull rates than uninfected herdmates because of weight loss and reduced milk yield when clinical disease is evident and decreased production and mastitis when the infection is still, as yet, subclinical.', 'A recent study on two large Minnesota dairy farms identified a threefold increase in the relative risk for culling in MAP fecal culture-positive cattle compared with fecal culture-negative cows.', 'This study is noteworthy in that these herds were typical upper midwestern free stall dairies with an approximately 8% prevalence for MAP fecal culture positive animals.', 'The development of visible turbidity in the 18% solution of sodium sulfite turbidity test is a reliable test for adequate passive transfer.', 'Clinicians and producers should be aware of the differences between pathotypic strains of E. coli (e.g., ETEC) capable of producing severe disease in calves with adequate passive transfer and the everyday, commensal, and environmental E. coli often associated with sepsis caused by FPT.', 'Sections of ileum should be cut into 2-to 3-cm lengths and then split longitudinally and swirled in 10% neutral buffered formalin solution to aid in rapid fixation of the mucosa.', 'Electrolyte solutions containing glutamate mixed with yogurt may speed intestinal recovery, although this is not proven in calves.', 'Sample handling is pivotal in reaching a definitive diagnosis, and practitioners should familiarize themselves with their local diagnostic laboratory requirements and recommendations for maximizing the chances of a positive culture from feces, environmental samples, or postmortem tissues.', 'Ziehl-Neelsen staining confirms the presence of MAP in the intestine and lymphatics.', 'However, culture of these same tissues has a much greater sensitivity to detect MAP than does histopathology.', 'Although MAP may be isolated from other organs such as the liver, uterus, or fetus in some advanced cases, gross lesions consisting of granuloma formation are rare in these organs, and truly disseminated infections having gross lesions are very rare.', 'However, disseminated infections as detected by culture of MAP from lymphatic fluid and lymph nodes such as the prescapular, prefemoral, supramammary, or popliteal lymph nodes do occur in cattle with clinical disease.', "Lymphatic distension is obvious on the serosal surface of the ileum, and the ileocecal lymph nodes, as well as other mesenteric lymph nodes, are enlarged and edematous on cut sections.Available confirmatory antemortem diagnostic tests include those that directly detect the organism in feces or those that detect the animal's immune response to MAP infection.", 'These tests also have the ability to determine the quantity of MAP organisms being shed and thus are helpful for prioritizing animals for culling based on relative impact on environmental contamination.', 'A cost effective approach is to use milk ELISA, using not just the dichotomous results (i.e., "positive" or "negative") but using the quantitative result (optical density (OD) value or sample to positive (S/P) ratio), recognizing that the strongest reactors are most likely to be heavy fecal shedders and pose the greatest risk for contaminating the environment with MAP.', 'Surgical biopsy of the ileum and ileocecal lymph node could detect MAP infection in these animals but is generally not practical for this screening purpose.', "The most effective way to prevent introduction of MAP is to purchase animals from herds known to be free of MAP, such as herds that have achieved status 4 level or above in the Voluntary Johne's Disease Control Program.The gold standard for diagnosis has long been considered culture of ileum, ileocecal lymph nodes, or other mesenteric lymph nodes for cattle with clinical Johne's disease.", 'Intravenous (IV) balanced electrolyte solutions should contain dextrose (2.5%-10%), and sodium bicarbonate (20-50 mEq/L) if the plasma bicarbonate concentration is (&lt;10 mEq/L), to address hypoglycemia and metabolic acidosis respectively.', 'Bicarbonate-rich solutions are indicated in peracute Salmonella infections and should be considered when profound depression or shocklike signs accompany peracute diarrhea.', "Oral electrolyte-energy solutions are helpful but limited by the maldigestion, malabsorption, and inflammatory lesions in the patient's intestinal tract.", 'Experience suggests that resolution of a salmonellosis problem on a dairy requires far more critical and influential decisions than antibiotic selection for individual cases.Supportive treatment requires IV fluids (crystalloids and colloids such as plasma or Hetastarch; 5-10 mL/kg) with appropriate electrolytes and glucose to rehydrate the calf.', 'Calves that are in shock may also be given dexamethasone or flunixin meglumine (0.5-1.1 mg/kg IV) as one-time treatments.Resolution of clinical signs is gradual and slow.', 'Laxatives appear to be of limited benefit in affected individuals, and large doses of magnesium oxide-hydroxide laxatives are likely contraindicated because they may exacerbate metabolic alkalosis seen in early stages of the disease, induce hypermagnesemia, and simply pull more fluid into the gut lumen.A large, right-sided tympanic resonance in an ill calf may be a case of abomasal or cecal volvulus, and surgical exploration is indicated if initial medical management does not quickly result in resolution of tympany.', 'Intravenous sodium iodide (20% solution) is an extremely irritating preparation that should be administered IV only by a veterinarian.', 'Loose teeth may require extraction, and fistulous tracts may be flushed with iodine solution as ancillary aids.If clinical cases occur, treatment should be symptomatic.', 'Resolution of dysphagia, when present, is an important positive prognostic sign because the patient can now drink effectively and hydrate herself.', 'Resolution of fever is another positive prognostic sign but may be misleading if the temperature decreased because of concurrent therapy with nonsteroidal antiinflammatory drugs (NSAIDs).Nursing procedures and ensuring access to fresh clean water and soft feeds such as silage or gruels of soaked alfalfa pellets are helpful.', "Use of balanced electrolyte solutions such as lactated Ringer's solution is sufficient for most cattle.", 'Hypertonic saline (7.5 times normal) administered at 3 to 5 mL/kg followed by 10 to 20 gallons of oral electrolyte solution, either consumed voluntarily or given by orogastric tube, is a highly practical method of fluid resuscitation in a field setting.', 'As a crude rule of thumb, cattle that show no voluntary interest in drinking after rapid IV administration of 3 to 5 mL/kg of 7.5 times normal saline solution should provisionally be given at best a guarded prognosis and are mandatory candidates for large-volume oral fluid drenching.Oral fluids and electrolytes may be somewhat helpful and much cheaper than IV fluids for cattle deemed to be mildly or moderately dehydrated.', 'In addition, appropriate antibiotic therapy may reduce the total number of organisms shed into the environment by counteracting septicemic spread that allows all bodily secretions, not just feces, to harbor the organism.', 'Occasional high-producing cattle require parenteral calcium solutions to counteract secondary hypocalcemia or treatment of ketosis secondary to reduced appetite.', 'Uninfected embryos can be obtained from infected cows, via conventional embryo transfer provided proper embryo washing steps are followed, or after in vitro fertilization subsequent to oocyte pickup.Owners that wish to undertake treatment should be advised that daily, lifelong treatment is required; treated animals may continue to shed MAP in their feces even if clinical signs are reversed; and relapse will ensue when treatment is stopped.', 'Thus, owners should be advised that the treated animal or its products must not enter the human food supply chain.Monensin is an ionophore antibiotic shown to have activity against MAP and have a beneficial effect in infected cattle.', 'Resolution of diarrhea and improvement in plasma total protein can be observed within 2 weeks of starting treatment, although fecal shedding may continue.', 'And (2) is the environment likely to harbor large numbers of E. coli during the periparturient and neonatal period?', 'The practice of pooling colostrum also may increase Mycobacterium avium subspecies paratuberculosis (MAP), Salmonella Dublin and leukemia virus infection rates.', 'If the serum sodium sulfite turbidity test is used, use of the 1+ endpoint (turbidity in 18% solution) as an indicator of adequate passive transfer status will maximize the percentage of calves correctly classified by this assay.', 'Periodic quality control checks of conventional or Brix refractometers (against distilled water or sugar solution standards for calibration) is advised.', "Use of such products has recently been implemented in certain herds as a tool to limit transfer of infectious agents to the calf via colostrum, such as MAP, the causative agent of Johne's disease, the bovine leukosis virus, S. Dublin, and Mycoplasma bovis.", 'The importance of maternity pen hygiene cannot be overstated because no level of passive immunoglobulin transfer can protect completely against gross filth in the environment, and conversely, even calves with partial or complete FPT may survive when cleanliness is exceptional.', 'Dry cows should not be kept in filthy environments that allow heavy fecal contamination of the coat and udder.', 'An effective solution, first proposed by Dr. R.H. Whitlock, is formulated by adding 150 mEq of NaHCO 3 to 1 L of 5% glucose.', 'Although this may undoubtedly be true, it seems risky to tempt fate by administering K + -containing solutions as the initial therapy for a patient known to be hyperkalemic.', "Balanced electrolyte solutions such as lactated Ringer's solution suffice for maintenance fluid needs, but supplemental NaHCO 3 and dextrose may be required to address continued secretory losses and anorexia.", 'Other treatments for peracute cases may include flunixin meglumine (1.1-2.2 mg/kg IV every 24 hours) for potential endotoxemia, resolution of fever, and reduction of pain associated with fluid-filled bowel.', 'Even though many oral electrolytes are supplemented with dextrose as an energy source, no commercial oral electrolyte solution provides enough energy for maintenance needs, especially for dairy calves in hutches during winter weather.', 'Weight will be lost, and starvation may occur if these electrolyte solutions are fed as the only ration for more than 1 or 2 days.', 'Consequently, it is rarely practical outside of a referral hospital.The alkalinizing potential of oral electrolyte solutions is of great importance, especially when those solutions are used as ongoing therapy for peracute cases after initial IV fluids or when those solutions are used as sole therapy of less severely affected calves having ETEC.', 'Therefore, oral electrolyte solutions containing bicarbonate or some other alkalinizing anion are most helpful.', 'The optimal oral electrolyte solutions typically possess 70 to 80 mEq of alkalinizing potential per liter (typically as bicarbonate, propionate or acetate), dextrose, and electrolytes; these should be fed at 4 to 6 L/day.', "Oral electrolyte solutions that when mixed with water are nearly isotonic are preferred over those that are markedly hypertonic.Concerns regarding adding oral electrolyte solutions to milk or milk replacers revolve around the alkalinizing solutions' tendency to interfere with abomasal clot formation.", 'Supplemental oral electrolyte solutions can be continued if ongoing fluid and electrolyte losses are assumed to result from continued diarrhea, and these solutions should be fed at intervals between whole milk or replacer feedings.', 'Unless the calf is hypoglycemic or acidotic, isotonic electrolyte solutions are preferred because they allow a more normal abomasal transit than do hypertonic solutions.Treatment of acute ETEC infections in calves that are ambulatory and still able to suckle may not require IV therapy.', 'Cessation of whole milk or replacer feeding coupled with substitution of oral electrolyte-glucose solutions for 24 to 36 hours may be sufficient.', 'It is imperative to use highly alkalinizing electrolyte glucose solutions to provide 4 to 6 L of fluids per day.', 'Spontaneous recovery is the rule, and supportive care with oral electrolyte solutions frequently is used by owners in such cases.', 'Mixing errors leading to hyperosmolality of oral feedings (especially electrolyte solutions) or milk replacer can add a further and compromising degree of nutritional diarrhea in some situations.', 'The osmolality of electrolyte solutions should be in the range of 300 to 600 mOs/L, although some solutions at the high end of this range may be problematic if ad libitum water is not available.', 'Measuring total solids in milk replacer, as fed, is a highly relevant part of a herd investigation as is checking osmolality of any oral rehydration solutions, again as fed.', 'Total solids of milk replacer solutions should never exceed 18%, and it is always reassuring to be able to demonstrate consistency by virtue of a less than 1% variation from feeding to feeding.', 'In so doing, one should consider (1) identifying and correcting management and environmental factors that might impair cow immunity, (2) performing a careful partial budget analysis of the cost of specific preventive measures, and (3) deciding on which specific corrective measure(s) might be most justified for a particular dairy.To begin with a thorough analysis of transition and fresh cow management should be performed to identify problems with cow comfort, hygiene, nutrition, and disease control that might impact disease resistance during the apparent period of greatest risk for HBS, which is the first 3 to 4 months of lactation.', 'To our knowledge, no studies currently exist on the persistence of BVDV in properly composted carcasses, but data on the survivability of viruses related to BVDV indicate that longterm environmental persistence is unlikely.', 'Incidence of rotavirus diarrhea has been decreased on some farms and reported in two clinical trials by mixing some colostrum (10%) with milk or replacer for up to 30 days.Being a nonenveloped virus, rotavirus is stable in the environment (6 months in fecal matter) and relatively resistant to the effects of some disinfectants.', 'Because coronavirus is an enveloped virus, its persistence in the environment and resistance to disinfectants are considerably lower than those of rotavirus.', 'Unfortunately, many dairy farms fail to effectively control C. parvum when environmental contamination becomes extreme.', 'Although diseased calves serve as the primary source of environmental contamination, oocysts are also spread by movement of laborers, equipment, and animals.', 'Infected calves shed large numbers of organisms into the environment, and contamination is worsened by the fluid characteristic of feces in diarrheic calves.', 'Inapparent or subclinical infections are common and represent a constant source of environmental contamination.Cleanliness and disinfection of housing units are extremely important to the control of salmonellosis because a primary determinant of the severity of infection appears to be the magnitude of challenge or infective dose.', 'Unfortunately, at this point in time, what is unknown is whether this passive antibody will confer a protective effect for calves against natural challenge to either the vaccinal serotype or other strains in a farm environment.', 'It is critical that the producer understands that after an outbreak is well established, control measures may mitigate the severity of the outbreak but often fail to immediately bring resolution.', 'However, calves with fluid feces, fever, dehydration, or other related signs should be isolated because they are shedding billions of organisms into the environment.', 'Often the first material ingested by the newborn calf is directly from the maternity environment, immediately after birth, and before consuming colostrum.', '• Physically clean environment, improve hygiene, and disinfect premises.', 'Prevention of enterotoxemia in nursing calves requires consideration of environmental or management factors that may trigger ingestion of larger than normal volumes of milk or replacer.', 'C. jejuni will grow in milk and may arrive in milk from septicemic spread but is more likely to contaminate milk because of environmental contact.Herds that are free of MAP can best prevent introduction of the disease by maintaining a closed herd.', 'Purchase of replacement cattle from herds of unknown status poses a great risk for introducing asymptomatic but MAP-infected animals.', 'If this cannot be done, then depending on the age of replacement animals, prepurchase testing for MAP infection may not be a foolproof method of screening new additions (see earlier).Control of the disease in infected herds will depend in part on the objectives of the herd.', 'Large production herds with no interest in selling replacement cattle may perceive little financial incentive to spend money on controlling the disease because they believe that culling for other reasons will often occur before MAP infection affects production.', 'Colostral replacements could be used as a substitute for colostrum in herds with a high MAP incidence, but their use as a replacement for colostrum may lead to an increased incidence of other diseases in calves such as septicemia or diarrhea.', 'Colostrum that is properly heat treated (60 min at 60°C and with constant stirring) will reduce the number of MAP but might not eliminate the organism completely from the colostrum.', "The purchase of replacement animals from herds of unknown Johne's disease status continues to represent the greatest risk to introduce or reintroduce MAP to such herds.", 'Equipment used for manure removal or that could be contaminated by manure must remain separate from feeding implements and the calf environment.', 'In between these two extremes, production herds that wish to "contain" the disease, to prevent the prevalence of MAP infection from increasing on the farm, and to reduce the risk of losing animals or milk production to clinical Johne\'s disease may use an intermediate approach.', 'This may include identifying heavily infected animals through interpretation of milk or serum ELISA alongside management steps to reduce exposure of calves to MAP from feces of adult cows that are potentially shedding the organism.', 'However, it does not prevent infection with MAP, and vaccinated cattle can become infected and shed MAP in feces, although importantly the vaccine does prevent clinical disease in almost all recipients.', 'Currently, salmonellosis ranks as one of the two most important bacterial causes of diarrhea in adult dairy cattle (MAP being the other) and has surpassed E. coli in this respect in calves on many operations.', 'Infection may also be perpetuated over the long term by environmental contamination or by group C Salmonella cycling through rodents, birds, or insects.', 'Although the National Research Council (NRC) provides excellent guidelines for feeding calves under a wide range of environmental temperatures, it does not offer specific guidance for feeding calves under conditions of heat stress, disease, immune challenge, vaccination, or other environmental or management stressors.', 'Table 6 .3 shows how the NRC predicts an increasing requirement for the volume of whole milk fed by calf age under cold and warm environmental conditions for an 80 lb birthweight calf.', 'In Table 6 .4, the NRC calculator has been used to predict the average daily gain (ADG) of a 2-week-old, 95-lb Holstein calf being fed 6 quarts daily (30 oz of milk replacer powder) using different milk replacer formulations and different environmental temperatures.By week 3 of age, a Holstein calf on-target to double birth weight by day 56 should be gaining 1.6 lb/day.', 'Management practices that allow dirty environments, manure buildup, feeding on ground level, feed and water contamination by manure, and crowding should be corrected.', 'If calves are kept in a clean environment, manure should be scraped away daily to prevent "splashing" of feces into bunks, troughs, waterers, and all over calves\' bodies.', 'Eggs require a moist environment to hatch miracidia, which find a snail intermediate host.', 'Therefore, even though most BTV in cattle is thought to be subclinical, certain husbandry or environmental conditions or strains of BTV in field outbreaks appear capable of causing clinical disease.', 'The organism also may be found in milk secondary to environmental contamination and subsequent mastitis.', "often act as opportunistic pathogens, management, nutritional, and environmental factors that adversely impact the cow's defenses are often at play when the disease becomes problematic on a given operation.Salmonellosis was primarily a sporadic disease in dairy cattle in the northeastern United States until the 1970s.", 'Clinical mastitis caused by S. Dublin is thought to originate from environmental contamination of the udder by feces from infected cattle rather than septicemic spread to the udder.', 'As adult dairy cattle generate approximately 70 kg of manure per day, this translates into a daily environmental contamination of between 7 × 10 6 and 7 × 10 11 Salmonella organisms per cow.', 'This undoubtedly leads to widespread and rapid contamination of the dairy farm environment, and Salmonella organisms can survive for prolonged periods in suitable conditions outside the host.', 'The ability of Salmonella to thrive in warm, moist environments likely increases the probability of cattle exposure and infection.', 'Manure in liquid form may be conducive to Salmonella persistence and can be dispersed broadly into the environment, increasing the likelihood of cattle exposure to the organism.', 'It is possible that this is related to the ability of Salmonella to thrive in moist environmental conditions.', 'This serovar is particularly challenging because of its tendency to yield chronic, subclinical carriers that continuously or intermittently shed high numbers of organisms into the environment.', 'can also be transmitted by direct contact with the feces of infected dairy cattle, as some veterinarians and farm employees can attest, underscoring the relevance of occupational and environmental exposure for veterinarians, dairy farmers, and those who interact with dairy cattle in public settings.', 'Physically clean the environment, improve hygiene, and disinfect premises (see also the section on calf salmonellosis).', 'After resolution of the outbreak or crisis period, a mastitis survey should be conducted that includes bulk tank surveillance.', 'perfringens is a large, gram-positive, anaerobic bacillus that is considered to be ubiquitous in the environment and in the GI tracts of most mammals.', 'Therefore, seronegative immunocompetent cattle infected with BVDV do not have any residual or permanent immunodeficiency after resolution of the infection and seroconversion.', 'paratuberculosis (MAP).', 'The disease has a worldwide distribution, and in the United States, recent surveys conducted by the National Animal Health Monitoring system have demonstrated that 70% to 90% of all U.S. dairies have MAP-infected animals.The etiologic agent is an acid-fast organism that has fastidious in vitro growth requirements requiring special media and may require up to 16 weeks to cultivate from fecal samples.', 'It survives well in farm environments and can survive for 1 year or more in soil and water.', 'Although regarded as primarily an enteric infection, as the infection progresses MAP may spread via macrophages in blood or lymph to other important sites such as supramammary lymph nodes, mammary gland, (and milk), and uterus (and fetus).', 'In the United States, MAP-related average costs have been estimated to lie between $22 and $27 per cow per year, but the economic impact of the disease in positive herds versus confirmed negative herds is much higher and may exceed $100 per cow per year when infection progresses to clinical signs of disease.', 'Transmission\n\nThe most important means of transmission of MAP is by the fecal-oral route.', 'The MAP organisms are shed in the feces of infected cattle and ingested by susceptible animals.', 'Direct contact is not necessary because studies have shown that in heavily contaminated farm environments, MAP may aerosolize with dust and contaminate surfaces located short distances from adult cow housing areas.', "Infected cows can also shed MAP directly in milk, and transplacental transmission has been documented in 20% of subclinically infected pregnant cows and up to 40% of cows with clinical signs of Johne's disease.Older calves have a more variable outcome after infection, and larger doses of MAP are required to cause infections that lead to later onset of clinical signs.", 'Factors including concurrent diseases, genetics, environment, and other stressors may contribute to increased susceptibility to infection.', 'Pathogenesis and Progression\n\nAfter oral ingestion, MAP organisms invade intestinal epithelial cells, most notably through specialized cells within ileal Peyer patches (M cells), which deliver the organisms to submucosal macrophages.', "The subsequent course of infection is determined by numerous factors, including the dose of MAP organisms ingested and the animal's individual susceptibility to MAP, which in turn is determined by the age of the animal and the ability of its innate and adaptive immune responses to control MAP.", 'Resistance to MAP infection is estimated to have approximately 10% heritability.', 'Thus, in some exposed animals, MAP organisms will be contained or eliminated by macrophages, and infection will not become established, but in others, the infection will ultimately progress.', 'In the early stages of infection, macrophages are activated by interferon-γ produced by Th1 helper lymphocytes and limit proliferation of the MAP and thereby its spread to other sites.', 'However, the immune response to control MAP results in "collateral damage," inciting a granulomatous response within the intestinal mucosa.', 'This is characterized by progressive infiltration by epithelioid cells, multinucleate giant cells, and lymphocytes surrounding MAP-laden macrophages.', 'In this early stage of infection ("eclipse phase"), during which MAP organisms are slowly proliferating and the inflammatory process is slowly progressing, no clinical signs are observed.', 'The animals are outwardly healthy, fecal shedding of MAP rarely occurs, and serum antibodies are not produced.', 'Milk production and reproductive performance are not generally affected in these asymptomatic, low-shedding cattle, which can thus serve as a source of MAP for environmental contamination.Ultimately, spread of the infection accelerates.', 'Fecal shedding at high levels begins, even though there are no clinical signs, and MAP organisms may spread systemically to the mammary gland and fetus.', 'Infected cattle shed MAP in their manure and transmit the disease to herdmates by MAP contamination of the environment.', 'It is widely accepted that cattle that develop clinical signs shed large numbers of organisms and represent the greatest threat to contaminate the environment.', 'Super-shedders may shed MAP in higher concentrations (1-5 million CFU/g of manure) than cattle with clinical disease.', 'Potentially, these animals represent the greatest source of environmental contamination and reservoir for possible transmission to herdmates.', 'Most super-shedders are asymptomatic with no evidence of diarrhea or weight loss yet excrete huge numbers of MAP organisms into the environment.', 'Passive shedding of MAP may occur when noninfected cattle ingest manure contaminated forage or water.']</t>
-  </si>
-  <si>
-    <t>['As illustrated in Table 1 , there are total 20 amino acids and 64 codons in the natural world, and each of these codons has a specific meaning in protein synthesis: 64 codons represent amino acids and the other 3 codons cause the termination of protein synthesis.For the 64 codons illustrated in Table 1 , their corresponding triplets of DNA are illustrated in Table 2 .Based on the above 64 triplets of DNA illustrated in Table 2 , we define a new mapping Ψ to map each of these triplets into a different weight.', 'Obviously, the mapping Ψ shall satisfy the following rule: for any two pairs of triplets (X 1 , Y 1 ) and (X 2 , Y 2 ), where X 1 , Y 1 , X 2 , and Y 2 are all triplets, if the corresponding codons of X 1 and Y 1 code the same amino acid but the corresponding codons of X 2 and Y 2 code two different amino acids, then there shall be |Ψ (X 1 ) − Ψ (Y 1 )| &lt; |Ψ (X 2 ) − Ψ (Y 2 )|.', 'We design the detailed mapping rules of Ψ as illustrated in Table 3 .For example, from Table 3 , we will have Ψ (GCT) = 1.1, Ψ (GCC) = 1.2, Ψ (ATG) = 20.1, etc., and in addition, we can propose a novel 2D graphical representation of DNA sequences as follows:Let G = g 1 , g 2 , g 3 …g N be an arbitrary DNA primary sequence, where g i ∈ {A, T, G, C} for any i ∈ {1, 2,…, N}, and then, we can transform G into a sequence of triplets such as G = t 1 , t 2 , t 3 …t M , where M = [N/3] and t i is a triplet of DNA for any i ∈ {1, 2,…, M}.', 'Thereafter, we can define a new mapping Θ to map G into a plot set as illustrated in the formula (1).As for the complete coding sequences of β-globin genes of 11 species illustrated in the Table 4 , each of them can be mapped into a plot set by using the new given mapping Θ, and the 2D graphical representations corresponding to the complete coding sequences of βglobin genes of human, chimpanzee, and opossum are shown in Figures 1, 2 , and 3, respectively.']</t>
-  </si>
-  <si>
-    <t>['For example, they retain two-dimensional fluidity and can be an excellent environment for presenting membrane proteins.', 'The utility of laminar flow within microchannels has also been used to facilitate the patterning of lipid bilayer arrays within microfluidic systems [17, 18] .In certain instances black lipid membranes and even lipid vesicles in bulk solution have an advantage over solid supported phospholipid bilayers.', 'They also allow solution phase access to both sides of the membrane.', 'The hole is formed in a hydrophobic material such as polyethylene or Teflon and is usually part of a wall separating two compartments that can be filled with aqueous solution, each containing a reference electrode.', 'Two of the most popular methods for BLM formation involve the painting of the lipid solution over the aperture [10] and the formation of a folded bilayer [53] .', 'Typically a 1%-2% phospholipid solution in an organic solvent, such as n-decane or squalene, is painted across the hole under an aqueous solution.', 'The formation of folded lipid bilayers requires a cell with two compartments separated by a small aperture and the solution levels in each compartment must be controlled independently (Fig.', 'Both compartments are filled with the desired aqueous solution and a monolayer of phospholipid material is spread on top of one of the compartments.', 'The solution level in the compartment containing the lipid monolayer is slowly lowered below the aperture and raised again.', 'This means that the same pore can be used in a sequential fashion to detect a variety of analytes.As noted above, black lipid membranes are suspended in solution and there are no unwanted interferences of the membrane with an underlying support.', 'Factors affecting the adsorption and fusion of SUVs to solid supports include: the vesicle composition, size, surface charge, surface roughness, surface cleanliness, solution pH, ionic strength, and the osmotic pressure of the vesicles [68, 89] .', 'The process begins with the adsorption of vesicles from the bulk solution onto the substrate (Fig.', 'The SAM layer can be formed by incubating a clean gold substrate with a 1 mM alkanethiol solution in ethanol typically for a minimum of 12 h [108] .', 'This results in a less fluid environment.', 'Polymer cushioned phospholipid bilayers\n\nWhile solid supported phospholipid bilayers and hybrid bilayers are excellent sensor platforms for the investigation of many cellular processes, they have difficulty mimicking the appropriate environment for transmembrane proteins, especially those presenting large peripheral domains [118] .', 'Another potential advantage of polymeric supports is the ability to avoid nonspecific adsorption of aqueous proteins from solution.', 'In the case of polyelectrolyte cushions, the material can be directly adsorbed from solution to a variety of substrates by means of layer-by-layer deposition, providing a great deal of control over the resulting film thickness.', 'The strength of the attractive forces is also directly affected by the solution environment; namely ionic strength and pH.', 'This can be problematic, as important biological processes occur in different solution environments.Lipopolymers are another popular class of polymer cushion.', 'Tethering has the advantage of being much less affected by solution conditions such as pH and ionic strength.', 'It is important that the polymer cushion have the ability to swell in an aqueous environment and have minimal disruptive interactions with the bilayer and any other reconstituted membrane components [20] .', 'The degree to which a polymer cushion swells in an aqueous or humid environment is a good indication of its ability to be employed as a support.', 'If the transmembrane protein has peripheral domains that are presented on only one side of the cellular membrane, such domains sometimes prefer to orient into the bulk solution [123] .It should be noted that some polymer supports have been shown to exhibit less than desirable effects on the supported membrane.', 'In this case spatial addressing was achieved by hand pipetting different SUV solutions to different regions of the agarose stamp.', 'This method is particularly useful in printing at least 100 copies of the same array with a single inking of the stamp [145] .A more powerful means of addressing phospholipid bilayers is the direct pipetting of SUV solutions into photolithographically patterned arrays [14, 15, 148] .', 'This method has been expanded by employing quill pen printing and robotic addressing in a humidity controlled environment [147] .Due to field of view limitations of fluorescence microscopes, current spatially addressed bilayer arrays have been typically limited to 16 elements or less [14, 144, 148] .', 'This method could be further enhanced by the automation of the addressing process or by parallel addressing from an array of tips capable of simultaneously depositing multiple SUV solutions.The use of laminar flow inside microfluidic channels is also an effective means of producing composition arrays of supported phospholipid bilayers in which two distinct chemical components can be varied simultaneously along a onedimensional gradient [17, 18] .', 'This allows for the addressing of patterned substrates by the flow of concentration gradients of SUVs formed by diffusional mixing of two different SUV solutions [18] .', 'Yang for the study of multiple ligand-receptor binding inhibitors to be carried out in a parallel fashion at the membrane/solution interface on a single chip.', 'Penetration and removal of a GUV by the micropipet tip results in phospholipid nanotube formation when performed in aqueous solution.', 'To do this, the micropipet tip is filled with the solution that is to be injected into the NVN and used to form a vesicle connected by a nanotube to the network.', 'If this vesicle is released into solution instead of being immobilized first, it will be drawn back by surface tension and release its contents within the NVN [154] .Micropipet writing of NVNs can be achieved through the use of micropatterned gold discs that have been functionalized to present neutravidin [153] .']</t>
-  </si>
-  <si>
     <t>["Concept mapping as a form of pre-task planning\n\nThe present study adopted concept mapping as an instructional strategy and examined its potential for improving ESL (English as a Second Language) learners' written production.", 'Concept mapping was first developed by Hanf (1971) as a model for improving the teaching of study skills.', 'Concept mapping is based on the principles of schema theory, which presupposes that information is stored in the brain as abstract mental structures, categorical rules, or scripts that humans use to interpret the world (Schmidt, 1999) .', 'Therefore, instruction for concept mapping usually includes a brainstorming session where students are encouraged to activate their prior knowledge of a topic and focus on the relevant content schema (Carrell et al., 1989) .', 'The technique of concept mapping has been widely practiced and studied under different terms, such as semantic mapping (e.g., Cronin et al., 1992; Heimlich and Pittelman, 1986; Lipson, 1995; Schultz, 1991) , cognitive mapping (e.g., Boyle, 1996; Peresich et al., 1990; Reynolds and Hart, 1990) and webbing (e.g., Brown and Salisch, 1996; Norton, 1993; Pieronek, 1994) .', 'The distinction between these terms is not clear in the literature, and they are likely to be used as equivalent in both L1 and L2 studies.A major reason for selecting this strategy as a target instruction is that concept mapping is recognised to be effective for both conceptual and linguistic development (Heimlich and Pittelman, 1986) and is widely implemented in classroom instruction.', 'A number of studies have reported the positive effects of concept mapping in a variety of instructional settings.', 'Concept mapping also helps students in special education programmes to promote their literacy knowledge (Boyle, 1996; Englert and Mariage, 1991; MacArthur, 1996; Sinatra et al., 1994) .In writing contexts, concept mapping has been said to facilitate the process of writing (Pieronek, 1994; Renner, 1992; Rey, 2000; Washington, 1988) ; however the extent of empirical research on mapping is limited, and most of the studies were done in L1 writing contexts.', "(1992) reported the progress of a district plan for secondary schools in Mississippi, demonstrating that mapping strategies had promoted students' understanding of text organisation and writing processes based on the results of writing tests over a four-year period.", 'Reynolds and Hart (1990) provided three instructional conditions (i.e., concept mapping, brainstorming and outlining) to fourth graders and compared the efficacy of each strategy technique in the revising stage of writing.', 'The gain scores of revised essays from the mapping group were significantly higher than they were for either the brainstorming or outlining groups.As far as I know, there is only one study that reported the effects of mapping strategy on L2 writing.', "Schultz (1991) implemented the semantic mapping strategy in a second-year French university programme in California, investigating the instructional effects on students' writing performance over a year.", 'In the first semester, instructors introduced semantic mapping as a pre-writing activity.', 'At the end of the lesson, instructors addressed the benefits of the mapping strategy and encouraged students to utilise it when writing.', 'The mapping strategy was used intermittently throughout the second-year French class.', "Schultz (1991) study implies the potential of mapping strategies as an effective pre-writing activity to enhance students' writing performance.", 'In this second-year French programme, semantic mapping was combined with group or general class discussion, in which students tried out and refined their ideas with their peers for writing.', "Schultz points out that the combination of mapping strategies with oral activities could promote students' ''higher-level thinking'' (p. 986), whilst developing their organisational skills for writing.", "Considering a variety of interpretations and applications of concept mapping in actual classroom contexts, I use the word 'concept mapping' in a broad sense in the present study.", 'In terms of its shapes and structures, concept maps may include a description of associated word clusters with no explicit organisational structures.', 'In terms of its application, concept mapping may be combined with other brainstorming activities such as discussion, and I consider this whole connected process as the concept mapping strategy in a form of pre-writing activity.', 'Since the main purpose of adopting the concept mapping strategy in this study was to provide an explicit approach to planning, I accepted a loose definition of this strategy to meet a real classroom situation.', "I adopted a case study approach for this investigation because both individual and contextual factors, such as students' backgrounds, their previous experience of using pre-task planning strategies and a task environment, could contribute to learners' composing processes and products.", 'I also conducted this study in a natural classroom context, considering the demand of writing tasks and the crucial role of conceptmapping instruction in this research project.', "To what extent does pre-task planning in the form of concept mapping affect adult Japanese-background ESL learners' writing performance?", 'How do adult Japanese-background ESL learners utilise the pre-task planning activity of concept mapping in their actual writing processes?', 'The instructor of the course, Karen (a pseudonym), was using concept mapping as a pre-writing activity, and this initiated my approach to her writing class as a possible site for this research project.', "Karen provided concept mapping instruction to activate students' prior knowledge related to a topic, and preferred to apply this planning strategy with a group activity (e.g., group discussion) so that students could take new information from their peers and expand their ideas for writing.", "In Karen's class, concept mapping was introduced in the third week of the programme session, and was used through the last two weeks as a pre-writing activity for both in-class and homework compositions.", 'In the English writing class in Japan, she had learned concept mapping and wrote several essays by drawing concept maps as a brainstorming activity.', 'She went to an ESL school in England, where she learned concept mapping for the first time.', 'A month before my research, she was reexposed to concept mapping instruction in the Test of English as a Foreign Language (TOEFL) class in Toronto, and wrote two compositions using this strategy.', "She had no previous experience of learning concept mapping before taking Karen's writing class.", 'Data collection\n\nAt the early stage of the research process, each of the participants completed a questionnaire that asked about their prior ESL/EFL studies, their experience of learning or using concept mapping for compositions, as well as their planning strategies for English and Japanese writing.', "The results from this questionnaire provided information about learner variables, which helped me to consider possible effects of these individual factors on each student's writing performance.During a period of the writing course, I observed Karen's class and took field notes regarding the process and the content of mapping instruction as well as the students' performance in the class.", "Considering the possible influence that this revising process might have on the students' textual features, such as accuracy, I focused my analysis on their first drafts of each writing task.The first compositions were written on the first day of the course, before Karen introduced the pre-writing strategy of concept mapping to the class.", 'Chie, Miho and Yuri reported that they had spent approximately 15-30 min to complete this assignment.The third compositions were written in the third week of the class session after Karen had introduced the concept mapping strategy in her class.', "In order to describe concept mapping, Karen chose the topic ''watch'' as an example and wrote the word on the blackboard.", 'She explained to the students that they would choose their own topic first, write it in the centre circle of the map, and then expand their ideas on the topic.', 'She added a few more idea sequences to the map, demonstrating how to develop ideas on the topic.', "After Karen's explanation about concept mapping, the students drew concept maps individually in their notebooks, and then worked in groups to share their ideas for writing.", 'Each group chose a free topic for writing and drew a concept map on a large sheet of paper.', 'After making a map, each group showed their map to the class and explained their ideas about the topic.', "Chie, Miho and Yuri's self-reported time for this assignment was approximately 15-30 min.Along with the compositions, I collected the concept maps that the students drew for writing their third and fourth compositions to examine how the students used the concept maps in their actual writing processes.", "To investigate this procedure from the learners' perspectives, I also asked Chie, Miho and Yuri to write their logs in their first language, Japanese, after they had received the concept mapping instruction and had written compositions.", 'The log sheet consisted of two types of questions, asking the learners how they utilised the pre-writing activity in their writing processes and enquiring into their perceptions of the concept mapping strategy.After the whole class session was completed, I administered a semi-structured interview to each participant.', 'The main questions of the interview concerned: (1) how they actually utilised the concept mapping strategy while writing; (2) whether they found any benefit from using the concept map, and if they did, what kind of benefit they found, and (3) whether they had trouble in using the concept map, and if they did, what kind of problems they encountered.', 'I also asked about their prior experience of concept mapping, as well as their planning strategies for writing in both English and Japanese.', 'The interviews were administered individually in Japanese by referring to the compositions, concept maps, logs and questionnaire that the students had completed in advance.', "Data analysis\n\nThree sets of data were analysed to see the possible effects of concept mapping on the learners' written product as well as their writing processes: (1) composition data; (2) verbal reports (i.e., retrospective interview, logs), and (3) descriptive data (i.e., questionnaire responses from the learners, concept maps).", "Process analyses\n\nTwo kinds of verbal reporting methods, retrospective interviews and logs, were used to examine the learners' utilisation of the concept mapping strategy in their writing processes.", "The coding scheme consisted of five categories, which investigated: the learners' background of English study, their previous experience of planning strategies for writing, their understanding of the concept mapping instruction in Karen's class, the ways they drew their concept maps and applied them to their writing processes, and their perceptions of the concept mapping strategy.I also examined the learners' questionnaires using the same coding scheme.", 'Then I compared the concept maps that the learners drew to plan their writing with their respective compositions in order to investigate how the learners used the concept maps in their actual writing processes.', 'I highlighted the words or sentences that appeared both in the concept maps and in the compositions, and then examined their positions in the structure of the planned compositions.', "All the complexity measures, for example, showed the students' better performance in both in-class and homework compositions when they drew concept maps to plan their writing.", "Features of the learners' concept mapping\n\nThe combinations of three learners' interview responses and their description in the logs revealed that they understood Karen's instruction of concept mapping in a similar way; that is, they described concept mapping as a way to generate and clarify their ideas for compositions by writing down words related to the topic and connecting them in a treelike structure.", 'However, their ways of drawing a map involved distinct individual interpretations and features.', 'For example, Chie seemed to employ concept mapping as a holistic brainstorming activity and drew her maps like a web, which spread by connecting a cluster of words (see Fig.', "Miho's concept maps, on the other hand, showed a structure that represented the organisation of her completed compositions (see Figs.", 'She stated in the interview that her compositions often consisted of a topic sentence, a few examples related to the topic and a conclusion, and that she included these components in her concept maps.', "This indicates that Miho employed concept mapping as a draft of her composition rather than as a simple brainstorming activity, which characterised Chie's use of this strategy.Yuri, who had no prior experience of concept mapping, failed to draw a map, and listed several sentences instead to prepare for writing (see Fig.", "Her list, however, did not show the structural patterns which were observed in Miho's concept maps.", 'Applications of concept mapping\n\nAs observed above in their ways of drawing concept maps, each participant also showed unique applications of concept maps in their writing processes.', 'For example, Chie, who simply wrote a flow of associated words on her map, selected a few ideas from the map and adopted them as key elements in her composition, whereas Miho used her map as a draft of her composition and applied most of the ideas in the map to her writing processes.', 'In the map for composition 3, Chie wrote 43 ideas, mostly as single words; however, she chose only five to use in her composition.', "Meanwhile, Miho wrote a topic sentence from the main idea in her map and used 10 out of 11 subsequent ideas in the body of her composition.In Chie's case, a concept map seems to have worked as a catalyst; a few selected ideas from the map later inspired her to create sentences.", 'Chie stated in the interview that she made a rough structure of the composition in her mind on the basis of these selected ideas, but did not refer to her map while writing.', 'This also suggests that she utilised a few ideas in the map as a spark to develop her composition but did not depend on the map for her whole writing processes.', 'Miho, on the other hand, reported that she needed to consult her map closely while writing.', 'Since she projected a whole image of a composition in her map, she used it as a draft and applied its elements to her writing processes.', "In Miho's case, this structural schema seems to have provided a solid framework that facilitated applying elements in a map to her writing processes.", "This application of concept mapping differed considerably from Chie's, where it served as a catalyst that invoked new ideas for writing.Yuri, moreover, had trouble drawing a concept map in the first place.", 'For composition 3, she listed several sentences instead of making a map.', "The only concept map that she ever drew in Karen's writing class was the one produced in a group for composition 4; however, she incorporated only two words from this group concept mapping into her composition.", 'One of the two words was the topic for writing, which appeared in the centre of the map.', 'No other evidence was observed regarding her application of concept mapping in her writing processes.', "Attitudes towards concept mapping\n\nThe investigation of the three learners' attitudes towards concept mapping revealed several advantages and disadvantages in the application of this strategy to their writing processes.", 'Chie, for example, expressed favourable comments overall towards the use of concept mapping in her compositions, pointing out the benefit of visualising ideas on a piece of paper.', 'She said that concept mapping helped her generate ideas for writing; however, she also mentioned her problems in selecting and focusing on a specific idea in the map.', 'In order to avoid this confusion, Chie sometimes skipped drawing a concept map, especially when a writing question was provided.', 'This comment shows that Chie judged her need for using concept mapping based on the nature of the writing task.', "Chie's comment on the usefulness of concept mapping might be perplexing, considering her interest in developing academic writing skills.", "Since Chie's application of concept mapping focused on holistic brainstorming, her awareness of utilising this strategy seemed restricted to writing tasks that required 'creativity,' which may not be a typical construct for academic writing.Miho also showed a favourable attitude towards the use of concept mapping in her writing processes, and stressed its positive function as an organiser of ideas.", 'In the interview, she expressed anxiety about writing compositions without making concept maps.', 'Although Miho incorporated the concept mapping strategy into her writing processes and even showed a certain dependence on it, she mentioned that she sometimes needed to skip this planning process due to time restrictions.', "In Miho's case, drawing a concept map seems to have required extra time for writing, which restricted her application of this strategy to her actual writing processes.Yuri, too, recognised the benefits of concept mapping for her writing practices, although she was not able to use it when she first tried it in Karen's writing class.", 'Yuri understood the function of concept mapping and its potential to improve her writing processes, but she had trouble changing her writing patterns to accommodate the strategy.', 'Her comments showed her conflicting orientations towards the mapping strategy.', 'Yuri pointed out her insufficient experience in using this strategy as the reason for not using concept mapping in her writing processes.', 'In the interview, Chie and Miho also said that they had struggled to adopt concept mapping to their writing processes at the initial exposure to the strategy.', 'Chie stressed that she had finally learned how to comfortably use this strategy after a year of practice, whilst Miho said that she had come to feel comfortable with concept mapping just recently although she had first learned this strategy about three years ago.', 'This may suggest that ESL learners need a certain period of practice in order to utilise the concept mapping strategy effectively in their writing processes (see Cronin et al., 1992; Schultz, 1991) .In turn, Yuri also expressed her uncertain feelings towards the need for using this strategy in her writing practices.', 'She especially pointed out the simple level of her current writing tasks, and indicated that she thought she was capable of coping with these tasks without drawing a concept map.', "If I need to write an argument, I would use a concept map, [because] I can't write without making a draft.", "(Yuri, interview)Yuri's comment like those of her two classmates indicates that the nature of writing tasks (e.g., their length, complexity, discourse types) may affect learners' decision-making in using or not using the concept mapping strategy as well as the ways they may use it.6.", "Discussion\n\nSummary of findings\n\nThe present study investigated the impact of concept mapping as a pre-task activity on ESL learners' written product as well as on their writing processes.", "Chie and Miho's overall scores of the Hamp-Lyons' measures were also higher when they drew concept maps for composing in class, whilst Yuri's holistic scores showed no obvious differences between the pre-planned and non-pre-planned compositions.", "No clear tendency regarding the effects of pre-task planning appeared in the learners' homework compositions.A close observation of the individual learners' composition scores in relation to their qualitative data implied a possible connection as to how the learners' distinct applications of the concept mapping strategy might appear in the features of their compositions.", "For example, Chie and Miho, who had learned concept mapping before participating in Karen's class, showed good manipulation of this strategy in their writing processes, and this appeared related to their better performance in the pre-planned compositions.", "Chie especially expressed her familiarity with concept mapping and stated that this strategy ''is suitable to my [learning] style'' (Chie, interview).", 'Miho, who was seeking opportunities for studying in a graduate school in Canada and was preparing for TOEFL, especially emphasised the function of concept mapping as an organiser of thoughts and applied her ideas to a certain rhetorical pattern (i.e., topic sentence, examples, conclusion) in her map.', 'This application of concept mapping could be related to her high scores on the organisation and complexity measures when she composed in class after planning.', 'In contrast, Yuri failed to draw a map when she was first instructed to do so, and her composition scores, except for the fluency measures, showed no better performance in the pre-planned, in-class situations.The learners in the present study also pointed out negative aspects of the concept mapping strategy, such as requiring extra time and trouble in drawing a map and selecting specific ideas from it.', "Moreover, the learners' decision-making in using or not using concept mapping seemed to be affected by various factors such as their familiarity with the strategy, the nature of writing tasks (e.g., length, complexity, discourse types) and situational restrictions (e.g., time limits).", 'Considering that Chie and Miho in this study actually used their concept maps in their writing processes as they were instructed, the importance of providing guidance in planning should also be acknowledged in writing contexts.', "Pre-task activities such as concept mapping or drafting, which can be directly connected to learners' written production at conceptual and textual levels, may function more effectively when engaged in individually.", 'When adopting a strategic device such as concept mapping, teachers may need to set up a training period of a certain length to familiarise their students with the specific strategy.', 'In this study, Chie, Miho and Yuri displayed unique ways of engaging in the planning activities even though they had received the same instruction on concept mapping in class.', 'Distinct functions of concept mapping were highlighted in their use of this strategy, which affected their writing processes as well as their produced texts.', "The present study investigated the effect of concept mapping on the students' first drafting processes.", "The potential of concept mapping could further be explored through a longer sequence of writing practice, which may involve a role of concept mapping in feedback-revision processes.One of the challenges for future research into planning is to investigate the longitudinal effects of planning on learners' language production and to demonstrate the relation between planning effects and learners' writing development.", "They might work towards solving their linguistic limitations by using their own internalised knowledge, or by cueing themselves to listen for a solution in future input.If, as Swain (1995) has claimed, learners' language production can induce deep levels of language processing and extend their interlanguage (Selinker, 1972) beyond the current levels, their better language production sparked by pre-task planning may extend their interlanguage even further."]</t>
   </si>
   <si>
-    <t>['However, this model was only capable of collecting data from 2004 to the present at CHP, while only recent articles are available on Healthmap or Medisys.The remainder of this paper is organized as follows.', 'These meteorological data are available from individual weather stations at hourly or multi-hour resolutions.', 'Some organizations such as Healthmap, Medisys, and the Centre for Health Protection publish news or reports about all kinds of international infectious disease, particularly about disease outbreaks and/or notifications.', 'However, as mentioned earlier, Healthmap and Medisys serves only the latest articles while Centre for Health Protection serves articles from 2004 to the present.', 'If, because of the essential problem, data is divided by a non-linear hyper plane, mapping input features into a high-dimensional feature space that can be divided by a linear hyperplane may be an appropriate solution.', 'Such mapping can be done by a kernel function.', 'RMSE is a commonly used measure for the difference between the estimated value and the value observed in the actual environment, and can be expressed as Eq.', 'The 20 heat maps shown represent the performance of SVM for 20 different sections.']</t>
+    <t>['To evaluate the risk of RVFV transmission within Egypt (risk-mapping) by means of a geographical information system (GIS)-based multi-criteria evaluation (MCE) approach.3.', 'Mapping the risk of RVF\n\nThe spatial risk of RVFV transmission within Egypt was estimated using a GIS-based multicriteria evaluation (MCE) approach [12] , which allows to combine the (spatial) data on the different factors that may influence the risk of a given disease.', 'All layers were transformed into a raster format, with 1 km × 1 km spatial resolution and the common UTM 35N projection.', 'R software [14] was used for both the analyses and generation of maps.Mapping the distribution of susceptible hosts of RVFV.', 'Cattle, sheep and goats density maps were obtained from the FAO-Gridded Livestock of the World modelled data [15] .', 'For buffaloes and camels, as density raster maps were not available, the data on the number of animals by governorate was obtained from OIE-WAHID, densities were calculated and maps were rasterized.', 'Density maps for the different species (cattle, sheep, goats, buffaloes and camels) are shown in Fig 1- upper row.', 'Then, the weights for the relative susceptibility of the different host species (see below the determination of weights) were applied, and the results combined to produce a map to represent the density of all susceptible hosts.', 'Finally, that map was standardized, i.e.', 'Standardization allows the combination of layers with different characteristics/units to produce the final risk maps.', 'Mapping the distribution of Cx.', 'antennatus is found in every governorate of Egypt, and their primary breeding include flooded areas, rice fields and irrigation channels [20] .We mapped Cx.', 'pipiens, and therefore would be included in the vector distribution map [16] .Given that estimates by Tran and collaborators [13] were based on Corine land-cover categories, which are not available for Egypt, the corresponding categories from FAO-GeoNetwork land cover were extrapolated from the South of Europe, and used to map the distribution areas of Cx.', 'Monthly estimates of the SD of the EVI for the year 2015 were derived from Moderate Resolution Image Spectroradiometer (MODIS) imagery from the Terra Satellite, and were used to capture those seasonal variations in Cx.', 'On the other hand, data on human population was obtained from the Gridded Population of the World version 4 [22] .The map of Cx.', 'pipiens presence based on land cover, the map of human population and the maps of SD of the EVI (monthly values and also average for the whole year) were all standardized and combined to produce the map of the overall vector suitability (either monthly values or average for the whole year).', 'pipiens, monthly vector distribution maps were created using the monthly estimates of the SD of the EVI for the year 2015.', 'pipiens favorability at location j for the whole year, and Var i,j is obtained as an absolute value.Mapping the distribution of susceptible hosts of RVFV.', 'The standardized distribution of susceptible hosts of RVFV (all species) shows a pattern which is mainly coincident with the areas surrounding the Nile river, although there are some significant variations in density (Fig 7A) .Mapping the distribution of competent vectors of RVFV.', 'Given this proportionality to the density of the human population, the vector map produced will be a proxy of the potential risk of RVFV transmission from mosquitos to humans (zoonotic risk).In order to evaluate whether there was a seasonal component in the distribution of Culex pipiens, and therefore in the risk of RVFV transmission, the (standardized) values of Cx.', 'The maximum variability was found in markets (0.15) and camel slaughterhouses (0.12), while the maximum variability in quarantines was only 0.05.Mapping the risk of RVFV transmission by vectors.', 'Mapping the risk of RVFV transmission by vectors.', 'Once obtained, the standardized maps of the distribution of susceptible hosts of RVFV and of competent vectors of RVFV were combined to produce a map of the risk of RVFV transmission by vectors.Standardization and selection of membership functions.', 'Then, a linear regression model was fitted to the data, and the contribution of each factor to the variation of the risk of RVFV transmission was calculated as the ratio of the sum of squares related to that factor on the total sum of squares of the model.Validation of risk maps.', 'In order to validate the risk of RVFV transmission map, data on any previous outbreak of RVFV occurred in Egypt for which the location was available was collected from several sources.', 'In total, 16 outbreak locations were used for the validation of the risk map.', 'Random\n\nValidation of risk maps.', 'The location of RVFV-positive cases in humans and animals, as well as RVFV-positive vectors from previous RVFV epidemics (for which the location was available) were used to validate the risk of RVFV transmission by vectors map (Fig 9A) .', 'MERS-CoV was detected in Egypt in camels imported from Sudan and Ethiopia [8] , and seems to still be present in Ethiopian camels [39] .Camels provide food (milk and meat), fibre (wool and leather) and draft power (for transportation and cultivation) to human communities located in dry environments [34] .', 'pipiens to map vector distribution, we believe it is an accurate representation of the RVFV transmission by vectors.', 'pipiens [16] .The map of RVFV transmission by vectors in Egypt evidences that the majority of the country surface has a risk of zero, as it corresponds to bare soil land cover (i.e.', 'Zayed and collaborators [17] demonstrated that in the areas where the seasonal flooding of the Nile Delta occurred, the population of vectors changed significantly, mainly in late summer-early fall.The validation of the risk map evidenced that the risk of RVFV transmission by vectors obtained at the location of human and animal cases and RVFV-positive vectors from the previous RVFV epidemics in Egypt, varied between 0.18 and 0.85, with a mean value of 0.49.']</t>
+  </si>
+  <si>
+    <t>['Introduction\n\n"A new wave of technological innovation is allowing us to capture, store, process and display an unprecedented amount of information about our planet and a wide variety of environmental and cultural phenomena.', 'The classic public health triad composed of man, agent/vehicle and environment emphasises the importance of geographic location (environment or space where we live) in health and disease.', 'Ideally, the tools to achieve this goal should be accessible and usable by mainstream practitioners, transparently embedded into routine workflows, and seamlessly incorporated into existing busy work environments [4] .', 'For some, GIS also imply the people and procedures involved in GIS operation" (cited in [7] ).The inclusion of "people" (properly trained staff with adequate work time to spend on GIS activities) and "procedures" as part of the above definition is essential for GIS applications in a public health context, given the need to link the science and methods of epidemiology to GIS output to avoid producing invalid or misleading results [7] .GIS are potentially powerful resources for community health for many reasons including their ability to integrate data from disparate sources to produce new information, and their inherent visualisation (mapping) functions, which can promote creative problem solving and sound decisions with lasting, positive impacts on people\'s lives [8, 9] .Our experience in applying GIS to health issues has increased considerably over the last decade.', 'Both levels are interdependent and complementary.Spatial information management is based on the idea that data, people, software and hardware interact, and that it is practicable to obtain synergy by coordinating changes and development to help users have a better overview of both simple and complex problems, and give them the possibility to create comprehensible, acceptable solutions and/ or compromises.', 'In the next section on "GIS methods and technologies", we cast some light on the richness of GIS toolbox, which goes far beyond the mere production of simple maps (or digital cartography).', 'The section that follows, titled "Problematic issues and solutions", is a direct continuation of the one preceding it, and discusses tricky issues like data confidentiality and data/analysis errors, together with solutions that can address them.', 'Then in the section on "Proactive, real-time, GIS-enabled health and environmental surveillance services", we describe a wide-scale vision for, and some early real-world applications of, realtime GIS in emergency management, and in health and environmental surveillance.', 'These GIS methods should be coupled with proper spatio-temporal statistical methods to ensure valid analyses and robust conclusions [11, 12] .GIS offer powerful features not available to users of either paper-drawn or electronic map images.', 'In GIS, geographic boundaries of study areas can be accessed and modified, data class intervals and symbologies restructured, map layers (variables) vertically overlayed and integrated, new independent map variables added for multivariate spatial statistical analysis, spatial weights computed, spatial autocorrelation on predictor variables assessed, and probability scenarios of mapped variables explored based on modelled changes in regression coefficients over time, with unparalleled computational speed and ease.', 'A range of statistical techniques have evolved that are well suited to GIS analysis, including density kernel estimation, grid and probability estimation, and kriging (see "Smoothed maps" below) [13] .Rushton suggests that GIS provide the capability to perform two types of spatial analysis that could not be performed without GIS: finding areas of high disease incidence that can be labelled as statistically significant and worthy of further investigation, and examining the spatial relationship between disease incidence and information that is geo-referenced differently from the disease data [14] .Rushton also argues that GIS are useful for exploratory spatial analysis but are less useful for confirmatory analysis [14] , although it is clearly possible to integrate confirmatory statistical methods with GIS.', 'Choropleth maps\n\nMost traditional analyses of disease patterns examine disease rates at a given level of spatial resolution defined by spatial entities developed for administrative and other purposes.', 'Choropleth maps are commonly used to depict the patterns of disease rates.', 'Disease incidence and other spatio-temporal epidemiological events are portrayed on these maps as shaded polygons (each representing an administrative area).', 'Each of these polygons contains a numerical value of the mapped disease incidence represented as a shaded value within the covered national framework.', 'Moreover, values among contiguous areas (polygons) in a choropleth map can differ abruptly at adjoining borders, while in reality disease incidence and most other spatio-temporal events and phenomena such as deprivation levels are continuous variables distributed continuously across space and do not change abruptly at arbitrarily defined administrative, census and political boundaries (Figure 1 ).', 'Other limitations of the choropleth design include the visual dominance of larger areas over smaller ones [14, 16] .Yet, despite all these limitations, the choropleth design remains in many cases the method of choice to communicate estimated spatial density of reported disease incidence, being quite easy and straightforward to construct compared to the use of geostatistics like kriging (see "Smoothed maps" below), which requires more complex computational choices [16] .The choropleth map could be considered a filtered map using a non-overlapping, variable-size, spatial filter with filter shapes selected from available political or administrative regions (hence its limitations -see "Smoothed maps" below).', 'Smoothed maps\n\nTo meet the purpose of exploratory spatial analysis, health data are better examined by methods that assume that disease rates are spatially continuous [14] .', 'One can display data collected at smaller geographic areas (with fewer individuals) and still maintain the stability of the estimated rates by constructing a smoothed map.', 'The principal reason to filter disease data spatially is to examine the spatial pattern of disease at different levels of spatial resolution and to compute disease rates that are not dependent on the specific boundaries of the areas used in spatially aggregated data [14] .', 'After assigning estimated rates to each grid point, contouring software is used to create isarithmic maps in which regions with a constant range of values can be recognised.', 'This enables the creation of a continuous smoothed map of the data [17] .Talbot et al propose a modified spatial filter for creating smoothed disease maps, where the spatial filter is defined in terms of constant or near constant population size rather than constant geographic size.', 'This means that the circles will usually be larger in the rural areas (lower population density) compared to urban areas (higher population density) [17] .Kriging can be also used to produce continuous map surfaces from sample points.', 'They also describe their own experience in using the procedure to model and forecast the underlying A simple choropleth map of Townsend Deprivation Score distribution in Bath City Electoral Wards Figure 1 A simple choropleth map of Townsend Deprivation Score distribution in Bath City Electoral Wards A simple choropleth (graduated colour) map of Townsend Deprivation Score distribution in Bath City Electoral Wards (UK).', 'Kriged smoothed maps may strengthen our ability to visually communicate event patterns, especially over time (also possibly through the combined use of kriging and animation).', 'However, the accuracy of kriging results depends on the aggregation level of the data used (e.g., state-level vs. finer county-level data in the US) [16] .Trend surface analysis is another technique for producing smoothed maps.', 'Trend surface maps are commonly used to report the spatial diffusion process of disease epidemics (the movement of epidemics across geographical space).', 'In their GIS-driven Drug Incidence and Prevalence Estimation Program (DIPEP), Field et al used trend surface maps to overcome the drawbacks of administrative boundary choropleth maps (e.g., ward-based maps in the UK).', 'They also used animated sequences of trend surface maps to study the waves of diffusion of problematic drug misuse across time.', 'Animated trend surface maps could be considered as illustrating a more accurate picture of the spatio-temporal characteristics of mapped events and phenomena, when compared to administrative boundary maps, since populations are distributed continuously across space [18] .It is noteworthy that the interpolation tools in ESRI Arc-GIS 3D Analyst, Spatial Analyst, and Geostatistical Analyst extensions support kriging among other methods for the production of continuous surfaces from sampled points, while ESRI ArcGIS Tracking Analyst extension enables the visualisation and analysis of temporal data (including real-time data feeds) by defining events including time, location, and attribute information.', 'Spatial data mining\n\nThe Amsterdam Police department uses spatial data mining technology from Sentient http://www.sentient.nl/ and MapInfo in a cutting edge crime analysis and prediction system, able to detect patterns in a wide range of data, including criminal records, weather measurements, and socio-demographic information.', 'Related technologies: remote sensing and global positioning systems\n\nThe growing uses of remotely sensed imagery and satellite facilitated global positioning systems (GPS) are contributing to unprecedented surveillance of the environment.', 'High-resolution satellite imagery provides timely and detailed digital representations of existing landscapes and land covers, which can be spectrally classified and statistically correlated with disease host and vector habitats.', 'GIS also assist users in better understanding the potential harmful effects of environmental pollutants, e.g., toxic waste sites, and even in understanding the occurrence of pedestrian and other injuries, and crimes.', 'Today, environmental monitors measure air and water quality, solar irradiation, radon gas levels, and other exposures potentially deleterious to human health.', 'The Bradford Community Statistics Project http://www.communitys tats.org.uk/ provides a good example of public participation GIS projects, and aims at empowering residents to develop their own policy initiative and funding proposals.Richards et al describe the advantages of GIS technology using some excellent public health example scenarios: a childhood lead poisoning prevention programme; mapping of motor vehicle injuries and fatalities in a community; and using data collected by marketing firms about consumer spending patterns and lifestyle segmentation profiles to identify the best target populations for prevention interventions, e.g., anti-smoking programmes, and to select the best media channel(s) and times of the day to communicate a particular message to a given population [7] .Richards et al also describe a feasible scenario for geographically enabled electronic medical records wherein all electronic inpatient and outpatient medical records in a given community are regularly scanned to map asthma cases (in the example given) and compare current week maps with those for prior time periods.', 'They also describe how geo-information used in a poverty mapping initiative in South Africa was combined with information on sanitation and safe water supplies to create a strategy for containing a cholera outbreak in KwaZulu Natal province.', 'The resulting fatality rate for this outbreak, 0.22%, was among the world\'s lowest ever recorded [9] .The World Health Organisation\'s HealthMapper application http://www.who.int/csr/mapping/tools/healthmap per/healthmapper/en/ and the Pan American Health Organisation\'s Sig-Epi (GIS in Epidemiology and Public Health -http://ais.paho.org/sigepi/ have already been described in our previous review [10] .Real-time GIS applications in health and environmental surveillance, and in emergency and epidemics management are presented later in this paper (see section titled "Proactive, real-time, GIS-enabled health and environmental surveillance services").Traditionally, two broad types of GIS applications can be distinguished which also reflect the two traditions in health geography (geography of disease and geography of healthcare systems), namely health outcomes and epidemiology applications and healthcare delivery applications.', 'Health outcomes and epidemiology applications\n\nA number of studies have used GIS to study disease patterns (e.g., identify leukaemia clusters), spatio-temporal variations in health outcomes, and identify possible causes of mapped patterns (e.g., the relationship between cancer incidence and various environmental factors).', 'These generally involve the linkage of health information with environmental and socio-economic data.', 'Field et al developed a GIS drug misuse system to create a dynamic model for forecasting and displaying spatio-temporal trends and linking environment with behaviour.', 'It covers basic demographic data, mortality and morbidity, lifestyles and environmental indicators such as alcohol consumption and road traffic accidents, and types and levels of healthcare.', "Most indicators are presented as a map to show overall regional variations, a bar chart to indicate country rankings, and a time chart to show trends over time in three main country groupings [30] .The WHO's Atlas of Health in Europe offers static information about retrospective events and data.", "Like the WHO's Atlas of Health in Europe, this Swedish atlas remains a collection of pre-drawn, static maps (still very valuable, but limited in many aspects).A network of researchers and practitioners from various institutions in Sweden, is preparing for a training course, to be conducted in 2004, on spatial analysis research.", 'Among these strategies is a method to improve hospital bed availability through precision bed management using integrated demand, utilisation and PAS (Patient Administration System) data, flow models and advanced GIS to map the geography of the hospital against variables such as patient numbers, staff numbers, and nurse dependency.', 'GIS are proving superior to conventional patient activity systems in informing the organisation about bed management opportunities on an hour-by-hour basis [32, 33] .It is noteworthy that Downey Regional Medical Centre (DRMC) in California, US, is currently using a large, multi-layered, GIS-enabled patient care and room management system that leverages digital floor plans, workflow analysis, and data visualisation for a better solution to how DRMC assigns patients to rooms, monitors the discharge process, and prepares rooms for new patients.', 'One of these documents published on NHSIA Electronic Records Development and Implementation Programme (ERDIP) Web site mentions the use of GIS techniques, mapping to deprivation indices, and linkage to non-medical data in the context of electronic patient records.', 'The small size of many IT departments and high staff turnover, attributed to the higher wage levels of staff with spatial handling skills in the private sector, also hindered the effective implementation of GIS.Gould (1992 -cited in [28, 35] ) found high levels of GIS awareness by Directors of Public Health and health authority information/IT officers in England and Wales, though respondents did not perceive any differences between GIS and computer assisted cartography software, and were not really using the software in anything more than simple mapping and low-level operational tasks.Typically, maps were being included in the annual reports of the Directors of Public Health to illustrate the health priorities of individual health authorities, with very little emphasis on using GIS in strategic tasks.', 'Research undertaken in academia has certainly highlighted the benefits of spatial statistics and GIS approaches in mapping disease and in healthcare planning, but still needs to respond to NHS needs on the ground.One area where GIS have debatably made less impact is that of measuring and monitoring NHS performance.', 'Factors such as historical precedent, the presence of dedicated GIS-able individuals or teams, and the presence of an effective infrastructure of GIS advice, guidance, and support available to NHS organisations (e.g., in West Midlands and Trent -for some examples, see http://www.sheffield.nhs.uk/health data/gis.htm and http://gis.sheffield.ac.uk/) could explain the observed patterns of health organisations that are GIS users or nonusers, and those that show higher degrees of collaboration with local authorities [35] .The production of maps was undertaken in 96% of the health authorities and 67% of the health trusts that reported using GIS in 2001.', 'The same active subset of health authorities and trusts was also found to be using GIS to undertake geographically based analysis (75% and 72%), data manipulation (46% and 51%), and analysis of statistical data (36% and 44%) [35] .Health authorities were found to be making greater use of GIS for policy-related tasks, e.g., to produce health profiles of local populations, and in epidemiological research, assessing health needs for the purchase of health services, determining catchment areas for local services showing an interactive map of the incidence rates by PCG (Primary Care Group) of prostate cancer in the West Midlands Region over the five year aggregated period 1995-1999.', 'This was compounded by the currently ambiguous criteria to conform to data confidentiality requirements, and the lack of a service-level agreement with Ordnance Survey http://www.ordnancesurvey.co.uk/ or other providers like ESRI and MapInfo) for the purchase of base digital data for organisations within the NHS.', '(4) Development of effective partnerships, and involvement of all stakeholders and users: Mature NSDIs are complex solutions involving many stakeholders (including the health sector with all its organisations).', 'A mature NSDI can only be achieved through simpler and smaller solutions that start with realistic and clear short-term objectives, and grow incrementally through political and market needs.', 'EIS-AFRICA -Gavin et al, 2002\n\nEIS-AFRICA is a network for the cooperative management of environmental information in Africa.', "It is a pan-African, non-profit, non-governmental organisation, registered in South Africa, and born out of the World Bank's Environmental Information Systems in Sub-Saharan Africa programme (EIS-SSA).", 'The existence of these commonly used datasets facilitates the use of other geodata, such as demographic, socio-economic, epidemiological, environmental, and water quality data, which must be also available, accessible and up-to-date [9] .', 'WHO-AFRO -Briggs, 2000\n\nIn a 140-page report commissioned by the World Health Organisation -Regional office for Africa (WHO-AFRO), Briggs proposes a programme of action to advance environmental health hazard mapping in Africa that includes the following elements [54] :(1) Data modelling: This involves developing and adapting health indicators according to specific local user needs [54] (see "Common semantics, data models and health indicators" below).', '(2) Awareness-raising campaigns: These should be based on real-world examples and demonstrations of environmental health hazard mapping, and aimed at key decision makers in concerned organisations [54] .', '(3) Joint working in partnerships: This involves adoption of a multi-sectoral approach to environmental health hazard mapping, encouragement and support for the sharing of experience and facilities, and support for training and long-term capacity-building, e.g., by building up expert/ national networks (partnerships) and organising workshops, seminars and study visits [54] .', 'The cost of training programs offered by commercial GIS vendors and solution providers can be a financial burden, and GIS training programmes specifically designed for public health professionals are still relatively limited.', '(7) An incremental approach is needed: Longer-term solutions usually require a series of small successes, carefully built upon in incremental fashion over time [7] .In fact, much of the wider vision of a national public health spatial data infrastructure can be gradually and incrementally achieved through disparately funded and managed short-term projects, as long as we can ensure that these short-term projects make a useful and lasting contribution towards this wider vision.', 'Davenhall, 2002\n\nIn a recent ArcUser Online article, William F. Davenhall, ESRI Health and Human Service Solutions Manager http:/ /www.esri.com/industries/health/index.html, describes an ambitious vision of a Community Health Surveillance System (CHSS -see later) spanning wide geographic areas, and mentions the following success factors [2] :(1) Community data sharing must be systematic and regular [2] .', 'The system was used during the 2002 Winter Olympics and currently operates in two US states -Pennsylvania and Utah (more details about RODS are presented below under "Proactive, realtime, GIS-enabled health and environmental surveillance services") [55, 56] .', 'Morris and Henton, 2003\n\nMorris and Henton list several key factors for progress and success of an environmental health surveillance system for Scotland (see "Large-scale environmental surveillance projects in the UK" below), including ensuring joint ownership of the project, successful partnerships and shared commitment among the disparate agencies that are involved in the project, adopting a phased approach, reaching a consensus on inputs and outputs, and having realistic expectations [57] .', 'The data model described by Buckeridge et al was based on a "determinants of health" model that explicitly acknowledges the influence of nonmedical determinants (e.g., income, occupation, and environment) on population health status, and qualitatively relates these determinants to health outcomes [8] .', 'Once data were acquired, they were integrated into the GIS using the developed data model and the spatial unit of the enumeration area, a Canadian census sampling area with a median population of 400 in the study area (Southeast Toronto) to relate datasets to one another (in this case the enumeration area acted as a common high resolution geographical unit for linkage -the data model facilitated data integration around the common geographical unit of the enumeration area).', '(4) The potential for data display to be misleading and for misinterpretation of data was addressed by providing users with descriptions (metadata) of datasets and constraining map types by data types.', 'Intranet and Internet environments can help facilitating public health spatial data accessibility and integration at local, national and regional levels, and can support a physical and virtual "situation room" for both emergency and day-to-day management of operations for safeguarding the environment and protecting human health [58] .A San Diego Association of Governments report titled "Guidelines for Data Development Partnership Success" is based on many years of GIS partnering experience and cites guidelines that may help other agencies develop successful partnership activities [61] .A good example of successful partnerships is the online GIS service known as "Window to My Environment" (WME -http://www.epa.gov/enviro/wme/), which is offered by the US Environmental Protection Agency (EPA).', 'WME is designed to provide public accessibility to a wide range of federal, state, and local geospatial data about environmental conditions and features in any US location.', 'They are conceptual models that facilitate integration of data by information systems and support a common understanding of data by people [8] .To explain the importance of adopting common semantics when developing health geo-information services that span administrative boundaries, Richards et al provide the example of two neighbouring public health departments that are addressing a common infectious disease problem and would like to join their independently developed GIS maps into a common map for both jurisdictions.', 'The latter for example include case definitions, sources for case reports, and the time period for the study [7] .In his report commissioned by WHO-AFRO, Briggs classifies environmental health hazards into eight categories: land/climate-related hazards, atmospheric hazards (outdoor air pollution), water-related hazards, food-borne hazards, vector-borne hazards, domestic hazards, occupational hazards, and infrastructural hazards.', "Briggs' report stresses the importance of indicators as essential tools for environmental health hazard mapping.", "For this reason, the emphasis in Briggs report was not on providing a core or generic set of environmental health hazard indicators, but on providing indicator profiles that show, for a sample of indicators, how they can be constructed/customised and used [54] .An indicator profile specifies the environmental health hazard(s) to which the indicator relates, the indicator's rationale and role, any alternative methods and definitions, any related indicator sets, sources of further information, and a listing of involved agencies.", '(quality of life; behavioural risk factors, e.g., substance abuse, lifestyle, and screening programmes; and environmental health indicators, e.g., air and water quality, workplace hazards, food safety, etc.', 'The current phase of this work has assigned top priority to service site selection, emergency response, facility emergency response, campus facility management, regional environmental health, and disease surveillance.', 'The average user can immediately begin to populate the geo-database rather than to design it, and the inherent commonality between users and sites adopting the resultant geo-database(s) should facilitate exchange of data; and In October 2003, this author contacted Dr. Mike Goodchild, HDM project leader, and asked him how does/will their conceptual object model relate/link to health indicators, e.g., those produced by NACCHO as part of their Community Health Status Assessment (CHSA) Toolbox, and those produced by WHO-AFRO as part of their consultation on environmental health hazard mapping for Africa.', 'XML encoding of geodata, using GML and Web Services http:// www.opengis.org/initiatives/?iid=7 specifications and recommendations, makes it possible to display, overlay, and analyse geodata on any Web browser, even if the browser obtains views of different map layers from different remote map servers.', 'For example, layering Web Services from two politically/administratively separate but geographically contiguous cities or regions would allow the integration of their independent data silos to answer questions about an emergency involving both (provided that issues of common semantics, data models and case definitions have been resolved) [58, 67, 68] .XML is also used for encoding spatial metadata (metadata are essential to aid the discovery of spatial data in a distributed environment) [58] .', "Ordnance Survey (OS), the UK's national mapping agency, has adopted GML as the only geospatial data format for its MasterMap of Great Britain http://www.ordnancesurvey.co.uk/ oswebsite/products/osmastermap/.", 'OS MasterMap boasts about 400 million geographic features in GML format.', 'Each feature within OS MasterMap is assigned a unique 16-digit "topographic identifier" (TOID) that can be used by OS or its customers to reference any given feature in the database.', 'This makes it much easier for users to associate other information to the spatial feature, to refer unambiguously to a particular feature, and, therefore, to share spatial information with other users [24, 69] .By separating presentation from content, powerful maps can be made that offer enhanced functionality for users.', 'GML contains map "content" only (e.g., where features are, their geometry, type and attributes), but it does not provide any information about how that map data should be displayed.', 'By combining a selected map stylesheet with a WFS query, users are presented with a fully interactive and editable vector map that can be viewed in any Web browser [69] ( Figure  4 ).Another key feature of GML is its ability to be "self describing" through the use of XML schema.', 'GML contains map "content" only (e.g., where features are, their geometry, type and attributes), but does not provide any information about how that map data should be displayed.', 'By combining a selected map stylesheet with a Web Feature Service (WFS) query, users are presented with a fully interactive and editable vector map that can be viewed in any Web browser.', 'The new release is modular, allowing users to pick out only the schemas or schema components that apply to their work, which simplifies and minimises the size of implementations [72, 73] .However, it should be noted that GML and Web Services are only part of the solution to integration and interoperability.', 'For example, RODS, the Real-time Outbreak and Disease Surveillance system, uses the HL7 message protocol to receive clinical encounter data from participating hospitals in real time [55] , while the US Department of Defense Global Emerging Infections System is basing its seven syndromic surveillance categories on groups of related ICD codes http:// www.geis.ha.osd.mil/GEIS/SurveillanceActivities/ ESSENCE/ICD9May02.xls (see also "Proactive, real-time, GIS-enabled health and environmental surveillance services" below).Lowe also stresses the fact that technologies like XML and SOAP (Simple Object Access Protocol -involved in Web Services) are only part of the integration issue, and points to integrating geoprocessing and databases at other levels, and the related issues of optimisers and federated databases.', 'Often, client programs will pull a copy of the database spatial data into their own environment to process it instead of asking the database to do the processing.', 'This same potential problem awaits users of multiple feature-streaming map services [67] .Alternatively, if the spatial processing remains within the database environment, an optimiser program common to all professional databases will internally organise a response to the query that returns results in the fastest possible time.', "A query from the larger integrated system goes into the database and only the results come out, taking advantage of the database optimiser, reducing processing loads on the client that generated the question, and also reducing transmission loads [67] .Each database vendor's optimiser works best within its own specific database environment.", "Furthermore, the federated technology's optimiser is aware of the available processing resources in other databases and organises query responses appropriately [67, 74] .Grid-based real-time distributed collaborative geoprocessing could also form the basis of a next-generation solution to data and computationally intensive geoprocessing applications that are extremely difficult to execute on conventional systems and networks [75] .", 'It is already a reality with many ongoing projects (see for example http://mapcenter.in2p3.fr/ datagrid-s/).', 'Again, in the emergency response to the fall 2001 terrorist attack, lack of bandwidth in some areas of New York City resulted in delays in providing processed and urgently needed data for the Emergency Mapping and Data Centre (EMDC).', 'Seamless integration into routine workflows of tools that are easy-to-use by mainstream public health practitioners\n\nRichards et al call for GIS technology to be linked with community health planning tools through data entry forms and automated procedures (e.g., automated geocoding for vital statistics data) to help public health practitioners map and plan interventions at community level.', 'The program has some GIS functionality allowing public health practitioners to import, utilise, and display map boundary files and data, but there is still room for further improvements.', 'This can be achieved by using some form of user friendly, "intelligent", goal-oriented health GIS wizards (based on robust statistical methods where appropriate), so that only val</t>
   </si>
   <si>
     <t>['A novel coronavirus is the causative agent of SARS [5] .it has become evident that carefully planned and designed maps can be very powerful decision support and spatiotemporal analysis tools [10] .', "This kind of support is vital for making well-informed decisions when designing and following up epidemic control strategies or issuing and updating travel advisories.As a matter of fact, during outbreak response, the WHO uses a custom-made geographic mapping technology, which forms part of its existing system for outbreak alert and response, to assist in the location of cases and rapid analysis of an epidemic's dynamics.", 'The WHO also uses this epidemiological mapping technology to predict environmental and climatic conditions conducive for some outbreaks [15] .Also worth mentioning in this context is the recent news that remote sensing satellite data (provided by the European Space Agency -ESA) and GIS (Geographic Information Systems) are currently being used to better understand, predict and help combat Ebola haemorrhagic fever outbreaks in central Africa http://www.esa.int/ export/esaSA/SEMWG5VZJND_earth_2.html.', 'Web-based SARS datasets and maps: availability and features\n\nIn this paper we review several geographic mapping efforts of SARS that we have found on the Internet.', 'This includes the latest SARS case counts and lists of affected areas that form the basis of all mapping examples reviewed in this paper (Table 1) .Web-based maps like those presented in this review offer the following extra features not found in conventional paper-based maps: (1) interactivity (e.g., drill-down and zooming, map querying, measuring distances, and switch-ing map layers on and off); (2) capacity for quick, frequent map updates based on the latest datasets; and (3) wider dissemination/availability to larger audiences.', 'WHO\n\nEarly in the 2003 outbreak, the WHO started publishing a static, non-interactive daily world map of the "cumulative number of reported probable cases" on its SARS Web site http://www.who.int/csr/sars/en/.', "An example of these early daily maps is available from http://www.who.int/ csr/sars/map-2003_04_29.gif (WHO's SARS map for 29 April 2003).", 'On these maps, affected countries with no evidence of local SARS transmission were pink-coloured, while those where local SARS transmission was taking place were red-coloured.', 'The size of the graduated blue circle over an affected country on these maps reflected the cumulative number of reported cases in that country (larger circles meaning more SARS cases).Later on in May 2003, the WHO dropped the "type of transmission" from its daily world map of SARS and switched to a choropleth rendition (instead of graduated circles) to display the "number of current probable cases" (instead of the "cumulative number of reported probable cases", which does not reflect the current situation) -see for example http://www.who.int/csr/sars/ map2003_05_26.gif.The maps were produced by the WHO\'s Public Health Mapping Team http://www.who.int/csr/mapping/en/ and updated every 1-2 days.', 'Figure 1 ).Corda used to update the maps every day or so (during the 2003 SARS outbreak), based on the latest figures from the WHO and CDC (US Centres for Disease Control and Prevention).', 'Cumulative numbers of SARS cases (including SARS recoveries and deaths since counts began) are mapped to individual countries, but not to actual regions/ areas within affected countries, making the maps less useful to decision makers responsible for issuing travel advisories and travellers wanting to avoid risky areas.', "Countries/states with darker colour shades on Corda's maps have more SARS cases (i.e., a choropleth rendition).Corda's world map of SARS could have been greatly improved by also mapping the number of current SARS cases and by including affected area information for other parts of the world (as second-level drill-down maps accessed by clicking respective countries on the main map; they only did this for US states).", "The graph allows users to visually monitor and appreciate the epidemic's progress at a glance.Also of interest is the news that the US National Cancer Institute (NCI) is currently using Corda PopChart and OptiMap to create its Section 508-compliant maps, charts and graphs of cancer mortality rates for the United States http://www.corda.com/company/resources/2003/ jul21.html and http://www3.cancer.gov/atlasplus/.", 'MapAsia.com\n\nDuring the 2003 SARS outbreak, MapAsia.com, a GIS company in Hong Kong, published SARS distribution maps for Hong Kong and China on their MapInfo Discovery server -a GIS-driven Internet map server http:// www.mapasia.com/sars/.', "A number of SARS map themes were provided and regularly updated based on govern-ment's figures, including distribution of affected buildings and district comparisons (Hong Kong), and provincial distribution (China) - Figure 3 and Figure 4 .", 'The maps offered powerful zoom-in functionality (up to street/building level on many of the maps).According to MapAsia.com, citizens have the right to know SARS distribution where they live in order to take all necessary precautions to protect themselves.', "Some of MapAsia's Hong Kong maps also traced SARS spread within 250-metre coloured buffer zones ( Figure 3 ); this might have been helpful in assessing the effectiveness of SARS control measures in and around affected buildings.MapAsia's provincial SARS distribution map of China shown in Figure 4 adopted a dichromatic (from light green to maroon) choropleth scheme with graduated provincial pie charts depicting the relative numbers of discharged/under treatment/dead cases in affected provinces.", 'ESRI China (Hong Kong)\n\nDuring the peak of the 2003 outbreak, ESRI China (Hong Kong) launched "SARS GIS", a new mapping Web site dedicated to SARS (http://www.esrihk.com/SARS/Eng/ sars_eng_main.htm - Figure 5 ).', 'They have established "SARS GIS" in order to distribute timely information to the public regarding SARS cases and distribution around the world.The interactive "SARS GIS" maps are regularly updated based on the latest figures from the WHO and Hong Kong Department of Health.', "There are three map sections providing very comprehensive information on SARS case distribution in the world, China and Hong Kong, including infected Hong Kong buildings' distribution and addresses.", 'The Hong Kong maps also offer the following two functions for the visualisation of the proximity of individual buildings with infected residents to the home buildings of users: (1) measuring distance between any two buildings; and (2) showing 50 m and 100 m areas of a building with infected residents.The maps were created with ESRI ArcIMS, a GIS-driven Internet map server, and feature a handy toolbar that provides the sort of functionality found in the standard ArcView GIS desktop interface (e.g., zoom in, zoom out, pan, identify, measure, etc.).', "Hong Kong Yellow Pages\n\nHong Kong Yellow Pages provide very detailed Hong Kong SARS distribution maps with powerful panning and zooming functionalities up to street/building level (http:/ /www.ypmap.com/en/viewer.asp?mapService=SARSMap Corda's world map of SARS Figure 1 Corda's world map of SARS.", "Web browser screenshot by this author of Corda's world map of SARS displaying data for each country affected by SARS as of 11 July 2003 http://www.corda.com/examples/go/map/sars.cfm.", 'Users can also drill-down into the United States map to view how many cases have been reported in each state.- Figure 6) .', 'A screen resolution of 1024 by 768 pixels or more is highly recommended to view these maps.', 'The maps allow users to lookup Hong Kong district and building situation.', 'Users can type a location (English or Chinese input) to find the nearest five infected buildings and locate them on the maps.', 'The service can also show the locations of district hospitals on the maps and display their full addresses.Thematic mapping, overlay analysis and point-in-polygon analysis are used to explore and highlight the relationship between various aspects of population distribution and infected buildings on the maps.', 'Some handy charts and maps are also offered based on the latest SARS figures, including one that shows the progressional change of infected buildings in Hong Kong (Figure 7) .The interface also allows users to e-mail any of the maps to friends and colleagues (users can also send their own comments alongside the maps).', 'The Hong Kong Yellow Pages SARS maps are generated on the fly based on the latest SARS data.', 'SarsNet interface allows users to specify the information they want to view (which data items/statistics, which geographic location, and time period covered) and the format to which SarsNet should render the selected information on the fly (there is a wide range of textual and graphical formats to choose from, including animated GIF maps).SarsNet is unique in that it permits users to examine the temporal dimension of SARS spread by creating animated series (dynamic maps -see [19] ) based on successive static maps of daily or weekly SARS occurrences.', 'Maps included in an animated series must cover exactly the same geographic area, be of the same scale and use the same classifications (if any).', 'Other maps\n\nSuperMap GIS Technologies, Inc., a software company affiliated to the Geographic Information Industrial Development Centre of the Chinese Academy of Sciences, has produced an online interactive SARS distribution map of China with a Chinese interface http://www.super map.com/sars/.A group of volunteers who are related to the Department of Geography at the University of Hong Kong (HKU) has developed another GIS-based SARS map with English interface http://facarts.hku.hk/geog/sars/.', 'The HKU map shows SARS infected areas in Hong Kong over a five-day period (each day is presented as a separate map layer).It is noteworthy that during June and July 2003, the HKU Department of Geography offered full-day "Mapping SARS Workshops" to introduce GIS for SARS mapping, which is also applicable to disease mapping in general http://geog.hku.hk/sarsworkshop/.', 'Specific workshop highlights included methods to examine: (1) spatio-temporal disease progress; (2) disease diffusion within a vertical building (this could prove helpful when reviewing current buildings/building regulations to achieve healthier living conditions and minimise disease spread in case of infectious disease outbreaks); (3) possible disease ESRI China\'s "SARS GIS" -SARS case distribution in Hong Kong correlation with demographic or environmental data; and (4) identification of clusters by infection sources or geographic proximity.SpatialNews.com/GeoCommunity has published a series of static SARS distribution maps of the United States on its Web site (see for example http://spatialnews.geo comm.com/features/sars/sars_apr252003.pdf).', "The maps were generated using ESRI ArcView GIS and CDC data.In the CDC's Morbidity and Mortality Weekly Report of 2 May 2003, another interesting map was published showing the locations of airports in the US that have arrivals from SARS hotspots like Southeast Asia and Toronto, Canada.", 'Web technologies -http://www.maptell.com/maps/web map/world/worldsars.htm).', 'From geographic mapping to location-based alerting services, geoinformatics plays an important role in the study and control of global outbreaks like SARS.', 'Carefully planned and designed maps are powerful decision support and spatio-temporal analysis tools.', 'Webbased maps also allow for quick, frequent map updates based on the latest datasets, for interactivity to be incorpo- can clearly see at a glance that SARS situation in Hong Kong was already under control by that date.', 'The green dots on this map represent "cleared buildings" and there are no red dots representing "buildings infected within one day".', 'rated into the maps (desktop GIS-like functionality, e.g., drill-down and zooming), and for wider and more rapid dissemination of information (compared to other publishing media).', 'In this paper we have reviewed several geographic mapping efforts of SARS that we have found on the Internet.', 'The maps described in this review employed a variety of techniques like choropleth rendering, graduated circles, graduated pie charts, buffering, thematic mapping, overlay analysis and animation to allow public health decision makers, travellers and local populations at risk to visually monitor and appreciate at a glance changes, trends and patterns buried in different online SARS datasets that were continuously varying with time during the 2003 outbreak.', 'Some of the mapping services presented in this paper provided very detailed information down to individual street/building level (in Hong Kong).', 'Hong Kong Yellow Pages map showing the progressional change of SARS-infected buildings in Hong Kong\n\nHowever, according to Monmonier, it is not just easy but also essential to lie with maps.', "The cartographer's paradox is that to avoid hiding critical information in a fog of detail, the map must offer a selective, incomplete view of reality [22] .", 'Map users always need to be alert for "lies" that can range from legitimate and appropriate suppression of some details selectively to help the user focus on what needs to be seen to more serious distortions in which the visual image suggests conclusions that would not be supported by careful epidemiological analysis.', "Sound epidemiological and statistical principles and methods should provide the foundation for all data analyses to be displayed on maps [23] .In public health worldwide, any public identification of an individual's health status and address, regardless of contagion level or risk, is usually prohibited [24] .", "SARS mapping in Hong Kong using disaggregate case data at individual building level in near real time was a noticeable exception to this well-established public health confidentiality rule, and also a unique and rare GIS opportunity that resulted in some of the very comprehensive SARS Internet mapping services described in this paper.Of all reviewed SARS mapping services, this author believes that SarsNet, Hong Kong Yellow Pages SARS maps, and ESRI's SARS GIS rank top.", 'These three interactive mapping services have managed to provide the most usable, useful and up-to-date maps, charts and graphs among all reviewed services.With its unparalleled capacity for near-instant, wide-scale information sharing and dissemination, the Internet proved to be an indispensable and very effective tool in understanding, rapidly responding to and successfully controlling global outbreaks like SARS.Publish with Bio Med Central and every scientist can read your work free of charge http://www.ij-healthgeographics.com/content/3/1/2']</t>
   </si>
   <si>
-    <t>['The publicly-accessible, online mapping of SARS (Severe Acute Respiratory Syn-drome) in Hong Kong a few years ago using disaggregate case data at individual infected building level in near real time was one of the noticeable exceptions to the wellestablished public health confidentiality rule [9, 10] .', 'Research literature: location privacy concerns and solutions\n\nThe biomedical and public health literature on geographic information systems (GIS) and spatio-temporal analyses features a large number of research papers mentioning or addressing location privacy, e.g., [11] [12] [13] [14] [15] [16] [17] [18] [19] [20] [21] [22] [23] [24] [25] [26] [27] [28] .', "Some research papers identified privacy as a potential or actual issue of concern (e.g., in reproductive health research [18] ; in birth defects surveillance and research [19] ; in research relevant to policy on diet, physical activity, and weight [20] ; in environmental health research [21] ; and in health and social care planning [22] ), while others went one step further by suggesting some comprehensive solutions (e.g., [23] [24] [25] [26] ), workarounds, or frameworks and principles of practice (e.g., [29] ) to mitigate or resolve these privacy concerns.A number of confidentiality-preserving statistical and epidemiological data processing methods (data aggregation and transformations) have been proposed that can be applied to original location data to preserve individuals' privacy while maintaining some acceptable level of data usefulness for geographical analyses.", "The famous John Snow's map of the 1854 Cholera outbreak in London only solved the problem because the unique locations of individual cases were known [15, 30] .", "And that is where software agents can offer a potential solution that preserves the full fidelity of the original data [25] .Moving beyond conventional GIS research and geographical analyses, mobile phones and other electronic gadgets are rapidly gaining location awareness and wireless Web connectivity, thus promising new spatial technology applications and services (e.g., [31] [32] [33] ), which will yield vast amounts of spatial information and online maps that can even reveal users' whereabouts in real time.", "The 'missing ring': data security\n\nData security is relatively under-mentioned in discussions about confidentiality-preserving solutions for location data, despite its key importance in the aforementioned security-confidentiality-privacy triad.", 'The reporting is done in ways that do not identify individual patients when posting publicly-accessible/ online results and maps.', ')A carefully blended, purpose-built combination of overlapping security measures is always the solution, depending on the type, sensitivity, value, and risks/costs assessment of the data to be protected.', 'Personal information and privacy legislations\n\nA discussion on location privacy solutions for health research would be incomplete without reflecting on some of the underlying reasons that necessitate their development.', "GeoPKDD organised the 'First Interdisciplinary Workshop on Mobility, Data Mining and Privacy: Preserv-ing anonymity in geographically referenced data' on 14 February 2008 in Rome, Italy [44] .Another research activity worth mentioning in our context is the proposal by Helen Chen at Agfa HealthCare in Canada and her colleagues at the World Wide Web Consortium-W3C Semantic Web for Health Care and Life Sciences Interest Group (HCLSIG) to explore Semantic Web solutions for patient data security, confidentiality, consent and privacy (in general, i.e., they are not focusing on location privacy, but their proposal is still broadly relevant to our topic).", "Chen's idea is to develop novel privacy-preserving solutions by harnessing the very same Semantic Web technology that can exacerbate these privacy risks [45] .From 5-8 June 2009, the Urban and Regional Information Systems Association (URISA [46] ), a non-profit American association of professionals using GIS and other information technologies to solve challenges in state/provincial and local government agencies and departments, organised its Second GIS in Public Health Conference in Providence, Rhode Island, USA.", 'Among the topics covered by panellists and attendees were methods of spatial data protection, the need to "educate" IRBs, challenges facing data owners and custodians wishing to visualise and disseminate data, how published maps continue to violate confidentiality, some general cartographic guidelines and "fixes", and new methods of spatial data masking.', 'published a paper in International Journal of Health Geographics highlighting the potential for point level data to be reengineered from published maps through a process of digital scanning and georeferencing, even with only limited geographical features [11] .', 'This conceptual approach had previously been impossible to replicate with real data, but by using this case from Hurricane Katrina, the map of mortality locations, and search and rescue markings that actually identified where bodies were found, validation was possible.', 'Concurrent to this article, other reengineering approaches appeared using simulated data and a more systematic approach to identifying homes from a low resolution map [12] .', "Both papers revealed that published maps, even of low resolution and with limited geographical information, could still be reengineered back to an exact address, or so close to the 'real world' location that even without resorting to use other quasi identifiers, the spatial confidentiality of those being mapped was violated.As researchers specialising in geographic information, we need to be proactive in setting guidelines for the display of confidential data, in policing our own actions, and in educating those sitting in positions of data power, especially our IRBs.", 'Critics of the presentation usually focus on the data source-"this is a newspaper map so there is no confidentiality violation".', 'However, there have been at least two maps appearing in journals that have also published the same Katrina mortality point locations.', 'But irrespective of this, the real message is, any point level map can be reengineered back in the same way.', 'Are maps still being published in academic journals that violate spatial confidentiality?', 'Unfortunately it is still too easy to find similar map violations appearing after 2006.', 'One can find examples of maps with point level mortality locations, pregnancies, at-risk pregnancy programme participants, and people suffering from different respiratory ailmentsindeed we challenge the reader to see how many point level health maps they can find.', 'Paradoxically, the attention currently being paid to geocoding accuracy -which is important from a health research perspective, and which has received considerable attention in International Journal of Health Geographics -also has a detrimental side in terms of making published source maps both more accurate and precise.', 'Secondly, smoothing approaches, such as density surfaces, are being used to preserve confidentiality in maps (and stated as such by the authors).', 'The combination of window/kernel/filter size, the underlying grid cell resolution, and especially if there is no option for a minimum denominator, may result in "bulls-eyes" for areas of the map with relatively few residential alternatives, otherwise known as the \'geographic area population size\' [47] .', 'By referring to high resolution aerial photography (now found easily in applications such as Google Earth [35] ), it is relatively easy to identify the cause of the intensity.', 'This is important as researchers seek IRB approval in the use of mobile geospatial devices for collecting health and built environment data.', 'In other words, "if we ask for an address (or a street intersection... or a zip code...) this is the only way we will display it on a map".', ")This 'best practice guide' should be circulated to all journals who publish maps, clearly stating the risks involved in accepting point level maps.", "'Until we have such a universally accepted document, selfpolicing is the main option, and with this in mind, we have a few issues a researcher should ponder before publishing any map.", 'Most importantly, is a point-level (or smoothed, or small aggregation) map necessary?', "As a geographer this last statement certainly hurts, but unless a map is really needed to help frame a paper's content, or improve the understanding of the reader regarding a spatial process, and especially if it is not even specifically referred to in the text, then it is better to err on the side of caution.We fully realise that some point-level maps will still need to be published; it is often easier to explain a spatial process through a graphic, but if this is the case then is the underlying geography needed?", 'If geographical references are necessary in the map, then data masking is essential.There is some good news though, as we have noticed more researchers referencing steps taken to preserve confidentiality during recent presentations.', 'The first involves Google Street View [50] , an excellent research tool that allows us to "see" areas that are described or mapped in publications.', 'This field of research offers great potential in terms of linking health outcomes to the fine-scale built environment.', 'These data are extracted from the video as three-dimensional surfaces that can be mapped or analysed for recovery or abandonment.', 'If we map this information, others could easily disseminate it through online consumer geoinformatics services like Google Earth and Google Map, and even link it using suitable geo-mashups [51] to other readily available online information about the individuals concerned (e.g., on social networking sites), thus revealing a more detailed picture about them.', 'Do our subjects really know all what could be exposed through such mapping?', '(But one should also consider the difference between what is technically possible and what is practically likely to happen, i.e., will there really be someone with the motive, will and ability to do these privacy threatening Web inferencing and mapping exercises in each and every case?', 'Although these situations may not fall foul of any HIPAA standard, nor probably concern an IRB, we are now at a point where changing geospatial technologies must stimulate debate that goes beyond the normal community participatory ethical standards used by researchers [35] .Because of the widespread adoption of GIS-light Internet applications, and cheap and easy-to-use mobile mapping devices (for example, ones which can tag pictures with coordinates), health related spatial confidentiality is now no longer the concern of only geographic information scientists, or even GIS users, but also of a far broader range of academics and other people.', "A 'one-size-fits-all' privacy-preserving solution is unlikely to be successful or to be able to capture and properly address the complex requirements, which might also vary from country to country, of the very many (i) user roles, with different access privileges and 'needs to know' in relation to various input and output data types;(ii) intra and extra-mural data sharing arrangements, especially when data need to be moved across heterogeneous organisations; (iii) governing legislations and policies; (iv) possible forms of data inputs that can be released for research and the associated conditions; (v) health study types and goals, data analysis methods and the data requirements in each case; (vi) possible study outputs/ results reporting and publication forms (closed or public); (vii) situation-specific security risks; and (viii) riskscosts-benefits assessment, among other aspects and requirements that are involved in this area of research and need to be considered on a case-by-case basis.Different privacy-preserving solutions can be applied concurrently or singly on various elements of this complex chain, e.g., on input data prior to release to researchers (e.g., aggregation or transformations) and/or on the research outputs (e.g., access restriction or masking), depending on the specific situation at hand; so a comprehensive, context-aware approach is needed to assist researchers in choosing and applying the right solution(s) in each case.Kamel Boulos (unpublished research notes, 2008 Boulos (unpublished research notes, -2009 proposed the development of a case-based reasoning software framework (cf.", "The goal of such a 'one stop shop' framework would be to streamline the provision of clear and individualised guidance for the design and approval of new research projects, including crisp recommendations on which specific privacy-preserving solution(s) and approach(es) would be suitable in each case.", 'This decision framework should ideally have an easy-to-use, wizard-based visual frontend, guiding users throughout the whole process of describing and diagnosing their needs, and proposing (with appropriate explanations/justifications) suitable solutions to address them.']</t>
-  </si>
-  <si>
-    <t>['In particular, due to the breadth of the program, the potential user community is quite broad, from technology or informatics experts who may want to reanalyze the data or develop better algorithms, to a wide group of biomedical scientists who are interested in mining the data for their own studies or just finding new information on a protein or gene of interest quickly and easily.Accordingly, we developed a set of functional requirements early in the Biodefense Resource Center development: (i) to implement a center-specific submission protocol and data release plan for timely dissemination, (ii) to promote data interoperability, adopting common standards (such as HUPO Proteomic Standards Initiative [2, 3, 4] ), defining a core set of metadata with mapping to controlled vocabularies and ontologies, recommending preferred IDs for gene/ protein mapping, and (iii) to provide value-added annotation to capture key findings and integration of the data with related resources for functional interpretation of the data.', 'For functional interpretation of the data, we then map the gene and protein data based on identifier (ID) mapping or if necessary using peptide or sequence mapping to proteins in our data warehouse described below.', 'Protein Mapping Process\n\nThe various Proteomics Research Centers all used different sources and identifiers for the nucleotide and protein sequences in their analysis pipelines and occasionally would change sources depending on the experiment.', 'The first step was to map all experimental results to a common representation of a protein.', 'This was achieved by mapping all protein and gene IDs and names to iProClass proteins.', 'The majority of the mapping using IDs from public resources was done using mapping services and tables provide on the Protein Information Resource (PIR) web site (http:// proteininformationresource.org/pirwww/search/idmapping.shtml) and FTP site (ftp://ftp.pir.georgetown.edu/databases/iproclass/).', 'However, some mapping problems needed to be addressed either by automated rules, direct sequence comparisons or manual analysis and annotation.', 'Problems and Solutions\n\nMapping difficulties fell into 4 categories: 1) One-to-many mappings: a common problem, especially when eukaryotic host proteins derived from alternate splicing or viral polyproteins are involved.', 'UniProtKB usually merges information on alternate splice forms or polyproteins, which helped minimize this problem for our purposes, but in cases where multiple mappings exist, we selected as most informative the entry in the manually reviewed UniProtKB/ SwissProt section; if no SwissProt entry was found, the longer sequence in UniProtKB/TrEMBL section was selected.', 'Users could always find the alternate mappings via the iProClass related sequences link on the MPD entry page to precompiled BLAST results on all iProClass sequences.', 'Retired sequences often required manual mapping by a curator to match original gene or peptide results to current protein sequences.', 'The question here was what organism strain to map to and represent on our website: the strain the RNA or protein the sample came from, or alternatively, the strain that matched the identifier and sequence used in the research to detect the RNA or protein.', 'For the MPD we chose to map to the sequence identifier reported in the data files and related publications, with the additional virulent strain information noted in the results summary.', 'Full details on the protein and individual experimental results are available via links [5] .Some benefits of the protein-centric mapping approach are visible in the default display.', 'Proteins are often the biologically functional elements in cellular networks; thus, many types of data can be mapped to and through proteins as a common biological object.The lightweight data warehouse approach used for the MPD proved useful in practice, especially with large datasets as its simple design and schema allows greater flexibility to add new data types and to modify search and analysis capabilities.']</t>
-  </si>
-  <si>
-    <t>['map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'environment', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'mapping', 'map']</t>
-  </si>
-  <si>
-    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'solution', 'map', 'solution', 'solution', 'mapping', 'map', 'map', 'solution', 'solution', 'mapping', 'map', 'solution', 'environment', 'solution', 'mapping', 'map', 'solution', 'mapping', 'map', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'environment', 'map', 'mapping', 'map', 'environment', 'map', 'map', 'map', 'environment', 'map', 'map', 'environment', 'map', 'environment', 'solution', 'map', 'map', 'map', 'environment', 'map', 'environment', 'environment', 'map', 'environment', 'map', 'environment', 'environment', 'environment']</t>
+    <t>['The classic methods, algorithms, frameworks, and tools for data management have become both inadequate for processing this amount of data and unable to offer effective solutions for managing the data growth.', 'The problem of managing and extracting useful knowledge from these data sources is currently one of the most popular topics in computing research [3, 4] .In this context, big data is a popular phenomenon that aims to provide an alternative to traditional solutions based on databases and data analysis.', 'Big data is not just about storage or access to data; its solutions aim to analyse data in order to make sense of them and exploit their value.', 'For this reason, the methodologies and frameworks behind the big data concept are becoming very popular in a wide number of research and industrial areas.This section provides a short introduction to the methodology based on the MapReduce paradigm and a description of the most popular framework that implements this methodology, Apache Hadoop.', 'MapReduce and the big data processing problem\n\nMapReduce [25, 26] is presented as one of the most efficient big data solutions.', 'The programming model implemented by MapReduce is based on the definition of two basic elements: mappers and reducers.', 'The idea behind this programming model is to design map functions (or mappers) that are used to generate a set of intermediate key/value pairs, after which the reduce functions will merge (reduce can be used as a shuffling or combining function) all of the intermediate values that are associated with the same intermediate key.The key aspect of the MapReduce algorithm is that if every map and reduce is independent of all other ongoing maps and reduces, then the operations can be run in parallel on different keys and lists of data.Although three functions, Map(), Combining()/Shuffling(), and Reduce(), are the basic processes in any MapReduce approach, usually they are decomposed as follows:1.', 'Prepare the input: The MapReduce system designates map processors (or worker nodes), assigns the input key value K1 that each processor would work on, and provides each processor with all of the input data associated with that key value.', 'The Map() step: Each worker node applies the Map() function to the local data and writes the output to a temporary storage space.', 'The Map() code is run exactly once for each K1 key value, generating output that is organised by key values K2.', 'The Shuffle() step: The map output is sent to the reduce processors, which assign the K2 key value that each processor should work on, and provide that processor with all of the map-generated data associated with that key value, such that all data belonging to one key are located on the same worker node.', 'The Reduce() step: Worker nodes process each group of output data (per key) in parallel, executing the user-provided Reduce() code; each function is run exactly once for each K2 key value produced by the map step.', 'Produce the final output: The MapReduce system collects all of the reduce outputs and sorts them by K2 to produce the final outcome.', '2 shows the classical "word count problem" using the MapReduce paradigm.', '2 shown, initially a process will split the data into a subset of chunks that will later be processed by the mappers.', 'Once the key/values are generated by mappers, a shuffling process is used to mix (combine) these key values (combining the same keys in the same worker node).', '(01, "I thought I") (02, "thought of thinking") (03, "of thanking you") Finally, and before the application of this paradigm, it is essential to understand if the algorithms can be translated to mappers and reducers or if the problem can be analysed using traditional strategies.', 'MapReduce provides an excellent technique to work with large sets of data when the algorithm can work on small pieces of that dataset in parallel, but if the algorithm cannot be mapped into this methodology, it may be "trying to use a sledgehammer to crack a nut".', 'Apache Hadoop\n\nAny MapReduce system (or framework) is based on a MapReduce engine that allows for implementing the algorithms and distributing the parallel processes.', 'Apache Hadoop [19] is an open-source software framework written in Java for the distributed storage and distributed processing of very large datasets using the MapReduce paradigm.', 'The core of Apache Hadoop comprises a storage area, the Hadoop Distributed File System (HDFS), and a processing area (MapReduce).The HDFS (see Section 2.4.1) spreads multiple copies of the data across different machines.', 'This not only offers reliability without the need for RAID-controlled disks but also allows for multiple locations to run the mapping.', 'A job scheduler (in Hadoop, the JobTracker) keeps track of which MapReduce jobs are executing; schedules individual maps; reduces intermediate merging operations to specific machines; monitors the successes and failures of these individual tasks; and works to complete the entire batch job.', 'The HDFS and the job scheduler can be accessed by the processes and programs that need to read and write data and to submit and monitor the MapReduce jobs.', 'For maximum parallelism, you need the maps and reduces to be stateless, to not depend on any data generated in the same MapReduce job.', 'You cannot control the order in which the maps run or the reductions.', 'A database with an index will always be faster than running a MapReduce job over un-indexed data.', 'However, if that index needs to be regenerated whenever data are added, and data are being added continually, MapReduce jobs may have an edge.', 'In the Hadoop implementation, reduce operations do not take place until all of the maps have been completed (or have failed and been skipped).', 'As a result, you do not receive any data back until the entire mapping has finished.', 'There is a general assumption that the output of the reduce is smaller than the input to the map.', 'Therefore, this framework supports these applications while retaining the scalability and fault tolerance of MapReduce.', 'In contrast to Hadoops two-stage disk-based MapReduce paradigm (mappers/reducers), Sparks in-memory primitives provide performance up to 100 times faster for certain applications by allowing user programs to load data into a clusters memory and to query it repeatedly.', 'Other MapReduce implementations and software\n\nA list related to big data implementations and MapReduce-based applications was generated by Mostosi [30] .', 'This selection attempts to reflect some of the recent popular frameworks and software implementations that are commonly used to develop efficient MapReduce-based systems and applications.', 'Stratosphere does not use Hadoops MapReduce implementation; it is a completely new system that brings its own runtime.', 'The new runtime allows for defining more advanced operations that include more transformations than only map and reduce.', 'The most extended and popular distributed file system for MapReduce frameworks and applications is the Hadoop Distributed File System.', 'Cassandra uses a system inspired by Amazons Dynamo for storing data, and MapReduce can retrieve data from Cassandra.', 'The first versions of Mahout implemented the algorithms built on the Hadoop framework, but recent versions include many new implementations built on the Mahout-Samsara environment, which runs on Spark and H2O.', 'There is an important number of R-based applications for MapReduce and other big data applications.', 'To solve this problem, focusing on a large-scale graph analysis, a second generation of frameworks based on the MapReduce paradigm has appeared, including Hama, Giraph (based on Pregel), and GraphLab among others [42] .Pregel [37] is a graph-parallel system based on the Bulk Synchronous Parallel model (BSP) [43] .', 'The main difference between the two frameworks is the matrix computation using the MapReduce paradigm.', 'Therefore, the same data could be analysed using MapReduce or Spark.In contrast, GraphLab is based on a different concept.', 'Whereas Pregel is a one-vertex-centric model, this framework uses vertexto-node mapping in which each vertex can access the state of adjacent vertices.', 'A cluster in a graph can be easily mapped into a community.', 'That is, crime will be concentrated in environments with features that facilitate criminal activities [97] .', 'The experimental results obtained in this work show that it is possible to discover geospatial co-distribution relationships among crime incidents and socio-economic, socio-demographic and spatial features.Another analytical technique that is now in high use by law enforcement agencies to visually identify where crime tends to be highest is the hotspot mapping.', 'A number of mapping techniques can be used to identify crime hotspots, such as: point mapping, thematic mapping of geographic areas, spatial ellipses, grid thematic mapping, and kernel density estimation (KDE), among others.', 'Moreover, the authors offered a benchmark to compare with the results of other techniques and other crime types, including comparisons between advanced spatial analysis techniques and prediction mapping methods.', 'The system these authors proposed uses a self-organization map to filter and analyse customer behaviour to detect fraud.', '[101] Comparative assessment of mapping techniques to predict where crimes may happen Spatial analysis, mapping methods Gerber [102] Identify discussion topics across a city in the United States to predict crimes Linguistic analysis, statistical topic modelling Kirkos et al.', 'The extracted text is classified based on its topical relevance and plotted onto a Google map using geo-information.', 'Then, for the relevant document corpora, entities of interest from 18 concept types based on the ontology related to diseases, viruses, bacteria, locations, and symptoms are searched.HealthMap project [117] is a global disease alert map that uses data from different sources such as Google News, expert-curated discussions such as ProMED-mail, and official organization reports such as those from the WHO or Euro Surveillance, an automated real-time system that monitors, organises, integrates, filters, visualises, and disseminates online information about emerging diseases.Another system that collects news from the Web related to human and animal health and that plots the data on Google Maps is EpiSpider [118] .', '[113] Detect public health events Modelling trajectory distributions GPHIN [115] Identify information about disease outbreaks and other events related to public healthcareClassification documents for relevance BioCaster [116] Monitoring online media data related to diseases, viruses, bacteria, locations and symptomsTopic classification, named entity recognition, event recognition HealthMap [117] Global disease alert map Mapping techniques EpiSpider [118] Human and animal disease alert map Topic and location detection [126] Collecting user experiences into a continually growing and adapting multimedia diary.Classification of patterns in sensor readings from a camera, microphone, and accelerometers Many Eyes [127] Creating visualisations in collaborative environment from upload data sets Visualisation layout algorithms TweetPulse [128] Building social pulse by aggregating identical user experiences Visualising temporal dynamics of the thematic events public healthcare organizations, a number of universities, and health research organizations.', '[119] conducted a comparative assessment of these three systems (BioCaster, EpiSpider, and HealthMap) related to their ability to gather and analyse information that is relevant to public health.', 'In this context, life caching has been presented as a collaborative social action of storing and sharing users life events in an open environment.', 'The inSense system uses the patterns in sensor readings from a camera, a microphone, and accelerometers to classify the users activities and automatically collect multimedia clips when the user is in an interesting situation.Moreover, visualisation systems such as Many Eyes [127] have been designed to upload datasets and create visualisations in collaborative environments, allowing users to upload data, create visualisation of that data, and leave comments on both the visualisation and the data, providing a medium to foment discussion among users.', 'The aim of this study has been to provide a holistic view and insights for potentially helping to find the most relevant solutions that are currently available for managing knowledge in social media.As such, we have investigated the state-of-the-art technologies and applications for processing the big data from social media.', 'Some new developments related to traditional clustering algorithms, such as the K-mean [137] , EM [138] , which has been modified to work with the MapReduce paradigm, and more sophisticated approaches based on graph computing (such as spectral clustering), are currently being developed [139] [140] [141] into more efficient versions from the state-of-theart algorithms [142, 143] .']</t>
+  </si>
+  <si>
+    <t>['Dehydrated mammals in hot environments can save water by reducing the rate of panting and sweating and regulating body temperature above hydrated levels.', 'The onset of sweating in steers after exposure to high environmental temperatures has been shown to be delayed by dehydration.Dehydration may cause death, especially in acute intestinal obstruction, vomiting, and diarrhea, but it is chiefly a contributory cause of death when combined with other systemic states, such as acidosis, electrolyte imbalances, toxemia, and septicemia.The traditional Henderson-Hasselbalch approach indicates that metabolic acidosis is characterized by a low arterial blood pH and a low plasma bicarbonate concentration, following the loss of bicarbonate or the addition of hydrogen ions.', 'Weight losses of 10 to 15 kg/h may occur in horses exercising in high environmental temperatures exceeding 32°C (89°F), and a horse weighing 450 kg can lose 45 L of fluid in a 3-hour ride.Dehydration exerts important effects on tissue metabolism.', 'The presence or absence of mucous membrane moistness may provide a sensitive indication of dehydration in dairy calves, but it was not useful as a predictor of hydration status in Brahmancross calves housed in a hot environment.', 'Calves that are not fed supplementary salt or that have lost salt as a result of severe exercise or high environmental temperatures may be at higher risk, but the syndrome also occurs where salt has not been restricted.', 'This is clinically managed by infusing 1 L of a mixture of 7.2, 5.0, and 0.9% NaCl solutions replacer) and slowly reducing the serum sodium concentration, with a reduction of serum [Na] of 0.5 to 1.0 mEq/L/h being a goal (10 mEq/L decrease per day representing an ideal goal).', '1 To estimate the effect of 1 L of the NaCl infusate on serum sodium concentration ([Na]), the following formula is applied: \n\nHYPERNATREMIA\n\nHypernatremia is most commonly caused by water restriction or mixing errors in neonatal animals, particularly in milk-replacer solutions or oral electrolyte formulations administered to neonatal calves with diarrhea as part of the treatment of dehydration.', 'The prolonged use of potassium-free solutions in fluid therapy for diarrheic animals may result in excessive renal excretion of potassium and hypokalemia.', 'Specially formulated solutions containing potassium are necessary in cases of severe hypokalemia and small-intestinal obstruction.Potassium should be administered intravenously or orally.', 'The most aggressive intravenous treatment protocol is an isotonic solution of KCl (1.15% KCl), which should be administered at less than 3.2 mL/kg/h, equivalent to a maximal delivery rate of 0.5 mEq of K + /kg BW per hour.', "A less aggressive intravenous treatment is an isotonic equimolar mixture of NaCl (0.45% NaCl) and KCl (0.58% KCl), and the least aggressive intravenous treatment is the addition of 10 mmol of KCl/L of Ringer's solution, which will increase the solution osmolarity to 329 mOsm/L.", 'Calcium can be administered intravenously at 0.2 to 0.4 mL of a 23% calcium gluconate solution/kg BW.', 'Oral calcium solutions should only be administered to cattle that have normal swallowing ability, precluding their administration to animals with advanced clinical signs of hypocalcemia.', 'Higher plasma calcium concentrations are obtained more quickly when calcium solutions are drenched after administration of vasopressin to induce esophageal groove closure, or when the calcium solution is administered as a drench instead of ororuminal intubation.', 'Calcium solutions are suspected to have a higher likelihood of aspiration pneumonia than calcium gels (with a consistency similar to toothpaste), although this supposition does not appear to have been verified.', 'As such, it is currently recommended that ruminants with marked hypophosphatemia and signs of illness should be treated with phosphorus-containing solutions.Almost all commercially available intravenous solutions for treating hypophosphatemia use phosphite (PO 2 2− ) or hypophosphite (PO 3 3− ) salts as the source of phosphorus because these salts are very soluble, even in the presence of calcium and and hyperphosphatemia, induced diuresis, and in creased excretion of calcium, magnesium, potassium, sodium, phosphate, and chloride.', '11 Subcutaneous administration of calcium solutions has been practiced for many years as part of the treatment of hypocalcemic cattle.', 'Calcium chloride is not recommended for subcutaneous administration because of extensive tissue damage; the addition of dextrose to the administered calcium is also not recommended because it increases the tonicity of the solution and propensity for bacterial infection and development of abscesses.', 'Rectal calcium administration is not recommended because it causes severe mucosal injury and tenesmus and does not increase plasma concentrations of calcium.Oral administration of calcium has also been practiced for many years, usually by ororuminal intubation of calcium borogluconate solutions designed for parenteral administration.', 'Plasma ionized calcium concentrations are increased to a greater extent following CaCl 2 treatment when high equimolar solutions of CaCl 2 and calcium gluconate are administered, leading to more cardiac arrhythmias during CaCl 2 administration.', 'A field study comparing the effectiveness of different doses of calcium for treating periparturient milk fever determined that 9 g of calcium was superior to 6 g. A good rule of thumb for administering 23% calcium borogluconate solutions (2.14 g calcium/100 mL) to cows with periparturient hypocalcemia is therefore to administer 1 mL/kg BW.', 'There do not appear to be any clinically important advantages to slow administration of the solution over 6 hours, compared with over 15 min.The normal cardiac response to intravenous calcium administration is an increase in the strength of cardiac contraction and a slowing of the heart rate.', 'Intravenous administration is continued until the first arrhythmia is detected (a bradyarrhythmia such as a prolonged pause); the rate of intravenous administration is then slowed until a second arrhythmia is detected, at which time intravenous administration is discontinued and the remainder of the solution is placed subcutaneously over the lateral thorax.', 'However, enema solutions can be prematurely evacuated, eliminating the chance for therapeutic success, and some degree of colonic mucosal injury is expected because of the high osmolarity of 30% solutions (approximately 2400 mOsm/L).', 'The safety of this treatment protocol does not appear to have been evaluated, although a 50-mL enema of a 30% MgCl 2 .6H 2 O solution rapidly and effectively increased serum magnesium concentration in 7-to 10-week-old calves and relieved clinical signs of hypomagnesemia.Oral administration of magnesium hydroxide and magnesium oxide excessively alkalinizes the rumen and can create a severe metabolic alkalosis (strong ion alkalosis), as absorption of magnesium leads to hypermagnesemia and increased plasma strong ion difference (SID).', 'However, because the magnesium concentrations must be normalized in cerebrospinal fluid (CSF), which turns over at approximately 1% per minute.Treatment of hypomagnesemia has historically used 25% Epsom salts solution (magnesium sulfate heptahydrate; MgSO 4 .', '6H 2 O); this solution concentration was selected because it provided approximately 1 mmol of magnesium per liter.', 'It should be noted that 25% Epsom salts solution is markedly hypertonic (2028 mOsm/L).', 'A typical treatment for an adult cow has been slow intravenous administration (over at least 5 min) of 100 mL of the 25% Epsom salts solution, which provides 2.5 g of magnesium (25 mg of magnesium per mL of solution).', 'More recently, hypomagnesemia has been treated using commercially available combined calcium and magnesium solutions; 500 mL of these solutions typically contain 1.6 to 2.7 g of magnesium in the form of a borogluconate, chloride, or hypophosphite salt.', 'Combined calcium and magnesium solutions are preferred for intravenous administration to 25% Epsom salts solution because ruminants with hypomagnesemia frequently have hypocalcemia, and hypercalcemia provides some protection against the toxic effects of hypermagnesemia.', 'Moreover, administration of solutions containing magnesium as the only cation increases the risk of developing cardiac and respiratory failure during treatment.', 'Magnesium-containing solutions (such as 25% Epsom salts solution) can also be administered subcutaneously, although this frequently leads to necrosis of the skin, particularly when 50% Epsom salts solution is administered.', 'Only combined calcium and magnesium solutions should therefore be administered subcutaneously.The oral bioavailability of magnesium is low and much lower than that of calcium.', 'However, the phosphorus in phosphite and hypophosphite is unavailable to mammals, meaning that the vast majority of "phosphate"-containing solutions are not efficacious in treating hypophosphatemia.', 'The pH of the solution should be mildly acidic (pH 5.8) to maintain phosphate solubility in cold weather, but this is not needed when solutions are stored in warm ambient temperatures.', 'A recommended treatment to an adult lactating dairy cow with severe hypophosphatemia is 300 mL of 10% NaH 2 PO 4 (monohydrate) solution by slow intravenous injection; this provides 7 g of phosphate (2.3 g of inorganic phosphate), and increases plasma phosphate concentrations for at least 6 hours.', 'Human enema formulations that contain a mixture of monobasic sodium phosphate monohydrate and dibasic sodium phosphate heptahydrate in a buffered solution have also been administered intravenously to cattle with hypophosphatemia but are not recommended.', 'This human enema solution is extremely hypertonic and must be diluted before administration.', 'A major drawback with intravenous administration of phosphate solutions is that they should not be administered within 2 hours of intravenous calcium administration because of concerns that calcium-phosphate precipitates may be formed in the plasma of cattle with treatmentinduced hypercalcemia and hyperphosphatemia.', '1, 2, 3, 4 This strong ion approach differs in three important areas from the traditional bicarbonate-centered application of the Henderson-Hasselbalch equation: (1) acid-base balance is examined using a systems approach, (2) a clear conceptual distinction is made between dependent variables (such as pH and [HCO 3 − ]) and the independent variables, and (3) the effects of protein concentration on acid-base balance are considered.The strong ion approach reduces the chemical reactions in plasma to that of simple ions in solution.', 'The administration of excessive quantities of acidifying solutions for the treatment of metabolic alkalosis also may cause acidosis.', 'The intravenous administration of 2.5 to 4.5 L of isotonic (1.3%) sodium bicarbonate solution, the amount depending on the severity of the condition, is necessary to return the neonatal calf to health.', 'Parasitic gastroenteritis requires administration of the appropriate anthelmintic, obstructive edema requires removal of the physical cause, and increased permeability edema requires resolution of the cause of endothelial damage.', 'Serum Electrolytes\n\nSerum electrolyte concentrations indicate the severity of the electrolyte losses and the necessity for replacement with either balanced electrolyte solution or specific electrolyte solution.', 'Anion gap (mEq/L) 30 40 0 expansion of the extracellular fluid volume in adult horses administered furosemide and intravenous large-volume crystalloid solutions.', '[1] [2] [3] These findings suggest that rapid resuscitation should focus on the use of low-volume hypertonic saline, and that traditional high-volume crystalloid solution resuscitation should not use bolus administration.', 'Instead, traditional highvolume crystalloid fluid resuscitation should focus on slower rates of administration (&lt;20 ml/kg/h).There are at least five possible free water, electrolyte, acid-base, and oncotic pressure abnormalities that could exist at the same time and must be corrected: • Fluid volume deficit (free water) • Plasma osmolar deficits • Specific electrolyte imbalances • Acid-base imbalance • Oncotic pressure imbalances The two major problems are to determine the nature and degree of the abnormalities present and to decide which fluid and electrolyte replacement solution should be used.The ideal situation would be to make both a clinical and laboratory evaluation of the animal as described earlier.', 'Isotonic, Hypertonic, and Hypotonic Crystalloid Solutions\n\nThe tonicity of the solution is an important clinical issue.', 'Complete understanding of the tonicity concept requires differentiation of two terms, osmolality and osmolarity.Osmolality is the number of dissolved particles per kilogram of solution and is expressed as mOsm/kg of solution.', "The correct term in plasma and extracellular fluid is osmolality, because this factor is measured in the laboratory; however, frequently the term osmolarity is used because 1 L of lactated Ringer's solution closely approximates 1 kg of lactated Ringer's solution and because osmolarity can be easily calculated from the concentration of electrolytes in the fluid solution.", 'Osmolarity is the number of particles per liter of solution and is expressed as mOsm/L of solution.1) and 1 mEq of Cl − (1 × 1), assuming that NaCl acts as a strong electrolyte in water (i.e., it completely dissociates into Na + and Cl − in water).', 'In comparison, 1 mmol of CaCl 2 in solution provides 4 mEq: 2 mEq of Ca 2+ (1 × 2) and 2 mEq of Cl − (2 × 1), and 1 mmol of dextrose provides 0 mEq, because dextrose does not dissociate into charged components in water.', 'Electrolyte solutions with an effective SID greater than 40 mEq/L are therefore alkalinizing because they create a strong ion alkalosis.', 'Electrolyte solutions with an effective SID = 0 are acidifying because they create a strong ion acidosis.', 'Electrolyte solutions of intermediate SID may be alkalinizing or acidifying, depending and osmolarity (hypotonic, isotonic, or hypertonic).', 'Isotonic or slightly hypotonic crystalloid solutions are most commonly administered parenterally, although under specific circumstances hypertonic crystalloid solutions or isotonic colloid solutions are preferred.', 'Crystalloid Solutions\n\nA crystalloid is a substance that forms a true solution and is capable of being crystallized.', "Examples of crystalloid solutions are Ringer's solution, lactated Ringer's solution, acetated Ringer's solution, 0.9% NaCl, 7.2% NaCl (hypertonic saline), 1.3% NaHCO 3 , 8% NaHCO 3 , calcium gluconate, and 50% dextrose.", 'Sodium chloride is the classic example of a crystalloid solution, as table salt (NaCl) exists as a crystal but dissolves completely when placed in water.', 'Because crystalloids dissolve completely in water, crystalloid solutions containing sodium distribute throughout the entire extracellular fluid space; therefore they are not confined to the intravascular space.', 'Sodium-containing crystalloid solutions are always indicated in hypovolemia (circuit problem) but are contraindicated in congestive heart failure (pump problem) because they provide an additional sodium load, and animals with heart failure have already retained too much sodium.', 'Sodium-containing crystalloid solutions are also contraindicated in the presence of severe hypoalbuminemia because sodiumcontaining crystalloids will further decrease plasma albumin concentration and oncotic pressure, resulting in the movement of fluid into the interstitial spaces and exacerbating tissue edema.Crystalloid solutions are characterized in terms of the number of molecules (numerator) per volume of solution (denominator).', 'Because body fluids are dilute, moles are expressed as millimoles (mmol = mol/1000) to facilitate readability.Crystalloid solutions are commonly expressed in terms of the number of charged components (numerator) per volume of solution (denominator).', 'For instance, 1 mmol of NaCl in solution provides 2 mEq: 1 mEq of Na + (1 × decreases plasma pH by approximately 0.016.', "Ringer's solution is the standard intravenous fluid for adult ruminants because these ruminants tend to get alkalemic when inappetent.", 'Isotonic saline (0.9% NaCl solution) is an isotonic crystalloid solution that has little merit in the routine treatment of sick ruminants, principally because ruminants usually develop hypocalcemia and hypokalemia when inappetent.', "Like Ringer's solution, 0.9% NaCl is mildly acidifying because effective SID = 0 mEq/L.", 'Isotonic sodium bicarbonate (1.3% NaHCO 3 solution) is an alkalinizing isotonic crystalloid solution that is used to treat severe acidemia (indicated whenever blood pH &lt;7.20 as a result of metabolic acidosis).', 'This solution is alkalinizing because it buffers hydrogen ion, HCO 3 − + H + ↔ CO 2 + H 2 O, and increases SID (effective SID = 155 mEq/L).', '6 Tromethamine (THAM, Tris-hydroxymethyl aminomethane, 300 mmol/L) is an isotonic solution of an organic amine that is a safe and effective buffer.', 'The inclusion of l-lactate at 56 or 84 mEq/L to an isotonic sodium solution provided a similar alkalinizing effect in healthy calves to the inclusion of bicarbonate at 56 or 84 mEq/L.', "4 Acetated Ringer's solution is a balanced, polyionic, alkalinizing, and hypotonic (294 mOsm/L) crystalloid solution.", "Commercially available formulations of acetated Ringer's solution contain physiologic concentrations of Na + , K + , Mg 2+ , Cl − , acetate (CH 3 COO − ), and gluconate (CH 2 (OH) {CH(OH)} 4 COO − ); the gluconate is problematic because calves (and presumably all large animals) slowly metabolize gluconate.", "5 Acetated Ringer's solution alkalinizes because acetate is metabolized to the bicarbonate ion:The strong ion approach to acid-base balance states that acetated Ringer's solution is alkalinizing because it contains a metabolizable strong anion (acetate) that, when metabolized, increases the SID.", "Two acetated Ringer's solution formulations are commercially available in North America, Plasma-Lyte A and Normosol-R.", 'The difference in solution pH is unlikely to be of clinical significance.', "The main advantage of acetated Ringer's solution is that the sodium concentration (140 mEq/L) is approximately the same as that of livestock animals, whereas the sodium concentration in lactated Ringer's (130 mEq/L) is appreciably lower.", "Isotonic Crystalloid Solutions\n\nRinger's solution is a balanced polyionic nonalkalinizing isotonic crystalloid solution that contains physiologic concentrations of Na + , K + , Ca 2+ , and Cl − .", 'This solution is mildly acidifying because its effective SID = 0 mEq/L.', "Ringer's solution, 0.9% NaCl, and 1.3% NaHCO 3 are therefore considered isotonic solutions because they distribute in plasma water and have calculated osmolarities of 309, 308, and 310 mOsm/L, respectively.The normal plasma osmolarity for solutions to be administered to large animals is approximately 306 mOsm/L; solutions can therefore be defined as isotonic (300-312 mOsm/L), hypertonic (&gt;312 mOsm/L), or hypotonic (&lt;300 mOsm/L).", "Using this categorization, it is readily apparent that some routinely used crystalloid solutions are hypotonic; in particular, lactated Ringer's solution (275 mOsm/L) is mildly hypotonic and 5% dextrose (250 mOsm/L) is moderately hypotonic, although, as glucose is metabolized, 5% dextrose becomes an increasingly hypotonic solution.", 'Erythrocytes are resistant to increases in plasma osmolarity, whereas they are susceptible to mild decreases in osmolarity; this is the basis of the red blood cell fragility test in which red blood cell suspensions are placed in solutions of decreasing osmolarity.', "Hypotonic Crystalloid Solutions\n\nLactated Ringer's solution is a balanced, polyionic, alkalinizing, and hypotonic (275 mOsm/L) crystalloid solution containing physiologic concentrations of Na + , K + , Ca 2+ , Cl − , and l-and d-lactate (CH 3 CH(OH) COO − ).", "Lactated Ringer's solution alkalinizes because lactate is predominantly metabolized to the bicarbonate ion:The lactate in lactated Ringer's is a racemic, approximately equimolar mixture of l-and d-lactate.", "dllactate solutions, such as lactated Ringer's, therefore have approximately half the alkalinizing ability of l-lactate solutions.", "The effective SID of lactated Ringer's solution is therefore less than the calculated value of 28 mEq/L.", "Lactated Ringer's solution is the standard intravenous fluid for neonates and adult horses, because these animals tend to become acidemic when inappetent.", "However, lactated Ringer's solution is theoretically inferior to acetated Ringer's solution, because critically ill animals may have increased blood l-lactate concentrations and it is Generally, the decrease in pH following hypertonic saline administration is less than 0.08 pH units and rapidly dissipates with time.", 'The effect of hypertonic saline on acid-base balance is therefore clinically inconsequential.The use of small volumes (4-5 mL/kg BW) of hypertonic saline solution, ranging in concentration from 7.0% to 7.5%, has been extensively evaluated for the treatment of various forms of hemorrhagic, septic, and endotoxic shock.', '[7] [8] [9] When used in this manner, resuscitation is optimized if calves receive 3 L of an isotonic oral electrolyte solution by esophageal intubation immediately before hypertonic saline is administered intravenously into the jugular vein through an 18-gauge needle at 4 to 5 mL/kg over 4 to 5 minutes.', 'Combined intravenous hypertonic saline and oral electrolyte solution provides the fastest rate of resuscitation of dehydrated calves, as characterized by cardiac output and mean central venous pressure.', "It is important to note that the rate of resuscitation with hypertonic saline is even faster than that provided by administration of an equivalent sodium load of lactated Ringer's solution at 80 mL/kg over the first hour.", "Moreover, more of the administered sodium in hypertonic saline is retained by the calf, resulting in more sustained resuscitation, whereas urinary sodium and free water loss is increased in calves administered lactated Ringer's solution or 0.9% NaCl solution.", 'If 1 g of dextrose given intravenously will provide 5 kcal (2.1 kJ) of energy, the approximate amounts of dextrose solution needed to meet the energy needs for maintenance in cattle are shown in Table 5-4.', 'Faster rates of administration lead to hemodynamic collapse caused by vasodilation and decreased cardiac contractility, whereas slower rates of administration provide no advantages over isotonic crystalloid solutions.', "Accordingly, there does not appear to be a compelling reason to prefer Carbicarb to isotonic sodium bicarbonate when rapid alkalinization of conscious animals is required.Darrow's solution is an isotonic polyionic solution formulated by Darrow in 1946 for use in human infants; the solution has been administered to calves.", "Compared with other isoosmotic polyionic solutions, Darrow's solution is hyponatremic, hyperkalemic, and hyperlactatemic and does not contain calcium or magnesium.", "As such, Darrow's solution is not recommended for administration to large animals.McSherry's balanced electrolyte solution is an isotonic polyionic solution formulated by McSherry and Grinyer in 1954 for intravenous and intraperitoneal administration to dehydrated diarrheic calves.", 'Hypertonic Crystalloid Solutions\n\nFifty percent dextrose is 2500 mOsm/L (approximately eight times normal osmolarity).', 'Fifty percent dextrose solutions are dehydrated calves with naturally acquired diarrhea has been conducted comparing intravenous hypertonic sodium bicarbonate (8.4%, 10 mL/kg over 8 minutes) and hypertonic saline (5.9%, 5 mL/kg over 4 minutes); calves receiving either treatment also received 3 L of an oral electrolyte solution 5 minutes after injection.', 'As expected, the hypertonic sodium bicarbonate solution was more effective in correcting profound acidemia and metabolic acidosis than hypertonic saline.', '19 There are recent studies evaluating the effect of hypertonic solutions of sodium lactate (11.2% at 5 mL/kg/h administered over 270 minutes); lactate provides an energy substrate that can be used by most cells in the body, while being alkalinizing after metabolism to bicarbonate.', 'In a pig endotoxemia model, infusion of hypertonic sodium lactate increased mean arterial blood pressure and cardiac output and improved oxygenation, relative to hypertonic sodium bicarbonate or 0.9% NaCl solution.', 'This solution is also used for rapid alkalinization in the presence of severe acidemia (pH &lt;7.20).', 'Following this initial treatment, hypokalemia characterized by muscular weakness commonly occurs, which can be treated using a high-sodium, high-potassium, alkalinizing solution.Calcium gluconate 23% or calcium borogluconate are 1069 mOsm/L (approximately three and a half times normal osmolarity).', 'd-gluconate is an aldose sugar produced by oxidation of d-glucose, and is the preferred salt for calciumcontaining parenteral solutions because it does not cause tissue necrosis as severe as does CaCl 2 .', 'Calcium gluconate should not be added to sodium bicarbonate solutions because a white precipitate (CaCO 3 ) forms immediately that interferes with normal fluid administration.', 'Likewise, calcium gluconate should not be administered with tetracycline antibiotics because a yellow precipitate forms.Hypertonic saline solutions have been extensively studied in horses and are widely used for the initial resuscitation of critically ill horses that are undergoing abdominal surgery for colic.', "In horses with experimentally induced acute endotoxemia, horses resuscitated with intravenous hypertonic saline (5 mL/kg) and hydroxyethyl starch (10 mL/ kg) had a higher cardiac output, lower mean pulmonary artery pressure and mean central venous pressure, higher ionized plasma calcium concentration, and improved respiratory gas exchange and arterial oxygenation than horses resuscitated with high-volume isotonic acetated Ringer's solution.", '14, 15 These results were consistent with increased interstitial water in the lung and volume overload as a result of conventional rapid high-volume isotonic solution administration.', '11 Hypertonic saline (7.2%) at 4 mL/kg provided a superior resuscitative solution than equivolume isotonic saline (0.9%) in horses eliminated from an endurance event because of dehydration.', '16 Hypertonic solutions of sodium bicarbonate are highly effective for the initial treatment of acidosis associated with d-lactic acidosis in calves, acute diarrhea in calves, and strong ion (metabolic) acidosis in newborn calves.', 'This solution is used for rapid alkalinization, particularly in the presence of severe acidemia (pH &lt;7.20).', 'The solution osmolarity was selected because it provides 1 mEq of HCO 3 − /mL of solution, which facilitates calculation of the volume to be administered.', '9, 10 Hypertonic saline solution is widely used for the treatment of dairy cattle with endotoxic shock and endotoxemia associated with coliform mastitis.', '12 Hypertonic saline (7.5% NaCl, 5 mL/kg intravenously over 15 minutes) has been administered to cattle with experimentally induced acute ruminal acidosis, and the resuscitative effects compared with isotonic saline solution (0.9% NaCl).', 'This is because rumen osmolality is markedly increased in acute ruminal acidosis, which minimizes the osmotic gradient that is generated following rapid intravenous small-volume hypertonic saline administration and the volume of free water translocated from the forestomach.will minimize its administration to large animals.Plasma (fresh or frozen) is an excellent balanced colloid/crystalloid solution.', 'Human albumin solutions (5% or 25% human albumin in 0.9% NaCl) are available, but are very expensive relative to the use of other colloids such as plasma, blood, or Dextran 70.', 'Consequently, there does not appear to be a persuasive reason for the administration of human albumin solutions to large animals.Dextran preparations (such as Dextran 70 and Dextran 40) are high molecular weight glucose polymers obtained by bacterial fermentation of sucrose; the fermentation metabolites then undergo acid hydrolysis and fractionation.', 'Therefore Dextran 70 acts clinically as a plasma volume expander; this is in contrast to isotonic crystalloid solutions, which act as extracellular fluid volume expanders.', 'It is supplied as a 6% concentration in 0.9% NaCl, which provides a hyperoncotic but isotonic solution.', 'Reported administration rates of Dextran 70 are 5 to\n\nColloid Solutions\n\nA colloid is a substance that is too large to pass through a semipermeable membrane.', 'Examples of colloid solutions administered to ruminants are whole blood, stroma-free Hb, plasma, dextrans, hydroxyethyl starches, and gelatins.', 'As a group, colloid solutions are excellent for sustained expansion of plasma volume, which is in marked contrast to the effect of crystalloid solutions.', 'Colloid solutions are contraindicated in congestive heart failure because these animals have increased plasma volume.', 'Colloid solutions are also contraindicated in the presence of oliguric or anuric renal failure because the sustained volume overload may lead to pulmonary edema.', 'Although initial studies using colloid solutions appeared promising, influential studies promoting the use of commercially available solutions have been recently retracted from major journals, 21 and the majority of smaller reviews evaluating the safety and efficacy of colloid solutions were written by investigators that had or have since established ties to the manufacturers of colloid solutions.', 'The net result of these recent developments is decreased enthusiasm for the administration of commercially formulated colloid solutions.Whole blood is the perfect balanced colloid/crystalloid solution, with great O 2carrying capacity.', 'Descriptions for collecting, storing, and administering blood are available in Chapter 4.Stroma-free Hb is a blood substitute containing a purified Hb glutamer-200 solution (13 g Hb/dL) derived from cattle blood.', 'A commercially available solution has a 2-year shelf-life at 20°C, an osmolarity of 300 mOsm/L, and an oncotic pressure of 43 mm Hg; the solution is therefore isotonic but hyperoncotic.', 'Stroma-free Hb solutions are excellent at increasing oxygen delivery and carrying capacity while providing similar plasma volume expansion to dextrans and hydroxyethyl starches.', 'The major theoretical concerns regarding administration of stroma-free Hb solutions are potent vasoconstriction and hemoglobinuric nephrosis.', 'The deleterious effects of dextrans are usually associated with large doses or prolonged administration.The use of hypertonic saline-dextran solution (4 mL/kg, 2400 mOsm/L sodium chloride in 6% Dextran 70 administered intravenously once over 4 minutes) combined with an isotonic oral alkalinizing solution containing sodium chloride (3.22 g/L), potassium chloride (1.12 g/L), sodium acetate trihydrate (4.76 g/L), and glucose anhydrous (16.22 g/L), providing 300 mOsm/kg of water and administered at 55 mL/kg BW, was superior to either solution alone for the treatment of experimentally induced hypovolemic diarrhea in calves.', 'Resuscitation with oral electrolyte solution alone was slower but was complete within 24 hours.', 'Resuscitation with the hypertonic saline-dextran solution alone resulted in only transient benefit.The administration of hypertonic saline-dextran solution (7.2% NaCl solution with 6% dextran at the rate of 4 mL/ kg BW, intravenously during a 4-minute period, combined with oral administration of isotonic electrolyte solution at the rate of 50-60 mL/kg BW) provided a rapid and effective method for resuscitating severely dehydrated calves with experimentally induced diarrhea or with naturally acquired diarrhea.Hydroxyethyl starch is a high molecular weight glucose polymer (mean molecular weight 450,000 g) that is chemically synthesized from amylopectin, producing a highly branched glucose polymer with a structure similar to that of glycogen.', 'Hydroxyethyl starch solutions are categorized by the mean molecular weight and a molar substitution ratio (usually stated after a back slash) that reflects the number of hydroxyethyl substitutions per glu</t>
+  </si>
+  <si>
+    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'solution', 'environment', 'solution', 'solution', 'solution', 'solution', 'environment', 'environment', 'solution', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'environment', 'environment', 'environment', 'environment', 'solution', 'solution', 'environment', 'map', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'map', 'mapping', 'map', 'solution', 'environment']</t>
   </si>
   <si>
     <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'solution', 'environment', 'solution', 'solution', 'environment', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'environment', 'map', 'map', 'map', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'environment', 'solution', 'map', 'map', 'solution', 'environment', 'map', 'solution', 'solution', 'map', 'environment', 'environment', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'solution', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'environment', 'map', 'environment', 'map', 'environment', 'environment', 'map', 'map']</t>
   </si>
   <si>
-    <t>['mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map']</t>
-  </si>
-  <si>
-    <t>['environment', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'environment', 'environment', 'solution', 'solution', 'solution', 'environment', 'solution', 'environment', 'solution', 'environment', 'environment', 'solution', 'solution', 'solution', 'environment', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution']</t>
-  </si>
-  <si>
-    <t>['mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'environment', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'solution']</t>
-  </si>
-  <si>
-    <t>['map', 'solution', 'map', 'map', 'solution', 'mapping', 'map', 'mapping', 'map', 'environment', 'map']</t>
-  </si>
-  <si>
-    <t>['map', 'mapping', 'map', 'mapping', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'environment', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map']</t>
-  </si>
-  <si>
-    <t>['mapping', 'map', 'solution', 'solution', 'environment', 'map', 'solution', 'map', 'solution', 'map', 'solution', 'solution', 'solution', 'solution', 'map', 'map', 'map', 'solution', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'solution', 'environment', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'solution', 'solution', 'solution']</t>
-  </si>
-  <si>
-    <t>['mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'solution', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map']</t>
+    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'solution', 'map', 'solution', 'solution', 'map', 'mapping', 'map', 'solution', 'solution', 'map', 'mapping', 'solution', 'environment', 'solution', 'map', 'mapping', 'solution', 'map', 'mapping', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'environment', 'map', 'map', 'mapping', 'environment', 'map', 'map', 'map', 'environment', 'map', 'map', 'environment', 'map', 'environment', 'solution', 'map', 'map', 'map', 'environment', 'map', 'environment', 'environment', 'map', 'environment', 'map', 'environment', 'environment', 'environment']</t>
+  </si>
+  <si>
+    <t>['map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'mapping']</t>
+  </si>
+  <si>
+    <t>['map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'solution']</t>
+  </si>
+  <si>
+    <t>['map', 'mapping', 'map', 'mapping', 'solution', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'map']</t>
+  </si>
+  <si>
+    <t>['environment', 'environment', 'environment', 'map', 'mapping', 'solution', 'map', 'solution', 'environment', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'solution', 'environment', 'environment', 'map', 'mapping', 'map', 'mapping', 'environment', 'map', 'mapping', 'environment', 'map', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'solution', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'map', 'mapping', 'environment', 'map', 'mapping', 'environment', 'map', 'mapping', 'solution', 'solution', 'solution', 'environment', 'environment', 'environment', 'solution', 'map', 'environment', 'environment', 'map', 'environment', 'environment', 'map', 'mapping', 'environment', 'environment', 'environment', 'environment', 'map', 'mapping', 'map', 'environment', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'environment', 'environment', 'environment', 'map', 'environment', 'solution', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'solution', 'map', 'mapping', 'environment', 'map', 'mapping', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'solution', 'solution', 'solution', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'environment', 'map', 'map', 'map', 'mapping', 'map', 'solution', 'environment', 'map', 'map', 'environment', 'environment', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'environment', 'environment', 'environment', 'map', 'environment', 'map', 'solution', 'environment', 'solution', 'solution', 'environment', 'map', 'map', 'mapping', 'map', 'solution', 'environment']</t>
+  </si>
+  <si>
+    <t>['map', 'map', 'mapping', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'environment', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping']</t>
+  </si>
+  <si>
+    <t>['solution', 'solution', 'solution', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'environment', 'map', 'mapping', 'map', 'environment', 'environment', 'solution', 'map']</t>
+  </si>
+  <si>
+    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution']</t>
   </si>
 </sst>
 </file>
@@ -624,19 +616,19 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>6340</v>
+        <v>27260</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -650,19 +642,16 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>23334</v>
+        <v>13054</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -676,16 +665,19 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>13054</v>
+        <v>23334</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -699,19 +691,19 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>5332</v>
+        <v>6340</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -725,19 +717,19 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>24565</v>
+        <v>19182</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -751,19 +743,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>19182</v>
+        <v>6365</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -777,19 +769,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>5624</v>
+        <v>24588</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -806,16 +798,16 @@
         <v>29201</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -829,19 +821,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>4553</v>
+        <v>26238</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -855,19 +847,16 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>6911</v>
+        <v>23192</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/EUvsVirus/output/Q3.xlsx
+++ b/EUvsVirus/output/Q3.xlsx
@@ -37,43 +37,34 @@
     <t>Search_words</t>
   </si>
   <si>
-    <t>Antimicrobial prescribing in Australian hospitals; antimicrobial choice and indications for inappropriate prescribing</t>
-  </si>
-  <si>
-    <t>Calves Escherichia coli</t>
-  </si>
-  <si>
-    <t>Improving the wind environment in high-density cities by understanding urban morphology and surface roughness: A study in Hong Kong</t>
-  </si>
-  <si>
     <t>Web GIS in practice III: creating a simple interactive map of England's Strategic Health Authorities using Google Maps API, Google Earth KML, and MSN Virtual Earth Map Control</t>
   </si>
   <si>
     <t>Concept mapping as pre-task planning: A case study of three Japanese ESL writers</t>
   </si>
   <si>
-    <t>Understanding the legal trade of cattle and camels and the derived risk of Rift Valley Fever introduction into and transmission within Egypt</t>
-  </si>
-  <si>
     <t>Towards evidence-based, GIS-driven national spatial health information infrastructure and surveillance services in the United Kingdom</t>
   </si>
   <si>
     <t>Descriptive review of geographic mapping of severe acute respiratory syndrome (SARS) on the Internet</t>
   </si>
   <si>
-    <t>Social big data: Recent achievements and new challenges</t>
-  </si>
-  <si>
     <t>Van Metre DC. Sodium balance and the dysnatremias</t>
   </si>
   <si>
-    <t>867ebb2be2d466bcb35e5a7319708eaff39c4799</t>
-  </si>
-  <si>
-    <t>cdde0ab46f6f3238c17c8d23c2e6b7bbfe75f9c4</t>
-  </si>
-  <si>
-    <t>8bebe89ae7eb2ad70096f06e7aa5140cad8acbf5</t>
+    <t>Moving interdisciplinary science forward: integrating participatory modelling with mathematical modelling of zoonotic disease in Africa</t>
+  </si>
+  <si>
+    <t>A 2D graphical representation of the sequences of DNA based on triplets and its application</t>
+  </si>
+  <si>
+    <t>International Journal of Health Geographics Musings on privacy issues in health research involving disaggregate geographic data about individuals</t>
+  </si>
+  <si>
+    <t>Medical Anthropology</t>
+  </si>
+  <si>
+    <t>Weekly ILI patient ratio change prediction using news articles with support vector machine</t>
   </si>
   <si>
     <t>29d776d7a6f03cf59887534629dcbe5014f09aed</t>
@@ -82,28 +73,28 @@
     <t>c52de01033f30ce8a25edc10e1109fe3d5a8bbba</t>
   </si>
   <si>
-    <t>5b470094ead1416c283ca042644ac1061103b101</t>
-  </si>
-  <si>
     <t>06559dd625491d6474ee88f08c12fc17c1830995</t>
   </si>
   <si>
     <t>d81ae79ebc6462fd3de075e220992f1aae1f06ae</t>
   </si>
   <si>
-    <t>85931c154d726d61ef2ab2804a9c42e9d41108f5</t>
-  </si>
-  <si>
     <t>36f0ce11b61edc9a0eb039d08bc0e0d86b5f575b</t>
   </si>
   <si>
-    <t xml:space="preserve">Rodney James, Kirsty Buising, Karin Thursky </t>
-  </si>
-  <si>
-    <t>Simon F Peek, Sheila M Mcguirk, Raymond W Sweeney, Kevin J Cummings</t>
-  </si>
-  <si>
-    <t>Edward Ng, Chao Yuan, Liang Chen, Chao Ren, Jimmy C H Fung</t>
+    <t>9cda7cc79c0dee43d486d8165181e5b5ca09a817</t>
+  </si>
+  <si>
+    <t>5bc5b2f9dee2ff454efe226384070d467112e25d</t>
+  </si>
+  <si>
+    <t>e296fa71274bad6cabcf683a2ba47e58b1326877</t>
+  </si>
+  <si>
+    <t>5135187bfbd07b1a425b506bc74011e570a78797</t>
+  </si>
+  <si>
+    <t>d9fa99532407c6f68ffa719e321870586363c18a</t>
   </si>
   <si>
     <t>Maged N Kamel Boulos, Email : Maged, Kamel Boulos, -M N K Ac Boulos@bath,  Uk</t>
@@ -112,23 +103,22 @@
     <t>Maki Ojima</t>
   </si>
   <si>
-    <t>Sebastian Napp, Veronique Chevalier, Nú Ria Busquets, Paolo Calistri, Jordi Casal, Mohamed Attia, Rehab Elbassal, Heba Hosni, Hatem Farrag, Noura Hassan, Rasha Tawfik, Sohair Abd Elkader, Shahin Bayomy</t>
-  </si>
-  <si>
-    <t>Gema Bello-Orgaz, Jason J Jung, David Camacho</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Med, H J Androgue, N E Madias,  Hyponatremia, S R Byers, A S Lear</t>
   </si>
   <si>
-    <t xml:space="preserve">Abstract
-publicly funded repositories, such as the WHO COVID database with rights for unrestricted research re-use and analyses in any form or by any means with acknowledgement of the original source. These permissions are granted for free by Elsevier for as long as the COVID-19 resource centre remains active.Propensity-score matched analysis comparing clinical benefits of antimicrobial de-escalation and non-switch in adults with community-onset monomicrobial Escherichia coli, Klebsiella species, and Proteus mirabilis bacteremia
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-In this study, a high-resolution frontal area density (FAD) map that depicts the surface roughness of urban Hong Kong is produced using a mapping method that takes into account the dense urban morphology and the site wind availability of the territory. Using the MM5/CALMET model simulated wind data of Hong Kong, the FAD map of three urban zones are calculated: podium (0-15 m), building (15-60 m), and urban canopy (0-60 m). The wind tunnel test data is used to correlate the FAD understanding of the three zones. The grid sensitivity test indicates that 200 m × 200 m is the reasonable resolution for the FAD map; the test also establishes that the lower urban podium zone yields the best correlation with the experimental data. The study further establishes that the simpler two-dimensional ground coverage ratio (GCR), which is readily available in the planning circle, can be used to predict the area's average pedestrian level urban ventilation performance of the city. Working with their inhouse GIS team using available data, it allows the planners a way to understand the urban ventilation of the city for decisions related to air paths, urban permeability and site porosity.
-</t>
+    <t>Catherine Grant, Giovanni Lo Iacono, Vupenyu Dzingirai, Bernard Bett, Thomas R A Winnebah, Peter M Atkinson</t>
+  </si>
+  <si>
+    <t>Sai Zou, Lei Wang, Junfeng Wang</t>
+  </si>
+  <si>
+    <t>Open Access, Maged N Kamel Boulos, Andrew J Curtis, Philip Abdelmalik</t>
+  </si>
+  <si>
+    <t>B Mcmahan, M Nichter</t>
+  </si>
+  <si>
+    <t>Juhyeon Kim, Insung Ahn</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
@@ -142,11 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Rift Valley Fever (RVF) is a mosquito-borne zoonosis, which may cause significant losses for the livestock sector and have serious public health implications. Egypt has been repeatedly affected by RVF epidemics, mainly associated to the importation of animals from sub-Saharan countries, where the disease is endemic. The objective of our study was the improvement of the surveillance and control strategies implemented in Egypt. In order to do that, first we evaluated the legal trade of live animals into and within Egypt. Then, we assessed the risk of Rift Valley Fever virus (RVFV) transmission within the country using a multi-criteria evaluation approach. Finally, we combined the animal trade and the risk of RVFV transmission data to identify those areas and periods in which the introduction of RVFV is more likely. Our results indicate that the main risk of RVFV introduction is posed by the continuous flow of large number of camels coming from Sudan. The risk of RVFV transmission by vectors is restricted to the areas surrounding the Nile river, and does not vary significantly throughout the year. Imported camels are taken to quarantines, where the risk of RVFV transmission by vectors is generally low. Then, they are taken to animal markets or slaughterhouses, many located in populated areas, where the risk of RVFV transmission to animals or humans is much higher. The measures currently implemented (quarantines, vaccination or testing) seem to have a limited effect in reducing the risk of RVFV introduction, and therefore other (risk-based) surveillance strategies are proposed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
 The term "Geographic Information Systems" (GIS) has been added to MeSH in 2003, a step reflecting the importance and growing use of GIS in health and healthcare research and practices. GIS have much more to offer than the obvious digital cartography (map) functions. From a community health perspective, GIS could potentially act as powerful evidence-based practice tools for early problem detection and solving. When properly used, GIS can: inform and educate (professionals and the public); empower decision-making at all levels; help in planning and tweaking clinically and cost-effective actions, in predicting outcomes before making any financial commitments and ascribing priorities in a climate of finite resources; change practices; and continually monitor and analyse changes, as well as sentinel events. Yet despite all these potentials for GIS, they remain under-utilised in the UK National Health Service (NHS). This paper has the following objectives: (1) to illustrate with practical, real-world scenarios and examples from the literature the different GIS methods and uses to improve community health and healthcare practices, e.g., for improving hospital bed availability, in community health and bioterrorism surveillance services, and in the latest SARS outbreak; (2) to discuss challenges and problems currently hindering the wide-scale adoption of GIS across the NHS; and (3) to identify the most important requirements and ingredients for addressing these challenges, and realising GIS potential within the NHS, guided by related initiatives worldwide. The ultimate goal is to illuminate the road towards implementing a comprehensive national, multi-agency spatio-temporal health information infrastructure functioning proactively in real time. The concepts and principles presented in this paper can be also applied in other countries, and on regional (e.g., European Union) and global levels.
 </t>
   </si>
@@ -157,17 +142,23 @@
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Big data has become an important issue for a large number of research areas such as data mining, machine learning, computational intelligence, information fusion, the semantic Web, and social networks. The rise of different big data frameworks such as Apache Hadoop and, more recently, Spark, for massive data processing based on the MapReduce paradigm has allowed for the efficient utilisation of data mining methods and machine learning algorithms in different domains. A number of libraries such as Mahout and SparkMLib have been designed to develop new efficient applications based on machine learning algorithms. The combination of big data technologies and traditional machine learning algorithms has generated new and interesting challenges in other areas as social media and social networks. These new challenges are focused mainly on problems such as data processing, data storage, data representation, and how data can be used for pattern mining, analysing user behaviours, and visualizing and tracking data, among others. In this paper, we present a revision of the new methodologies that is designed to allow for efficient data mining and information fusion from social media and of the new applications and frameworks that are currently appearing under the "umbrella" of the social networks, social media and big data paradigms. (D. Camacho). petabytes (and even exabytes) in size, and the massive sizes of these datasets extend beyond the ability of average database software tools to capture, store, manage, and analyse them effectively.The concept of big data has been defined through the 3V model, which was defined in 2001 by Laney [5] as: "high-volume, highvelocity and high-variety information assets that demand cost-effective, innovative forms of information processing for enhanced insight and decision making". More recently, in 2012, Gartner [6] updated the definition as follows: "Big data is high volume, high velocity, and/or high variety information assets that require new forms of processing to enable enhanced decision making, insight discovery and process optimization". Both definitions refer to the three basic features of big data: Volume, Variety, and Velocity. Other organisations, and big data practitioners (e.g., researchers, engineers, and so on), have extended this 3V model to a 4V model by including a new "V": Value [7] . This model can be even extended to 5Vs if the concepts of Veracity is incorporated into the big data definition.Summarising, this set of * V-models provides a straightforward and widely accepted definition related to what is (and what is not) a big-data-based problem, application, software, or framework. These concepts can be briefly described as follows [5,7]:• Volume: refers to large amounts of any kind of data from any different sources, including mobile digital data creation devices and digital devices. The benefit from gathering, processing, and analysing these large amounts of data generates a number http://dx.
+This review outlines the benefits of using multiple approaches to improve model design and facilitate multidisciplinary research into infectious diseases, as well as showing and proposing practical examples of effective integration. It looks particularly at the benefits of using participatory research in conjunction with traditional modelling methods to potentially improve disease research, control and management. Integrated approaches can lead to more realistic mathematical models which in turn can assist with making policy decisions that reduce disease and benefit local people. The emergence, risk, spread and control of diseases are affected by many complex bio-physical, environmental and socio-economic factors. These include climate and environmental change, land-use variation, changes in population and people's behaviour. The evidence base for this scoping review comes from the work of a consortium, with the aim of integrating modelling approaches traditionally used in epidemiological, ecological and development research. A total of five examples of the impacts of participatory research on the choice of model structure are presented. Example 1 focused on using participatory research as a tool to structure a model. Example 2 looks at identifying the most relevant parameters of the system. Example 3 concentrates on identifying the most relevant regime of the system (e.g., temporal stability or otherwise), Example 4 examines the feedbacks from mathematical models to guide participatory research and Example 5 goes beyond the so-far described two-way interplay between participatory and mathematical approaches to look at the integration of multiple methods and frameworks. This scoping review describes examples of best practice in the use of participatory methods, illustrating their potential to overcome disciplinary hurdles and promote multidisciplinary collaboration, with the aim of making models and their predictions more useful for decision-making and policy formulation.
 </t>
   </si>
   <si>
-    <t>['PS 004\n\nShould we continue to implement contact precautions and environmental cleaning for MRSA Hui-Yun Liang 1 , Iig-Ling Chen 1 , Hung-Jen Tang 1,2,3 *.', 'For the first isolated of MRSA patient must immediately check the use of antibiotics and related medical behavior, and the unit who isolated of MRSA to the hand hygiene audit, environment cleaning and disinfection of the joint inspection when the patient was discharged.', 'Conclusion: Through the continuous monitoring of the trend of drug resistance distribution at the same time prudent use of antibiotics and the use of antibiotics stewardship, the most important thing is to implement contact isolation, hand hygiene and medical environment, such as cleaning and disinfection of infection control measures, Reduce the transmission of drugresistant bacteria.', 'The drug sensitivity of S. maltophilia should be monitored and analyzed to assist the clinical Physicians choose a reasonable treatment of antibiotics.The ward environment cleaning monitoring took 13 months, the results showed even cleaning and disinfection have been implemented, MDRO still exists in the ward environment.', 'Thus, we provided sanitary unit these data for educational training and ask them to improve their practice on environment cleaning.', 'Besides, Table 1 also showed non-high-risk ward sections was free from MDRO, indicating high-risk ward sections should be regularly monitored, and supervised implementation of environment cleaning and disinfection to ensure better cleanliness in hospital environment and better healthcare quality.Our evaluation provide the surfaces with fluorescent marker totally cleaning could offer objective standards for hospital cleanliness.', 'Methods: We compared (i) the rate of dissolution (by experienced nurses), (ii) the coloring (spectrophotometry) and degradation (LC-MS-MS) over ward storage of the original meropenem (MERONEM ® ; AstraZeneca) vs. 4 generics of meropenem authorized in Belgium, France and/or Spain (Sandoz, Hospira, Fresenius-Kabi, Aurovit).', 'Results: CBH with improved catalytic and kinetic characteristics is a matter of utmost importance to withstand the current robust industrial environment.', 'The ion in the mixed solution, zinc ions can be degraded by this strain.', 'Many regulatory mechanisms have been evolved for bacteria to adapt to changes of diverse environments.', 'The skin lesions resolved a few weeks after initiating the combination treatment, and repeat Ga scan and chest CT demonstrated resolution of lymphadenopathy, but follow up ESR and CRP levels were still high after anti-NTM treatment for a total of 18 months.', 'Results: The complete blood counts with differential count and platelet count, blood cultures, blood chemistries, ESR, CRP, urinary analysis, purified protein derivative skin test, abdominal sonography, chest radiograph and high resolution computed tomography of the chest revealed unremarkable findings.', 'Mycobacterium haemophilum is belonging to the group of NTM, which frequently found in environmental habitats, and known to cause cutaneous and subcutaneous infections.', 'PS 111\n\nUsing a new method to culture the C. difficile from environment Chih-Chen Lin 1,2 , Chang-Pan Liu 1,2 , Fu-Chieh Chang 1 .', 'So, if we had a efficient method that can culture this bacterium from environment, it would be useful for infection control.', 'We collected the sample from the environment that CDI patient used before.', 'Results: In this study, we collected 12 sample from the environment.', '1 Infection Control Center, Taichung Veterans General Hospital, Taichung, Taiwan, 2 Nursing Department, Taichung Veterans General Hospital, Taichung, Taiwan Background: The cleaning and disinfection of contaminated equipment and environment are essential for the prevention of healthcare-associated infections.', 'The most common chemical used to clean the hospital environment is bleach (sodium hypochlorite).', 'PS 132\n\nCould the HOCl as a high level disinfection solution for environment cleaning Wen-Jun Yeh 1 , Fu-Chieh Chang 1 , Ya-Ling Chen 1 , Chang-Pan Liu 1,2 , Nan-Chang Chiu 3 , Hsin Chi 3 .', 'Before the terminal disinfection, we collect the sample from environment.', 'Then we used the HOCl as a high level disinfection solution to cleaning and disinfection.', 'After that, we still collected the sample from the environment then culture it.', 'Otherwise, the culture positive ratio of chlorine solution was 21% before this study.', 'But the price of HOCl are higher than chlorine solution.', 'Conclusion: In this study, the HOCl solution function were not good enough to replace chlorine solution.', "So, according to this study, we didn't suggest the hospital use HOCl solution as a High level disinfection solution for environment Cleaning.", '1 Infection Control Center, MacKay memorial Hospital, 2 Department of Nursing, MacKay memorial Hospital, 3 Department of Infection, MacKay memorial Hospital Background: As we know, the terminal disinfection is very important to prove new patient avoid bacteria from environment.', 'And the chlorine solution had to over 500 ppm for terminal disinfection.', 'So, in this study, we wanted to check if the environment still have Multi-drug resistant organisms after cleaning or not.', 'Then have to check the concentration of the chlorine solution before clean.', 'After the environment is clean to perform a bacteria test.', 'To facilitate environmental clean monitoring.', 'As long as the chemical deployment room environment clean thoroughly And colony culture dish inspection and disposal appropriate.', 'Can get a good environment for the deployment of chemotherapy drugs.', 'PS 137\n\nReducing HAI by implementation of environment clean separation management measures using 4 different color disposable wipes Swee Siang Wong 1 *, Chiu Chu Yang 2 , Yi Pei Hsieh 2 , Chen Ni Kuo 2 , Yi Ru Chen 2 , Li Ching Chen 1 , Ko chung Tsui 1,3,4 , Cheng Hua Huang 1 .', 'Background: Environmental cleaning is a fundamental principle of infection control in healthcare settings.', 'We sought to determine whether implement environment clean separation management measures in a medical intensive care unit (MICU) could reduce the density of healthcare associated infection.', 'Following one month of preintervention phase, implementing education and training for all cleaning staff and related personnel to use environment clean separation management measures by using 4 different color disposable wipes to clean high tough surfaces.', 'The cleaning effect of the MICU environment was measured by using ATP bioluminescence.', 'Within the study period, the value of pass increase from 13% to 53%, the value of fail decrease from 47% to 20%; numerical difference trend of the pass value increase from −7% to 20% and fail value decrease from 13% to −20%, showing the use of different color disposable wipes and the correct wiping method or wiping process can improve the environment cleanliness.', 'Conclusion: Using environment clean separation management measures is effective in cleanliness of MICU environment.', 'Environmental cleaning can reduce transmission of these pathogens but is often inadequate.', 'Conclusions: The Hyper Light P3 device was effective in killing MDR pathogens and could be considered as an adjunctive method in disinfecting hospital environment.', '(3) The environment that the patients worked should enhance cleansing.', 'If there was diarrhea or vomiting, it is important to strengthen environment clean and disinfection.', 'PS 151\n\nThe effectiveness of environmental cleansing to improve infection control of upper respiratory infection in a psychiatric center Yu-Ping Liu 1 , Shiun-Yin Jeng 1 , Huei-Lan Lu 1 , Tso-Jen Wang 1 , Chung-Shin Liao 2 .', '1 Jianan Psychiatric Center, 2 Chang Hua hospital Background: Environmental cleansing was a key point in the prevention of medical care, psychiatric patients generally had poor personal hygiene and habits, therefore while infectious disease occurred, indirect easy to make the environment contaminated by bacteria, when cleaning staff cannot effectively clean the disinfection environment, and contact with the patient with a infectious disease, would increase the medical care-related infections, in order to put an end to the breeding of infectious diseases, environmental cleansing to improve intervention is very important.', 'Environment cleaning intervention was provided for improving, the content included: (1) Education and training: through the video, to strengthen the priority of the clean process, from clean area to the contaminated area, the correct bleach concentration of the way and reply to the effectiveness of teaching acceptance.', "(4) Conducting internal and external audits: audit by the ward staffs and infection control division to understand the cleanliness and implementation of the cleaners' environment.", 'Results: After the improvement of environmental cleanliness, the incidence of upper respiratory tract infection from 2.8‰ down to 2.24‰, cleaning staff also expressed that through the in-service education, unified cleaning appliances and management, can more clearly implement the environmental clean disinfection of the operating process.', 'Conclusion: Environmental improvement can effectively reduce the upper respiratory infection, the in-service education will be included in the cleaning staff in future, to develop cleaners on the environment clean operation process familiarity, and continue to audit the implementation of the situation in order to maintain the best hospital environment clean quality.', 'During the investigation and intervention measurements, we found that reduction of healthcare associated infection can be achieved by improvement of hand hygiene and making sure of environment cleaning.', 'Results: Through the intervention investigation, the daily monitoring of the epidemic and return to the Health Bureau, a comprehensive staff health monitoring log, and the implementation of measures, including strengthening the environment disinfection, unnecessary time should be fully wear masks, strengthen the implementation of hand hygiene.', 'In order to provide a safe medical environment, the Infection control division by monitoring temperature feedback system and daily active surveillance, as soon as possible to find the ward and unit influenza abnormal cluster events and early control of the epidemic.', 'Background: Elizabethkingia meningoseptica is a ubiquitous pathogen that could be found in clinical environment and equipment surfaces.', 'An environmental investigation and infection control measures of outbreak, such as strict hand hygiene, contact isolation and environmental cleaning were conducted.', 'Two additional isolates were cultured from the hospital environment.', 'A blood isolate from one patient was identical to one of the isolates from the medical environment (Cluster 3, Figure 1 ).', 'There was no linkage to the environmental isolates of the other two clusters indicate the possibility of cross transmission by healthcare personnel (Cluster 1 and 2, Figure 1 ).', 'After use of strict cohort nursing, hand hygiene and environmental cleaning, the outbreak was controlled.', 'Our results demonstrate potential transmission of E. meningoseptica via medical environment and person-to-person contact.', "In order to realize the cause for the unusually increased SSI, an outbreak investigation was conducted to analyze the probable factors, including staff's daily work, environment and equipment cleaning, the operation procedures, and post-operation wound care processes.Results: It was found that the concentration of antimicrobial detergent was not enough, the prophylactic antibiotics were not used properly, surgical hand preparation using alcohol-based handrub was not adequate, wound coverage when re-draping was also not proper, alcohol-based hand hygiene equipment was insufficient in the treatment room, and there was no standard procedure for tissue expander injection.", 'Conclusion: This study used ATP bioluminescence assay as an objective and rapid tool to determine the environmental cleanliness and effectively demonstrated a decrease in the rate of surgical site infection caused by the surgical instruments.', 'PS 170\n\nCreating an health environment by the implementation of bundle care for prevention of catheter-associated urinary tract infections at a medical center Hsin-Hsin Chang 1 , Jann-Tay Wang 1,2 , Yee-Chun Chen 1,2 , Wang-Huei Sheng 1,2 .', 'The bundle care emphasized 4C elements: clean practice, clean products, clean equipment, and clean environment.', 'Infection control team immediately responded and investigated environmental survey, the relevant infection control measures was also initiated.', 'Thirty nine of the environmental specimens were negative for S. aureus.', 'Plaque disclosing solution was used to evaluate the amount of plaque.', 'Until normal environmental testing result to begin to surgery.', 'Furthermore, we performed 10 items environmental test, such as ward ground, drainage hole, shifting plate,bathing bed, shared shampoo and bath gel.', 'Besides, environmental sample culture reported Citrobacter koseri in bathing bed, shared shampoo and subpacking bath gel, also.', 'Besides, we emphasized principle and infection control policy of respiratory care ward about equipment, environment and daily care in personnel training.', 'No more Citrobacter koseri related infection was reported and followed environmental tests revealed negative result till now.', 'Transmission of enterobacteriae via equipment and environment should be reminded.', '(5) Make sure cleaning and disinfection of the equipment and environment.', 'Interventions included isolating/ cohorting VRE patients, monthly prevalence surveys of VRE patients, the introduction of an electronic alert system, programmes to improve hand and environmental hygiene, and the appointment of an antibiotic Physician.', 'Conclusion: Strict infection control measures were applied including isolation of infective resident, early rapid test for those with flu symptoms, using mask for all our staff and family members and reinforce hand washing and environmental cleansing.', 'Methods: March 2016 by the nutrition department, infection control center, safety and health room, public affairs room, jade meal company to improve the project team, through the "characteristics of the map" and "true verification" and other quality management practices and tools, establish five issues and set the target pass rate of 100%, and to develop improvement measures (1) the development of equipment, equipment, cleaning and disinfection norms, check the mechanism and training methods, (2) formulate the standard of inspection and operation standards, check the mechanism and training methods, (3) formulate inspection standard operating rules, check the mechanism and training methods, 4. update of water quality filtration equipment, through the above four measures to improve.', 'But, From December 2016 to January 2017, the number of bacteria and more than the standard(100 cfu/ mL), may be due to lack of ice machine pipeline sterilization equipment and ice machine surrounding environment pollution.', 'We increased the frequency of inter-patient environment cleaning including bed, dining table, chair.', 'Continued monitoring of such strains is essential, as well as education on the proper use of biocides and antiseptics to prevent residue remaining in the environment which could act as a facilitator for induction of biocide tolerance.', 'When the patient moves out then implement the disinfection of environmental cleaning and proceed the joint auditing.', 'Solution of intrinsic and acquired antibiotic resistance is a major difficulty of treatment.', 'Therefore, synergistic combination therapy with antibiotics plus TCM could be an effective solution.', 'Conclusion: Intracellular forms of the clinical isolates obtained from patients with persistent infections are significantly less eradicated than the reference strain, suggesting a state of less responsiveness to moxifloxacin in the phagolysosomal environment.', 'Subsequent pathway analysis was also conducted, and T cell receptor signaling pathway, MAPK signaling pathway, TGF-beta signaling pathway, etc.', 'Many regulatory mechanisms have been evolved for bacteria to adapt to changes of diverse environments.', 'Methods: Patient was a 35-year-old male with history of pulmonary tuberculosis (TB) with resolution 9 years ago, but he often had "hemoptysis" since then.', 'Background: The spore-forming microorganism Clostridium difficile enables itself to tolerate the extreme environments, and lots of strains enclose the toxin genes and generate toxins that damage the host and lead to various diseases, from the mild diarrhea to the severe pseudomembrane and megacolon.', 'Division of Infection Diseases, Jen-Ai Hospital -Dali branch Background: Rhodotorula species are common environmental pigmented basidiomycetous yeasts, and also present in skin, nails, and respiratory, gastrointestinal, and urinary tracts in humans.', 'At the same time, contact precaution, antibiotic evaluation, and environmental cleaning rules establishment are carried out to control nosocomial Clostridium difficile infection and improve medical care quality.', 'This study aims to investigate the adequacy and accessibility of surface disinfection process for nursing cart, which can provide the experience for establishing standard operation processes of environmental cleanliness and disinfection.', 'There are different methods used for monitoring environment clean in hospital, include: direct observation, bacterial culture, and ATP (adenosine triphosphate bioluminescence assay).', 'The purpose of terminal disinfection after patient discharged is to ensure environment clean of ward to keep next patient from infections caused by polluted environment.', 'Thus, a regional teaching hospital apply ATP to evaluate efficacy of monitoring environment cleaning after terminal disinfection.Methods: Two medical ward, 2 surgical ward, Obstetrics ward, and 2 intense care ward sections were selected according to number of beds.', 'Sanitary staffs clean the ward environment with 500 ppm hypochlorous acid after patient discharged.', 'After they cleaned these surfaces 30 minutes to 2 hours later, these surfaces were rubbed for sampling by ATP swab for environment monitoring.Results: There was a total of 100 samples in which RLU values of 5 samples were over 500, thus unqualified rate of ward environment cleaning was 5% (5/100).', 'RLU values were showed in Table 1 .Conclusion: Some environmental surfaces in the monitoring showed unqualified cleanliness, which means clean work have not been thoroughly implemented.', 'We provided sanitary unit these data for educational training and ask them to improve their practice to these high-RLU environmental surfaces, which help making environment clean better.', 'Clean environment is associated with better healthcare quality.', 'In general, regularly monitoring environment clean is necessary, either method is used.', '1 National Taiwan University Hospital, 2 National Taiwan UniversityBackground: Improvement of environmental cleaning in hospitals has been shown to decrease cross-transmission of pathogens.', 'VRE was isolated from the environment (surfaces of bed rails, ambu bag, on a patient bucket urinal, and curtain).', 'All isolates were sent to a reference laboratory for typing and confirmed that the environmental samples were the same strain as the 2 patients who isolated VRE on the first occasion.', 'Conclusions: Although VRE is known to persist in the environment, we were concerned that VRE persisted despite cleaning of the ICU.', 'Methods: Environmental and laboratory investigation: We started our study by interviewing healthcare workers who worked in Maternity Nursery, five neonates presented with pustules during 10 days admission.', 'Environmental samples, 59 specimens, from the most frequently used neonatal care equipments, such as radiant warmer, weight scale, baby incubator, nursing ward and keyboards were collected for bacterial culture.', 'Sudden changes in the cause of the KPC, further analysis of the cause of the abnormal events, contact isolation measures and environmental cleanliness, so infection control intervention measures in addition to the original hand hygiene and contact isolation measures and environmental clean, the other for high-risk cases and Has been identified in the case of centralized care, the second occurrence of MDROs abnormal events, suspected bursts of bacteria for the CRAB, monitoring the cause of this event may be due to the unit space can not clean the bed and equipment into the care area, in the bed Abnormalities in the process, so the infection control measures for the collection of the original collection area is not collected, to strengthen the detection of the same ROOM is to increase the non-CRAB environmental cleaning frequency.', 'Results: The second use of MDROs is abnormal, the first use of the bundl care for hand hygiene, contact isolation protection measures, environmental clean and high-risk partition isolation; second use of the bundl care for the hand hygiene, contact isolation protection measures And the environment clean.', 'It is found that the combination of MDROs is suspected to be in the group, and each time the MDROs are detected in the unit, the analysis of the abnormal events is discussed with the care unit, and the main reason for the occurrence of the event is possible, Combined care work, can still effectively solve the outbreake of events.Conclusion: In Taiwan, the medical care environment and clinical care workers often fail to clarify the care area and the patient area immediately when the work is busy.', 'Since February 2017, we implement VAP bundle care which include (1) elevate the head of bed for 30-45°, (2) oral cleansing by using tooth cleaning sponge, small tooth brush, and chlorhexidine contained mouthwash, (3) setting of cleaning and sterilization of steam inhalation therapy equipment and changing the tubing regularly, (4) addition of setting bottle to facilitate the removal of fluid inside the ventilator circuits under avoiding contamination of environment.', 'Bcc isolates were obtained from nebulizer draining tubes, operating water chambers, oscillator and nebulizer solutions.', 'During the intervention period, we implemented a multidisciplinary care bundle consisted of (1) hand hygiene, (2) use of maximum barrier precautions, (3) use of 2% chlorhexidine scrub for the insertion site, (4) head-of-bed elevation 30°-45°, (5) education of providers, (6) a dedicated line cart, (7) checklist, (8) oral care with chlorhexidine solution twice daily, and (9) daily consideration of the need for the catheter and so many measures.', 'This study planned to investigate the antimicrobial agent susceptibility of and the molecular typing of methicillin-resistant Staphylococcus aureus (MRSA) in the residents and environments in six long-term care facilities (LTCFs) in Taiwan.', 'Methods: We prospectively investigated the existence of MDROs, including MRSA, in residents of six LTCFs and their environments from January to December 2016.', 'If MSA was identified, then swab specimens from environmental sources were collected and cultured.', 'Generally, the isolate numbers from LTCF residents in each surveillance culture correlated with the number of isolates from the environment.', 'However, the MLST typing from the environment cultures could correlate with the culture from the residents.', 'However, the MLST typing of the environmental stains highly correlated with the colonized strains in LTCF residents.', 'An individualized environmental cleansing policy should be adopted to facilitate the LTCF to reduce the environmental colonization with MRSA.', 'Although standard infection control measures like hand hygiene audit and regular environmental decontamination were in place, the CPE incidence increased and rose to 0.34/1,000-patient-bed-days in 2Q2016.', '(3) Patient environmental care improvement: environmental cleanliness was further maximized by regular ward decontamination by the central cleansing team and ad hoc cleaning once CRE was detected.', 'Further environmental measures were initiated including sink decontamination, revised body fluid disposal procedures, revised handling enteral feeding milk and equipment, and patient utensils.Results: The incidence of nosocomial CPE dropped by 67% to 0.11/ 1,000-patient-bed-days in 1Q2017 and there were no CPE outbreaks after the launch for our CPE reduction program.', 'UV fluorescent marker assessment showed percentage of marked environment being effectively cleaned increased from 71% to 83%.', 'Early identification and isolation of CPE carriers, enhanced environmental hygiene and focused hand hygiene are essential elements of our success.', "Environment clean and disinfection was highly suggested in order to stop drop infection be transformed into contact infection by psychiatric patients' hands.", 'To clarify whether each individual case is relavant to one another, interventions adopted were investigation in the ward, proceeding the sampling inspection of environment in the ward where the patients have lived as well as the hands of staffs who worked there, and revising the standard operation procedure of multiple-drug resistant strains.', 'In this event, 3 specimens from one inpatient and his surroundings were verified to be CRKP through environmental collection and inspection.', 'Environmental clean and disinfection are the key points of epidemic prevention.', "Conclusion: Sodium citrate may effective central venous catheter lock solution in hematologic malignancies because of it's antimicrobial and antithrombotic effect.", 'PS 485\n\nEffectiveness of preventing needlestick injuries and body fluid exposure by implementing safety-engineered devices at a medical center in Taiwan Shu-Fen Chien 1 , Ju-Chun Lo 1 , Yu-Ling Lai 2 , Jann-Tay Wang 1,3 , Wang-Huei Sheng 1,3 , Yee-Chun Chen 3 , Shan-Chwen Chang 3 .1 Center for Infection Control, 2 Occupational Safety and Health Office, 3 Department of Internal Medicine, National Taiwan University Hospital, Taipei, Taiwan Background: Since the increasingly complicated medical environment and the threats of emerging infectious diseases, issues of workplace safety and health promotion are getting more important.', 'Keeping and making a more safety workplace environment with sustained efforts should be ongoing to promote occupational health.', 'Environmental cleaning and disinfection were implemented.', 'Conclusion: Operation room is an important environment where surgery was performed and saving lives.', 'To ensure the OR environment clean and free from pollution is very important.', "In this case we rechecked and revised sanitary staff's SOP and added works cleaning the top of the lockers and the operation lampshade to avoid accumulation of cotton fibers and dust to cause environmental pollution.", 'Methods: From the beginning of 20160201 to 20161231 only, after the collection of information and the status quo analysis, the solution according to the planning period, the implementation period, the evaluation period of the implementation of the planning period: planning education training courses to investigate the catheter placement and care process, Revised the placement checklist, care assessment form and audit plan; implementation period: the revised operation process, including the time of hand washing, the newly revised indwelling catheter checklist and care assessment table published in the unit bulletin board and publicity know, Conduct education and training, perform technical audits and use catheterization, care checklist; evaluation period: through the unified teaching of the correct catheterization and care process, reply teaching and planning audit.', "PS 499\n\nUse of an education programme to encourage hand hygiene with alcohol-based handrub and reduce near-patient environmental contamination in elderly residents in long-term care O'Donoghue Margaret 1 , Yang Lin 1 , Siu Gilman Kit-Hang 2 , Lee Paul Hong 1 , Boost Maureen Valerie 1 , Ho Jacqueline Mei Chi 1 , Suen Lorna Kwai Ping 1 .", 'Hand and near-patient environmental contamination before-and after a one-month hand hygiene intervention involving use of ABHR in a LTCF for elderly residents (data for test subjects).Results: All participants complied during which time we were able to demonstrate a significant reduction in both hand and nearpatient environmental contamination for those patients who previously had highest levels of organisms present (Figure 1 ).', 'First, the medical technologists and information technicians participated in the training courses on LOINC (Logical Observation Identifies Names and Codes) and RELMA (Regenstrief LOINC Mapping Assistant).', 'Then, we mapped and organized all laboratory raw data from laboratory information system database.', "Treatment success (an improvement in the patient's clinical data and the resolution of ocular disease confirmed by an ophthalmological examination) was achieved in 20 of 28 patients (71.4%) and visual recovery was obtained in 7 of 8 patients (88.9%).", 'PS 512\n\nPulmonary fungal infection due to a Basidiomycete species (Ceriporia lacerata) in a HIV patient Lih-shinn Wang 1 , Chia-ching Jackie Wang 5 , Huei-jen Chao 3 , Siao-ru Lin 3 , Chih-bin Lin 2 , Yung-hsiang Hsu 4 Background: Basidiomycetes are rarely reported as a cause for invasive respiratory infection, despite airborne spores being abundant in the environment.']</t>
-  </si>
-  <si>
-    <t>['Variations may be explained by geographic or environmental differences.Calves with less than 500 mg IgG/dL are very prone to septicemic E. coli, and those with 500 to 1000 mg IgG/dL are defined as having partial failure of passive transfer (FPT) and are also at increased risk.', 'Infected calves allowed to remain in the maternity area will amplify the level of environmental contamination, thereby placing other neonates born in that area at risk.', 'This can be a feature of herd outbreaks of clinical salmonellosis when parturient adult and sick fresh cows are shedding excessive numbers of organisms into the environment or when calf housing and common use equipment becomes heavily contaminated due to a large number of clinical cases.', 'Fecal contamination of the environment is especially problematic when calves are housed in group housing, raised slatted stalls, or crowded areas, or when born in a stall used both as a maternity pen and sick cow area.', 'Fortunately, this seldom occurs unless newborn calves are put in heavily contaminated environments such as group housing arrangements or hutches that have not been cleaned since previous occupancy by infected calves.', 'This stress, combined with an environment that more commonly fosters fecal contamination of feedstuffs, water sources, and hair coats, creates • Fig.', 'Environmental factors such as heat stress tend to amplify the clinical signs and increase morbidity and mortality.', 'With types B, C, and E organisms, this contamination of milk may represent septicemic spread of the organism to the mammary gland, environmental fecal contamination of the milk and milking equipment, or both.', 'Mastitis caused by S. Dublin may be subclinical, and environmental contamination of quarters has been shown to be a more likely cause than septicemic spread to the udder.', 'Furthermore, when hydration, electrolyte balance, and normocalcemia are restored by fluid therapy, cattle with enteritis typically show resolution of any mild abdominal distension that might have developed as a result of ileus.', "Although most cattle infected with MAP remain asymptomatic, cattle with clinical signs signal the diagnosis and alert both veterinarian and herd owner to the possibility of a herdwide problem.Despite loose manure, loss of body condition, and diminished milk production, cows with Johne's disease do not appear seriously ill until the terminal stages when finally the appetite is markedly reduced.", 'If several 2-year-old heifers in a herd develop clinical signs of diarrhea, it suggests a rather heavy dose of MAP at an early age, but clinical signs in 5-to 7-year-old • Fig.', 'This would imply extremely heavy environmental contamination with Mycobacterium avium subspecies paratuberculosis.', 'cows suggest a much lower dose of MAP or older age at the time of exposure.', 'Dairy cattle with confirmed MAP infection have been shown to have higher cull rates than uninfected herdmates because of weight loss and reduced milk yield when clinical disease is evident and decreased production and mastitis when the infection is still, as yet, subclinical.', 'A recent study on two large Minnesota dairy farms identified a threefold increase in the relative risk for culling in MAP fecal culture-positive cattle compared with fecal culture-negative cows.', 'This study is noteworthy in that these herds were typical upper midwestern free stall dairies with an approximately 8% prevalence for MAP fecal culture positive animals.', 'The development of visible turbidity in the 18% solution of sodium sulfite turbidity test is a reliable test for adequate passive transfer.', 'Clinicians and producers should be aware of the differences between pathotypic strains of E. coli (e.g., ETEC) capable of producing severe disease in calves with adequate passive transfer and the everyday, commensal, and environmental E. coli often associated with sepsis caused by FPT.', 'Sections of ileum should be cut into 2-to 3-cm lengths and then split longitudinally and swirled in 10% neutral buffered formalin solution to aid in rapid fixation of the mucosa.', 'Electrolyte solutions containing glutamate mixed with yogurt may speed intestinal recovery, although this is not proven in calves.', 'Sample handling is pivotal in reaching a definitive diagnosis, and practitioners should familiarize themselves with their local diagnostic laboratory requirements and recommendations for maximizing the chances of a positive culture from feces, environmental samples, or postmortem tissues.', 'Ziehl-Neelsen staining confirms the presence of MAP in the intestine and lymphatics.', 'However, culture of these same tissues has a much greater sensitivity to detect MAP than does histopathology.', 'Although MAP may be isolated from other organs such as the liver, uterus, or fetus in some advanced cases, gross lesions consisting of granuloma formation are rare in these organs, and truly disseminated infections having gross lesions are very rare.', 'However, disseminated infections as detected by culture of MAP from lymphatic fluid and lymph nodes such as the prescapular, prefemoral, supramammary, or popliteal lymph nodes do occur in cattle with clinical disease.', "Lymphatic distension is obvious on the serosal surface of the ileum, and the ileocecal lymph nodes, as well as other mesenteric lymph nodes, are enlarged and edematous on cut sections.Available confirmatory antemortem diagnostic tests include those that directly detect the organism in feces or those that detect the animal's immune response to MAP infection.", 'These tests also have the ability to determine the quantity of MAP organisms being shed and thus are helpful for prioritizing animals for culling based on relative impact on environmental contamination.', 'A cost effective approach is to use milk ELISA, using not just the dichotomous results (i.e., "positive" or "negative") but using the quantitative result (optical density (OD) value or sample to positive (S/P) ratio), recognizing that the strongest reactors are most likely to be heavy fecal shedders and pose the greatest risk for contaminating the environment with MAP.', 'Surgical biopsy of the ileum and ileocecal lymph node could detect MAP infection in these animals but is generally not practical for this screening purpose.', "The most effective way to prevent introduction of MAP is to purchase animals from herds known to be free of MAP, such as herds that have achieved status 4 level or above in the Voluntary Johne's Disease Control Program.The gold standard for diagnosis has long been considered culture of ileum, ileocecal lymph nodes, or other mesenteric lymph nodes for cattle with clinical Johne's disease.", 'Intravenous (IV) balanced electrolyte solutions should contain dextrose (2.5%-10%), and sodium bicarbonate (20-50 mEq/L) if the plasma bicarbonate concentration is (&lt;10 mEq/L), to address hypoglycemia and metabolic acidosis respectively.', 'Bicarbonate-rich solutions are indicated in peracute Salmonella infections and should be considered when profound depression or shocklike signs accompany peracute diarrhea.', "Oral electrolyte-energy solutions are helpful but limited by the maldigestion, malabsorption, and inflammatory lesions in the patient's intestinal tract.", 'Experience suggests that resolution of a salmonellosis problem on a dairy requires far more critical and influential decisions than antibiotic selection for individual cases.Supportive treatment requires IV fluids (crystalloids and colloids such as plasma or Hetastarch; 5-10 mL/kg) with appropriate electrolytes and glucose to rehydrate the calf.', 'Calves that are in shock may also be given dexamethasone or flunixin meglumine (0.5-1.1 mg/kg IV) as one-time treatments.Resolution of clinical signs is gradual and slow.', 'Laxatives appear to be of limited benefit in affected individuals, and large doses of magnesium oxide-hydroxide laxatives are likely contraindicated because they may exacerbate metabolic alkalosis seen in early stages of the disease, induce hypermagnesemia, and simply pull more fluid into the gut lumen.A large, right-sided tympanic resonance in an ill calf may be a case of abomasal or cecal volvulus, and surgical exploration is indicated if initial medical management does not quickly result in resolution of tympany.', 'Intravenous sodium iodide (20% solution) is an extremely irritating preparation that should be administered IV only by a veterinarian.', 'Loose teeth may require extraction, and fistulous tracts may be flushed with iodine solution as ancillary aids.If clinical cases occur, treatment should be symptomatic.', 'Resolution of dysphagia, when present, is an important positive prognostic sign because the patient can now drink effectively and hydrate herself.', 'Resolution of fever is another positive prognostic sign but may be misleading if the temperature decreased because of concurrent therapy with nonsteroidal antiinflammatory drugs (NSAIDs).Nursing procedures and ensuring access to fresh clean water and soft feeds such as silage or gruels of soaked alfalfa pellets are helpful.', "Use of balanced electrolyte solutions such as lactated Ringer's solution is sufficient for most cattle.", 'Hypertonic saline (7.5 times normal) administered at 3 to 5 mL/kg followed by 10 to 20 gallons of oral electrolyte solution, either consumed voluntarily or given by orogastric tube, is a highly practical method of fluid resuscitation in a field setting.', 'As a crude rule of thumb, cattle that show no voluntary interest in drinking after rapid IV administration of 3 to 5 mL/kg of 7.5 times normal saline solution should provisionally be given at best a guarded prognosis and are mandatory candidates for large-volume oral fluid drenching.Oral fluids and electrolytes may be somewhat helpful and much cheaper than IV fluids for cattle deemed to be mildly or moderately dehydrated.', 'In addition, appropriate antibiotic therapy may reduce the total number of organisms shed into the environment by counteracting septicemic spread that allows all bodily secretions, not just feces, to harbor the organism.', 'Occasional high-producing cattle require parenteral calcium solutions to counteract secondary hypocalcemia or treatment of ketosis secondary to reduced appetite.', 'Uninfected embryos can be obtained from infected cows, via conventional embryo transfer provided proper embryo washing steps are followed, or after in vitro fertilization subsequent to oocyte pickup.Owners that wish to undertake treatment should be advised that daily, lifelong treatment is required; treated animals may continue to shed MAP in their feces even if clinical signs are reversed; and relapse will ensue when treatment is stopped.', 'Thus, owners should be advised that the treated animal or its products must not enter the human food supply chain.Monensin is an ionophore antibiotic shown to have activity against MAP and have a beneficial effect in infected cattle.', 'Resolution of diarrhea and improvement in plasma total protein can be observed within 2 weeks of starting treatment, although fecal shedding may continue.', 'And (2) is the environment likely to harbor large numbers of E. coli during the periparturient and neonatal period?', 'The practice of pooling colostrum also may increase Mycobacterium avium subspecies paratuberculosis (MAP), Salmonella Dublin and leukemia virus infection rates.', 'If the serum sodium sulfite turbidity test is used, use of the 1+ endpoint (turbidity in 18% solution) as an indicator of adequate passive transfer status will maximize the percentage of calves correctly classified by this assay.', 'Periodic quality control checks of conventional or Brix refractometers (against distilled water or sugar solution standards for calibration) is advised.', "Use of such products has recently been implemented in certain herds as a tool to limit transfer of infectious agents to the calf via colostrum, such as MAP, the causative agent of Johne's disease, the bovine leukosis virus, S. Dublin, and Mycoplasma bovis.", 'The importance of maternity pen hygiene cannot be overstated because no level of passive immunoglobulin transfer can protect completely against gross filth in the environment, and conversely, even calves with partial or complete FPT may survive when cleanliness is exceptional.', 'Dry cows should not be kept in filthy environments that allow heavy fecal contamination of the coat and udder.', 'An effective solution, first proposed by Dr. R.H. Whitlock, is formulated by adding 150 mEq of NaHCO 3 to 1 L of 5% glucose.', 'Although this may undoubtedly be true, it seems risky to tempt fate by administering K + -containing solutions as the initial therapy for a patient known to be hyperkalemic.', "Balanced electrolyte solutions such as lactated Ringer's solution suffice for maintenance fluid needs, but supplemental NaHCO 3 and dextrose may be required to address continued secretory losses and anorexia.", 'Other treatments for peracute cases may include flunixin meglumine (1.1-2.2 mg/kg IV every 24 hours) for potential endotoxemia, resolution of fever, and reduction of pain associated with fluid-filled bowel.', 'Even though many oral electrolytes are supplemented with dextrose as an energy source, no commercial oral electrolyte solution provides enough energy for maintenance needs, especially for dairy calves in hutches during winter weather.', 'Weight will be lost, and starvation may occur if these electrolyte solutions are fed as the only ration for more than 1 or 2 days.', 'Consequently, it is rarely practical outside of a referral hospital.The alkalinizing potential of oral electrolyte solutions is of great importance, especially when those solutions are used as ongoing therapy for peracute cases after initial IV fluids or when those solutions are used as sole therapy of less severely affected calves having ETEC.', 'Therefore, oral electrolyte solutions containing bicarbonate or some other alkalinizing anion are most helpful.', 'The optimal oral electrolyte solutions typically possess 70 to 80 mEq of alkalinizing potential per liter (typically as bicarbonate, propionate or acetate), dextrose, and electrolytes; these should be fed at 4 to 6 L/day.', "Oral electrolyte solutions that when mixed with water are nearly isotonic are preferred over those that are markedly hypertonic.Concerns regarding adding oral electrolyte solutions to milk or milk replacers revolve around the alkalinizing solutions' tendency to interfere with abomasal clot formation.", 'Supplemental oral electrolyte solutions can be continued if ongoing fluid and electrolyte losses are assumed to result from continued diarrhea, and these solutions should be fed at intervals between whole milk or replacer feedings.', 'Unless the calf is hypoglycemic or acidotic, isotonic electrolyte solutions are preferred because they allow a more normal abomasal transit than do hypertonic solutions.Treatment of acute ETEC infections in calves that are ambulatory and still able to suckle may not require IV therapy.', 'Cessation of whole milk or replacer feeding coupled with substitution of oral electrolyte-glucose solutions for 24 to 36 hours may be sufficient.', 'It is imperative to use highly alkalinizing electrolyte glucose solutions to provide 4 to 6 L of fluids per day.', 'Spontaneous recovery is the rule, and supportive care with oral electrolyte solutions frequently is used by owners in such cases.', 'Mixing errors leading to hyperosmolality of oral feedings (especially electrolyte solutions) or milk replacer can add a further and compromising degree of nutritional diarrhea in some situations.', 'The osmolality of electrolyte solutions should be in the range of 300 to 600 mOs/L, although some solutions at the high end of this range may be problematic if ad libitum water is not available.', 'Measuring total solids in milk replacer, as fed, is a highly relevant part of a herd investigation as is checking osmolality of any oral rehydration solutions, again as fed.', 'Total solids of milk replacer solutions should never exceed 18%, and it is always reassuring to be able to demonstrate consistency by virtue of a less than 1% variation from feeding to feeding.', 'In so doing, one should consider (1) identifying and correcting management and environmental factors that might impair cow immunity, (2) performing a careful partial budget analysis of the cost of specific preventive measures, and (3) deciding on which specific corrective measure(s) might be most justified for a particular dairy.To begin with a thorough analysis of transition and fresh cow management should be performed to identify problems with cow comfort, hygiene, nutrition, and disease control that might impact disease resistance during the apparent period of greatest risk for HBS, which is the first 3 to 4 months of lactation.', 'To our knowledge, no studies currently exist on the persistence of BVDV in properly composted carcasses, but data on the survivability of viruses related to BVDV indicate that longterm environmental persistence is unlikely.', 'Incidence of rotavirus diarrhea has been decreased on some farms and reported in two clinical trials by mixing some colostrum (10%) with milk or replacer for up to 30 days.Being a nonenveloped virus, rotavirus is stable in the environment (6 months in fecal matter) and relatively resistant to the effects of some disinfectants.', 'Because coronavirus is an enveloped virus, its persistence in the environment and resistance to disinfectants are considerably lower than those of rotavirus.', 'Unfortunately, many dairy farms fail to effectively control C. parvum when environmental contamination becomes extreme.', 'Although diseased calves serve as the primary source of environmental contamination, oocysts are also spread by movement of laborers, equipment, and animals.', 'Infected calves shed large numbers of organisms into the environment, and contamination is worsened by the fluid characteristic of feces in diarrheic calves.', 'Inapparent or subclinical infections are common and represent a constant source of environmental contamination.Cleanliness and disinfection of housing units are extremely important to the control of salmonellosis because a primary determinant of the severity of infection appears to be the magnitude of challenge or infective dose.', 'Unfortunately, at this point in time, what is unknown is whether this passive antibody will confer a protective effect for calves against natural challenge to either the vaccinal serotype or other strains in a farm environment.', 'It is critical that the producer understands that after an outbreak is well established, control measures may mitigate the severity of the outbreak but often fail to immediately bring resolution.', 'However, calves with fluid feces, fever, dehydration, or other related signs should be isolated because they are shedding billions of organisms into the environment.', 'Often the first material ingested by the newborn calf is directly from the maternity environment, immediately after birth, and before consuming colostrum.', '• Physically clean environment, improve hygiene, and disinfect premises.', 'Prevention of enterotoxemia in nursing calves requires consideration of environmental or management factors that may trigger ingestion of larger than normal volumes of milk or replacer.', 'C. jejuni will grow in milk and may arrive in milk from septicemic spread but is more likely to contaminate milk because of environmental contact.Herds that are free of MAP can best prevent introduction of the disease by maintaining a closed herd.', 'Purchase of replacement cattle from herds of unknown status poses a great risk for introducing asymptomatic but MAP-infected animals.', 'If this cannot be done, then depending on the age of replacement animals, prepurchase testing for MAP infection may not be a foolproof method of screening new additions (see earlier).Control of the disease in infected herds will depend in part on the objectives of the herd.', 'Large production herds with no interest in selling replacement cattle may perceive little financial incentive to spend money on controlling the disease because they believe that culling for other reasons will often occur before MAP infection affects production.', 'Colostral replacements could be used as a substitute for colostrum in herds with a high MAP incidence, but their use as a replacement for colostrum may lead to an increased incidence of other diseases in calves such as septicemia or diarrhea.', 'Colostrum that is properly heat treated (60 min at 60°C and with constant stirring) will reduce the number of MAP but might not eliminate the organism completely from the colostrum.', "The purchase of replacement animals from herds of unknown Johne's disease status continues to represent the greatest risk to introduce or reintroduce MAP to such herds.", 'Equipment used for manure removal or that could be contaminated by manure must remain separate from feeding implements and the calf environment.', 'In between these two extremes, production herds that wish to "contain" the disease, to prevent the prevalence of MAP infection from increasing on the farm, and to reduce the risk of losing animals or milk production to clinical Johne\'s disease may use an intermediate approach.', 'This may include identifying heavily infected animals through interpretation of milk or serum ELISA alongside management steps to reduce exposure of calves to MAP from feces of adult cows that are potentially shedding the organism.', 'However, it does not prevent infection with MAP, and vaccinated cattle can become infected and shed MAP in feces, although importantly the vaccine does prevent clinical disease in almost all recipients.', 'Currently, salmonellosis ranks as one of the two most important bacterial causes of diarrhea in adult dairy cattle (MAP being the other) and has surpassed E. coli in this respect in calves on many operations.', 'Infection may also be perpetuated over the long term by environmental contamination or by group C Salmonella cycling through rodents, birds, or insects.', 'Although the National Research Council (NRC) provides excellent guidelines for feeding calves under a wide range of environmental temperatures, it does not offer specific guidance for feeding calves under conditions of heat stress, disease, immune challenge, vaccination, or other environmental or management stressors.', 'Table 6 .3 shows how the NRC predicts an increasing requirement for the volume of whole milk fed by calf age under cold and warm environmental conditions for an 80 lb birthweight calf.', 'In Table 6 .4, the NRC calculator has been used to predict the average daily gain (ADG) of a 2-week-old, 95-lb Holstein calf being fed 6 quarts daily (30 oz of milk replacer powder) using different milk replacer formulations and different environmental temperatures.By week 3 of age, a Holstein calf on-target to double birth weight by day 56 should be gaining 1.6 lb/day.', 'Management practices that allow dirty environments, manure buildup, feeding on ground level, feed and water contamination by manure, and crowding should be corrected.', 'If calves are kept in a clean environment, manure should be scraped away daily to prevent "splashing" of feces into bunks, troughs, waterers, and all over calves\' bodies.', 'Eggs require a moist environment to hatch miracidia, which find a snail intermediate host.', 'Therefore, even though most BTV in cattle is thought to be subclinical, certain husbandry or environmental conditions or strains of BTV in field outbreaks appear capable of causing clinical disease.', 'The organism also may be found in milk secondary to environmental contamination and subsequent mastitis.', "often act as opportunistic pathogens, management, nutritional, and environmental factors that adversely impact the cow's defenses are often at play when the disease becomes problematic on a given operation.Salmonellosis was primarily a sporadic disease in dairy cattle in the northeastern United States until the 1970s.", 'Clinical mastitis caused by S. Dublin is thought to originate from environmental contamination of the udder by feces from infected cattle rather than septicemic spread to the udder.', 'As adult dairy cattle generate approximately 70 kg of manure per day, this translates into a daily environmental contamination of between 7 × 10 6 and 7 × 10 11 Salmonella organisms per cow.', 'This undoubtedly leads to widespread and rapid contamination of the dairy farm environment, and Salmonella organisms can survive for prolonged periods in suitable conditions outside the host.', 'The ability of Salmonella to thrive in warm, moist environments likely increases the probability of cattle exposure and infection.', 'Manure in liquid form may be conducive to Salmonella persistence and can be dispersed broadly into the environment, increasing the likelihood of cattle exposure to the organism.', 'It is possible that this is related to the ability of Salmonella to thrive in moist environmental conditions.', 'This serovar is particularly challenging because of its tendency to yield chronic, subclinical carriers that continuously or intermittently shed high numbers of organisms into the environment.', 'can also be transmitted by direct contact with the feces of infected dairy cattle, as some veterinarians and farm employees can attest, underscoring the relevance of occupational and environmental exposure for veterinarians, dairy farmers, and those who interact with dairy cattle in public settings.', 'Physically clean the environment, improve hygiene, and disinfect premises (see also the section on calf salmonellosis).', 'After resolution of the outbreak or crisis period, a mastitis survey should be conducted that includes bulk tank surveillance.', 'perfringens is a large, gram-positive, anaerobic bacillus that is considered to be ubiquitous in the environment and in the GI tracts of most mammals.', 'Therefore, seronegative immunocompetent cattle infected with BVDV do not have any residual or permanent immunodeficiency after resolution of the infection and seroconversion.', 'paratuberculosis (MAP).', 'The disease has a worldwide distribution, and in the United States, recent surveys conducted by the National Animal Health Monitoring system have demonstrated that 70% to 90% of all U.S. dairies have MAP-infected animals.The etiologic agent is an acid-fast organism that has fastidious in vitro growth requirements requiring special media and may require up to 16 weeks to cultivate from fecal samples.', 'It survives well in farm environments and can survive for 1 year or more in soil and water.', 'Although regarded as primarily an enteric infection, as the infection progresses MAP may spread via macrophages in blood or lymph to other important sites such as supramammary lymph nodes, mammary gland, (and milk), and uterus (and fetus).', 'In the United States, MAP-related average costs have been estimated to lie between $22 and $27 per cow per year, but the economic impact of the disease in positive herds versus confirmed negative herds is much higher and may exceed $100 per cow per year when infection progresses to clinical signs of disease.', 'Transmission\n\nThe most important means of transmission of MAP is by the fecal-oral route.', 'The MAP organisms are shed in the feces of infected cattle and ingested by susceptible animals.', 'Direct contact is not necessary because studies have shown that in heavily contaminated farm environments, MAP may aerosolize with dust and contaminate surfaces located short distances from adult cow housing areas.', "Infected cows can also shed MAP directly in milk, and transplacental transmission has been documented in 20% of subclinically infected pregnant cows and up to 40% of cows with clinical signs of Johne's disease.Older calves have a more variable outcome after infection, and larger doses of MAP are required to cause infections that lead to later onset of clinical signs.", 'Factors including concurrent diseases, genetics, environment, and other stressors may contribute to increased susceptibility to infection.', 'Pathogenesis and Progression\n\nAfter oral ingestion, MAP organisms invade intestinal epithelial cells, most notably through specialized cells within ileal Peyer patches (M cells), which deliver the organisms to submucosal macrophages.', "The subsequent course of infection is determined by numerous factors, including the dose of MAP organisms ingested and the animal's individual susceptibility to MAP, which in turn is determined by the age of the animal and the ability of its innate and adaptive immune responses to control MAP.", 'Resistance to MAP infection is estimated to have approximately 10% heritability.', 'Thus, in some exposed animals, MAP organisms will be contained or eliminated by macrophages, and infection will not become established, but in others, the infection will ultimately progress.', 'In the early stages of infection, macrophages are activated by interferon-γ produced by Th1 helper lymphocytes and limit proliferation of the MAP and thereby its spread to other sites.', 'However, the immune response to control MAP results in "collateral damage," inciting a granulomatous response within the intestinal mucosa.', 'This is characterized by progressive infiltration by epithelioid cells, multinucleate giant cells, and lymphocytes surrounding MAP-laden macrophages.', 'In this early stage of infection ("eclipse phase"), during which MAP organisms are slowly proliferating and the inflammatory process is slowly progressing, no clinical signs are observed.', 'The animals are outwardly healthy, fecal shedding of MAP rarely occurs, and serum antibodies are not produced.', 'Milk production and reproductive performance are not generally affected in these asymptomatic, low-shedding cattle, which can thus serve as a source of MAP for environmental contamination.Ultimately, spread of the infection accelerates.', 'Fecal shedding at high levels begins, even though there are no clinical signs, and MAP organisms may spread systemically to the mammary gland and fetus.', 'Infected cattle shed MAP in their manure and transmit the disease to herdmates by MAP contamination of the environment.', 'It is widely accepted that cattle that develop clinical signs shed large numbers of organisms and represent the greatest threat to contaminate the environment.', 'Super-shedders may shed MAP in higher concentrations (1-5 million CFU/g of manure) than cattle with clinical disease.', 'Potentially, these animals represent the greatest source of environmental contamination and reservoir for possible transmission to herdmates.', 'Most super-shedders are asymptomatic with no evidence of diarrhea or weight loss yet excrete huge numbers of MAP organisms into the environment.', 'Passive shedding of MAP may occur when noninfected cattle ingest manure contaminated forage or water.']</t>
-  </si>
-  <si>
-    <t>['The Hong Kong Environmental Protection Department (EPD) has reported frequent occurrence of high concentrations of pollutants, such as NO 2 and respirable particles (RSP) in urban areas like Mong Kok and Causeway Bay (Yim et al., 2009 ).', 'These areas have some of the highest urban densities in Hong Kong.Since the Severe Acute Respiratory Syndrome (SARS) episode in 2003, the planning community in Hong Kong has started to pay more attention to urban design to optimize the benefits of the local wind environment for urban air ventilation.', 'The importance of the wind environment on the physical interaction between urban areas and the atmosphere has been studied by urban climate researchers (Arnfield, 2003) .', 'Two kinds of tools are frequently employed to study the wind environment of the city: wind tunnel tests and computational fluid dynamics (CFD) tech-niques.', 'The US Environmental Protection Agency (EPA) conducted numerous urban-scale wind tunnel tests to understand the dispersion of particulate matters smaller than 10 m in aerodynamic diameter (PM 10 ) (Ranade et al., 1990) .', 'Williams and Wardlaw (1992) conducted a large-scale wind tunnel study to describe the pedestrian-level wind environment in the city of Ottawa, Canada.', 'In Hong Kong, the Wind/Wave Tunnel Facility has conducted numerous tests at the city, district, and urban scale to understand the wind availability and flow characteristics of Hong Kong (HKPD, 2008) .Apart from wind tunnels, CFD model simulation can be helpful at the initial urban planning stage in providing a "qualitative impression" of the wind environment.', '(1999) used CFD simulations to analyze the wind environment at the urban scale.', '(2009) conducted the largest urban CFD simulation of Tokyo to understand the effects of building blocks on the thermal environment of Tokyo.', 'This paper employs the understanding of urban surface roughness based on the urban structure to establish the relationship between urban morphology and urban air ventilation environment.', 'Using the site-specific wind rose information, the FAD calculation focuses on the effects of the built environment to the wind field.', 'The spatial characteristics of the large podiums reduce the air space nearer to the ground, and can greatly affect the wind environment at the pedestrian level.This study firstly validates the relationship between the pedestrian-level wind environment and FAD at the podium layer.', "Using Bottema's model equation, Gál and Unger (2009) drew a roughness map of z0 and zd to detect the ventilation paths in Szeged.", '(2010) drew a map of f(Â) to detect the air paths in the Kowloon Peninsula of Hong Kong.', 'Calculation of frontal area index and frontal area density\n\nThe frontal area index f(Â) is a function of wind direction of Â, which is an important parameter of the wind environment.', 'Development of a new method to calculate f(z) values\n\nUsing a high-resolution (1 m × 1 m) three-dimensional building database with building height information and digital elevation model (DEM), a self-developed program embedded as a VBA script in the ArcGIS system is applied to calculate the frontal area density ( f(z) ) at different height bands.', 'Therefore, to focus on the drag effect caused by the built environment, the site-specific wind roses for the annual non-typhoon winds at a height of 60 m in 16 directions were used to calculate the corresponding local values of f(z) .', 'CALMET is a diagnostic three-dimensional meteorological model that can interface with MM5 (Scire et al., 2000) .The terrain in Hong Kong is complex; hence, the resolution used in MM5 simulations (typically down to 1 km) cannot accurately capture the effects of the topology characteristics on wind environment.', 'Therefore, CALMET, a prognostic meteorological model capable of higher resolutions (down to 100 m), has been used.', 'Having combined the data obtained using MM5 and the data obtained from an upper air sounding station of the Hong Kong observatory in 2004, the CALMET model adjusts the estimated meteorological fields for the kinematic effects of terrain, slope flows, and terrain blocking effects to reflect the effects of a fine-scale terrain in producing wind fields at 100 m resolutions (Yim et al., 2007) .', 'Compared with the map in polygon units (Gál and Unger, 2009 ), this new calculation allows an exploration of the uniform grid map with a better explanatory power.', 'Validation of the method and resolution\n\nA statistical study was conducted to validate the FAD calculating method and resolution.', 'Secondly, based on the results of the statistical analysis, the resolution was further validated for mapping urban permeability in Hong Kong.', '9 , when the study areas in wind tunnel tests were crossed by grids in the map, the average of f(z) for the study areas is calculated bywhere f i(z) represents the frontal area density in the ith grid, S i represents the area of the ith grid in the study area, and S t represents the area of the study (Fig.', 'The f(z) in the podium layer ( f(0-15 m) ) that corresponds to the four grid sizes (resolutions), namely 50, 100, 200, and 300 m, were calculated.', '10 , in accordance with values of the f(0-15 m) including the unreal flow-confronting areas are larger than the ones calculated by the more traditional Table 1 Correlation between VR w,j and f(0-15 m) in different resolutions and calculation methods.', 'Furthermore, compared with the traditional method of calculating the frontal area density, the new method can alleviated the underestimation of mapping urban surface roughness in high density cities with large and closely packed buildings.', 'Resolution\n\nAs shown in Table 1 , the values of R 2 decrease with the reduction of the grid sizes.', 'Choosing a larger grid size would have a positive effect on depicting the urban wind environment.', 'Calculation of the average of f(z) in the study area (suppose the resolution is 300 m × 300 m).', 'For mapping roughness, the explanatory power of the map should not be totally traded off for the sake of the correctness of f(z) .', 'After weighing the considerations, the resolution of 200 m × 200 m was adopted in mapping urban permeability in Hong Kong.', 'The wind environment and urban morphology at the podium layer\n\nThe skimming flow regime is normally found at the top of compact high-rise building areas (Letzel et al., 2008) .', 'Similarly, due to the urban morphology of Hong Kong, which is characterized by high density and tall buildings, the airflow above the top of the urban canopy layer may not easily enter into the deep street canyons to benefit the wind environment at the pedestrian level.', 'This illustrates that the wind velocity ratio at the pedestrian level is more dependent on the urban morphology at the podium layer (0-15 m) than the building layer (15-60 m) or the whole canopy layer (0-60 m).This understanding is useful in guiding the urban design and planning strategies toward a quality wind environment at the pedestrian level in high-density urban areas.', 'Compared with front area index, which was used to detect the air paths in Hong Kong (Wong et al., 2010) , f(0-15 m) has been proven to be a better morphological factor in depicting the wind environment at the pedestrian level.', '13a , the map of the frontal area density (0-15 m) depicts the local wind permeability at the podium layer in the Kowloon Peninsula and Hong Kong Island.', 'The maps of the frontal area density (0-60 m and 15-60 m) are also presented, as shown in Fig.', '13b and c. These two maps are important for describing the wind permeability at the urban canyon layer.', 'For planners, using GCR to predict the wind environment at the pedestrian level is reasonable.', 'Compared with other maps (Gál and Unger, 2009; Wong et al., 2010) , the proposed map is more applicable to urban designers and planners because GCR is one of the most accessible data by planners in the planning process.Due to the extremely large building widths (large commercial podiums and industrial buildings), local values of some areas may deviate.', 'Mapping the surface roughness (classification)\n\nBased on the analysis in Section 6.1, GCR may be established as an important planning parameter that can be used to describe the wind permeability of the podium layer.', 'An urban-level wind environment map of Hong Kong may be drafted using the GCR information.', 'This relationship can be used as the basis for the threshold values of the map classification.', '17 , three classification values are assigned: "Class 1," "Class 2," and "Class 3," which denote good, reasonable, and poor pedestrian wind performance, respectively.Based on this classification, the map of wind performance at the podium layer in Hong Kong was generated (Fig.', 'Compared with the roughness map without classification, the map in this study is more intuitive; in addition, it can aid urban planners better in modifying building morphology to improve the urban air environment.', 'The map can be the spatial reference for urban planners.After incorporating the respective site-specific wind roses, the areas with low wind permeability are depicted in Fig.', 'These areas block wind and worsen the wind environment at the pedestrian level of their leeward districts.', 'Potential air paths in the podium layer are also marked out in this map.', 'The number of the point pairs is 11. paths would play an important role to improve the urban ventilation and environment quality by bringing fresh air flow into the urban areas for dissipating air pollutant and for mitigating urban heat island intensity.', 'In addition, a high grid resolution was applied in this study, that is, the number of fine meshes was approximately 2 million.', '17 .The results of this case study prove that, using the urban wind permeability map of the territory (Fig.', 'Map of wind permeability at the podium layer.', 'The wind permeability at the podium level is depicted in the map: Class 1: GCR = 0-30%, Class 2: GCR = 31-50%, Class 3: GCR &gt; 50%.', "These areas could block the natural ventilation and worse the leeward districts' wind environment at the pedestrian level.", 'Potential air paths in the podium layer are also marked out in this map.', 'First, one of the most significant factors is urban morphology, especially the podium layer, and its implication to the urban air ventilation environment.', 'According to Chapter 11, Sections 9-13 of the Hong Kong Planning Standards and Guidelines (HKPSG) (HKPD, 2006) , a number of urban forms deemed to be conducive to the urban air ventilation environment have been proposed:.', 'This understanding is in line with the concerns of the so-called "wall buildings," wherein a line of tall buildings screen the waterfront from the inland areas, thereby blocking the incoming urban air ventilation from the sea.Based on the GCR information readily available to planners working on their GIS system, the study has shown that planners can easily generate an urban wind permeability map of the territory (Fig.', '25) :For better urban air ventilation in a dense, hot-humid city, breezeways along major prevailing wind directions and air paths intersecting the breezeways should be provided in order to allow effective air movements into the urban area to remove heat, gases and particulates and to improve the micro-climate of urban environment.Breezeways should be created in forms of major open ways, such as principal roads, inter-linked open spaces, amenity areas, non- building areas, building setbacks and low-rise building corridors, through the high-density/high-rise urban form.', 'For effective air dispersal, breezeways and air paths should be perpendicular or at an angle to each other and extend over a sufficiently long distance for continuity.Using the urban wind permeability map of the territory (Fig.', '18) , city planners can initially estimate the possible urban air ventilation environment of the urban areas with the average velocity ratios.', 'Future work\n\nThe wind environment in urban areas is complicated.', '5) to the wind environment can be important.']</t>
+    <t xml:space="preserve">Abstract
+In this paper, we first present a new concept of 'weight' for 64 triplets and define a different weight for each kind of triplet. Then, we give a novel 2D graphical representation for DNA sequences, which can transform a DNA sequence into a plot set to facilitate quantitative comparisons of DNA sequences. Thereafter, associating with a newly designed measure of similarity, we introduce a novel approach to make similarities/dissimilarities analysis of DNA sequences. Finally, the applications in similarities/dissimilarities analysis of the complete coding sequences of β-globin genes of 11 species illustrate the utilities of our newly proposed method.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+This paper offers a state-of-the-art overview of the intertwined privacy, confidentiality, and security issues that are commonly encountered in health research involving disaggregate geographic data about individuals. Key definitions are provided, along with some examples of actual and potential security and confidentiality breaches and related incidents that captured mainstream media and public interest in recent months and years. The paper then goes on to present a brief survey of the research literature on location privacy/confidentiality concerns and on privacy-preserving solutions in conventional health research and beyond, touching on the emerging privacy issues associated with online consumer geoinformatics and location-based services. The 'missing ring' (in many treatments of the topic) of data security is also discussed. Personal information and privacy legislations in two countries, Canada and the UK, are covered, as well as some examples of recent research projects and events about the subject. Select highlights from a June 2009 URISA (Urban and Regional Information Systems Association) workshop entitled 'Protecting Privacy and Confidentiality of Geographic Data in Health Research' are then presented. The paper concludes by briefly charting the complexity of the domain and the many challenges associated with it, and proposing a novel, 'one stop shop' case-based reasoning framework to streamline the provision of clear and individualised guidance for the design and approval of new research projects (involving geographical identifiers about individuals), including crisp recommendations on which specific privacy-preserving solutions and approaches would be suitable in each case.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Background: Influenza continues to pose a serious threat to human health worldwide. For this reason, detecting influenza infection patterns is critical. However, as the epidemic spread of influenza occurs sporadically and rapidly, it is not easy to estimate the future variance of influenza virus infection. Furthermore, accumulating influenza related data is not easy, because the type of data that is associated with influenza is very limited. For these reasons, identifying useful data and building a prediction model with these data are necessary steps toward predicting if the number of patients will increase or decrease. On the Internet, numerous press releases are published every day that reflect currently pending issues. the predictive ability of article text data from the period of 2013-2018 for each of the weekly time horizons. The support vector machine (SVM) model was used for prediction in order to examine the use of information embedded in the web articles and detect the pattern of influenza spread variance. The prediction result using news text data with SVM exhibited a mean accuracy of 86.7 % on predicting whether weekly ILI patient ratio would increase or decrease, and a root mean square error of 0.611 on estimating the weekly ILI patient ratio. Conclusions: In order to remedy the problems of conventional data, using news articles can be a suitable choice, because they can help estimate if ILI patient ratio will increase or decrease as well as how many patients will be affected, as shown in the result of research. Thus, advancements in research on using news articles for influenza prediction should continue to be pursed, as the result showed acceptable performance as compared to existing influenza prediction researches.
+</t>
   </si>
   <si>
     <t>['Background\n\nThe emergence of online consumer geoinformatics services Mainstream Web search engines like Google http:// www.google.com/ and MSN Search http:// search.msn.com/ have recently joined the geographic search bandwagon by releasing their own dedicated geographic interfaces, which run in standard Web browsers and also provide the general public with detailed satellite imagery/aerial photography map layers that were once only available to experts and select user communities.', 'Google Maps and Google Earth\n\nGoogle released Google Maps (http://maps.google.com/ -a localized UK version is also available; see, for example, Paddington Station, London, W2 1RH (Satellite): http:maps.google.co.uk/maps?q=paddington+sta tion&amp;spn=0.018368,0.039669&amp;t=k&amp;hl=en).', 'Thanks to Google Maps API (Application Programming Interface -http://www.google.com/apis/maps/), many third party applications and custom annotated maps have begun to appear [2] .', 'Two good UK examples of such applications/custom annotated maps are the Health QOF (Quality and Outcomes Framework) Database map http:/ /www.gpcontract.co.uk/map.html and London July 2005 Terrorist Attacks map http://geepster.com/london.php.', '(But because Google Maps has its roots in XML (eXtensible Markup Language), users were also able to produce their own custom annotated Google maps, e.g., based on their own GPS (Global Positioning System) locational data, and to even tie in images and video to create interactive multimedia maps, well before the API was publicly documented [3] .)', 'Smugmug Maps http://maps.smugmug.com/ is another good example of a third-party Google Maps application in action.', 'Smugmug, a photo hosting Web site, plots geocoded photographs to their actual locations on Google Maps (or Google Earth via a KML Google Earth feed: http:www.smugmug.com/hacfeed.mg?Type=geoAll&amp;for-mat=kml20&amp;Size=Tiny), and allows location-based searching of photographs all over the world [4] .', 'Maps\n\nCorresponding offerings from Yahoo!', 'Maps http://maps.yahoo.com/ and http://maps.yahoo.net/ and an associated API http://developer.yahoo.net/maps/.', 'Maps service does not offer any satellite imagery/aerial photography, but this might change in the near future.', 'Maps.', 'Gottipati [6] provides a useful comparison of Google Maps API and Yahoo!', 'Maps API.', "Web browser toolbars and other developments\n\nDedicated Web browser toolbars and extensions have also started to appear, e.g., MutantMaps http://www.mutant design.co.uk/maps/help.htm, a Mozilla Firefox toolbar that allows navigation between five popular mapping sites (Google Maps, MSN Virtual Earth, MultiMap.co.uk, TerraServer.com and 192.com) while preserving user's longitude, latitude and zoom levels, and gMapIt, another Mozilla Firefox extension that allows users to find directions from Google Maps based on publicly listed US phone numbers http://www.gmacker.com/web/content/ mapit/mapit.htm.Along the same vein, Amazon.com is now also providing A9 Block View http://a9.com/-/company/Yellow Pages.jsp, an online Yellow Pages/map service that offers US maps with street-level photos.", "ESRI's response\n\nSome commentators have recently wondered if users will soon eschew ArcGIS and ArcIMS (see http:// www.esri.com/software/arcgis/index.html and http:// www.esri.com/software/arcgis/arcims/index.html) in favour of using Google Maps API and MSN Virtual Earth API to quickly create Web map applications.", "ESRI's response to all of the recent online consumer geoinformatics services described in this article was to announce (in 2005) its new partnership with National Geographic http://www.nationalgeographic.com/, GlobeXplorer http://www.globexplorer.com/, and TeleAtlas http:// www.teleatlas.com/, plus Geospatial One Stop (GOShttp://www.geo-one-stop.gov/) and a few other partners like MDA (MacDonald, Dettwiler and Associates Ltd.http://www.mda.ca/), to upgrade the National Geographic MapMachine http://plasma.nationalgeo graphic.com/mapmachine/, a map service/online atlas that provides global map coverage for an extensive set of Earth science themes.", "MapMachine was first launched in November 1999, and is powered by ESRI's ArcWeb Services http://www.esri.com/software/arcwebservices/.", 'The planned upgrade aims at bringing satellite imagery, aerial photos, and street-level data to MapMachine users.', 'The next generation of MapMachine will also provide a link to GOS data and metadata to help users discover information about their area of interest or study.', 'MapMachine will include capabilities for 3D globe services, allowing GIS users to "pull in" their own map services to overlay onto a globe.', "Also planned is the addition of ESRI's MapStudio http:// www.mapstudio.com/, an ArcWeb Services application used by many daily newspapers to create maps for printing, to enable users to create customised maps [7] .", "Methods\n\nWe wanted to experiment with the programmable interfaces provided by Google and MSN by mapping the headquarters locations of England's 28 Strategic Health Authorities (SHA), and associating these locations on the resultant maps with relevant online information about the corresponding SHAs from England's National Health Service (NHS) Web site http://www.nhs.uk/England/ AuthoritiesTrusts/Sha/list.aspx.", 'Geocoding\n\nThe programmable mapping interfaces provided by Google and MSN currently only accept longitude and latitude coordinates and do not provide their own geocoding services.', "Google Maps API version of our SHA map\n\nGuided by Google Maps API online documentation http:/ /www.google.com/apis/maps/documentation/ and Gottipati's online tutorial [6] , we produced the Google Maps API version of our interactive SHA map.", "Google Maps API lets developers embed Google Maps in their own Web pages with JavaScript.We had to first visit Google's sign-up page http:// www.google.com/apis/maps/signup.html to get a free API key for the Web site where our maps were to be published.", "We included all SHA coordinates Screenshot of Google Maps API version of England's SHA Locator Figure 1 Screenshot of Google Maps API version of England's SHA Locator.", 'Screenshot of our Google Maps API version of England\'s SHA Locator http://www.healthcybermap.org/ GoogleMapsAPI/ showing the shadowed "info window" for Cumbria and Lancashire SHA, with a clickable external link to access further information about this SHA http:// www.nhs.uk/England/AuthoritiesTrusts/Sha/ showTrust.aspx?id=Q13.', 'The map features all the standard Google Maps controls for zooming, panning (also possible by dragging the map), and displaying/switching satellite and hybrid views.', 'The inset shows an example of the tooltips that appear when the mouse hovers over the markers (or pins) on the map.', "Google Earth KML version of our SHA map\n\nThe development of the Google Earth KML version of our maps was again guided by Google's online documentation available at http://code.google.com/apis.html#earth.", "MSN Virtual Earth Map Control version of our SHA map\n\nFinally, we created a third version of our maps using MSN Virtual Earth Map Control (download control at http:// virtualearth.msn.com/js/MapControl.js), and guided by Part 1 of Roodyn's excellent tutorial available from Via Virtual Earth, Virtual Earth developer resource centre http:/ /www.viavirtualearth.com/ [8] .It should be noted that not all possible features of the programmable mapping interfaces provided by Google and MSN have been explored or demonstrated in our exercise and its outputs (see 'Results' below).", 'For example, it is also possible to add VML (Vector Markup Language) polyline overlays to maps created using Google Maps API.', "Also, Part 2 of Roodyn's tutorial describes additional controls and widgets that can be used with MSN Virtual Earth Map Control [9] .", 'Results\n\nThe three interactive SHA map demonstrators we have created can be browsed online at http://www.healthcyber map.org/GoogleMapsAPI/ (Google Maps API version - \n\nDiscussion\n\nThe geodata-rich society ESRI president Jack Dangermond recently predicted that the supply of satellite and aerial imagery will increase by two folds in the next few years.', "The wikification of GIS, maps and satellite imagery/aerial photography: imaging and geospatial information for the wide masses\n\nThere is no doubt the different online consumer geoinformatics services that have been presented in the 'Background' section of this article, including the different geographic search interfaces from major Web search engine providers, have significantly contributed (in record time) to raising the general public interest in geography and satellite imagery.", "However, although Google Maps API (and similar API offerings from other providers) enables users to deeply customize the standard provider's interface (Google Maps), and to create their own custom annotated maps (custom applications based on Google Maps), such APIs remain difficult for the non-expert, average user to exploit.", 'This author expects the technology to further evolve to enable the average Web user to share geospatial informa-tion, to customize, annotate and publish his/her own online maps and related Web applications, and to collaborate with other users/online communities within an online customizable and collaborative mapping environment, all without the need for any prior programming knowledge or expertise.', 'Screenshot of our Google Earth KML version of England\'s SHA Locator (see instructions at http://www.healthcybermap.org/GoogleEarthKML/) showing our KML SHA feed in Google Earth, with an "info window" for West Yorkshire SHA.', 'The KML feed featured in this screenshot is available at http://www.healthcybermap.org/GoogleEarthKML/sha.kml and is intended to be opened by Google Earth desktop application, which can be downloaded at http://earth.google.com/.', "Along the same lines, it is not difficult to imagine the development in the very near future of 'geowikis', 'mapwikis', geo-enabled blogs, 'mapblogs' (imagine, for example, people with an Internet-connected, GPS-enabled mobile device wanting to blog their movements, and share their activity spaces and geo-referenced news with other online users for various purposes), and even geoenabled, mappable Web/RSS feeds and map feeds (see the Smugmug KML photo feed example mentioned in the 'Background' section above).", 'In fact some early geowiki examples have already found their way on the Web; see, for example, http://www.wikyblog.com/Map/Guest/ Home, http://www.geowiki.com/, and also worldKit GeoWiki, a publicly editable map application http:// brainoff.com/worldkit/doc/geowiki.php (a simple online demo of worldKit GeoWiki to which anyone can add their own data is available at http://brainoff.com/worldkit/ geowiki/).Another example is the Katrina Information Map http:// scipionus.com/, which was built using Google Maps [15] .', 'Katrina Information Map was conceived for use by people Like the main MSN Virtual Earth service, our custom map allows users to move the map around by dragging it, to zoom in and out with the mouse wheel, and to zoom in by double-clicking on a location.', "Clicking a Strategic Health Authority 'S' marker (or pin) on the map will display the corresponding Summary Information page from England's National Health Service (NHS) Web site (e.g., http://www.nhs.uk/England/Authoritie sTrusts/Sha/showTrust.aspx?id=Q25 for Leicestershire, Northamptonshire and Rutland SHA).", 'Users having information about the status of an area that is not yet on the map can easily contribute to the map by adding/appending their information to it.', "(Readers interested in Hurricane Katrina's online maps and imagery in general might also find the following two sites useful: http://www.esri.com/news/pressroom/hurri canemaps.html, http://ngs.woc.noaa.gov/katrina/, http:// www.theregister.co.uk/2005/09/07/ google_maps_katrina/ and http://msnbc.msn.com/apps/ ve/katrina.htm.)", "Screenshot of MSN Virtual Earth Map Control version of England's SHA Locator\n\nThe possibilities and potentials are endless.", 'This is what this author calls the ultimate "wikification" of GIS, maps and satellite imagery/aerial photography.', "If the majestic Tate Museum in London is currently posting captions from its visitors next to its greatest works of art [16] , why shouldn't online maps (even those from very reputable sources like the National Geographic Society) allow a similar approach?!", "Associated individual privacy, national security, data confidentiality, and copyrights/digital rights management issues\n\nAs geospatial technology progresses and becomes more readily available to the wide masses around the world who are connected to the Internet, the interrelated issues of GIS and map data confidentiality/individual privacy, and even national security start to surface, calling for further examination of, and research into these delicate aspects of Internet GIS and Web maps [5, [17] [18] [19] [20] [21] [22] .For example, in public health worldwide, any public identification of an individual's health status and residence, regardless of level of contagion or risk, is usually prohibited with very few exceptions, e.g., Megan's Law in the US, which allows the release of residential information on registered child sex offenders to the public by local government [17, 23] .", 'In fact, thanks to the latter law, we have a service like the Georgia Sex Offender Maps http:// www.georgia-sex-offenders.com/maps/, which was built using Google Maps API.', 'SARS (Severe Acute Respiratory Syndrome) mapping in Hong Kong in 2003 using disaggregate case data at individual building level in near real time was another noticeable exception to this well-established public health confidentiality rule, and also a unique and rare GIS opportunity that resulted in some very comprehensive public Internet mapping services [24] .It is noteworthy that Google Maps API terms and conditions http://www.google.com/apis/maps/signup.html state, "There are some uses of the API that we just don\'t want to see.', 'For instance, we do not want to see maps that identify the places to buy illegal drugs in a city, or any similar illegal activity.', 'The current concern is to find an appropriate balance between public access to spatial information and protection of information considered a priority for national security [17, 23] .But despite all these undeniable, legitimate and real concerns about Internet GIS and map data privacy and confidentiality, many of the doubts and misgivings that are raised concerning these aspects of Internet GIS seem to be ill founded, or at least exaggerated.', 'Entchev [19] has wisely stated, "Let us not cripple the GIS system to meet some vague privacy perceptions".Another thorny Internet GIS issue that needs to be addressed is that of data and map copyrights.', 'Conner [14] has rightly described online maps as a copyright minefield.', 'Copyrighted geo-data and maps are usually more difficult and expensive to acquire and use.But as geo-data become more important in everything from blogs through mobile phones to finding lost people, free maps could make more and more of a difference [14] .', 'However, someone needs to pay the bill for such "free" maps, and so finding sustainable commercial models for adoption by online geo-data and Web map providers is becoming of prime importance these days [25] .', 'Examples of such commercial models include ad-sponsored map services, and low-cost, added-value paid services supporting the free service like Google Earth plus http:// earth.google.com/earth_plus.html and Google Earth Pro http://earth.google.com/earth_pro.html.', 'Microsoft also provides an alternative ad-supported, but still free, "commercialized" version of their MSN Virtual Earth Map Control for commercial Web sites [26] .The Open Geospatial Consortium\'s (OGC) work on Geospatial Digital Rights Management (GeoDRM) is also poised to become an important enabler in the context of geo-data and map copyrights [27] .', 'A great deal of work has already been done in the area of data ownership and rights management for the online e-book, video and music industries, with some mature working solutions already in existence from companies like www.microsoft.com/windows/windowsmedia/drm/ default.aspx and http://www.microsoft.com/windows/ie/ downloads/addon/rm.mspx) and Adobe https://aracti vate.adobe.com/.', 'Conclusion\n\nGoogle and MSN\'s worldwide distribution of "free" geospatial tools, imagery, maps and, eventually, in future versions of their products, analysis capabilities, is to be commended.', 'Building on the powerful and universal visual language of geography, they succeeded in making their customizable multi-purpose maps and imagery of the world familiar and accessible to millions of ordinary Web users around the globe from outside the fields of specialized geosciences.', 'Although ESRI have announced their planned response to Google (and MSN), it remains to be seen how their envisaged plans will materialize and compare to the offerings from Google and MSN, and also how Google and MSN mapping tools will further evolve in the near future.']</t>
@@ -176,49 +167,58 @@
     <t>["Concept mapping as a form of pre-task planning\n\nThe present study adopted concept mapping as an instructional strategy and examined its potential for improving ESL (English as a Second Language) learners' written production.", 'Concept mapping was first developed by Hanf (1971) as a model for improving the teaching of study skills.', 'Concept mapping is based on the principles of schema theory, which presupposes that information is stored in the brain as abstract mental structures, categorical rules, or scripts that humans use to interpret the world (Schmidt, 1999) .', 'Therefore, instruction for concept mapping usually includes a brainstorming session where students are encouraged to activate their prior knowledge of a topic and focus on the relevant content schema (Carrell et al., 1989) .', 'The technique of concept mapping has been widely practiced and studied under different terms, such as semantic mapping (e.g., Cronin et al., 1992; Heimlich and Pittelman, 1986; Lipson, 1995; Schultz, 1991) , cognitive mapping (e.g., Boyle, 1996; Peresich et al., 1990; Reynolds and Hart, 1990) and webbing (e.g., Brown and Salisch, 1996; Norton, 1993; Pieronek, 1994) .', 'The distinction between these terms is not clear in the literature, and they are likely to be used as equivalent in both L1 and L2 studies.A major reason for selecting this strategy as a target instruction is that concept mapping is recognised to be effective for both conceptual and linguistic development (Heimlich and Pittelman, 1986) and is widely implemented in classroom instruction.', 'A number of studies have reported the positive effects of concept mapping in a variety of instructional settings.', 'Concept mapping also helps students in special education programmes to promote their literacy knowledge (Boyle, 1996; Englert and Mariage, 1991; MacArthur, 1996; Sinatra et al., 1994) .In writing contexts, concept mapping has been said to facilitate the process of writing (Pieronek, 1994; Renner, 1992; Rey, 2000; Washington, 1988) ; however the extent of empirical research on mapping is limited, and most of the studies were done in L1 writing contexts.', "(1992) reported the progress of a district plan for secondary schools in Mississippi, demonstrating that mapping strategies had promoted students' understanding of text organisation and writing processes based on the results of writing tests over a four-year period.", 'Reynolds and Hart (1990) provided three instructional conditions (i.e., concept mapping, brainstorming and outlining) to fourth graders and compared the efficacy of each strategy technique in the revising stage of writing.', 'The gain scores of revised essays from the mapping group were significantly higher than they were for either the brainstorming or outlining groups.As far as I know, there is only one study that reported the effects of mapping strategy on L2 writing.', "Schultz (1991) implemented the semantic mapping strategy in a second-year French university programme in California, investigating the instructional effects on students' writing performance over a year.", 'In the first semester, instructors introduced semantic mapping as a pre-writing activity.', 'At the end of the lesson, instructors addressed the benefits of the mapping strategy and encouraged students to utilise it when writing.', 'The mapping strategy was used intermittently throughout the second-year French class.', "Schultz (1991) study implies the potential of mapping strategies as an effective pre-writing activity to enhance students' writing performance.", 'In this second-year French programme, semantic mapping was combined with group or general class discussion, in which students tried out and refined their ideas with their peers for writing.', "Schultz points out that the combination of mapping strategies with oral activities could promote students' ''higher-level thinking'' (p. 986), whilst developing their organisational skills for writing.", "Considering a variety of interpretations and applications of concept mapping in actual classroom contexts, I use the word 'concept mapping' in a broad sense in the present study.", 'In terms of its shapes and structures, concept maps may include a description of associated word clusters with no explicit organisational structures.', 'In terms of its application, concept mapping may be combined with other brainstorming activities such as discussion, and I consider this whole connected process as the concept mapping strategy in a form of pre-writing activity.', 'Since the main purpose of adopting the concept mapping strategy in this study was to provide an explicit approach to planning, I accepted a loose definition of this strategy to meet a real classroom situation.', "I adopted a case study approach for this investigation because both individual and contextual factors, such as students' backgrounds, their previous experience of using pre-task planning strategies and a task environment, could contribute to learners' composing processes and products.", 'I also conducted this study in a natural classroom context, considering the demand of writing tasks and the crucial role of conceptmapping instruction in this research project.', "To what extent does pre-task planning in the form of concept mapping affect adult Japanese-background ESL learners' writing performance?", 'How do adult Japanese-background ESL learners utilise the pre-task planning activity of concept mapping in their actual writing processes?', 'The instructor of the course, Karen (a pseudonym), was using concept mapping as a pre-writing activity, and this initiated my approach to her writing class as a possible site for this research project.', "Karen provided concept mapping instruction to activate students' prior knowledge related to a topic, and preferred to apply this planning strategy with a group activity (e.g., group discussion) so that students could take new information from their peers and expand their ideas for writing.", "In Karen's class, concept mapping was introduced in the third week of the programme session, and was used through the last two weeks as a pre-writing activity for both in-class and homework compositions.", 'In the English writing class in Japan, she had learned concept mapping and wrote several essays by drawing concept maps as a brainstorming activity.', 'She went to an ESL school in England, where she learned concept mapping for the first time.', 'A month before my research, she was reexposed to concept mapping instruction in the Test of English as a Foreign Language (TOEFL) class in Toronto, and wrote two compositions using this strategy.', "She had no previous experience of learning concept mapping before taking Karen's writing class.", 'Data collection\n\nAt the early stage of the research process, each of the participants completed a questionnaire that asked about their prior ESL/EFL studies, their experience of learning or using concept mapping for compositions, as well as their planning strategies for English and Japanese writing.', "The results from this questionnaire provided information about learner variables, which helped me to consider possible effects of these individual factors on each student's writing performance.During a period of the writing course, I observed Karen's class and took field notes regarding the process and the content of mapping instruction as well as the students' performance in the class.", "Considering the possible influence that this revising process might have on the students' textual features, such as accuracy, I focused my analysis on their first drafts of each writing task.The first compositions were written on the first day of the course, before Karen introduced the pre-writing strategy of concept mapping to the class.", 'Chie, Miho and Yuri reported that they had spent approximately 15-30 min to complete this assignment.The third compositions were written in the third week of the class session after Karen had introduced the concept mapping strategy in her class.', "In order to describe concept mapping, Karen chose the topic ''watch'' as an example and wrote the word on the blackboard.", 'She explained to the students that they would choose their own topic first, write it in the centre circle of the map, and then expand their ideas on the topic.', 'She added a few more idea sequences to the map, demonstrating how to develop ideas on the topic.', "After Karen's explanation about concept mapping, the students drew concept maps individually in their notebooks, and then worked in groups to share their ideas for writing.", 'Each group chose a free topic for writing and drew a concept map on a large sheet of paper.', 'After making a map, each group showed their map to the class and explained their ideas about the topic.', "Chie, Miho and Yuri's self-reported time for this assignment was approximately 15-30 min.Along with the compositions, I collected the concept maps that the students drew for writing their third and fourth compositions to examine how the students used the concept maps in their actual writing processes.", "To investigate this procedure from the learners' perspectives, I also asked Chie, Miho and Yuri to write their logs in their first language, Japanese, after they had received the concept mapping instruction and had written compositions.", 'The log sheet consisted of two types of questions, asking the learners how they utilised the pre-writing activity in their writing processes and enquiring into their perceptions of the concept mapping strategy.After the whole class session was completed, I administered a semi-structured interview to each participant.', 'The main questions of the interview concerned: (1) how they actually utilised the concept mapping strategy while writing; (2) whether they found any benefit from using the concept map, and if they did, what kind of benefit they found, and (3) whether they had trouble in using the concept map, and if they did, what kind of problems they encountered.', 'I also asked about their prior experience of concept mapping, as well as their planning strategies for writing in both English and Japanese.', 'The interviews were administered individually in Japanese by referring to the compositions, concept maps, logs and questionnaire that the students had completed in advance.', "Data analysis\n\nThree sets of data were analysed to see the possible effects of concept mapping on the learners' written product as well as their writing processes: (1) composition data; (2) verbal reports (i.e., retrospective interview, logs), and (3) descriptive data (i.e., questionnaire responses from the learners, concept maps).", "Process analyses\n\nTwo kinds of verbal reporting methods, retrospective interviews and logs, were used to examine the learners' utilisation of the concept mapping strategy in their writing processes.", "The coding scheme consisted of five categories, which investigated: the learners' background of English study, their previous experience of planning strategies for writing, their understanding of the concept mapping instruction in Karen's class, the ways they drew their concept maps and applied them to their writing processes, and their perceptions of the concept mapping strategy.I also examined the learners' questionnaires using the same coding scheme.", 'Then I compared the concept maps that the learners drew to plan their writing with their respective compositions in order to investigate how the learners used the concept maps in their actual writing processes.', 'I highlighted the words or sentences that appeared both in the concept maps and in the compositions, and then examined their positions in the structure of the planned compositions.', "All the complexity measures, for example, showed the students' better performance in both in-class and homework compositions when they drew concept maps to plan their writing.", "Features of the learners' concept mapping\n\nThe combinations of three learners' interview responses and their description in the logs revealed that they understood Karen's instruction of concept mapping in a similar way; that is, they described concept mapping as a way to generate and clarify their ideas for compositions by writing down words related to the topic and connecting them in a treelike structure.", 'However, their ways of drawing a map involved distinct individual interpretations and features.', 'For example, Chie seemed to employ concept mapping as a holistic brainstorming activity and drew her maps like a web, which spread by connecting a cluster of words (see Fig.', "Miho's concept maps, on the other hand, showed a structure that represented the organisation of her completed compositions (see Figs.", 'She stated in the interview that her compositions often consisted of a topic sentence, a few examples related to the topic and a conclusion, and that she included these components in her concept maps.', "This indicates that Miho employed concept mapping as a draft of her composition rather than as a simple brainstorming activity, which characterised Chie's use of this strategy.Yuri, who had no prior experience of concept mapping, failed to draw a map, and listed several sentences instead to prepare for writing (see Fig.", "Her list, however, did not show the structural patterns which were observed in Miho's concept maps.", 'Applications of concept mapping\n\nAs observed above in their ways of drawing concept maps, each participant also showed unique applications of concept maps in their writing processes.', 'For example, Chie, who simply wrote a flow of associated words on her map, selected a few ideas from the map and adopted them as key elements in her composition, whereas Miho used her map as a draft of her composition and applied most of the ideas in the map to her writing processes.', 'In the map for composition 3, Chie wrote 43 ideas, mostly as single words; however, she chose only five to use in her composition.', "Meanwhile, Miho wrote a topic sentence from the main idea in her map and used 10 out of 11 subsequent ideas in the body of her composition.In Chie's case, a concept map seems to have worked as a catalyst; a few selected ideas from the map later inspired her to create sentences.", 'Chie stated in the interview that she made a rough structure of the composition in her mind on the basis of these selected ideas, but did not refer to her map while writing.', 'This also suggests that she utilised a few ideas in the map as a spark to develop her composition but did not depend on the map for her whole writing processes.', 'Miho, on the other hand, reported that she needed to consult her map closely while writing.', 'Since she projected a whole image of a composition in her map, she used it as a draft and applied its elements to her writing processes.', "In Miho's case, this structural schema seems to have provided a solid framework that facilitated applying elements in a map to her writing processes.", "This application of concept mapping differed considerably from Chie's, where it served as a catalyst that invoked new ideas for writing.Yuri, moreover, had trouble drawing a concept map in the first place.", 'For composition 3, she listed several sentences instead of making a map.', "The only concept map that she ever drew in Karen's writing class was the one produced in a group for composition 4; however, she incorporated only two words from this group concept mapping into her composition.", 'One of the two words was the topic for writing, which appeared in the centre of the map.', 'No other evidence was observed regarding her application of concept mapping in her writing processes.', "Attitudes towards concept mapping\n\nThe investigation of the three learners' attitudes towards concept mapping revealed several advantages and disadvantages in the application of this strategy to their writing processes.", 'Chie, for example, expressed favourable comments overall towards the use of concept mapping in her compositions, pointing out the benefit of visualising ideas on a piece of paper.', 'She said that concept mapping helped her generate ideas for writing; however, she also mentioned her problems in selecting and focusing on a specific idea in the map.', 'In order to avoid this confusion, Chie sometimes skipped drawing a concept map, especially when a writing question was provided.', 'This comment shows that Chie judged her need for using concept mapping based on the nature of the writing task.', "Chie's comment on the usefulness of concept mapping might be perplexing, considering her interest in developing academic writing skills.", "Since Chie's application of concept mapping focused on holistic brainstorming, her awareness of utilising this strategy seemed restricted to writing tasks that required 'creativity,' which may not be a typical construct for academic writing.Miho also showed a favourable attitude towards the use of concept mapping in her writing processes, and stressed its positive function as an organiser of ideas.", 'In the interview, she expressed anxiety about writing compositions without making concept maps.', 'Although Miho incorporated the concept mapping strategy into her writing processes and even showed a certain dependence on it, she mentioned that she sometimes needed to skip this planning process due to time restrictions.', "In Miho's case, drawing a concept map seems to have required extra time for writing, which restricted her application of this strategy to her actual writing processes.Yuri, too, recognised the benefits of concept mapping for her writing practices, although she was not able to use it when she first tried it in Karen's writing class.", 'Yuri understood the function of concept mapping and its potential to improve her writing processes, but she had trouble changing her writing patterns to accommodate the strategy.', 'Her comments showed her conflicting orientations towards the mapping strategy.', 'Yuri pointed out her insufficient experience in using this strategy as the reason for not using concept mapping in her writing processes.', 'In the interview, Chie and Miho also said that they had struggled to adopt concept mapping to their writing processes at the initial exposure to the strategy.', 'Chie stressed that she had finally learned how to comfortably use this strategy after a year of practice, whilst Miho said that she had come to feel comfortable with concept mapping just recently although she had first learned this strategy about three years ago.', 'This may suggest that ESL learners need a certain period of practice in order to utilise the concept mapping strategy effectively in their writing processes (see Cronin et al., 1992; Schultz, 1991) .In turn, Yuri also expressed her uncertain feelings towards the need for using this strategy in her writing practices.', 'She especially pointed out the simple level of her current writing tasks, and indicated that she thought she was capable of coping with these tasks without drawing a concept map.', "If I need to write an argument, I would use a concept map, [because] I can't write without making a draft.", "(Yuri, interview)Yuri's comment like those of her two classmates indicates that the nature of writing tasks (e.g., their length, complexity, discourse types) may affect learners' decision-making in using or not using the concept mapping strategy as well as the ways they may use it.6.", "Discussion\n\nSummary of findings\n\nThe present study investigated the impact of concept mapping as a pre-task activity on ESL learners' written product as well as on their writing processes.", "Chie and Miho's overall scores of the Hamp-Lyons' measures were also higher when they drew concept maps for composing in class, whilst Yuri's holistic scores showed no obvious differences between the pre-planned and non-pre-planned compositions.", "No clear tendency regarding the effects of pre-task planning appeared in the learners' homework compositions.A close observation of the individual learners' composition scores in relation to their qualitative data implied a possible connection as to how the learners' distinct applications of the concept mapping strategy might appear in the features of their compositions.", "For example, Chie and Miho, who had learned concept mapping before participating in Karen's class, showed good manipulation of this strategy in their writing processes, and this appeared related to their better performance in the pre-planned compositions.", "Chie especially expressed her familiarity with concept mapping and stated that this strategy ''is suitable to my [learning] style'' (Chie, interview).", 'Miho, who was seeking opportunities for studying in a graduate school in Canada and was preparing for TOEFL, especially emphasised the function of concept mapping as an organiser of thoughts and applied her ideas to a certain rhetorical pattern (i.e., topic sentence, examples, conclusion) in her map.', 'This application of concept mapping could be related to her high scores on the organisation and complexity measures when she composed in class after planning.', 'In contrast, Yuri failed to draw a map when she was first instructed to do so, and her composition scores, except for the fluency measures, showed no better performance in the pre-planned, in-class situations.The learners in the present study also pointed out negative aspects of the concept mapping strategy, such as requiring extra time and trouble in drawing a map and selecting specific ideas from it.', "Moreover, the learners' decision-making in using or not using concept mapping seemed to be affected by various factors such as their familiarity with the strategy, the nature of writing tasks (e.g., length, complexity, discourse types) and situational restrictions (e.g., time limits).", 'Considering that Chie and Miho in this study actually used their concept maps in their writing processes as they were instructed, the importance of providing guidance in planning should also be acknowledged in writing contexts.', "Pre-task activities such as concept mapping or drafting, which can be directly connected to learners' written production at conceptual and textual levels, may function more effectively when engaged in individually.", 'When adopting a strategic device such as concept mapping, teachers may need to set up a training period of a certain length to familiarise their students with the specific strategy.', 'In this study, Chie, Miho and Yuri displayed unique ways of engaging in the planning activities even though they had received the same instruction on concept mapping in class.', 'Distinct functions of concept mapping were highlighted in their use of this strategy, which affected their writing processes as well as their produced texts.', "The present study investigated the effect of concept mapping on the students' first drafting processes.", "The potential of concept mapping could further be explored through a longer sequence of writing practice, which may involve a role of concept mapping in feedback-revision processes.One of the challenges for future research into planning is to investigate the longitudinal effects of planning on learners' language production and to demonstrate the relation between planning effects and learners' writing development.", "They might work towards solving their linguistic limitations by using their own internalised knowledge, or by cueing themselves to listen for a solution in future input.If, as Swain (1995) has claimed, learners' language production can induce deep levels of language processing and extend their interlanguage (Selinker, 1972) beyond the current levels, their better language production sparked by pre-task planning may extend their interlanguage even further."]</t>
   </si>
   <si>
-    <t>['To evaluate the risk of RVFV transmission within Egypt (risk-mapping) by means of a geographical information system (GIS)-based multi-criteria evaluation (MCE) approach.3.', 'Mapping the risk of RVF\n\nThe spatial risk of RVFV transmission within Egypt was estimated using a GIS-based multicriteria evaluation (MCE) approach [12] , which allows to combine the (spatial) data on the different factors that may influence the risk of a given disease.', 'All layers were transformed into a raster format, with 1 km × 1 km spatial resolution and the common UTM 35N projection.', 'R software [14] was used for both the analyses and generation of maps.Mapping the distribution of susceptible hosts of RVFV.', 'Cattle, sheep and goats density maps were obtained from the FAO-Gridded Livestock of the World modelled data [15] .', 'For buffaloes and camels, as density raster maps were not available, the data on the number of animals by governorate was obtained from OIE-WAHID, densities were calculated and maps were rasterized.', 'Density maps for the different species (cattle, sheep, goats, buffaloes and camels) are shown in Fig 1- upper row.', 'Then, the weights for the relative susceptibility of the different host species (see below the determination of weights) were applied, and the results combined to produce a map to represent the density of all susceptible hosts.', 'Finally, that map was standardized, i.e.', 'Standardization allows the combination of layers with different characteristics/units to produce the final risk maps.', 'Mapping the distribution of Cx.', 'antennatus is found in every governorate of Egypt, and their primary breeding include flooded areas, rice fields and irrigation channels [20] .We mapped Cx.', 'pipiens, and therefore would be included in the vector distribution map [16] .Given that estimates by Tran and collaborators [13] were based on Corine land-cover categories, which are not available for Egypt, the corresponding categories from FAO-GeoNetwork land cover were extrapolated from the South of Europe, and used to map the distribution areas of Cx.', 'Monthly estimates of the SD of the EVI for the year 2015 were derived from Moderate Resolution Image Spectroradiometer (MODIS) imagery from the Terra Satellite, and were used to capture those seasonal variations in Cx.', 'On the other hand, data on human population was obtained from the Gridded Population of the World version 4 [22] .The map of Cx.', 'pipiens presence based on land cover, the map of human population and the maps of SD of the EVI (monthly values and also average for the whole year) were all standardized and combined to produce the map of the overall vector suitability (either monthly values or average for the whole year).', 'pipiens, monthly vector distribution maps were created using the monthly estimates of the SD of the EVI for the year 2015.', 'pipiens favorability at location j for the whole year, and Var i,j is obtained as an absolute value.Mapping the distribution of susceptible hosts of RVFV.', 'The standardized distribution of susceptible hosts of RVFV (all species) shows a pattern which is mainly coincident with the areas surrounding the Nile river, although there are some significant variations in density (Fig 7A) .Mapping the distribution of competent vectors of RVFV.', 'Given this proportionality to the density of the human population, the vector map produced will be a proxy of the potential risk of RVFV transmission from mosquitos to humans (zoonotic risk).In order to evaluate whether there was a seasonal component in the distribution of Culex pipiens, and therefore in the risk of RVFV transmission, the (standardized) values of Cx.', 'The maximum variability was found in markets (0.15) and camel slaughterhouses (0.12), while the maximum variability in quarantines was only 0.05.Mapping the risk of RVFV transmission by vectors.', 'Mapping the risk of RVFV transmission by vectors.', 'Once obtained, the standardized maps of the distribution of susceptible hosts of RVFV and of competent vectors of RVFV were combined to produce a map of the risk of RVFV transmission by vectors.Standardization and selection of membership functions.', 'Then, a linear regression model was fitted to the data, and the contribution of each factor to the variation of the risk of RVFV transmission was calculated as the ratio of the sum of squares related to that factor on the total sum of squares of the model.Validation of risk maps.', 'In order to validate the risk of RVFV transmission map, data on any previous outbreak of RVFV occurred in Egypt for which the location was available was collected from several sources.', 'In total, 16 outbreak locations were used for the validation of the risk map.', 'Random\n\nValidation of risk maps.', 'The location of RVFV-positive cases in humans and animals, as well as RVFV-positive vectors from previous RVFV epidemics (for which the location was available) were used to validate the risk of RVFV transmission by vectors map (Fig 9A) .', 'MERS-CoV was detected in Egypt in camels imported from Sudan and Ethiopia [8] , and seems to still be present in Ethiopian camels [39] .Camels provide food (milk and meat), fibre (wool and leather) and draft power (for transportation and cultivation) to human communities located in dry environments [34] .', 'pipiens to map vector distribution, we believe it is an accurate representation of the RVFV transmission by vectors.', 'pipiens [16] .The map of RVFV transmission by vectors in Egypt evidences that the majority of the country surface has a risk of zero, as it corresponds to bare soil land cover (i.e.', 'Zayed and collaborators [17] demonstrated that in the areas where the seasonal flooding of the Nile Delta occurred, the population of vectors changed significantly, mainly in late summer-early fall.The validation of the risk map evidenced that the risk of RVFV transmission by vectors obtained at the location of human and animal cases and RVFV-positive vectors from the previous RVFV epidemics in Egypt, varied between 0.18 and 0.85, with a mean value of 0.49.']</t>
-  </si>
-  <si>
     <t>['Introduction\n\n"A new wave of technological innovation is allowing us to capture, store, process and display an unprecedented amount of information about our planet and a wide variety of environmental and cultural phenomena.', 'The classic public health triad composed of man, agent/vehicle and environment emphasises the importance of geographic location (environment or space where we live) in health and disease.', 'Ideally, the tools to achieve this goal should be accessible and usable by mainstream practitioners, transparently embedded into routine workflows, and seamlessly incorporated into existing busy work environments [4] .', 'For some, GIS also imply the people and procedures involved in GIS operation" (cited in [7] ).The inclusion of "people" (properly trained staff with adequate work time to spend on GIS activities) and "procedures" as part of the above definition is essential for GIS applications in a public health context, given the need to link the science and methods of epidemiology to GIS output to avoid producing invalid or misleading results [7] .GIS are potentially powerful resources for community health for many reasons including their ability to integrate data from disparate sources to produce new information, and their inherent visualisation (mapping) functions, which can promote creative problem solving and sound decisions with lasting, positive impacts on people\'s lives [8, 9] .Our experience in applying GIS to health issues has increased considerably over the last decade.', 'Both levels are interdependent and complementary.Spatial information management is based on the idea that data, people, software and hardware interact, and that it is practicable to obtain synergy by coordinating changes and development to help users have a better overview of both simple and complex problems, and give them the possibility to create comprehensible, acceptable solutions and/ or compromises.', 'In the next section on "GIS methods and technologies", we cast some light on the richness of GIS toolbox, which goes far beyond the mere production of simple maps (or digital cartography).', 'The section that follows, titled "Problematic issues and solutions", is a direct continuation of the one preceding it, and discusses tricky issues like data confidentiality and data/analysis errors, together with solutions that can address them.', 'Then in the section on "Proactive, real-time, GIS-enabled health and environmental surveillance services", we describe a wide-scale vision for, and some early real-world applications of, realtime GIS in emergency management, and in health and environmental surveillance.', 'These GIS methods should be coupled with proper spatio-temporal statistical methods to ensure valid analyses and robust conclusions [11, 12] .GIS offer powerful features not available to users of either paper-drawn or electronic map images.', 'In GIS, geographic boundaries of study areas can be accessed and modified, data class intervals and symbologies restructured, map layers (variables) vertically overlayed and integrated, new independent map variables added for multivariate spatial statistical analysis, spatial weights computed, spatial autocorrelation on predictor variables assessed, and probability scenarios of mapped variables explored based on modelled changes in regression coefficients over time, with unparalleled computational speed and ease.', 'A range of statistical techniques have evolved that are well suited to GIS analysis, including density kernel estimation, grid and probability estimation, and kriging (see "Smoothed maps" below) [13] .Rushton suggests that GIS provide the capability to perform two types of spatial analysis that could not be performed without GIS: finding areas of high disease incidence that can be labelled as statistically significant and worthy of further investigation, and examining the spatial relationship between disease incidence and information that is geo-referenced differently from the disease data [14] .Rushton also argues that GIS are useful for exploratory spatial analysis but are less useful for confirmatory analysis [14] , although it is clearly possible to integrate confirmatory statistical methods with GIS.', 'Choropleth maps\n\nMost traditional analyses of disease patterns examine disease rates at a given level of spatial resolution defined by spatial entities developed for administrative and other purposes.', 'Choropleth maps are commonly used to depict the patterns of disease rates.', 'Disease incidence and other spatio-temporal epidemiological events are portrayed on these maps as shaded polygons (each representing an administrative area).', 'Each of these polygons contains a numerical value of the mapped disease incidence represented as a shaded value within the covered national framework.', 'Moreover, values among contiguous areas (polygons) in a choropleth map can differ abruptly at adjoining borders, while in reality disease incidence and most other spatio-temporal events and phenomena such as deprivation levels are continuous variables distributed continuously across space and do not change abruptly at arbitrarily defined administrative, census and political boundaries (Figure 1 ).', 'Other limitations of the choropleth design include the visual dominance of larger areas over smaller ones [14, 16] .Yet, despite all these limitations, the choropleth design remains in many cases the method of choice to communicate estimated spatial density of reported disease incidence, being quite easy and straightforward to construct compared to the use of geostatistics like kriging (see "Smoothed maps" below), which requires more complex computational choices [16] .The choropleth map could be considered a filtered map using a non-overlapping, variable-size, spatial filter with filter shapes selected from available political or administrative regions (hence its limitations -see "Smoothed maps" below).', 'Smoothed maps\n\nTo meet the purpose of exploratory spatial analysis, health data are better examined by methods that assume that disease rates are spatially continuous [14] .', 'One can display data collected at smaller geographic areas (with fewer individuals) and still maintain the stability of the estimated rates by constructing a smoothed map.', 'The principal reason to filter disease data spatially is to examine the spatial pattern of disease at different levels of spatial resolution and to compute disease rates that are not dependent on the specific boundaries of the areas used in spatially aggregated data [14] .', 'After assigning estimated rates to each grid point, contouring software is used to create isarithmic maps in which regions with a constant range of values can be recognised.', 'This enables the creation of a continuous smoothed map of the data [17] .Talbot et al propose a modified spatial filter for creating smoothed disease maps, where the spatial filter is defined in terms of constant or near constant population size rather than constant geographic size.', 'This means that the circles will usually be larger in the rural areas (lower population density) compared to urban areas (higher population density) [17] .Kriging can be also used to produce continuous map surfaces from sample points.', 'They also describe their own experience in using the procedure to model and forecast the underlying A simple choropleth map of Townsend Deprivation Score distribution in Bath City Electoral Wards Figure 1 A simple choropleth map of Townsend Deprivation Score distribution in Bath City Electoral Wards A simple choropleth (graduated colour) map of Townsend Deprivation Score distribution in Bath City Electoral Wards (UK).', 'Kriged smoothed maps may strengthen our ability to visually communicate event patterns, especially over time (also possibly through the combined use of kriging and animation).', 'However, the accuracy of kriging results depends on the aggregation level of the data used (e.g., state-level vs. finer county-level data in the US) [16] .Trend surface analysis is another technique for producing smoothed maps.', 'Trend surface maps are commonly used to report the spatial diffusion process of disease epidemics (the movement of epidemics across geographical space).', 'In their GIS-driven Drug Incidence and Prevalence Estimation Program (DIPEP), Field et al used trend surface maps to overcome the drawbacks of administrative boundary choropleth maps (e.g., ward-based maps in the UK).', 'They also used animated sequences of trend surface maps to study the waves of diffusion of problematic drug misuse across time.', 'Animated trend surface maps could be considered as illustrating a more accurate picture of the spatio-temporal characteristics of mapped events and phenomena, when compared to administrative boundary maps, since populations are distributed continuously across space [18] .It is noteworthy that the interpolation tools in ESRI Arc-GIS 3D Analyst, Spatial Analyst, and Geostatistical Analyst extensions support kriging among other methods for the production of continuous surfaces from sampled points, while ESRI ArcGIS Tracking Analyst extension enables the visualisation and analysis of temporal data (including real-time data feeds) by defining events including time, location, and attribute information.', 'Spatial data mining\n\nThe Amsterdam Police department uses spatial data mining technology from Sentient http://www.sentient.nl/ and MapInfo in a cutting edge crime analysis and prediction system, able to detect patterns in a wide range of data, including criminal records, weather measurements, and socio-demographic information.', 'Related technologies: remote sensing and global positioning systems\n\nThe growing uses of remotely sensed imagery and satellite facilitated global positioning systems (GPS) are contributing to unprecedented surveillance of the environment.', 'High-resolution satellite imagery provides timely and detailed digital representations of existing landscapes and land covers, which can be spectrally classified and statistically correlated with disease host and vector habitats.', 'GIS also assist users in better understanding the potential harmful effects of environmental pollutants, e.g., toxic waste sites, and even in understanding the occurrence of pedestrian and other injuries, and crimes.', 'Today, environmental monitors measure air and water quality, solar irradiation, radon gas levels, and other exposures potentially deleterious to human health.', 'The Bradford Community Statistics Project http://www.communitys tats.org.uk/ provides a good example of public participation GIS projects, and aims at empowering residents to develop their own policy initiative and funding proposals.Richards et al describe the advantages of GIS technology using some excellent public health example scenarios: a childhood lead poisoning prevention programme; mapping of motor vehicle injuries and fatalities in a community; and using data collected by marketing firms about consumer spending patterns and lifestyle segmentation profiles to identify the best target populations for prevention interventions, e.g., anti-smoking programmes, and to select the best media channel(s) and times of the day to communicate a particular message to a given population [7] .Richards et al also describe a feasible scenario for geographically enabled electronic medical records wherein all electronic inpatient and outpatient medical records in a given community are regularly scanned to map asthma cases (in the example given) and compare current week maps with those for prior time periods.', 'They also describe how geo-information used in a poverty mapping initiative in South Africa was combined with information on sanitation and safe water supplies to create a strategy for containing a cholera outbreak in KwaZulu Natal province.', 'The resulting fatality rate for this outbreak, 0.22%, was among the world\'s lowest ever recorded [9] .The World Health Organisation\'s HealthMapper application http://www.who.int/csr/mapping/tools/healthmap per/healthmapper/en/ and the Pan American Health Organisation\'s Sig-Epi (GIS in Epidemiology and Public Health -http://ais.paho.org/sigepi/ have already been described in our previous review [10] .Real-time GIS applications in health and environmental surveillance, and in emergency and epidemics management are presented later in this paper (see section titled "Proactive, real-time, GIS-enabled health and environmental surveillance services").Traditionally, two broad types of GIS applications can be distinguished which also reflect the two traditions in health geography (geography of disease and geography of healthcare systems), namely health outcomes and epidemiology applications and healthcare delivery applications.', 'Health outcomes and epidemiology applications\n\nA number of studies have used GIS to study disease patterns (e.g., identify leukaemia clusters), spatio-temporal variations in health outcomes, and identify possible causes of mapped patterns (e.g., the relationship between cancer incidence and various environmental factors).', 'These generally involve the linkage of health information with environmental and socio-economic data.', 'Field et al developed a GIS drug misuse system to create a dynamic model for forecasting and displaying spatio-temporal trends and linking environment with behaviour.', 'It covers basic demographic data, mortality and morbidity, lifestyles and environmental indicators such as alcohol consumption and road traffic accidents, and types and levels of healthcare.', "Most indicators are presented as a map to show overall regional variations, a bar chart to indicate country rankings, and a time chart to show trends over time in three main country groupings [30] .The WHO's Atlas of Health in Europe offers static information about retrospective events and data.", "Like the WHO's Atlas of Health in Europe, this Swedish atlas remains a collection of pre-drawn, static maps (still very valuable, but limited in many aspects).A network of researchers and practitioners from various institutions in Sweden, is preparing for a training course, to be conducted in 2004, on spatial analysis research.", 'Among these strategies is a method to improve hospital bed availability through precision bed management using integrated demand, utilisation and PAS (Patient Administration System) data, flow models and advanced GIS to map the geography of the hospital against variables such as patient numbers, staff numbers, and nurse dependency.', 'GIS are proving superior to conventional patient activity systems in informing the organisation about bed management opportunities on an hour-by-hour basis [32, 33] .It is noteworthy that Downey Regional Medical Centre (DRMC) in California, US, is currently using a large, multi-layered, GIS-enabled patient care and room management system that leverages digital floor plans, workflow analysis, and data visualisation for a better solution to how DRMC assigns patients to rooms, monitors the discharge process, and prepares rooms for new patients.', 'One of these documents published on NHSIA Electronic Records Development and Implementation Programme (ERDIP) Web site mentions the use of GIS techniques, mapping to deprivation indices, and linkage to non-medical data in the context of electronic patient records.', 'The small size of many IT departments and high staff turnover, attributed to the higher wage levels of staff with spatial handling skills in the private sector, also hindered the effective implementation of GIS.Gould (1992 -cited in [28, 35] ) found high levels of GIS awareness by Directors of Public Health and health authority information/IT officers in England and Wales, though respondents did not perceive any differences between GIS and computer assisted cartography software, and were not really using the software in anything more than simple mapping and low-level operational tasks.Typically, maps were being included in the annual reports of the Directors of Public Health to illustrate the health priorities of individual health authorities, with very little emphasis on using GIS in strategic tasks.', 'Research undertaken in academia has certainly highlighted the benefits of spatial statistics and GIS approaches in mapping disease and in healthcare planning, but still needs to respond to NHS needs on the ground.One area where GIS have debatably made less impact is that of measuring and monitoring NHS performance.', 'Factors such as historical precedent, the presence of dedicated GIS-able individuals or teams, and the presence of an effective infrastructure of GIS advice, guidance, and support available to NHS organisations (e.g., in West Midlands and Trent -for some examples, see http://www.sheffield.nhs.uk/health data/gis.htm and http://gis.sheffield.ac.uk/) could explain the observed patterns of health organisations that are GIS users or nonusers, and those that show higher degrees of collaboration with local authorities [35] .The production of maps was undertaken in 96% of the health authorities and 67% of the health trusts that reported using GIS in 2001.', 'The same active subset of health authorities and trusts was also found to be using GIS to undertake geographically based analysis (75% and 72%), data manipulation (46% and 51%), and analysis of statistical data (36% and 44%) [35] .Health authorities were found to be making greater use of GIS for policy-related tasks, e.g., to produce health profiles of local populations, and in epidemiological research, assessing health needs for the purchase of health services, determining catchment areas for local services showing an interactive map of the incidence rates by PCG (Primary Care Group) of prostate cancer in the West Midlands Region over the five year aggregated period 1995-1999.', 'This was compounded by the currently ambiguous criteria to conform to data confidentiality requirements, and the lack of a service-level agreement with Ordnance Survey http://www.ordnancesurvey.co.uk/ or other providers like ESRI and MapInfo) for the purchase of base digital data for organisations within the NHS.', '(4) Development of effective partnerships, and involvement of all stakeholders and users: Mature NSDIs are complex solutions involving many stakeholders (including the health sector with all its organisations).', 'A mature NSDI can only be achieved through simpler and smaller solutions that start with realistic and clear short-term objectives, and grow incrementally through political and market needs.', 'EIS-AFRICA -Gavin et al, 2002\n\nEIS-AFRICA is a network for the cooperative management of environmental information in Africa.', "It is a pan-African, non-profit, non-governmental organisation, registered in South Africa, and born out of the World Bank's Environmental Information Systems in Sub-Saharan Africa programme (EIS-SSA).", 'The existence of these commonly used datasets facilitates the use of other geodata, such as demographic, socio-economic, epidemiological, environmental, and water quality data, which must be also available, accessible and up-to-date [9] .', 'WHO-AFRO -Briggs, 2000\n\nIn a 140-page report commissioned by the World Health Organisation -Regional office for Africa (WHO-AFRO), Briggs proposes a programme of action to advance environmental health hazard mapping in Africa that includes the following elements [54] :(1) Data modelling: This involves developing and adapting health indicators according to specific local user needs [54] (see "Common semantics, data models and health indicators" below).', '(2) Awareness-raising campaigns: These should be based on real-world examples and demonstrations of environmental health hazard mapping, and aimed at key decision makers in concerned organisations [54] .', '(3) Joint working in partnerships: This involves adoption of a multi-sectoral approach to environmental health hazard mapping, encouragement and support for the sharing of experience and facilities, and support for training and long-term capacity-building, e.g., by building up expert/ national networks (partnerships) and organising workshops, seminars and study visits [54] .', 'The cost of training programs offered by commercial GIS vendors and solution providers can be a financial burden, and GIS training programmes specifically designed for public health professionals are still relatively limited.', '(7) An incremental approach is needed: Longer-term solutions usually require a series of small successes, carefully built upon in incremental fashion over time [7] .In fact, much of the wider vision of a national public health spatial data infrastructure can be gradually and incrementally achieved through disparately funded and managed short-term projects, as long as we can ensure that these short-term projects make a useful and lasting contribution towards this wider vision.', 'Davenhall, 2002\n\nIn a recent ArcUser Online article, William F. Davenhall, ESRI Health and Human Service Solutions Manager http:/ /www.esri.com/industries/health/index.html, describes an ambitious vision of a Community Health Surveillance System (CHSS -see later) spanning wide geographic areas, and mentions the following success factors [2] :(1) Community data sharing must be systematic and regular [2] .', 'The system was used during the 2002 Winter Olympics and currently operates in two US states -Pennsylvania and Utah (more details about RODS are presented below under "Proactive, realtime, GIS-enabled health and environmental surveillance services") [55, 56] .', 'Morris and Henton, 2003\n\nMorris and Henton list several key factors for progress and success of an environmental health surveillance system for Scotland (see "Large-scale environmental surveillance projects in the UK" below), including ensuring joint ownership of the project, successful partnerships and shared commitment among the disparate agencies that are involved in the project, adopting a phased approach, reaching a consensus on inputs and outputs, and having realistic expectations [57] .', 'The data model described by Buckeridge et al was based on a "determinants of health" model that explicitly acknowledges the influence of nonmedical determinants (e.g., income, occupation, and environment) on population health status, and qualitatively relates these determinants to health outcomes [8] .', 'Once data were acquired, they were integrated into the GIS using the developed data model and the spatial unit of the enumeration area, a Canadian census sampling area with a median population of 400 in the study area (Southeast Toronto) to relate datasets to one another (in this case the enumeration area acted as a common high resolution geographical unit for linkage -the data model facilitated data integration around the common geographical unit of the enumeration area).', '(4) The potential for data display to be misleading and for misinterpretation of data was addressed by providing users with descriptions (metadata) of datasets and constraining map types by data types.', 'Intranet and Internet environments can help facilitating public health spatial data accessibility and integration at local, national and regional levels, and can support a physical and virtual "situation room" for both emergency and day-to-day management of operations for safeguarding the environment and protecting human health [58] .A San Diego Association of Governments report titled "Guidelines for Data Development Partnership Success" is based on many years of GIS partnering experience and cites guidelines that may help other agencies develop successful partnership activities [61] .A good example of successful partnerships is the online GIS service known as "Window to My Environment" (WME -http://www.epa.gov/enviro/wme/), which is offered by the US Environmental Protection Agency (EPA).', 'WME is designed to provide public accessibility to a wide range of federal, state, and local geospatial data about environmental conditions and features in any US location.', 'They are conceptual models that facilitate integration of data by information systems and support a common understanding of data by people [8] .To explain the importance of adopting common semantics when developing health geo-information services that span administrative boundaries, Richards et al provide the example of two neighbouring public health departments that are addressing a common infectious disease problem and would like to join their independently developed GIS maps into a common map for both jurisdictions.', 'The latter for example include case definitions, sources for case reports, and the time period for the study [7] .In his report commissioned by WHO-AFRO, Briggs classifies environmental health hazards into eight categories: land/climate-related hazards, atmospheric hazards (outdoor air pollution), water-related hazards, food-borne hazards, vector-borne hazards, domestic hazards, occupational hazards, and infrastructural hazards.', "Briggs' report stresses the importance of indicators as essential tools for environmental health hazard mapping.", "For this reason, the emphasis in Briggs report was not on providing a core or generic set of environmental health hazard indicators, but on providing indicator profiles that show, for a sample of indicators, how they can be constructed/customised and used [54] .An indicator profile specifies the environmental health hazard(s) to which the indicator relates, the indicator's rationale and role, any alternative methods and definitions, any related indicator sets, sources of further information, and a listing of involved agencies.", '(quality of life; behavioural risk factors, e.g., substance abuse, lifestyle, and screening programmes; and environmental health indicators, e.g., air and water quality, workplace hazards, food safety, etc.', 'The current phase of this work has assigned top priority to service site selection, emergency response, facility emergency response, campus facility management, regional environmental health, and disease surveillance.', 'The average user can immediately begin to populate the geo-database rather than to design it, and the inherent commonality between users and sites adopting the resultant geo-database(s) should facilitate exchange of data; and In October 2003, this author contacted Dr. Mike Goodchild, HDM project leader, and asked him how does/will their conceptual object model relate/link to health indicators, e.g., those produced by NACCHO as part of their Community Health Status Assessment (CHSA) Toolbox, and those produced by WHO-AFRO as part of their consultation on environmental health hazard mapping for Africa.', 'XML encoding of geodata, using GML and Web Services http:// www.opengis.org/initiatives/?iid=7 specifications and recommendations, makes it possible to display, overlay, and analyse geodata on any Web browser, even if the browser obtains views of different map layers from different remote map servers.', 'For example, layering Web Services from two politically/administratively separate but geographically contiguous cities or regions would allow the integration of their independent data silos to answer questions about an emergency involving both (provided that issues of common semantics, data models and case definitions have been resolved) [58, 67, 68] .XML is also used for encoding spatial metadata (metadata are essential to aid the discovery of spatial data in a distributed environment) [58] .', "Ordnance Survey (OS), the UK's national mapping agency, has adopted GML as the only geospatial data format for its MasterMap of Great Britain http://www.ordnancesurvey.co.uk/ oswebsite/products/osmastermap/.", 'OS MasterMap boasts about 400 million geographic features in GML format.', 'Each feature within OS MasterMap is assigned a unique 16-digit "topographic identifier" (TOID) that can be used by OS or its customers to reference any given feature in the database.', 'This makes it much easier for users to associate other information to the spatial feature, to refer unambiguously to a particular feature, and, therefore, to share spatial information with other users [24, 69] .By separating presentation from content, powerful maps can be made that offer enhanced functionality for users.', 'GML contains map "content" only (e.g., where features are, their geometry, type and attributes), but it does not provide any information about how that map data should be displayed.', 'By combining a selected map stylesheet with a WFS query, users are presented with a fully interactive and editable vector map that can be viewed in any Web browser [69] ( Figure  4 ).Another key feature of GML is its ability to be "self describing" through the use of XML schema.', 'GML contains map "content" only (e.g., where features are, their geometry, type and attributes), but does not provide any information about how that map data should be displayed.', 'By combining a selected map stylesheet with a Web Feature Service (WFS) query, users are presented with a fully interactive and editable vector map that can be viewed in any Web browser.', 'The new release is modular, allowing users to pick out only the schemas or schema components that apply to their work, which simplifies and minimises the size of implementations [72, 73] .However, it should be noted that GML and Web Services are only part of the solution to integration and interoperability.', 'For example, RODS, the Real-time Outbreak and Disease Surveillance system, uses the HL7 message protocol to receive clinical encounter data from participating hospitals in real time [55] , while the US Department of Defense Global Emerging Infections System is basing its seven syndromic surveillance categories on groups of related ICD codes http:// www.geis.ha.osd.mil/GEIS/SurveillanceActivities/ ESSENCE/ICD9May02.xls (see also "Proactive, real-time, GIS-enabled health and environmental surveillance services" below).Lowe also stresses the fact that technologies like XML and SOAP (Simple Object Access Protocol -involved in Web Services) are only part of the integration issue, and points to integrating geoprocessing and databases at other levels, and the related issues of optimisers and federated databases.', 'Often, client programs will pull a copy of the database spatial data into their own environment to process it instead of asking the database to do the processing.', 'This same potential problem awaits users of multiple feature-streaming map services [67] .Alternatively, if the spatial processing remains within the database environment, an optimiser program common to all professional databases will internally organise a response to the query that returns results in the fastest possible time.', "A query from the larger integrated system goes into the database and only the results come out, taking advantage of the database optimiser, reducing processing loads on the client that generated the question, and also reducing transmission loads [67] .Each database vendor's optimiser works best within its own specific database environment.", "Furthermore, the federated technology's optimiser is aware of the available processing resources in other databases and organises query responses appropriately [67, 74] .Grid-based real-time distributed collaborative geoprocessing could also form the basis of a next-generation solution to data and computationally intensive geoprocessing applications that are extremely difficult to execute on conventional systems and networks [75] .", 'It is already a reality with many ongoing projects (see for example http://mapcenter.in2p3.fr/ datagrid-s/).', 'Again, in the emergency response to the fall 2001 terrorist attack, lack of bandwidth in some areas of New York City resulted in delays in providing processed and urgently needed data for the Emergency Mapping and Data Centre (EMDC).', 'Seamless integration into routine workflows of tools that are easy-to-use by mainstream public health practitioners\n\nRichards et al call for GIS technology to be linked with community health planning tools through data entry forms and automated procedures (e.g., automated geocoding for vital statistics data) to help public health practitioners map and plan interventions at community level.', 'The program has some GIS functionality allowing public health practitioners to import, utilise, and display map boundary files and data, but there is still room for further improvements.', 'This can be achieved by using some form of user friendly, "intelligent", goal-oriented health GIS wizards (based on robust statistical methods where appropriate), so that only val</t>
   </si>
   <si>
     <t>['A novel coronavirus is the causative agent of SARS [5] .it has become evident that carefully planned and designed maps can be very powerful decision support and spatiotemporal analysis tools [10] .', "This kind of support is vital for making well-informed decisions when designing and following up epidemic control strategies or issuing and updating travel advisories.As a matter of fact, during outbreak response, the WHO uses a custom-made geographic mapping technology, which forms part of its existing system for outbreak alert and response, to assist in the location of cases and rapid analysis of an epidemic's dynamics.", 'The WHO also uses this epidemiological mapping technology to predict environmental and climatic conditions conducive for some outbreaks [15] .Also worth mentioning in this context is the recent news that remote sensing satellite data (provided by the European Space Agency -ESA) and GIS (Geographic Information Systems) are currently being used to better understand, predict and help combat Ebola haemorrhagic fever outbreaks in central Africa http://www.esa.int/ export/esaSA/SEMWG5VZJND_earth_2.html.', 'Web-based SARS datasets and maps: availability and features\n\nIn this paper we review several geographic mapping efforts of SARS that we have found on the Internet.', 'This includes the latest SARS case counts and lists of affected areas that form the basis of all mapping examples reviewed in this paper (Table 1) .Web-based maps like those presented in this review offer the following extra features not found in conventional paper-based maps: (1) interactivity (e.g., drill-down and zooming, map querying, measuring distances, and switch-ing map layers on and off); (2) capacity for quick, frequent map updates based on the latest datasets; and (3) wider dissemination/availability to larger audiences.', 'WHO\n\nEarly in the 2003 outbreak, the WHO started publishing a static, non-interactive daily world map of the "cumulative number of reported probable cases" on its SARS Web site http://www.who.int/csr/sars/en/.', "An example of these early daily maps is available from http://www.who.int/ csr/sars/map-2003_04_29.gif (WHO's SARS map for 29 April 2003).", 'On these maps, affected countries with no evidence of local SARS transmission were pink-coloured, while those where local SARS transmission was taking place were red-coloured.', 'The size of the graduated blue circle over an affected country on these maps reflected the cumulative number of reported cases in that country (larger circles meaning more SARS cases).Later on in May 2003, the WHO dropped the "type of transmission" from its daily world map of SARS and switched to a choropleth rendition (instead of graduated circles) to display the "number of current probable cases" (instead of the "cumulative number of reported probable cases", which does not reflect the current situation) -see for example http://www.who.int/csr/sars/ map2003_05_26.gif.The maps were produced by the WHO\'s Public Health Mapping Team http://www.who.int/csr/mapping/en/ and updated every 1-2 days.', 'Figure 1 ).Corda used to update the maps every day or so (during the 2003 SARS outbreak), based on the latest figures from the WHO and CDC (US Centres for Disease Control and Prevention).', 'Cumulative numbers of SARS cases (including SARS recoveries and deaths since counts began) are mapped to individual countries, but not to actual regions/ areas within affected countries, making the maps less useful to decision makers responsible for issuing travel advisories and travellers wanting to avoid risky areas.', "Countries/states with darker colour shades on Corda's maps have more SARS cases (i.e., a choropleth rendition).Corda's world map of SARS could have been greatly improved by also mapping the number of current SARS cases and by including affected area information for other parts of the world (as second-level drill-down maps accessed by clicking respective countries on the main map; they only did this for US states).", "The graph allows users to visually monitor and appreciate the epidemic's progress at a glance.Also of interest is the news that the US National Cancer Institute (NCI) is currently using Corda PopChart and OptiMap to create its Section 508-compliant maps, charts and graphs of cancer mortality rates for the United States http://www.corda.com/company/resources/2003/ jul21.html and http://www3.cancer.gov/atlasplus/.", 'MapAsia.com\n\nDuring the 2003 SARS outbreak, MapAsia.com, a GIS company in Hong Kong, published SARS distribution maps for Hong Kong and China on their MapInfo Discovery server -a GIS-driven Internet map server http:// www.mapasia.com/sars/.', "A number of SARS map themes were provided and regularly updated based on govern-ment's figures, including distribution of affected buildings and district comparisons (Hong Kong), and provincial distribution (China) - Figure 3 and Figure 4 .", 'The maps offered powerful zoom-in functionality (up to street/building level on many of the maps).According to MapAsia.com, citizens have the right to know SARS distribution where they live in order to take all necessary precautions to protect themselves.', "Some of MapAsia's Hong Kong maps also traced SARS spread within 250-metre coloured buffer zones ( Figure 3 ); this might have been helpful in assessing the effectiveness of SARS control measures in and around affected buildings.MapAsia's provincial SARS distribution map of China shown in Figure 4 adopted a dichromatic (from light green to maroon) choropleth scheme with graduated provincial pie charts depicting the relative numbers of discharged/under treatment/dead cases in affected provinces.", 'ESRI China (Hong Kong)\n\nDuring the peak of the 2003 outbreak, ESRI China (Hong Kong) launched "SARS GIS", a new mapping Web site dedicated to SARS (http://www.esrihk.com/SARS/Eng/ sars_eng_main.htm - Figure 5 ).', 'They have established "SARS GIS" in order to distribute timely information to the public regarding SARS cases and distribution around the world.The interactive "SARS GIS" maps are regularly updated based on the latest figures from the WHO and Hong Kong Department of Health.', "There are three map sections providing very comprehensive information on SARS case distribution in the world, China and Hong Kong, including infected Hong Kong buildings' distribution and addresses.", 'The Hong Kong maps also offer the following two functions for the visualisation of the proximity of individual buildings with infected residents to the home buildings of users: (1) measuring distance between any two buildings; and (2) showing 50 m and 100 m areas of a building with infected residents.The maps were created with ESRI ArcIMS, a GIS-driven Internet map server, and feature a handy toolbar that provides the sort of functionality found in the standard ArcView GIS desktop interface (e.g., zoom in, zoom out, pan, identify, measure, etc.).', "Hong Kong Yellow Pages\n\nHong Kong Yellow Pages provide very detailed Hong Kong SARS distribution maps with powerful panning and zooming functionalities up to street/building level (http:/ /www.ypmap.com/en/viewer.asp?mapService=SARSMap Corda's world map of SARS Figure 1 Corda's world map of SARS.", "Web browser screenshot by this author of Corda's world map of SARS displaying data for each country affected by SARS as of 11 July 2003 http://www.corda.com/examples/go/map/sars.cfm.", 'Users can also drill-down into the United States map to view how many cases have been reported in each state.- Figure 6) .', 'A screen resolution of 1024 by 768 pixels or more is highly recommended to view these maps.', 'The maps allow users to lookup Hong Kong district and building situation.', 'Users can type a location (English or Chinese input) to find the nearest five infected buildings and locate them on the maps.', 'The service can also show the locations of district hospitals on the maps and display their full addresses.Thematic mapping, overlay analysis and point-in-polygon analysis are used to explore and highlight the relationship between various aspects of population distribution and infected buildings on the maps.', 'Some handy charts and maps are also offered based on the latest SARS figures, including one that shows the progressional change of infected buildings in Hong Kong (Figure 7) .The interface also allows users to e-mail any of the maps to friends and colleagues (users can also send their own comments alongside the maps).', 'The Hong Kong Yellow Pages SARS maps are generated on the fly based on the latest SARS data.', 'SarsNet interface allows users to specify the information they want to view (which data items/statistics, which geographic location, and time period covered) and the format to which SarsNet should render the selected information on the fly (there is a wide range of textual and graphical formats to choose from, including animated GIF maps).SarsNet is unique in that it permits users to examine the temporal dimension of SARS spread by creating animated series (dynamic maps -see [19] ) based on successive static maps of daily or weekly SARS occurrences.', 'Maps included in an animated series must cover exactly the same geographic area, be of the same scale and use the same classifications (if any).', 'Other maps\n\nSuperMap GIS Technologies, Inc., a software company affiliated to the Geographic Information Industrial Development Centre of the Chinese Academy of Sciences, has produced an online interactive SARS distribution map of China with a Chinese interface http://www.super map.com/sars/.A group of volunteers who are related to the Department of Geography at the University of Hong Kong (HKU) has developed another GIS-based SARS map with English interface http://facarts.hku.hk/geog/sars/.', 'The HKU map shows SARS infected areas in Hong Kong over a five-day period (each day is presented as a separate map layer).It is noteworthy that during June and July 2003, the HKU Department of Geography offered full-day "Mapping SARS Workshops" to introduce GIS for SARS mapping, which is also applicable to disease mapping in general http://geog.hku.hk/sarsworkshop/.', 'Specific workshop highlights included methods to examine: (1) spatio-temporal disease progress; (2) disease diffusion within a vertical building (this could prove helpful when reviewing current buildings/building regulations to achieve healthier living conditions and minimise disease spread in case of infectious disease outbreaks); (3) possible disease ESRI China\'s "SARS GIS" -SARS case distribution in Hong Kong correlation with demographic or environmental data; and (4) identification of clusters by infection sources or geographic proximity.SpatialNews.com/GeoCommunity has published a series of static SARS distribution maps of the United States on its Web site (see for example http://spatialnews.geo comm.com/features/sars/sars_apr252003.pdf).', "The maps were generated using ESRI ArcView GIS and CDC data.In the CDC's Morbidity and Mortality Weekly Report of 2 May 2003, another interesting map was published showing the locations of airports in the US that have arrivals from SARS hotspots like Southeast Asia and Toronto, Canada.", 'Web technologies -http://www.maptell.com/maps/web map/world/worldsars.htm).', 'From geographic mapping to location-based alerting services, geoinformatics plays an important role in the study and control of global outbreaks like SARS.', 'Carefully planned and designed maps are powerful decision support and spatio-temporal analysis tools.', 'Webbased maps also allow for quick, frequent map updates based on the latest datasets, for interactivity to be incorpo- can clearly see at a glance that SARS situation in Hong Kong was already under control by that date.', 'The green dots on this map represent "cleared buildings" and there are no red dots representing "buildings infected within one day".', 'rated into the maps (desktop GIS-like functionality, e.g., drill-down and zooming), and for wider and more rapid dissemination of information (compared to other publishing media).', 'In this paper we have reviewed several geographic mapping efforts of SARS that we have found on the Internet.', 'The maps described in this review employed a variety of techniques like choropleth rendering, graduated circles, graduated pie charts, buffering, thematic mapping, overlay analysis and animation to allow public health decision makers, travellers and local populations at risk to visually monitor and appreciate at a glance changes, trends and patterns buried in different online SARS datasets that were continuously varying with time during the 2003 outbreak.', 'Some of the mapping services presented in this paper provided very detailed information down to individual street/building level (in Hong Kong).', 'Hong Kong Yellow Pages map showing the progressional change of SARS-infected buildings in Hong Kong\n\nHowever, according to Monmonier, it is not just easy but also essential to lie with maps.', "The cartographer's paradox is that to avoid hiding critical information in a fog of detail, the map must offer a selective, incomplete view of reality [22] .", 'Map users always need to be alert for "lies" that can range from legitimate and appropriate suppression of some details selectively to help the user focus on what needs to be seen to more serious distortions in which the visual image suggests conclusions that would not be supported by careful epidemiological analysis.', "Sound epidemiological and statistical principles and methods should provide the foundation for all data analyses to be displayed on maps [23] .In public health worldwide, any public identification of an individual's health status and address, regardless of contagion level or risk, is usually prohibited [24] .", "SARS mapping in Hong Kong using disaggregate case data at individual building level in near real time was a noticeable exception to this well-established public health confidentiality rule, and also a unique and rare GIS opportunity that resulted in some of the very comprehensive SARS Internet mapping services described in this paper.Of all reviewed SARS mapping services, this author believes that SarsNet, Hong Kong Yellow Pages SARS maps, and ESRI's SARS GIS rank top.", 'These three interactive mapping services have managed to provide the most usable, useful and up-to-date maps, charts and graphs among all reviewed services.With its unparalleled capacity for near-instant, wide-scale information sharing and dissemination, the Internet proved to be an indispensable and very effective tool in understanding, rapidly responding to and successfully controlling global outbreaks like SARS.Publish with Bio Med Central and every scientist can read your work free of charge http://www.ij-healthgeographics.com/content/3/1/2']</t>
   </si>
   <si>
-    <t>['The classic methods, algorithms, frameworks, and tools for data management have become both inadequate for processing this amount of data and unable to offer effective solutions for managing the data growth.', 'The problem of managing and extracting useful knowledge from these data sources is currently one of the most popular topics in computing research [3, 4] .In this context, big data is a popular phenomenon that aims to provide an alternative to traditional solutions based on databases and data analysis.', 'Big data is not just about storage or access to data; its solutions aim to analyse data in order to make sense of them and exploit their value.', 'For this reason, the methodologies and frameworks behind the big data concept are becoming very popular in a wide number of research and industrial areas.This section provides a short introduction to the methodology based on the MapReduce paradigm and a description of the most popular framework that implements this methodology, Apache Hadoop.', 'MapReduce and the big data processing problem\n\nMapReduce [25, 26] is presented as one of the most efficient big data solutions.', 'The programming model implemented by MapReduce is based on the definition of two basic elements: mappers and reducers.', 'The idea behind this programming model is to design map functions (or mappers) that are used to generate a set of intermediate key/value pairs, after which the reduce functions will merge (reduce can be used as a shuffling or combining function) all of the intermediate values that are associated with the same intermediate key.The key aspect of the MapReduce algorithm is that if every map and reduce is independent of all other ongoing maps and reduces, then the operations can be run in parallel on different keys and lists of data.Although three functions, Map(), Combining()/Shuffling(), and Reduce(), are the basic processes in any MapReduce approach, usually they are decomposed as follows:1.', 'Prepare the input: The MapReduce system designates map processors (or worker nodes), assigns the input key value K1 that each processor would work on, and provides each processor with all of the input data associated with that key value.', 'The Map() step: Each worker node applies the Map() function to the local data and writes the output to a temporary storage space.', 'The Map() code is run exactly once for each K1 key value, generating output that is organised by key values K2.', 'The Shuffle() step: The map output is sent to the reduce processors, which assign the K2 key value that each processor should work on, and provide that processor with all of the map-generated data associated with that key value, such that all data belonging to one key are located on the same worker node.', 'The Reduce() step: Worker nodes process each group of output data (per key) in parallel, executing the user-provided Reduce() code; each function is run exactly once for each K2 key value produced by the map step.', 'Produce the final output: The MapReduce system collects all of the reduce outputs and sorts them by K2 to produce the final outcome.', '2 shows the classical "word count problem" using the MapReduce paradigm.', '2 shown, initially a process will split the data into a subset of chunks that will later be processed by the mappers.', 'Once the key/values are generated by mappers, a shuffling process is used to mix (combine) these key values (combining the same keys in the same worker node).', '(01, "I thought I") (02, "thought of thinking") (03, "of thanking you") Finally, and before the application of this paradigm, it is essential to understand if the algorithms can be translated to mappers and reducers or if the problem can be analysed using traditional strategies.', 'MapReduce provides an excellent technique to work with large sets of data when the algorithm can work on small pieces of that dataset in parallel, but if the algorithm cannot be mapped into this methodology, it may be "trying to use a sledgehammer to crack a nut".', 'Apache Hadoop\n\nAny MapReduce system (or framework) is based on a MapReduce engine that allows for implementing the algorithms and distributing the parallel processes.', 'Apache Hadoop [19] is an open-source software framework written in Java for the distributed storage and distributed processing of very large datasets using the MapReduce paradigm.', 'The core of Apache Hadoop comprises a storage area, the Hadoop Distributed File System (HDFS), and a processing area (MapReduce).The HDFS (see Section 2.4.1) spreads multiple copies of the data across different machines.', 'This not only offers reliability without the need for RAID-controlled disks but also allows for multiple locations to run the mapping.', 'A job scheduler (in Hadoop, the JobTracker) keeps track of which MapReduce jobs are executing; schedules individual maps; reduces intermediate merging operations to specific machines; monitors the successes and failures of these individual tasks; and works to complete the entire batch job.', 'The HDFS and the job scheduler can be accessed by the processes and programs that need to read and write data and to submit and monitor the MapReduce jobs.', 'For maximum parallelism, you need the maps and reduces to be stateless, to not depend on any data generated in the same MapReduce job.', 'You cannot control the order in which the maps run or the reductions.', 'A database with an index will always be faster than running a MapReduce job over un-indexed data.', 'However, if that index needs to be regenerated whenever data are added, and data are being added continually, MapReduce jobs may have an edge.', 'In the Hadoop implementation, reduce operations do not take place until all of the maps have been completed (or have failed and been skipped).', 'As a result, you do not receive any data back until the entire mapping has finished.', 'There is a general assumption that the output of the reduce is smaller than the input to the map.', 'Therefore, this framework supports these applications while retaining the scalability and fault tolerance of MapReduce.', 'In contrast to Hadoops two-stage disk-based MapReduce paradigm (mappers/reducers), Sparks in-memory primitives provide performance up to 100 times faster for certain applications by allowing user programs to load data into a clusters memory and to query it repeatedly.', 'Other MapReduce implementations and software\n\nA list related to big data implementations and MapReduce-based applications was generated by Mostosi [30] .', 'This selection attempts to reflect some of the recent popular frameworks and software implementations that are commonly used to develop efficient MapReduce-based systems and applications.', 'Stratosphere does not use Hadoops MapReduce implementation; it is a completely new system that brings its own runtime.', 'The new runtime allows for defining more advanced operations that include more transformations than only map and reduce.', 'The most extended and popular distributed file system for MapReduce frameworks and applications is the Hadoop Distributed File System.', 'Cassandra uses a system inspired by Amazons Dynamo for storing data, and MapReduce can retrieve data from Cassandra.', 'The first versions of Mahout implemented the algorithms built on the Hadoop framework, but recent versions include many new implementations built on the Mahout-Samsara environment, which runs on Spark and H2O.', 'There is an important number of R-based applications for MapReduce and other big data applications.', 'To solve this problem, focusing on a large-scale graph analysis, a second generation of frameworks based on the MapReduce paradigm has appeared, including Hama, Giraph (based on Pregel), and GraphLab among others [42] .Pregel [37] is a graph-parallel system based on the Bulk Synchronous Parallel model (BSP) [43] .', 'The main difference between the two frameworks is the matrix computation using the MapReduce paradigm.', 'Therefore, the same data could be analysed using MapReduce or Spark.In contrast, GraphLab is based on a different concept.', 'Whereas Pregel is a one-vertex-centric model, this framework uses vertexto-node mapping in which each vertex can access the state of adjacent vertices.', 'A cluster in a graph can be easily mapped into a community.', 'That is, crime will be concentrated in environments with features that facilitate criminal activities [97] .', 'The experimental results obtained in this work show that it is possible to discover geospatial co-distribution relationships among crime incidents and socio-economic, socio-demographic and spatial features.Another analytical technique that is now in high use by law enforcement agencies to visually identify where crime tends to be highest is the hotspot mapping.', 'A number of mapping techniques can be used to identify crime hotspots, such as: point mapping, thematic mapping of geographic areas, spatial ellipses, grid thematic mapping, and kernel density estimation (KDE), among others.', 'Moreover, the authors offered a benchmark to compare with the results of other techniques and other crime types, including comparisons between advanced spatial analysis techniques and prediction mapping methods.', 'The system these authors proposed uses a self-organization map to filter and analyse customer behaviour to detect fraud.', '[101] Comparative assessment of mapping techniques to predict where crimes may happen Spatial analysis, mapping methods Gerber [102] Identify discussion topics across a city in the United States to predict crimes Linguistic analysis, statistical topic modelling Kirkos et al.', 'The extracted text is classified based on its topical relevance and plotted onto a Google map using geo-information.', 'Then, for the relevant document corpora, entities of interest from 18 concept types based on the ontology related to diseases, viruses, bacteria, locations, and symptoms are searched.HealthMap project [117] is a global disease alert map that uses data from different sources such as Google News, expert-curated discussions such as ProMED-mail, and official organization reports such as those from the WHO or Euro Surveillance, an automated real-time system that monitors, organises, integrates, filters, visualises, and disseminates online information about emerging diseases.Another system that collects news from the Web related to human and animal health and that plots the data on Google Maps is EpiSpider [118] .', '[113] Detect public health events Modelling trajectory distributions GPHIN [115] Identify information about disease outbreaks and other events related to public healthcareClassification documents for relevance BioCaster [116] Monitoring online media data related to diseases, viruses, bacteria, locations and symptomsTopic classification, named entity recognition, event recognition HealthMap [117] Global disease alert map Mapping techniques EpiSpider [118] Human and animal disease alert map Topic and location detection [126] Collecting user experiences into a continually growing and adapting multimedia diary.Classification of patterns in sensor readings from a camera, microphone, and accelerometers Many Eyes [127] Creating visualisations in collaborative environment from upload data sets Visualisation layout algorithms TweetPulse [128] Building social pulse by aggregating identical user experiences Visualising temporal dynamics of the thematic events public healthcare organizations, a number of universities, and health research organizations.', '[119] conducted a comparative assessment of these three systems (BioCaster, EpiSpider, and HealthMap) related to their ability to gather and analyse information that is relevant to public health.', 'In this context, life caching has been presented as a collaborative social action of storing and sharing users life events in an open environment.', 'The inSense system uses the patterns in sensor readings from a camera, a microphone, and accelerometers to classify the users activities and automatically collect multimedia clips when the user is in an interesting situation.Moreover, visualisation systems such as Many Eyes [127] have been designed to upload datasets and create visualisations in collaborative environments, allowing users to upload data, create visualisation of that data, and leave comments on both the visualisation and the data, providing a medium to foment discussion among users.', 'The aim of this study has been to provide a holistic view and insights for potentially helping to find the most relevant solutions that are currently available for managing knowledge in social media.As such, we have investigated the state-of-the-art technologies and applications for processing the big data from social media.', 'Some new developments related to traditional clustering algorithms, such as the K-mean [137] , EM [138] , which has been modified to work with the MapReduce paradigm, and more sophisticated approaches based on graph computing (such as spectral clustering), are currently being developed [139] [140] [141] into more efficient versions from the state-of-theart algorithms [142, 143] .']</t>
-  </si>
-  <si>
     <t>['Dehydrated mammals in hot environments can save water by reducing the rate of panting and sweating and regulating body temperature above hydrated levels.', 'The onset of sweating in steers after exposure to high environmental temperatures has been shown to be delayed by dehydration.Dehydration may cause death, especially in acute intestinal obstruction, vomiting, and diarrhea, but it is chiefly a contributory cause of death when combined with other systemic states, such as acidosis, electrolyte imbalances, toxemia, and septicemia.The traditional Henderson-Hasselbalch approach indicates that metabolic acidosis is characterized by a low arterial blood pH and a low plasma bicarbonate concentration, following the loss of bicarbonate or the addition of hydrogen ions.', 'Weight losses of 10 to 15 kg/h may occur in horses exercising in high environmental temperatures exceeding 32°C (89°F), and a horse weighing 450 kg can lose 45 L of fluid in a 3-hour ride.Dehydration exerts important effects on tissue metabolism.', 'The presence or absence of mucous membrane moistness may provide a sensitive indication of dehydration in dairy calves, but it was not useful as a predictor of hydration status in Brahmancross calves housed in a hot environment.', 'Calves that are not fed supplementary salt or that have lost salt as a result of severe exercise or high environmental temperatures may be at higher risk, but the syndrome also occurs where salt has not been restricted.', 'This is clinically managed by infusing 1 L of a mixture of 7.2, 5.0, and 0.9% NaCl solutions replacer) and slowly reducing the serum sodium concentration, with a reduction of serum [Na] of 0.5 to 1.0 mEq/L/h being a goal (10 mEq/L decrease per day representing an ideal goal).', '1 To estimate the effect of 1 L of the NaCl infusate on serum sodium concentration ([Na]), the following formula is applied: \n\nHYPERNATREMIA\n\nHypernatremia is most commonly caused by water restriction or mixing errors in neonatal animals, particularly in milk-replacer solutions or oral electrolyte formulations administered to neonatal calves with diarrhea as part of the treatment of dehydration.', 'The prolonged use of potassium-free solutions in fluid therapy for diarrheic animals may result in excessive renal excretion of potassium and hypokalemia.', 'Specially formulated solutions containing potassium are necessary in cases of severe hypokalemia and small-intestinal obstruction.Potassium should be administered intravenously or orally.', 'The most aggressive intravenous treatment protocol is an isotonic solution of KCl (1.15% KCl), which should be administered at less than 3.2 mL/kg/h, equivalent to a maximal delivery rate of 0.5 mEq of K + /kg BW per hour.', "A less aggressive intravenous treatment is an isotonic equimolar mixture of NaCl (0.45% NaCl) and KCl (0.58% KCl), and the least aggressive intravenous treatment is the addition of 10 mmol of KCl/L of Ringer's solution, which will increase the solution osmolarity to 329 mOsm/L.", 'Calcium can be administered intravenously at 0.2 to 0.4 mL of a 23% calcium gluconate solution/kg BW.', 'Oral calcium solutions should only be administered to cattle that have normal swallowing ability, precluding their administration to animals with advanced clinical signs of hypocalcemia.', 'Higher plasma calcium concentrations are obtained more quickly when calcium solutions are drenched after administration of vasopressin to induce esophageal groove closure, or when the calcium solution is administered as a drench instead of ororuminal intubation.', 'Calcium solutions are suspected to have a higher likelihood of aspiration pneumonia than calcium gels (with a consistency similar to toothpaste), although this supposition does not appear to have been verified.', 'As such, it is currently recommended that ruminants with marked hypophosphatemia and signs of illness should be treated with phosphorus-containing solutions.Almost all commercially available intravenous solutions for treating hypophosphatemia use phosphite (PO 2 2− ) or hypophosphite (PO 3 3− ) salts as the source of phosphorus because these salts are very soluble, even in the presence of calcium and and hyperphosphatemia, induced diuresis, and in creased excretion of calcium, magnesium, potassium, sodium, phosphate, and chloride.', '11 Subcutaneous administration of calcium solutions has been practiced for many years as part of the treatment of hypocalcemic cattle.', 'Calcium chloride is not recommended for subcutaneous administration because of extensive tissue damage; the addition of dextrose to the administered calcium is also not recommended because it increases the tonicity of the solution and propensity for bacterial infection and development of abscesses.', 'Rectal calcium administration is not recommended because it causes severe mucosal injury and tenesmus and does not increase plasma concentrations of calcium.Oral administration of calcium has also been practiced for many years, usually by ororuminal intubation of calcium borogluconate solutions designed for parenteral administration.', 'Plasma ionized calcium concentrations are increased to a greater extent following CaCl 2 treatment when high equimolar solutions of CaCl 2 and calcium gluconate are administered, leading to more cardiac arrhythmias during CaCl 2 administration.', 'A field study comparing the effectiveness of different doses of calcium for treating periparturient milk fever determined that 9 g of calcium was superior to 6 g. A good rule of thumb for administering 23% calcium borogluconate solutions (2.14 g calcium/100 mL) to cows with periparturient hypocalcemia is therefore to administer 1 mL/kg BW.', 'There do not appear to be any clinically important advantages to slow administration of the solution over 6 hours, compared with over 15 min.The normal cardiac response to intravenous calcium administration is an increase in the strength of cardiac contraction and a slowing of the heart rate.', 'Intravenous administration is continued until the first arrhythmia is detected (a bradyarrhythmia such as a prolonged pause); the rate of intravenous administration is then slowed until a second arrhythmia is detected, at which time intravenous administration is discontinued and the remainder of the solution is placed subcutaneously over the lateral thorax.', 'However, enema solutions can be prematurely evacuated, eliminating the chance for therapeutic success, and some degree of colonic mucosal injury is expected because of the high osmolarity of 30% solutions (approximately 2400 mOsm/L).', 'The safety of this treatment protocol does not appear to have been evaluated, although a 50-mL enema of a 30% MgCl 2 .6H 2 O solution rapidly and effectively increased serum magnesium concentration in 7-to 10-week-old calves and relieved clinical signs of hypomagnesemia.Oral administration of magnesium hydroxide and magnesium oxide excessively alkalinizes the rumen and can create a severe metabolic alkalosis (strong ion alkalosis), as absorption of magnesium leads to hypermagnesemia and increased plasma strong ion difference (SID).', 'However, because the magnesium concentrations must be normalized in cerebrospinal fluid (CSF), which turns over at approximately 1% per minute.Treatment of hypomagnesemia has historically used 25% Epsom salts solution (magnesium sulfate heptahydrate; MgSO 4 .', '6H 2 O); this solution concentration was selected because it provided approximately 1 mmol of magnesium per liter.', 'It should be noted that 25% Epsom salts solution is markedly hypertonic (2028 mOsm/L).', 'A typical treatment for an adult cow has been slow intravenous administration (over at least 5 min) of 100 mL of the 25% Epsom salts solution, which provides 2.5 g of magnesium (25 mg of magnesium per mL of solution).', 'More recently, hypomagnesemia has been treated using commercially available combined calcium and magnesium solutions; 500 mL of these solutions typically contain 1.6 to 2.7 g of magnesium in the form of a borogluconate, chloride, or hypophosphite salt.', 'Combined calcium and magnesium solutions are preferred for intravenous administration to 25% Epsom salts solution because ruminants with hypomagnesemia frequently have hypocalcemia, and hypercalcemia provides some protection against the toxic effects of hypermagnesemia.', 'Moreover, administration of solutions containing magnesium as the only cation increases the risk of developing cardiac and respiratory failure during treatment.', 'Magnesium-containing solutions (such as 25% Epsom salts solution) can also be administered subcutaneously, although this frequently leads to necrosis of the skin, particularly when 50% Epsom salts solution is administered.', 'Only combined calcium and magnesium solutions should therefore be administered subcutaneously.The oral bioavailability of magnesium is low and much lower than that of calcium.', 'However, the phosphorus in phosphite and hypophosphite is unavailable to mammals, meaning that the vast majority of "phosphate"-containing solutions are not efficacious in treating hypophosphatemia.', 'The pH of the solution should be mildly acidic (pH 5.8) to maintain phosphate solubility in cold weather, but this is not needed when solutions are stored in warm ambient temperatures.', 'A recommended treatment to an adult lactating dairy cow with severe hypophosphatemia is 300 mL of 10% NaH 2 PO 4 (monohydrate) solution by slow intravenous injection; this provides 7 g of phosphate (2.3 g of inorganic phosphate), and increases plasma phosphate concentrations for at least 6 hours.', 'Human enema formulations that contain a mixture of monobasic sodium phosphate monohydrate and dibasic sodium phosphate heptahydrate in a buffered solution have also been administered intravenously to cattle with hypophosphatemia but are not recommended.', 'This human enema solution is extremely hypertonic and must be diluted before administration.', 'A major drawback with intravenous administration of phosphate solutions is that they should not be administered within 2 hours of intravenous calcium administration because of concerns that calcium-phosphate precipitates may be formed in the plasma of cattle with treatmentinduced hypercalcemia and hyperphosphatemia.', '1, 2, 3, 4 This strong ion approach differs in three important areas from the traditional bicarbonate-centered application of the Henderson-Hasselbalch equation: (1) acid-base balance is examined using a systems approach, (2) a clear conceptual distinction is made between dependent variables (such as pH and [HCO 3 − ]) and the independent variables, and (3) the effects of protein concentration on acid-base balance are considered.The strong ion approach reduces the chemical reactions in plasma to that of simple ions in solution.', 'The administration of excessive quantities of acidifying solutions for the treatment of metabolic alkalosis also may cause acidosis.', 'The intravenous administration of 2.5 to 4.5 L of isotonic (1.3%) sodium bicarbonate solution, the amount depending on the severity of the condition, is necessary to return the neonatal calf to health.', 'Parasitic gastroenteritis requires administration of the appropriate anthelmintic, obstructive edema requires removal of the physical cause, and increased permeability edema requires resolution of the cause of endothelial damage.', 'Serum Electrolytes\n\nSerum electrolyte concentrations indicate the severity of the electrolyte losses and the necessity for replacement with either balanced electrolyte solution or specific electrolyte solution.', 'Anion gap (mEq/L) 30 40 0 expansion of the extracellular fluid volume in adult horses administered furosemide and intravenous large-volume crystalloid solutions.', '[1] [2] [3] These findings suggest that rapid resuscitation should focus on the use of low-volume hypertonic saline, and that traditional high-volume crystalloid solution resuscitation should not use bolus administration.', 'Instead, traditional highvolume crystalloid fluid resuscitation should focus on slower rates of administration (&lt;20 ml/kg/h).There are at least five possible free water, electrolyte, acid-base, and oncotic pressure abnormalities that could exist at the same time and must be corrected: • Fluid volume deficit (free water) • Plasma osmolar deficits • Specific electrolyte imbalances • Acid-base imbalance • Oncotic pressure imbalances The two major problems are to determine the nature and degree of the abnormalities present and to decide which fluid and electrolyte replacement solution should be used.The ideal situation would be to make both a clinical and laboratory evaluation of the animal as described earlier.', 'Isotonic, Hypertonic, and Hypotonic Crystalloid Solutions\n\nThe tonicity of the solution is an important clinical issue.', 'Complete understanding of the tonicity concept requires differentiation of two terms, osmolality and osmolarity.Osmolality is the number of dissolved particles per kilogram of solution and is expressed as mOsm/kg of solution.', "The correct term in plasma and extracellular fluid is osmolality, because this factor is measured in the laboratory; however, frequently the term osmolarity is used because 1 L of lactated Ringer's solution closely approximates 1 kg of lactated Ringer's solution and because osmolarity can be easily calculated from the concentration of electrolytes in the fluid solution.", 'Osmolarity is the number of particles per liter of solution and is expressed as mOsm/L of solution.1) and 1 mEq of Cl − (1 × 1), assuming that NaCl acts as a strong electrolyte in water (i.e., it completely dissociates into Na + and Cl − in water).', 'In comparison, 1 mmol of CaCl 2 in solution provides 4 mEq: 2 mEq of Ca 2+ (1 × 2) and 2 mEq of Cl − (2 × 1), and 1 mmol of dextrose provides 0 mEq, because dextrose does not dissociate into charged components in water.', 'Electrolyte solutions with an effective SID greater than 40 mEq/L are therefore alkalinizing because they create a strong ion alkalosis.', 'Electrolyte solutions with an effective SID = 0 are acidifying because they create a strong ion acidosis.', 'Electrolyte solutions of intermediate SID may be alkalinizing or acidifying, depending and osmolarity (hypotonic, isotonic, or hypertonic).', 'Isotonic or slightly hypotonic crystalloid solutions are most commonly administered parenterally, although under specific circumstances hypertonic crystalloid solutions or isotonic colloid solutions are preferred.', 'Crystalloid Solutions\n\nA crystalloid is a substance that forms a true solution and is capable of being crystallized.', "Examples of crystalloid solutions are Ringer's solution, lactated Ringer's solution, acetated Ringer's solution, 0.9% NaCl, 7.2% NaCl (hypertonic saline), 1.3% NaHCO 3 , 8% NaHCO 3 , calcium gluconate, and 50% dextrose.", 'Sodium chloride is the classic example of a crystalloid solution, as table salt (NaCl) exists as a crystal but dissolves completely when placed in water.', 'Because crystalloids dissolve completely in water, crystalloid solutions containing sodium distribute throughout the entire extracellular fluid space; therefore they are not confined to the intravascular space.', 'Sodium-containing crystalloid solutions are always indicated in hypovolemia (circuit problem) but are contraindicated in congestive heart failure (pump problem) because they provide an additional sodium load, and animals with heart failure have already retained too much sodium.', 'Sodium-containing crystalloid solutions are also contraindicated in the presence of severe hypoalbuminemia because sodiumcontaining crystalloids will further decrease plasma albumin concentration and oncotic pressure, resulting in the movement of fluid into the interstitial spaces and exacerbating tissue edema.Crystalloid solutions are characterized in terms of the number of molecules (numerator) per volume of solution (denominator).', 'Because body fluids are dilute, moles are expressed as millimoles (mmol = mol/1000) to facilitate readability.Crystalloid solutions are commonly expressed in terms of the number of charged components (numerator) per volume of solution (denominator).', 'For instance, 1 mmol of NaCl in solution provides 2 mEq: 1 mEq of Na + (1 × decreases plasma pH by approximately 0.016.', "Ringer's solution is the standard intravenous fluid for adult ruminants because these ruminants tend to get alkalemic when inappetent.", 'Isotonic saline (0.9% NaCl solution) is an isotonic crystalloid solution that has little merit in the routine treatment of sick ruminants, principally because ruminants usually develop hypocalcemia and hypokalemia when inappetent.', "Like Ringer's solution, 0.9% NaCl is mildly acidifying because effective SID = 0 mEq/L.", 'Isotonic sodium bicarbonate (1.3% NaHCO 3 solution) is an alkalinizing isotonic crystalloid solution that is used to treat severe acidemia (indicated whenever blood pH &lt;7.20 as a result of metabolic acidosis).', 'This solution is alkalinizing because it buffers hydrogen ion, HCO 3 − + H + ↔ CO 2 + H 2 O, and increases SID (effective SID = 155 mEq/L).', '6 Tromethamine (THAM, Tris-hydroxymethyl aminomethane, 300 mmol/L) is an isotonic solution of an organic amine that is a safe and effective buffer.', 'The inclusion of l-lactate at 56 or 84 mEq/L to an isotonic sodium solution provided a similar alkalinizing effect in healthy calves to the inclusion of bicarbonate at 56 or 84 mEq/L.', "4 Acetated Ringer's solution is a balanced, polyionic, alkalinizing, and hypotonic (294 mOsm/L) crystalloid solution.", "Commercially available formulations of acetated Ringer's solution contain physiologic concentrations of Na + , K + , Mg 2+ , Cl − , acetate (CH 3 COO − ), and gluconate (CH 2 (OH) {CH(OH)} 4 COO − ); the gluconate is problematic because calves (and presumably all large animals) slowly metabolize gluconate.", "5 Acetated Ringer's solution alkalinizes because acetate is metabolized to the bicarbonate ion:The strong ion approach to acid-base balance states that acetated Ringer's solution is alkalinizing because it contains a metabolizable strong anion (acetate) that, when metabolized, increases the SID.", "Two acetated Ringer's solution formulations are commercially available in North America, Plasma-Lyte A and Normosol-R.", 'The difference in solution pH is unlikely to be of clinical significance.', "The main advantage of acetated Ringer's solution is that the sodium concentration (140 mEq/L) is approximately the same as that of livestock animals, whereas the sodium concentration in lactated Ringer's (130 mEq/L) is appreciably lower.", "Isotonic Crystalloid Solutions\n\nRinger's solution is a balanced polyionic nonalkalinizing isotonic crystalloid solution that contains physiologic concentrations of Na + , K + , Ca 2+ , and Cl − .", 'This solution is mildly acidifying because its effective SID = 0 mEq/L.', "Ringer's solution, 0.9% NaCl, and 1.3% NaHCO 3 are therefore considered isotonic solutions because they distribute in plasma water and have calculated osmolarities of 309, 308, and 310 mOsm/L, respectively.The normal plasma osmolarity for solutions to be administered to large animals is approximately 306 mOsm/L; solutions can therefore be defined as isotonic (300-312 mOsm/L), hypertonic (&gt;312 mOsm/L), or hypotonic (&lt;300 mOsm/L).", "Using this categorization, it is readily apparent that some routinely used crystalloid solutions are hypotonic; in particular, lactated Ringer's solution (275 mOsm/L) is mildly hypotonic and 5% dextrose (250 mOsm/L) is moderately hypotonic, although, as glucose is metabolized, 5% dextrose becomes an increasingly hypotonic solution.", 'Erythrocytes are resistant to increases in plasma osmolarity, whereas they are susceptible to mild decreases in osmolarity; this is the basis of the red blood cell fragility test in which red blood cell suspensions are placed in solutions of decreasing osmolarity.', "Hypotonic Crystalloid Solutions\n\nLactated Ringer's solution is a balanced, polyionic, alkalinizing, and hypotonic (275 mOsm/L) crystalloid solution containing physiologic concentrations of Na + , K + , Ca 2+ , Cl − , and l-and d-lactate (CH 3 CH(OH) COO − ).", "Lactated Ringer's solution alkalinizes because lactate is predominantly metabolized to the bicarbonate ion:The lactate in lactated Ringer's is a racemic, approximately equimolar mixture of l-and d-lactate.", "dllactate solutions, such as lactated Ringer's, therefore have approximately half the alkalinizing ability of l-lactate solutions.", "The effective SID of lactated Ringer's solution is therefore less than the calculated value of 28 mEq/L.", "Lactated Ringer's solution is the standard intravenous fluid for neonates and adult horses, because these animals tend to become acidemic when inappetent.", "However, lactated Ringer's solution is theoretically inferior to acetated Ringer's solution, because critically ill animals may have increased blood l-lactate concentrations and it is Generally, the decrease in pH following hypertonic saline administration is less than 0.08 pH units and rapidly dissipates with time.", 'The effect of hypertonic saline on acid-base balance is therefore clinically inconsequential.The use of small volumes (4-5 mL/kg BW) of hypertonic saline solution, ranging in concentration from 7.0% to 7.5%, has been extensively evaluated for the treatment of various forms of hemorrhagic, septic, and endotoxic shock.', '[7] [8] [9] When used in this manner, resuscitation is optimized if calves receive 3 L of an isotonic oral electrolyte solution by esophageal intubation immediately before hypertonic saline is administered intravenously into the jugular vein through an 18-gauge needle at 4 to 5 mL/kg over 4 to 5 minutes.', 'Combined intravenous hypertonic saline and oral electrolyte solution provides the fastest rate of resuscitation of dehydrated calves, as characterized by cardiac output and mean central venous pressure.', "It is important to note that the rate of resuscitation with hypertonic saline is even faster than that provided by administration of an equivalent sodium load of lactated Ringer's solution at 80 mL/kg over the first hour.", "Moreover, more of the administered sodium in hypertonic saline is retained by the calf, resulting in more sustained resuscitation, whereas urinary sodium and free water loss is increased in calves administered lactated Ringer's solution or 0.9% NaCl solution.", 'If 1 g of dextrose given intravenously will provide 5 kcal (2.1 kJ) of energy, the approximate amounts of dextrose solution needed to meet the energy needs for maintenance in cattle are shown in Table 5-4.', 'Faster rates of administration lead to hemodynamic collapse caused by vasodilation and decreased cardiac contractility, whereas slower rates of administration provide no advantages over isotonic crystalloid solutions.', "Accordingly, there does not appear to be a compelling reason to prefer Carbicarb to isotonic sodium bicarbonate when rapid alkalinization of conscious animals is required.Darrow's solution is an isotonic polyionic solution formulated by Darrow in 1946 for use in human infants; the solution has been administered to calves.", "Compared with other isoosmotic polyionic solutions, Darrow's solution is hyponatremic, hyperkalemic, and hyperlactatemic and does not contain calcium or magnesium.", "As such, Darrow's solution is not recommended for administration to large animals.McSherry's balanced electrolyte solution is an isotonic polyionic solution formulated by McSherry and Grinyer in 1954 for intravenous and intraperitoneal administration to dehydrated diarrheic calves.", 'Hypertonic Crystalloid Solutions\n\nFifty percent dextrose is 2500 mOsm/L (approximately eight times normal osmolarity).', 'Fifty percent dextrose solutions are dehydrated calves with naturally acquired diarrhea has been conducted comparing intravenous hypertonic sodium bicarbonate (8.4%, 10 mL/kg over 8 minutes) and hypertonic saline (5.9%, 5 mL/kg over 4 minutes); calves receiving either treatment also received 3 L of an oral electrolyte solution 5 minutes after injection.', 'As expected, the hypertonic sodium bicarbonate solution was more effective in correcting profound acidemia and metabolic acidosis than hypertonic saline.', '19 There are recent studies evaluating the effect of hypertonic solutions of sodium lactate (11.2% at 5 mL/kg/h administered over 270 minutes); lactate provides an energy substrate that can be used by most cells in the body, while being alkalinizing after metabolism to bicarbonate.', 'In a pig endotoxemia model, infusion of hypertonic sodium lactate increased mean arterial blood pressure and cardiac output and improved oxygenation, relative to hypertonic sodium bicarbonate or 0.9% NaCl solution.', 'This solution is also used for rapid alkalinization in the presence of severe acidemia (pH &lt;7.20).', 'Following this initial treatment, hypokalemia characterized by muscular weakness commonly occurs, which can be treated using a high-sodium, high-potassium, alkalinizing solution.Calcium gluconate 23% or calcium borogluconate are 1069 mOsm/L (approximately three and a half times normal osmolarity).', 'd-gluconate is an aldose sugar produced by oxidation of d-glucose, and is the preferred salt for calciumcontaining parenteral solutions because it does not cause tissue necrosis as severe as does CaCl 2 .', 'Calcium gluconate should not be added to sodium bicarbonate solutions because a white precipitate (CaCO 3 ) forms immediately that interferes with normal fluid administration.', 'Likewise, calcium gluconate should not be administered with tetracycline antibiotics because a yellow precipitate forms.Hypertonic saline solutions have been extensively studied in horses and are widely used for the initial resuscitation of critically ill horses that are undergoing abdominal surgery for colic.', "In horses with experimentally induced acute endotoxemia, horses resuscitated with intravenous hypertonic saline (5 mL/kg) and hydroxyethyl starch (10 mL/ kg) had a higher cardiac output, lower mean pulmonary artery pressure and mean central venous pressure, higher ionized plasma calcium concentration, and improved respiratory gas exchange and arterial oxygenation than horses resuscitated with high-volume isotonic acetated Ringer's solution.", '14, 15 These results were consistent with increased interstitial water in the lung and volume overload as a result of conventional rapid high-volume isotonic solution administration.', '11 Hypertonic saline (7.2%) at 4 mL/kg provided a superior resuscitative solution than equivolume isotonic saline (0.9%) in horses eliminated from an endurance event because of dehydration.', '16 Hypertonic solutions of sodium bicarbonate are highly effective for the initial treatment of acidosis associated with d-lactic acidosis in calves, acute diarrhea in calves, and strong ion (metabolic) acidosis in newborn calves.', 'This solution is used for rapid alkalinization, particularly in the presence of severe acidemia (pH &lt;7.20).', 'The solution osmolarity was selected because it provides 1 mEq of HCO 3 − /mL of solution, which facilitates calculation of the volume to be administered.', '9, 10 Hypertonic saline solution is widely used for the treatment of dairy cattle with endotoxic shock and endotoxemia associated with coliform mastitis.', '12 Hypertonic saline (7.5% NaCl, 5 mL/kg intravenously over 15 minutes) has been administered to cattle with experimentally induced acute ruminal acidosis, and the resuscitative effects compared with isotonic saline solution (0.9% NaCl).', 'This is because rumen osmolality is markedly increased in acute ruminal acidosis, which minimizes the osmotic gradient that is generated following rapid intravenous small-volume hypertonic saline administration and the volume of free water translocated from the forestomach.will minimize its administration to large animals.Plasma (fresh or frozen) is an excellent balanced colloid/crystalloid solution.', 'Human albumin solutions (5% or 25% human albumin in 0.9% NaCl) are available, but are very expensive relative to the use of other colloids such as plasma, blood, or Dextran 70.', 'Consequently, there does not appear to be a persuasive reason for the administration of human albumin solutions to large animals.Dextran preparations (such as Dextran 70 and Dextran 40) are high molecular weight glucose polymers obtained by bacterial fermentation of sucrose; the fermentation metabolites then undergo acid hydrolysis and fractionation.', 'Therefore Dextran 70 acts clinically as a plasma volume expander; this is in contrast to isotonic crystalloid solutions, which act as extracellular fluid volume expanders.', 'It is supplied as a 6% concentration in 0.9% NaCl, which provides a hyperoncotic but isotonic solution.', 'Reported administration rates of Dextran 70 are 5 to\n\nColloid Solutions\n\nA colloid is a substance that is too large to pass through a semipermeable membrane.', 'Examples of colloid solutions administered to ruminants are whole blood, stroma-free Hb, plasma, dextrans, hydroxyethyl starches, and gelatins.', 'As a group, colloid solutions are excellent for sustained expansion of plasma volume, which is in marked contrast to the effect of crystalloid solutions.', 'Colloid solutions are contraindicated in congestive heart failure because these animals have increased plasma volume.', 'Colloid solutions are also contraindicated in the presence of oliguric or anuric renal failure because the sustained volume overload may lead to pulmonary edema.', 'Although initial studies using colloid solutions appeared promising, influential studies promoting the use of commercially available solutions have been recently retracted from major journals, 21 and the majority of smaller reviews evaluating the safety and efficacy of colloid solutions were written by investigators that had or have since established ties to the manufacturers of colloid solutions.', 'The net result of these recent developments is decreased enthusiasm for the administration of commercially formulated colloid solutions.Whole blood is the perfect balanced colloid/crystalloid solution, with great O 2carrying capacity.', 'Descriptions for collecting, storing, and administering blood are available in Chapter 4.Stroma-free Hb is a blood substitute containing a purified Hb glutamer-200 solution (13 g Hb/dL) derived from cattle blood.', 'A commercially available solution has a 2-year shelf-life at 20°C, an osmolarity of 300 mOsm/L, and an oncotic pressure of 43 mm Hg; the solution is therefore isotonic but hyperoncotic.', 'Stroma-free Hb solutions are excellent at increasing oxygen delivery and carrying capacity while providing similar plasma volume expansion to dextrans and hydroxyethyl starches.', 'The major theoretical concerns regarding administration of stroma-free Hb solutions are potent vasoconstriction and hemoglobinuric nephrosis.', 'The deleterious effects of dextrans are usually associated with large doses or prolonged administration.The use of hypertonic saline-dextran solution (4 mL/kg, 2400 mOsm/L sodium chloride in 6% Dextran 70 administered intravenously once over 4 minutes) combined with an isotonic oral alkalinizing solution containing sodium chloride (3.22 g/L), potassium chloride (1.12 g/L), sodium acetate trihydrate (4.76 g/L), and glucose anhydrous (16.22 g/L), providing 300 mOsm/kg of water and administered at 55 mL/kg BW, was superior to either solution alone for the treatment of experimentally induced hypovolemic diarrhea in calves.', 'Resuscitation with oral electrolyte solution alone was slower but was complete within 24 hours.', 'Resuscitation with the hypertonic saline-dextran solution alone resulted in only transient benefit.The administration of hypertonic saline-dextran solution (7.2% NaCl solution with 6% dextran at the rate of 4 mL/ kg BW, intravenously during a 4-minute period, combined with oral administration of isotonic electrolyte solution at the rate of 50-60 mL/kg BW) provided a rapid and effective method for resuscitating severely dehydrated calves with experimentally induced diarrhea or with naturally acquired diarrhea.Hydroxyethyl starch is a high molecular weight glucose polymer (mean molecular weight 450,000 g) that is chemically synthesized from amylopectin, producing a highly branched glucose polymer with a structure similar to that of glycogen.', 'Hydroxyethyl starch solutions are categorized by the mean molecular weight and a molar substitution ratio (usually stated after a back slash) that reflects the number of hydroxyethyl substitutions per glu</t>
   </si>
   <si>
-    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'solution', 'environment', 'solution', 'solution', 'solution', 'solution', 'environment', 'environment', 'solution', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'environment', 'environment', 'environment', 'environment', 'solution', 'solution', 'environment', 'map', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'map', 'mapping', 'map', 'solution', 'environment']</t>
-  </si>
-  <si>
-    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'solution', 'environment', 'solution', 'solution', 'environment', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'environment', 'map', 'map', 'map', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'environment', 'solution', 'map', 'map', 'solution', 'environment', 'map', 'solution', 'solution', 'map', 'environment', 'environment', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'environment', 'solution', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'environment', 'map', 'environment', 'map', 'environment', 'environment', 'map', 'map']</t>
-  </si>
-  <si>
-    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'solution', 'map', 'solution', 'solution', 'map', 'mapping', 'map', 'solution', 'solution', 'map', 'mapping', 'solution', 'environment', 'solution', 'map', 'mapping', 'solution', 'map', 'mapping', 'environment', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'environment', 'map', 'map', 'mapping', 'environment', 'map', 'map', 'map', 'environment', 'map', 'map', 'environment', 'map', 'environment', 'solution', 'map', 'map', 'map', 'environment', 'map', 'environment', 'environment', 'map', 'environment', 'map', 'environment', 'environment', 'environment']</t>
-  </si>
-  <si>
-    <t>['map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'mapping']</t>
-  </si>
-  <si>
-    <t>['map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'solution']</t>
-  </si>
-  <si>
-    <t>['map', 'mapping', 'map', 'mapping', 'solution', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'map']</t>
-  </si>
-  <si>
-    <t>['environment', 'environment', 'environment', 'map', 'mapping', 'solution', 'map', 'solution', 'environment', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'solution', 'environment', 'environment', 'map', 'mapping', 'map', 'mapping', 'environment', 'map', 'mapping', 'environment', 'map', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'solution', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'map', 'mapping', 'environment', 'map', 'mapping', 'environment', 'map', 'mapping', 'solution', 'solution', 'solution', 'environment', 'environment', 'environment', 'solution', 'map', 'environment', 'environment', 'map', 'environment', 'environment', 'map', 'mapping', 'environment', 'environment', 'environment', 'environment', 'map', 'mapping', 'map', 'environment', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'environment', 'environment', 'environment', 'map', 'environment', 'solution', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'solution', 'map', 'mapping', 'environment', 'map', 'mapping', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'environment', 'solution', 'solution', 'solution', 'solution', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'environment', 'map', 'map', 'map', 'mapping', 'map', 'solution', 'environment', 'map', 'map', 'environment', 'environment', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'environment', 'environment', 'environment', 'map', 'environment', 'map', 'solution', 'environment', 'solution', 'solution', 'environment', 'map', 'map', 'mapping', 'map', 'solution', 'environment']</t>
-  </si>
-  <si>
-    <t>['map', 'map', 'mapping', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'environment', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping']</t>
-  </si>
-  <si>
-    <t>['solution', 'solution', 'solution', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'environment', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'environment', 'map', 'mapping', 'map', 'environment', 'environment', 'solution', 'map']</t>
+    <t>['This is a belief that the emergence, risk, spread and control of diseases are affected by many complex bio-physical, environmental and socio-economic factors [1] .', "Additionally, One Health research potentially offers great benefits compared to traditional, singledisciplinary research, with participatory research adding people's own cultural logic and potentially alternative, policy-relevant perspectives compatible with local cultural values and livelihood priorities.Research which seeks to integrate different methodological perspectives, has shown that participatory research can add context, depth, legitimacy and accuracy to the modelling approaches of other disciplines, and it can be particularly useful when investigating climate and anthropogenic environmental change as drivers of disease emergence.", 'Participatory methods used in the case study countries included two types of participatory mapping, including landscape mapping and village epidemiological mapping.', 'Landscape mapping focuses on a village territory in its entirety, with people mapping out and marking who goes where and why on a spatial map, including seasonal movements and sightings of animal disease vectors.', 'The above method contrasts with village epidemiological mapping, which maps a village area, showing which families live where, the relationships between people and animal movements, and possible risk areas for disease (e.g.', 'In addition, the map marks households where people have had fevers in order to visualise the patterns of disease, and explore the reasons why people believe that certain individuals have been sick, for example, for spatial, structural or personal reasons, with notes of this discussion taken.', 'Epidemiological maps created at different time points can feed into (or at least help contextualise and explain) process-based epidemiological modelling, as well as link with serological and disease surveys.', "The maps, having a 'social' element, can also become the basis of wealth and poverty ranking exercises or structured surveys.Other participatory methods undertaken included transect walks, livelihood profiles and participatory matrices.", 'This involved walking through a particular landscape with villagers observing different land and ecosystem types, as marked on participatory maps.', "A wide range of research on participatory mapping is available, allowing for understanding and replication of these techniques [8, 18, 19] .Additionally, assessing local people's interests is critical to the continuation of activities beyond the active research period; it maximises the likelihood of making policy decisions that extend beyond the lifetime of projects and of providing incentives and guarantees that all, or a sufficient number of, people will contribute towards the creation of a public good [20, 21] .", 'For example, the theoretical model for Rift Valley fever includes the temporal dynamics of water bodies, which initially was assumed to be driven solely by the environment (seasonal rainfall and evaporation), while anthropogenic activities, although accepted in principle, were not considered of practical relevance.', 'the amount of pathogen excreted, length of the infectious period) social behavior and environmental factors.There has been some suggestion that incidence of Lassa fever in humans is higher during the dry season, although this view is currently challenged and admissions to Kenema Government Hospital (KGH) appear to occur uniformly during the year (Dr. Donald Grant, personal communication) [36, 37] .', 'Moreover, participatory mapping at different times in the farming calendar revealed that some rodent species are confined to the cultivated fields and nearby fallow bushes throughout the cropping season, while others migrate permanently to the settlements after the harvesting of rice in both upland and lowland fields, giving some insight into risks of contact with rodents by different groups.', 'One possible approach is, for example, to adopt a cluster-based inference of the reproduction number by combining the information from participatory research, and/or from Kernéis et al., with age distribution from hospitalised patients at KGH to build a matrix of transmission rates among age groups and between rodents and each age group [45] [46] [47] .It was revealed during focus groups and participatory mapping with different gender and age focus groups that rodent species, confined to the cultivated and fallow fields, are hunted for meat by humans using dogs and nets because they are "sweet and oily".', 'Thus, participatory mapping offers an alternative to social survey and diary keeping and, while all can be valid, the meaning and precision of the representation possible with participatory approaches can be important.', 'The interplay between these two sources of key information underpinning the transmission system (one conditioned by what is possible given assumptions and the other a direct but uncertain realisation) offers tantalising possibilities for confirmation or rejection of model structure as well as confirmation or rejection of the uncertain information gathered from communities.In Zimbabwe, participatory mapping in Chitindiva village, dominated by the Korekore people, and Kabidza areas, that house Karanga migrants from south western Zimbabwe, showed that people encroach into forests infested with tsetse according to their ethnicity.', 'Similarly, in Zambia, participatory mapping revealed that villagers encountered tsetse in the cotton fields while farming, which was not expected to be a dominant response.', 'Moreover, in Zimbabwe, participatory mapping has demonstrated that the wildlife population has changed through time as a result of agricultural intensification and animal poaching that has taken place to satisfy the urban demands for meat following the collapse of commercial agriculture.', 'Participatory mapping and timelines were used to plot movement patterns of domestic animals between wet and dry season grazing grounds.', 'Participatory mapping also enabled the research team to identify areas where livestock come into direct or indirect contact with wildlife hosts.', 'Common questions in stability analysis are whether or not small population perturbations will dampen out, returning the system to its equilibrium configuration, and if and how variation in the parameter values results in qualitative variation of the solution [54] .', 'The precision of the model using local knowledge could be improved when triangulated with the results from rodent trappings and monitoring of the species associated with land-use changes by both the epidemiological, environment and land-use teams in the project.Example IV.', "It can also mean that there is more opportunity for wider dissemination among many different audiences and that the integrated models will therefore be potentially more useful in practice and policy.This is important to note because, at times, attention to local people in zoonotic disease research has come only when researchers' non-participatory perspectives have centred around people, for example, when humans have become vectors themselves of the disease or when human impact on wildlife and the environment is being considered."]</t>
+  </si>
+  <si>
+    <t>['As illustrated in Table 1 , there are total 20 amino acids and 64 codons in the natural world, and each of these codons has a specific meaning in protein synthesis: 64 codons represent amino acids and the other 3 codons cause the termination of protein synthesis.For the 64 codons illustrated in Table 1 , their corresponding triplets of DNA are illustrated in Table 2 .Based on the above 64 triplets of DNA illustrated in Table 2 , we define a new mapping Ψ to map each of these triplets into a different weight.', 'Obviously, the mapping Ψ shall satisfy the following rule: for any two pairs of triplets (X 1 , Y 1 ) and (X 2 , Y 2 ), where X 1 , Y 1 , X 2 , and Y 2 are all triplets, if the corresponding codons of X 1 and Y 1 code the same amino acid but the corresponding codons of X 2 and Y 2 code two different amino acids, then there shall be |Ψ (X 1 ) − Ψ (Y 1 )| &lt; |Ψ (X 2 ) − Ψ (Y 2 )|.', 'We design the detailed mapping rules of Ψ as illustrated in Table 3 .For example, from Table 3 , we will have Ψ (GCT) = 1.1, Ψ (GCC) = 1.2, Ψ (ATG) = 20.1, etc., and in addition, we can propose a novel 2D graphical representation of DNA sequences as follows:Let G = g 1 , g 2 , g 3 …g N be an arbitrary DNA primary sequence, where g i ∈ {A, T, G, C} for any i ∈ {1, 2,…, N}, and then, we can transform G into a sequence of triplets such as G = t 1 , t 2 , t 3 …t M , where M = [N/3] and t i is a triplet of DNA for any i ∈ {1, 2,…, M}.', 'Thereafter, we can define a new mapping Θ to map G into a plot set as illustrated in the formula (1).As for the complete coding sequences of β-globin genes of 11 species illustrated in the Table 4 , each of them can be mapped into a plot set by using the new given mapping Θ, and the 2D graphical representations corresponding to the complete coding sequences of βglobin genes of human, chimpanzee, and opossum are shown in Figures 1, 2 , and 3, respectively.']</t>
+  </si>
+  <si>
+    <t>['The publicly-accessible, online mapping of SARS (Severe Acute Respiratory Syn-drome) in Hong Kong a few years ago using disaggregate case data at individual infected building level in near real time was one of the noticeable exceptions to the wellestablished public health confidentiality rule [9, 10] .', 'Research literature: location privacy concerns and solutions\n\nThe biomedical and public health literature on geographic information systems (GIS) and spatio-temporal analyses features a large number of research papers mentioning or addressing location privacy, e.g., [11] [12] [13] [14] [15] [16] [17] [18] [19] [20] [21] [22] [23] [24] [25] [26] [27] [28] .', "Some research papers identified privacy as a potential or actual issue of concern (e.g., in reproductive health research [18] ; in birth defects surveillance and research [19] ; in research relevant to policy on diet, physical activity, and weight [20] ; in environmental health research [21] ; and in health and social care planning [22] ), while others went one step further by suggesting some comprehensive solutions (e.g., [23] [24] [25] [26] ), workarounds, or frameworks and principles of practice (e.g., [29] ) to mitigate or resolve these privacy concerns.A number of confidentiality-preserving statistical and epidemiological data processing methods (data aggregation and transformations) have been proposed that can be applied to original location data to preserve individuals' privacy while maintaining some acceptable level of data usefulness for geographical analyses.", "The famous John Snow's map of the 1854 Cholera outbreak in London only solved the problem because the unique locations of individual cases were known [15, 30] .", "And that is where software agents can offer a potential solution that preserves the full fidelity of the original data [25] .Moving beyond conventional GIS research and geographical analyses, mobile phones and other electronic gadgets are rapidly gaining location awareness and wireless Web connectivity, thus promising new spatial technology applications and services (e.g., [31] [32] [33] ), which will yield vast amounts of spatial information and online maps that can even reveal users' whereabouts in real time.", "The 'missing ring': data security\n\nData security is relatively under-mentioned in discussions about confidentiality-preserving solutions for location data, despite its key importance in the aforementioned security-confidentiality-privacy triad.", 'The reporting is done in ways that do not identify individual patients when posting publicly-accessible/ online results and maps.', ')A carefully blended, purpose-built combination of overlapping security measures is always the solution, depending on the type, sensitivity, value, and risks/costs assessment of the data to be protected.', 'Personal information and privacy legislations\n\nA discussion on location privacy solutions for health research would be incomplete without reflecting on some of the underlying reasons that necessitate their development.', "GeoPKDD organised the 'First Interdisciplinary Workshop on Mobility, Data Mining and Privacy: Preserv-ing anonymity in geographically referenced data' on 14 February 2008 in Rome, Italy [44] .Another research activity worth mentioning in our context is the proposal by Helen Chen at Agfa HealthCare in Canada and her colleagues at the World Wide Web Consortium-W3C Semantic Web for Health Care and Life Sciences Interest Group (HCLSIG) to explore Semantic Web solutions for patient data security, confidentiality, consent and privacy (in general, i.e., they are not focusing on location privacy, but their proposal is still broadly relevant to our topic).", "Chen's idea is to develop novel privacy-preserving solutions by harnessing the very same Semantic Web technology that can exacerbate these privacy risks [45] .From 5-8 June 2009, the Urban and Regional Information Systems Association (URISA [46] ), a non-profit American association of professionals using GIS and other information technologies to solve challenges in state/provincial and local government agencies and departments, organised its Second GIS in Public Health Conference in Providence, Rhode Island, USA.", 'Among the topics covered by panellists and attendees were methods of spatial data protection, the need to "educate" IRBs, challenges facing data owners and custodians wishing to visualise and disseminate data, how published maps continue to violate confidentiality, some general cartographic guidelines and "fixes", and new methods of spatial data masking.', 'published a paper in International Journal of Health Geographics highlighting the potential for point level data to be reengineered from published maps through a process of digital scanning and georeferencing, even with only limited geographical features [11] .', 'This conceptual approach had previously been impossible to replicate with real data, but by using this case from Hurricane Katrina, the map of mortality locations, and search and rescue markings that actually identified where bodies were found, validation was possible.', 'Concurrent to this article, other reengineering approaches appeared using simulated data and a more systematic approach to identifying homes from a low resolution map [12] .', "Both papers revealed that published maps, even of low resolution and with limited geographical information, could still be reengineered back to an exact address, or so close to the 'real world' location that even without resorting to use other quasi identifiers, the spatial confidentiality of those being mapped was violated.As researchers specialising in geographic information, we need to be proactive in setting guidelines for the display of confidential data, in policing our own actions, and in educating those sitting in positions of data power, especially our IRBs.", 'Critics of the presentation usually focus on the data source-"this is a newspaper map so there is no confidentiality violation".', 'However, there have been at least two maps appearing in journals that have also published the same Katrina mortality point locations.', 'But irrespective of this, the real message is, any point level map can be reengineered back in the same way.', 'Are maps still being published in academic journals that violate spatial confidentiality?', 'Unfortunately it is still too easy to find similar map violations appearing after 2006.', 'One can find examples of maps with point level mortality locations, pregnancies, at-risk pregnancy programme participants, and people suffering from different respiratory ailmentsindeed we challenge the reader to see how many point level health maps they can find.', 'Paradoxically, the attention currently being paid to geocoding accuracy -which is important from a health research perspective, and which has received considerable attention in International Journal of Health Geographics -also has a detrimental side in terms of making published source maps both more accurate and precise.', 'Secondly, smoothing approaches, such as density surfaces, are being used to preserve confidentiality in maps (and stated as such by the authors).', 'The combination of window/kernel/filter size, the underlying grid cell resolution, and especially if there is no option for a minimum denominator, may result in "bulls-eyes" for areas of the map with relatively few residential alternatives, otherwise known as the \'geographic area population size\' [47] .', 'By referring to high resolution aerial photography (now found easily in applications such as Google Earth [35] ), it is relatively easy to identify the cause of the intensity.', 'This is important as researchers seek IRB approval in the use of mobile geospatial devices for collecting health and built environment data.', 'In other words, "if we ask for an address (or a street intersection... or a zip code...) this is the only way we will display it on a map".', ")This 'best practice guide' should be circulated to all journals who publish maps, clearly stating the risks involved in accepting point level maps.", "'Until we have such a universally accepted document, selfpolicing is the main option, and with this in mind, we have a few issues a researcher should ponder before publishing any map.", 'Most importantly, is a point-level (or smoothed, or small aggregation) map necessary?', "As a geographer this last statement certainly hurts, but unless a map is really needed to help frame a paper's content, or improve the understanding of the reader regarding a spatial process, and especially if it is not even specifically referred to in the text, then it is better to err on the side of caution.We fully realise that some point-level maps will still need to be published; it is often easier to explain a spatial process through a graphic, but if this is the case then is the underlying geography needed?", 'If geographical references are necessary in the map, then data masking is essential.There is some good news though, as we have noticed more researchers referencing steps taken to preserve confidentiality during recent presentations.', 'The first involves Google Street View [50] , an excellent research tool that allows us to "see" areas that are described or mapped in publications.', 'This field of research offers great potential in terms of linking health outcomes to the fine-scale built environment.', 'These data are extracted from the video as three-dimensional surfaces that can be mapped or analysed for recovery or abandonment.', 'If we map this information, others could easily disseminate it through online consumer geoinformatics services like Google Earth and Google Map, and even link it using suitable geo-mashups [51] to other readily available online information about the individuals concerned (e.g., on social networking sites), thus revealing a more detailed picture about them.', 'Do our subjects really know all what could be exposed through such mapping?', '(But one should also consider the difference between what is technically possible and what is practically likely to happen, i.e., will there really be someone with the motive, will and ability to do these privacy threatening Web inferencing and mapping exercises in each and every case?', 'Although these situations may not fall foul of any HIPAA standard, nor probably concern an IRB, we are now at a point where changing geospatial technologies must stimulate debate that goes beyond the normal community participatory ethical standards used by researchers [35] .Because of the widespread adoption of GIS-light Internet applications, and cheap and easy-to-use mobile mapping devices (for example, ones which can tag pictures with coordinates), health related spatial confidentiality is now no longer the concern of only geographic information scientists, or even GIS users, but also of a far broader range of academics and other people.', "A 'one-size-fits-all' privacy-preserving solution is unlikely to be successful or to be able to capture and properly address the complex requirements, which might also vary from country to country, of the very many (i) user roles, with different access privileges and 'needs to know' in relation to various input and output data types;(ii) intra and extra-mural data sharing arrangements, especially when data need to be moved across heterogeneous organisations; (iii) governing legislations and policies; (iv) possible forms of data inputs that can be released for research and the associated conditions; (v) health study types and goals, data analysis methods and the data requirements in each case; (vi) possible study outputs/ results reporting and publication forms (closed or public); (vii) situation-specific security risks; and (viii) riskscosts-benefits assessment, among other aspects and requirements that are involved in this area of research and need to be considered on a case-by-case basis.Different privacy-preserving solutions can be applied concurrently or singly on various elements of this complex chain, e.g., on input data prior to release to researchers (e.g., aggregation or transformations) and/or on the research outputs (e.g., access restriction or masking), depending on the specific situation at hand; so a comprehensive, context-aware approach is needed to assist researchers in choosing and applying the right solution(s) in each case.Kamel Boulos (unpublished research notes, 2008 Boulos (unpublished research notes, -2009 proposed the development of a case-based reasoning software framework (cf.", "The goal of such a 'one stop shop' framework would be to streamline the provision of clear and individualised guidance for the design and approval of new research projects, including crisp recommendations on which specific privacy-preserving solution(s) and approach(es) would be suitable in each case.", 'This decision framework should ideally have an easy-to-use, wizard-based visual frontend, guiding users throughout the whole process of describing and diagnosing their needs, and proposing (with appropriate explanations/justifications) suitable solutions to address them.']</t>
+  </si>
+  <si>
+    <t>['Medical anthropologists study health and illness as biosocial states of being in the lifeworlds of different populations, are attentive to links and flows between macro-and microenvironments, and pay close attention to the distribution (and maldistribution) of diseases and resources promoting health.', 'The first is the biocultural examination of health and illness across the life course given changing social, cultural, material, and environmental conditions that affect biological processes.', 'Relevance to Environmental Health\n\nEnvironmental health is a central concern for medical anthropologists, who view this field broadly using several different theoretical lenses.', 'One lens is political ecology, which focuses on political and economic factors and the way they change ecological conditions that affect relationships between humans and other species that cohabit common landscapes, environmental practices and policy, and representations of environments.', "Medical anthropology's approach to environmental health begins with how human beings populate and move within and between environments, considers how their presence affects and is affected by ecosocial conditions within these environments, and considers how these conditions are shaped by local, regional, and global factors that span religion and cosmology, science and technology, economics and politics.", 'This perspective expands the framing of environment beyond that of a discrete physical space in which humans reside, to nested and overlapping environments that synergistically affect each other in the context of rapid globalization.', 'Local environments are modified, manipulated, and affected by regional and global processes such as changing agricultural patterns and practices, industrial development and resource extraction, demographic trends associated with transitions from rural to urban economies, and the movement of goods, humans, and microorganisms.', 'Environment is not simply where people live, but where they are positioned given local ties, individual and community identity, and emergent global ecological flows and social networks.', "They are also invested in involving populations in participatory research through the use of such visual and spatial technologies as participatory mapping and photo-voice.Medical anthropologists also deem it essential to 'study up' and conduct systems level analysis of health care systems, health and development bureaucracies and philanthropies, non governmental organizations (NGOs), private-public partnerships, and environmental legislation that affects health outcomes.", 'They also study the activities and linkages between local and global NGOs devoted to environment and health oversight as well as the ways in which NGO hiring practices impact on government health infrastructure.', 'Global policies related to the control of environmental pollutants ranging from pesticides to tobacco smoke, and the accessibility and regulation of pharmaceutical products, also fall under the purview of medical anthropology.', 'Much of the driving force behind global health is the recognition that emerging diseases such as severe acute respiratory syndrome (SARS) or influenza (both swine and avian) move quickly and require well-coordinated global disease control policies that demand the surveillance of local environments and the interface between animal and human ecosystems.', 'Key Concepts\n\nThere are a number of conceptual frameworks that assist medical anthropologists in their study of environmental health, a term that is defined quite broadly to encompass health/health care-related outcomes best understood in relation to the physical, social, political, economic, and communication environments in which they occur.', 'Then these concepts are expanded to consider how environmental health is linked to issues of risk and risk perception, the accumulation and persistence of meaning and memory in cultural landscapes, and the consequences of disproportionate exposure to risks and hazards.', "Political Ecology: Natural versus Cultural Landscapes\n\nPolitical ecology applies a system's perspective to understanding the ecological ramifications and sequelae of political economic inspired practices and policy on both macro-and microenvironments.", 'It looks upstream at the actors and actions responsible for setting environmental changes in motion, and downstream at those subject to such changes.', 'There are numerous examples of political ecological studies that look at poor health as an outcome of poor environmental policy related to deforestation, the creation of dams and irrigation systems, shifts from food crops to cash crops like tobacco, misuse of chemical fertilizers and pesticides, the explosion of consumer culture that generates vast quantities of waste, increasing fossil fuel consumption that alters climate and weather patterns, natural or manmade disasters that are exacerbated by environmental modification and degradation, and the loss of local and global biodiversity as wilderness areas are lost or degraded.The political ecology framework also expands the definition of environment to include social processes and their impact on local ecologies, whereas at the same time recognizing that these are inherently linked assemblages of natural, cultural, political, and ideological environments that interact as a complex system.', 'Political ecology embraces complex systems thinking and points to the limitations of adopting a narrow definition of the natural environment and treating local and global environments as independent from one another.', 'Recent scholarship on the social construction of nature addresses this arbitrary distinction between nature and culture and considers the way human behavioral patterns are embedded within environmental contexts.', 'Among other things, a biocultural approach to medical anthropology investigates short-and long-term health outcomes that result from changing and differential access to resources (e.g., stunted growth and development due to malnutrition and poor survivorship resulting from limited access to primary health care), differential exposure to environmental stressors (e.g., from exposure to pollution to exposure to the stresses of poverty, overcrowding, fear of hunger, violence, and oppression), and the cultural practices and social institutions that mediate the effect of these stressors.', 'A biocultural approach focuses on what is cultural about biosocial relations.Local biology and the process of embodiment are important considerations for the biocultural approach, and build on three premises: culture and biology exist in an ongoing feedback relationship, the body is a biocultural project in the making that is inextricably linked to place and time, and physical changes in the body are more than the result of gradual adaptations to the environment.', 'Local biology is studied as an expression of human plasticity -the ability of genotypic biology to change its phenotype in response to the environment -and short-and long-term consequences are discussed in terms of adaptability and adaptation.Biocultural oriented medical anthropologists, like their ecosocial epidemiologist colleagues , view humans as embodying the cumulative effect of living in different material, social, and cultural environments throughout their life.', "Embodiment refers to the lived experience of one's body, as well as one's experience of life mediated through the body, as this is influenced by its physical, psychological, social, political, economic, cultural, and technologically mediated environments.", "Opinions range on the relative contributions of biological, sociocultural, genetic, and environmental factors to states of health, but all biocultural oriented medical anthropologists agree that the 'action is in the interaction' -meaning that individual factors are less important than the intersection of them all.", 'Environments of Risk and Risk Subjectivity\n\nMedical anthropologists study the ways in which environments are perceived to be dangerous, whether due to spirits, microbes, endemic and epidemic diseases, physical hazards, natural disasters, or violence.', "They look upstream to political and economic factors that foster environments of risk (see the section 'Political Ecology: Natural versus Cultural Landscapes'), and attention is paid not only to the negative impacts of environmental intrusion, modification, and degradation of local ecosystems, but to the integrity of local cosmologies in cultural contexts where maintaining cosmological relations is central to a sense of well-being.", 'Research focuses on issues that include surveillance and regulation of populations at risk, social and technological strategies to reduce risks, perceptions and experiences of risk exposure (risk subjectivity) that lead to the adoption of riskrelated practices, and social responses to perceptions of being at risk.Medical anthropologists also study risk as a prominent theme found in popular health culture, including ideas about how to mitigate risks to personal health when living in an environment of risk as a means of harm reduction.', 'Citizens of the risk society strive to gain mastery over nature through technology, yet increasingly recognize that tangible risks occur as local and global environments are modified by this very technology.', 'Citizens of the risk society are subjected to increased exposure to information about risk in media environments, even though these risks are often uncertain, their impacts unknown, and future consequences unknowable.', 'Medical anthropologists are becoming more interested in studying risk information environments and what sources of information about risk and which spokespeople are trustworthy.', "They are also becoming more attentive to the ways in which information about risk can actually place populations at greater risk depending on how segments of the population respond to this information -be it hypervigilance, disinterest, or fatalism.Finally, medical anthropologists have pushed for greater recognition of environments of risk as a counterbalance to public health's preoccupation with risk factors, groups at risk, and the study of risky behavior.", 'These foci of investigation unintentionally lead to victim blaming when the local environment context is not taken into account.', 'Particular environments predispose types of risky behavior and contribute to the maldistribution of ill health and groups at greater risk.', 'Space and Place, Memory, and Experience\n\nThe concept of place as physical space predisposed to particular types of human interaction contributes to the anthropological investigation of environments of risk.', 'Other examples include policies in the United States that restrict access to health programs or benefits, or lead to the closing of unprofitable clinics in impoverished neighborhoods.Structural violence creates environments of health and health care risk.', '), medical anthropologists study both the short-and longterm impacts of structural violence, as cumulative effects of unhealthy environments may take years to manifest in higher rates of chronic disease among marginalized populations.', 'Medical anthropologists study individual and environmental effects of these states of anomie, and the social institutions to which people turn as sources of resilience and social revitalization.', 'Syndemics\n\nA disease syndemic framework is used to study concurrent and synergistic health problems linked to common antecedent and contributing factors in environments of risk.', 'Attention is drawn to both causal factors and reciprocal relationships that lead to correlations between patterns of disease incidence and social or economic variables, although recently, more emphasis has been placed on environmental variables as well (see below).', 'Some examples of syndemics that are of interest to medical anthropologists include the interrelated problems of drug abuse, violence, tuberculosis (TB) and human immunodeficiency virus (HIV)/acquired immune deficiency syndrome (AIDS) in North American inner cities; or the increasing proportion of overweight residents of the United States, and the linked diseases such as diabetes, hypertension, and heart disease.These examples focus on the built/urban environment and the conditions that result from the interaction between disease assemblages and social factors that shape their impact and distribution.', 'More recently, attention has been focused on human-animal interactions, especially as zoonotic diseases such as SARS or influenza (both avian and swine) encourage a consideration of the transmission of microbes/viruses back and forth between humans and animals, and the environmental factors such as deforestation, environmental degradation, or habitat fragmentation that may increase the potential for zoonotic jumps.', 'A syndemic framework applied to zoonoses and human-animal interactions points in a more complex direction, encouraging a consideration of not only the consequences of habitat encroachment or environmental degradation in specific cases or regions, but the largescale practices such as industrial farming, monoculture agriculture, or deforestation as part of a larger global problem, since individual practices or events cannot be isolated from the larger impacts of the human footprint on both local and global environments.', "The 'one-health' approach to human-animal interactions, and global environmental health more broadly, emphasizes the synergistic relationships that the syndemic framework suggests, integrating them at multiple scales, from the global to the local, and in multiple nested contexts, including socioeconomic, political, and environmental.", 'The extent and speed of this exchange means that the plight of a community or the goals of a local environmental group can be communicated almost as fast (or faster!)', 'across the globe as it can to the next town, and new social groupings of individuals coalesce around shared environmental experiences and mutual advocacy interests.', 'Medical anthropologists are interested in how such groups (ranging from NGOs to patient advocate and environmental health groups) are formed and mobilized as new actors on the global health stage, how their activism is responded to by those in power, and the novel sorts of social organization that result from these novel groupings centered on biosociality.', 'Mediated Environments and Epidemic Fear\n\nIn the global network society, the range and extent of media environments has expanded tremendously, as local media is picked up nationally and internationally, and global health surveillance searches local news stories on the Internet for information about emerging diseases and to filter out rumors from credible leads.', "Media environments also include advertising copy and marketing campaigns, which are often difficult to distinguish from legitimate science in the health-medical field, so that much of the public's information about health and illness is gleaned from information and advertising generated by the pharmaceutical industry, an industry that also influences publications in scientific journals cited in support of their products.", 'Mediated environments at once facilitate the transfer of credible information and foster epidemic fear, which raises concerns over responsible reporting and oversight as well as the need to study how the public understands and responds to news stories and advertisements that inform the public about risk.', 'Analysis of media environments does not assume comprehensive availability of information, but focuses on the myriad forces that affect what information is made available or chosen for dissemination, the global network of media conduits that convey this information, the multiple social contexts that receive this information via official (e.g., politics, news media) and unofficial (e.g., rumor) networks, and the impact these flows of information have on risk perception, epidemic fear, and behavior change.The spread of information about the impending threat of disease can even outpace the spread of the actual disease (e.g., SARS, avian flu), leading the public to either overreact or lose trust in public health warnings, or it can lag behind and fail to report information about diseases that should or would raise concerns in the general population (e.g., TB, HIV/AIDS).', 'Examples such as SARS, avian flu, and most recently the H1N1 swine flu pandemic raise questions about not only the environmental and political ecological contexts that help or hinder the spread of potentially pandemic diseases, but also the speed at which information about these risks can flow and the effect of this information when it reaches populations before actual exposure.', 'The reality is that exposure to pollution, whether industrial, agricultural, or environmental, is anything but egalitarian.', 'The end result is a clustering rather than even distribution of pollution and environmental degradation.Social movements arise to fight against both global and local sources of pollution, environmental destruction, and degradation.', 'They are using tools increasingly at their disposal to communicate with scientists, environmental activists, policy makers in other places, and so on, and taking wellinformed proactive stances against politics and business as usual.', 'Medical anthropologists study popular forms of social empowerment and local responses to environmental and occupational health crises.', 'The Tragedy of the Commons\n\nAnthropologists working on environmental health draw on a robust literature that has grown up alongside a discussion of the tragedy of the commons.', 'At a local scale, people develop a relationship with land and the surrounding environment, and the knowledge, ideas, and informational resources embedded within the local cultural and physical landscapes are lost when these landscapes are destroyed or altered by habitat loss, environmental degradation, or pollution.', 'Globally, issues such as loss of biodiversity; cumulative impacts of pollution; the overuse of pesticides, antibiotics, and fertilizers; and widespread environmental modification and degradation all point to potential global impacts.', 'Future Directions for Medical Anthropology\n\nThe following section highlights a few of the research directions presently being pursued by medical anthropologists engaging environmental health as a broad field of inquiry.', 'One such method is participatory geographic information systems (GIS) mapping.', 'When used in conjunction with ethnographic research methods, such mapping permits a better understanding of local perceptions of the distribution of health problems.', 'Local populations are shown maps depicting higher and lower prevalence rates of a focal problem or syndemic, and then asked to participate in problem solving about what factors contribute to the patterns visually shown.', 'The method then layers maps with existing information on who inhabits different places and what is known about the space and the people who inhabit these places.', 'Mapping makes transparent what information health officials are collecting and seeing as risk factors, and allows local populations to interrogate these data and the way it is collected.', 'This is an empowering methodology that does more than simply validate or cross-check epidemiological patterns and distributions of environmental problems.', 'It facilitates community discussion of these patterns, their meaning, and possible solutions.Photo voice is another promising methodology that can be used alone or in conjunction with participatory mapping.', 'Like maps, these visual representations of local places foster community dialogue and a grounding of discussion in the lifeworld of participants.', 'Representations\n\nIn addition to studying the physical environment and its occupants, medical anthropologists have been focusing on the representations of environments by stakeholders who have differing agendas when representing spaces and the people who inhabit them.', 'By broadening analytical focus beyond physical and material landscapes to include ideological, representational, and perceptual landscapes, medical anthropologists have been attempting to capture the dynamic interplay between (1) political representations of environments of risk; (2) media representations as influenced by local, national, and international information streams; (3) public health representations; and (4) community-and NGO-based representations.', 'The issue is how various representations of the environment and environmental health problems are associated with the politics of responsibility, and how these politics play out in health policy.', 'For example, much research on emerging and reemerging infectious disease centers on the epidemiology of these diseases, and environmental and behavioral factors that are thought to catalyze their emergence or facilitate their spread.', 'The Consumer Environment\n\nThere is a great need for medical anthropologists to study ways in which patterns of consumption affect human biology, ecology, and the epidemiology of emerging and reemerging diseases.', 'Patterns of consumption create environments of risk through pollution (air, water, garbage disposal), increases in traffic fatalities (road congestion, alcohol consumption, cell phone use while driving), new breeding sites for disease vectors (tires, plastic containers), and breeding grounds for violence (availability of firearms, illegal drugs, etc.).', 'On a structural level, poor planning of urban environments encourages unhealthy consumption habits.', 'The proliferation of advertising of fast food, liquor, and cigarettes in spaces inhabited by the poor predisposes them to lifestyle illnesses.Living in environments of risk and engaging in unhealthy consumption habits also drives a second type of consumption behavior associated with harm reduction.', 'Medical anthropologists are presently studying both how individuals exposed to environments of risk attempt to protect themselves, and how an emphasis on self-care averts attention from the consequences of unhealthy living spaces and hazardous work environments.', 'To what extent does this reduce pressure to alter these unhealthy environments?', 'Many environmental problems are global in nature, but some countries exacerbate them more than others through activities that promote global warming, pesticide overuse, deforestation, or loss of biodiversity.', 'They have called for ethnographies of the technologies of governance as a much-needed part of anthropology of emerging health policy in a global health environment.', 'Social Movements, NGOs, and Global Environmental Health\n\nThe emergence of social movements and NGOs in response to both acute environmental health crises and chronic environmental health problems is of considerable interest to medical anthropologists.', 'They are further interested in how non-state actors (i.e., foundations, NGOs, advocacy, and professional groups) at once advance a global health agenda and present a problem for the coordination and oversight of health activities in a rapidly changing health care environment.', 'Medical anthropologists have become interested in studying not just groups at risk, but positive deviance groups or individuals that fare better than expected in a difficult situation or harsh environment.']</t>
+  </si>
+  <si>
+    <t>['However, this model was only capable of collecting data from 2004 to the present at CHP, while only recent articles are available on Healthmap or Medisys.The remainder of this paper is organized as follows.', 'These meteorological data are available from individual weather stations at hourly or multi-hour resolutions.', 'Some organizations such as Healthmap, Medisys, and the Centre for Health Protection publish news or reports about all kinds of international infectious disease, particularly about disease outbreaks and/or notifications.', 'However, as mentioned earlier, Healthmap and Medisys serves only the latest articles while Centre for Health Protection serves articles from 2004 to the present.', 'If, because of the essential problem, data is divided by a non-linear hyper plane, mapping input features into a high-dimensional feature space that can be divided by a linear hyperplane may be an appropriate solution.', 'Such mapping can be done by a kernel function.', 'RMSE is a commonly used measure for the difference between the estimated value and the value observed in the actual environment, and can be expressed as Eq.', 'The 20 heat maps shown represent the performance of SVM for 20 different sections.']</t>
+  </si>
+  <si>
+    <t>['map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'mapping', 'map']</t>
+  </si>
+  <si>
+    <t>['mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'environment', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'solution']</t>
+  </si>
+  <si>
+    <t>['environment', 'environment', 'environment', 'mapping', 'map', 'solution', 'map', 'solution', 'environment', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'solution', 'environment', 'environment', 'mapping', 'map', 'mapping', 'map', 'environment', 'mapping', 'map', 'environment', 'map', 'environment', 'environment', 'environment', 'map', 'map', 'map', 'solution', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'solution', 'solution', 'environment', 'environment', 'environment', 'environment', 'mapping', 'map', 'environment', 'mapping', 'map', 'environment', 'mapping', 'map', 'solution', 'solution', 'solution', 'environment', 'environment', 'environment', 'solution', 'map', 'environment', 'environment', 'map', 'environment', 'environment', 'mapping', 'map', 'environment', 'environment', 'environment', 'environment', 'mapping', 'map', 'map', 'environment', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'environment', 'environment', 'environment', 'map', 'environment', 'solution', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'solution', 'mapping', 'map', 'environment', 'mapping', 'map', 'environment', 'environment', 'solution', 'environment', 'solution', 'solution', 'environment', 'solution', 'solution', 'solution', 'solution', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'environment', 'map', 'map', 'mapping', 'map', 'map', 'solution', 'environment', 'map', 'map', 'environment', 'environment', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'environment', 'mapping', 'map', 'mapping', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'map', 'environment', 'environment', 'environment', 'map', 'environment', 'map', 'solution', 'environment', 'solution', 'environment', 'solution', 'map', 'mapping', 'map', 'map', 'solution', 'environment']</t>
+  </si>
+  <si>
+    <t>['map', 'mapping', 'map', 'environment', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'environment', 'map', 'map', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'mapping', 'map']</t>
   </si>
   <si>
     <t>['environment', 'environment', 'environment', 'environment', 'environment', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution', 'solution']</t>
+  </si>
+  <si>
+    <t>['environment', 'environment', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'map', 'map', 'mapping', 'map', 'environment', 'environment', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'solution', 'environment', 'environment']</t>
+  </si>
+  <si>
+    <t>['mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map']</t>
+  </si>
+  <si>
+    <t>['mapping', 'map', 'solution', 'environment', 'solution', 'map', 'solution', 'map', 'solution', 'map', 'solution', 'solution', 'solution', 'solution', 'map', 'map', 'map', 'solution', 'map', 'solution', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'solution', 'map', 'solution', 'environment', 'map', 'map', 'map', 'map', 'map', 'map', 'map', 'environment', 'map', 'map', 'mapping', 'map', 'mapping', 'map', 'mapping', 'map', 'solution', 'solution', 'solution']</t>
+  </si>
+  <si>
+    <t>['environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'mapping', 'map', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'mapping', 'map', 'mapping', 'map', 'map', 'map', 'mapping', 'map', 'environment', 'solution', 'mapping', 'map', 'map', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment', 'environment']</t>
+  </si>
+  <si>
+    <t>['map', 'solution', 'map', 'map', 'solution', 'mapping', 'map', 'mapping', 'map', 'environment', 'map']</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>27260</v>
+        <v>6340</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -642,10 +642,13 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>13054</v>
+        <v>19182</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
@@ -665,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>23334</v>
+        <v>24588</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -691,13 +694,13 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>6340</v>
+        <v>29201</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -717,13 +720,10 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>19182</v>
+        <v>23192</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>6365</v>
+        <v>7585</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -769,10 +769,10 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>24588</v>
+        <v>5332</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -795,10 +795,10 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>29201</v>
+        <v>4553</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -821,13 +821,10 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>26238</v>
+        <v>16472</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -847,10 +844,13 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>23192</v>
+        <v>5624</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
